--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -794,7 +794,7 @@
     </comment>
     <comment authorId="9" ref="A17" shapeId="0">
       <text>
-        <t>Hostname or IP address of the KVM hypervisor where the DNS VM will be instantiated</t>
+        <t>Hostname or IP address of the KVM hypervisor where the NUH VM will be instantiated</t>
       </text>
     </comment>
     <comment authorId="10" ref="A18" shapeId="0">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -794,7 +794,7 @@
     </comment>
     <comment authorId="9" ref="A17" shapeId="0">
       <text>
-        <t>Hostname or IP address of the KVM hypervisor where the DNS VM will be instantiated</t>
+        <t>Hostname or IP address of the KVM hypervisor where the NUH VM will be instantiated</t>
       </text>
     </comment>
     <comment authorId="10" ref="A18" shapeId="0">
@@ -2197,6 +2197,7 @@
   <authors>
     <author>hostname</author>
     <author>vname</author>
+    <author>target_server_type</author>
     <author>target_server</author>
     <author>mgmt_ip</author>
     <author>mgmt_gateway</author>
@@ -2224,65 +2225,70 @@
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
         <t>Hostname or IP address of the KVM hypervisor where the VSR VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A9" shapeId="0">
+    <comment authorId="4" ref="A10" shapeId="0">
       <text>
         <t>IP address to apply to the management interface of the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
+    <comment authorId="5" ref="A11" shapeId="0">
       <text>
         <t>Network gateway of the management network for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
+    <comment authorId="6" ref="A12" shapeId="0">
       <text>
         <t>Management network mask prefix length for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
+    <comment authorId="7" ref="A13" shapeId="0">
       <text>
         <t>Static routes to apply to the management network for the VSR VM (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
+    <comment authorId="8" ref="A14" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="8" ref="A14" shapeId="0">
+    <comment authorId="9" ref="A15" shapeId="0">
       <text>
         <t xml:space="preserve"> (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
+    <comment authorId="10" ref="A17" shapeId="0">
       <text>
         <t>IP address to apply to the system network interface for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
+    <comment authorId="11" ref="A18" shapeId="0">
       <text>
         <t>IP address to apply to the data network interface for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
+    <comment authorId="12" ref="A20" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -9353,7 +9359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9418,81 +9424,81 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Management network</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Management IP Address</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Management Network Mask Prefix Length</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Management Static Route List</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>Management to Hypervisor Bridge</t>
+          <t>Management Static Route List</t>
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
@@ -9505,7 +9511,7 @@
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>Port to Hypervisor Bridges</t>
+          <t>Management to Hypervisor Bridge</t>
         </is>
       </c>
       <c r="B14" s="7" t="n"/>
@@ -9516,29 +9522,29 @@
       <c r="G14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Port to Hypervisor Bridges</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>System and Data IP</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>System IP</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>Data IP</t>
+          <t>System IP</t>
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
@@ -9549,29 +9555,29 @@
       <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Data IP</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>System configuration</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>License File</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>Deploy Configuration File</t>
+          <t>License File</t>
         </is>
       </c>
       <c r="B20" s="7" t="n"/>
@@ -9584,7 +9590,7 @@
     <row r="21">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>Config File Directory</t>
+          <t>Deploy Configuration File</t>
         </is>
       </c>
       <c r="B21" s="7" t="n"/>
@@ -9595,32 +9601,63 @@
       <c r="G21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Config File Directory</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
         <is>
           <t>Credentials set name</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="G23" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="whole"/>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2208,6 +2208,7 @@
     <author>system_ip</author>
     <author>data_ip</author>
     <author>license_file</author>
+    <author>remote_license_file_location</author>
     <author>deploy_cfg_file</author>
     <author>config_file_directory</author>
     <author>credentials_set</author>
@@ -2270,25 +2271,30 @@
     </comment>
     <comment authorId="11" ref="A18" shapeId="0">
       <text>
-        <t>IP address to apply to the data network interface for the VSR VM</t>
+        <t>IP address to apply to the data network interface for the VSR VM. Use format IP Address/Netmask</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
+        <t>Location of the VSR license file</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>Optional location of the VSR license file on the remote ftp or tftp location</t>
+      </text>
+    </comment>
+    <comment authorId="14" ref="A22" shapeId="0">
+      <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
-      <text>
-        <t/>
-      </text>
-    </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -9359,7 +9365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9588,22 +9594,22 @@
       <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>Deploy Configuration File</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Remote License File Location</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="inlineStr">
         <is>
-          <t>Config File Directory</t>
+          <t>Deploy Configuration File</t>
         </is>
       </c>
       <c r="B22" s="7" t="n"/>
@@ -9614,17 +9620,30 @@
       <c r="G22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Config File Directory</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>Credentials set name</t>
         </is>
       </c>
-      <c r="B23" s="9" t="n"/>
-      <c r="C23" s="9" t="n"/>
-      <c r="D23" s="9" t="n"/>
-      <c r="E23" s="9" t="n"/>
-      <c r="F23" s="9" t="n"/>
-      <c r="G23" s="9" t="n"/>
+      <c r="B24" s="9" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="G24" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -343,6 +343,7 @@
     <author>provision_vpc_nsg_wan_subnet_cidr</author>
     <author>provision_vpc_nsg_lan_subnet_cidr</author>
     <author>provision_vpc_private_subnet_cidr</author>
+    <author>deploy_only_nsgv</author>
     <author>proxy_external_ip</author>
     <author>nsg_organization</author>
     <author>nsg_name</author>
@@ -514,110 +515,115 @@
     </comment>
     <comment authorId="29" ref="A39" shapeId="0">
       <text>
-        <t>IP address of the VNSUtil VM or the NUH used as a proxy for the NSGv on AWS [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+        <t>Whether all components are being deployed on AWS or only the NSGv. Only needed when provision_vpc parameters are provided [default: false]</t>
+      </text>
+    </comment>
+    <comment authorId="30" ref="A40" shapeId="0">
+      <text>
+        <t>Externally routable IP address of the VNSUtil VM or the NUH used as a proxy for the NSGv on AWS. Required when deploying only the NSGv on AWS [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped, overrides global setting. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Name of the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Field type to match against for NSGv activation. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Value to match against for NSGv activation. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Enables SSH on NSGv when set. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of the NSG infra profile template on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Name of the NSG infra profile on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Name of the NSG infra profile proxy DNS on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A50" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Allows NSGs using this profile to override SSH access. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A53" shapeId="0">
+    <comment authorId="41" ref="A54" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A54" shapeId="0">
+    <comment authorId="42" ref="A55" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A55" shapeId="0">
+    <comment authorId="43" ref="A56" shapeId="0">
       <text>
         <t>Name of the network port for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>Physical name of the network port for the NSG [default: port1]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="46" ref="A60" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A60" shapeId="0">
+    <comment authorId="47" ref="A61" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A61" shapeId="0">
+    <comment authorId="48" ref="A62" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A62" shapeId="0">
+    <comment authorId="49" ref="A63" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A64" shapeId="0">
+    <comment authorId="50" ref="A65" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A65" shapeId="0">
+    <comment authorId="51" ref="A66" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -2203,6 +2209,7 @@
   <authors>
     <author>hostname</author>
     <author>vname</author>
+    <author>target_server_type</author>
     <author>target_server</author>
     <author>mgmt_ip</author>
     <author>mgmt_gateway</author>
@@ -2213,6 +2220,7 @@
     <author>system_ip</author>
     <author>data_ip</author>
     <author>license_file</author>
+    <author>remote_license_file_location</author>
     <author>deploy_cfg_file</author>
     <author>config_file_directory</author>
     <author>credentials_set</author>
@@ -2230,65 +2238,75 @@
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
         <t>Hostname or IP address of the KVM hypervisor where the VSR VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A9" shapeId="0">
+    <comment authorId="4" ref="A10" shapeId="0">
       <text>
         <t>IP address to apply to the management interface of the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
+    <comment authorId="5" ref="A11" shapeId="0">
       <text>
         <t>Network gateway of the management network for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
+    <comment authorId="6" ref="A12" shapeId="0">
       <text>
         <t>Management network mask prefix length for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
+    <comment authorId="7" ref="A13" shapeId="0">
       <text>
         <t>Static routes to apply to the management network for the VSR VM (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
+    <comment authorId="8" ref="A14" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="8" ref="A14" shapeId="0">
+    <comment authorId="9" ref="A15" shapeId="0">
       <text>
         <t xml:space="preserve"> (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
+    <comment authorId="10" ref="A17" shapeId="0">
       <text>
         <t>IP address to apply to the system network interface for the VSR VM</t>
       </text>
     </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>IP address to apply to the data network interface for the VSR VM</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>IP address to apply to the data network interface for the VSR VM. Use format IP Address/Netmask</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>Location of the VSR license file</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>Optional location of the VSR license file on the remote ftp or tftp location</t>
+      </text>
+    </comment>
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t/>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
-      <text>
-        <t/>
-      </text>
-    </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -4394,7 +4412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4847,7 +4865,7 @@
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>Proxy IP Address</t>
+          <t>Deploy Only NSGv on AWS</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
@@ -4858,29 +4876,29 @@
       <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>Proxy IP Address</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
+      <c r="D40" s="9" t="n"/>
+      <c r="E40" s="9" t="n"/>
+      <c r="F40" s="9" t="n"/>
+      <c r="G40" s="9" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>NSGv Zero-Factor Bootstrap</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="8" t="inlineStr">
-        <is>
-          <t>NSG Organization</t>
-        </is>
-      </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>NSG Name</t>
+          <t>NSG Organization</t>
         </is>
       </c>
       <c r="B42" s="9" t="n"/>
@@ -4891,22 +4909,22 @@
       <c r="G42" s="9" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>Activation Matching Type</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="n"/>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>NSG Name</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>Activation Matching Value</t>
+          <t>Activation Matching Type</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -4917,42 +4935,42 @@
       <c r="G44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="8" t="inlineStr">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Activation Matching Value</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="7" t="n"/>
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="7" t="n"/>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="inlineStr">
         <is>
           <t>Enable SSH on NSGv</t>
         </is>
       </c>
-      <c r="B45" s="9" t="n"/>
-      <c r="C45" s="9" t="n"/>
-      <c r="D45" s="9" t="n"/>
-      <c r="E45" s="9" t="n"/>
-      <c r="F45" s="9" t="n"/>
-      <c r="G45" s="9" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="B46" s="9" t="n"/>
+      <c r="C46" s="9" t="n"/>
+      <c r="D46" s="9" t="n"/>
+      <c r="E46" s="9" t="n"/>
+      <c r="F46" s="9" t="n"/>
+      <c r="G46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>NSG Advanced Options</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Template Name</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Name</t>
+          <t>NSG Infra Profile Template Name</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -4965,7 +4983,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
+          <t>NSG Infra Profile Name</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -4978,7 +4996,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>Allow SSH Access Override</t>
+          <t>NSG Infra Profile Proxy DNS Name</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -4989,29 +5007,29 @@
       <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>Allow SSH Access Override</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>VSC Info</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile First Controller</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B53" s="9" t="n"/>
@@ -5024,7 +5042,7 @@
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Second Controller</t>
+          <t>VSC Infra Profile First Controller</t>
         </is>
       </c>
       <c r="B54" s="9" t="n"/>
@@ -5037,7 +5055,7 @@
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Name</t>
+          <t>VSC Infra Profile Second Controller</t>
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
@@ -5048,29 +5066,29 @@
       <c r="G55" s="9" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>NSG Network Port Name</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="9" t="n"/>
+      <c r="F56" s="9" t="n"/>
+      <c r="G56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>Network and Access Ports</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>NSG Network Port Physical Name</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-      <c r="D57" s="9" t="n"/>
-      <c r="E57" s="9" t="n"/>
-      <c r="F57" s="9" t="n"/>
-      <c r="G57" s="9" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port Physical Name</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
@@ -5083,7 +5101,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
@@ -5096,7 +5114,7 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B60" s="9" t="n"/>
@@ -5109,7 +5127,7 @@
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -5120,42 +5138,42 @@
       <c r="G61" s="9" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+      <c r="C62" s="9" t="n"/>
+      <c r="D62" s="9" t="n"/>
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="9" t="n"/>
+      <c r="G62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B62" s="7" t="n"/>
-      <c r="C62" s="7" t="n"/>
-      <c r="D62" s="7" t="n"/>
-      <c r="E62" s="7" t="n"/>
-      <c r="F62" s="7" t="n"/>
-      <c r="G62" s="7" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="inlineStr">
+      <c r="B63" s="7" t="n"/>
+      <c r="C63" s="7" t="n"/>
+      <c r="D63" s="7" t="n"/>
+      <c r="E63" s="7" t="n"/>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="7" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
-      <c r="D64" s="9" t="n"/>
-      <c r="E64" s="9" t="n"/>
-      <c r="F64" s="9" t="n"/>
-      <c r="G64" s="9" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
@@ -5164,6 +5182,19 @@
       <c r="E65" s="9" t="n"/>
       <c r="F65" s="9" t="n"/>
       <c r="G65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="n"/>
+      <c r="C66" s="9" t="n"/>
+      <c r="D66" s="9" t="n"/>
+      <c r="E66" s="9" t="n"/>
+      <c r="F66" s="9" t="n"/>
+      <c r="G66" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5173,13 +5204,13 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="A46:G46"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A56:G56"/>
-    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A64:G64"/>
   </mergeCells>
-  <dataValidations count="48">
+  <dataValidations count="54">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>"kvm,vcenter,aws"</formula1>
     </dataValidation>
@@ -5222,72 +5253,90 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G61" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F64" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G64" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -9372,7 +9421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9437,81 +9486,81 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Management network</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>Management IP Address</t>
         </is>
       </c>
-      <c r="B9" s="7" t="n"/>
-      <c r="C9" s="7" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
-      <c r="G9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Management Network Mask Prefix Length</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Management Static Route List</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>Management to Hypervisor Bridge</t>
+          <t>Management Static Route List</t>
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
@@ -9524,7 +9573,7 @@
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>Port to Hypervisor Bridges</t>
+          <t>Management to Hypervisor Bridge</t>
         </is>
       </c>
       <c r="B14" s="7" t="n"/>
@@ -9535,29 +9584,29 @@
       <c r="G14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Port to Hypervisor Bridges</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>System and Data IP</t>
         </is>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>System IP</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>Data IP</t>
+          <t>System IP</t>
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
@@ -9568,29 +9617,29 @@
       <c r="G17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Data IP</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>System configuration</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>License File</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="inlineStr">
         <is>
-          <t>Deploy Configuration File</t>
+          <t>License File</t>
         </is>
       </c>
       <c r="B20" s="7" t="n"/>
@@ -9601,45 +9650,89 @@
       <c r="G20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Remote License File Location</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>Deploy Configuration File</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>Config File Directory</t>
         </is>
       </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
+      <c r="B23" s="7" t="n"/>
+      <c r="C23" s="7" t="n"/>
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="7" t="n"/>
+      <c r="G23" s="7" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="inlineStr">
         <is>
           <t>Credentials set name</t>
         </is>
       </c>
-      <c r="B22" s="9" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
+      <c r="B24" s="9" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="G24" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="whole"/>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -794,7 +794,7 @@
     </comment>
     <comment authorId="9" ref="A17" shapeId="0">
       <text>
-        <t>Hostname or IP address of the KVM hypervisor where the DNS VM will be instantiated</t>
+        <t>Hostname or IP address of the KVM hypervisor where the NUH VM will be instantiated</t>
       </text>
     </comment>
     <comment authorId="10" ref="A18" shapeId="0">
@@ -1122,6 +1122,7 @@
     <author>vsd_license_file</author>
     <author>vsd_cluster_license_file</author>
     <author>vsd_license_required_days_left</author>
+    <author>vsd_continue_on_license_failure</author>
     <author>vsd_ejabberd_license_file</author>
     <author>portal_license_file</author>
     <author>nuh_license_file</author>
@@ -1436,250 +1437,255 @@
     </comment>
     <comment authorId="52" ref="A68" shapeId="0">
       <text>
+        <t>Continue Metroae execution even after license failure if this is set to true [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="53" ref="A69" shapeId="0">
+      <text>
         <t>Path to the Ejabberd license file for the VSD including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A69" shapeId="0">
+    <comment authorId="54" ref="A70" shapeId="0">
       <text>
         <t>Path to the license file for the SD-WAN Portal including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A70" shapeId="0">
+    <comment authorId="55" ref="A71" shapeId="0">
       <text>
         <t>Path to the license file for the NUH including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A72" shapeId="0">
+    <comment authorId="56" ref="A73" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSD during the installation [default: True]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A73" shapeId="0">
+    <comment authorId="57" ref="A74" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSTAT during the installation [default: False]</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A74" shapeId="0">
+    <comment authorId="58" ref="A75" shapeId="0">
       <text>
         <t>Proxy URL to be used if Yum repositories cannot be directly reached [default: NONE]</t>
       </text>
     </comment>
-    <comment authorId="58" ref="A75" shapeId="0">
+    <comment authorId="59" ref="A76" shapeId="0">
       <text>
         <t>Username of the SSH proxy host if one is used [default: root]</t>
       </text>
     </comment>
-    <comment authorId="59" ref="A76" shapeId="0">
+    <comment authorId="60" ref="A77" shapeId="0">
       <text>
         <t>IP Address or Hostname of the SSH host if one is used [default: sshhost]</t>
       </text>
     </comment>
-    <comment authorId="60" ref="A78" shapeId="0">
+    <comment authorId="61" ref="A79" shapeId="0">
       <text>
         <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="61" ref="A79" shapeId="0">
+    <comment authorId="62" ref="A80" shapeId="0">
       <text>
         <t>Amount of VSC disk space to pre-allocate, in GB. The only valid values are 0 and 1. When undefined or 0, file size allocation will be skipped. Production deployments should set this value to 1. [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="62" ref="A80" shapeId="0">
+    <comment authorId="63" ref="A81" shapeId="0">
       <text>
         <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="63" ref="A81" shapeId="0">
+    <comment authorId="64" ref="A82" shapeId="0">
       <text>
         <t>Amount of Portal disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="65" ref="A83" shapeId="0">
       <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A83" shapeId="0">
+    <comment authorId="66" ref="A84" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A85" shapeId="0">
+    <comment authorId="67" ref="A86" shapeId="0">
       <text>
         <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A86" shapeId="0">
+    <comment authorId="68" ref="A87" shapeId="0">
       <text>
         <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A87" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A89" shapeId="0">
+    <comment authorId="71" ref="A90" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A90" shapeId="0">
+    <comment authorId="72" ref="A91" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A91" shapeId="0">
+    <comment authorId="73" ref="A92" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A93" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Number of CPU's for VSD. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A94" shapeId="0">
+    <comment authorId="75" ref="A95" shapeId="0">
       <text>
         <t>Number of CPU's for VSC. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A95" shapeId="0">
+    <comment authorId="76" ref="A96" shapeId="0">
       <text>
         <t>Number of CPU's for VSTAT. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A96" shapeId="0">
+    <comment authorId="77" ref="A97" shapeId="0">
       <text>
         <t>Number of CPU's for VNSUTIL. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A97" shapeId="0">
+    <comment authorId="78" ref="A98" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A98" shapeId="0">
+    <comment authorId="79" ref="A99" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A99" shapeId="0">
+    <comment authorId="80" ref="A100" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A100" shapeId="0">
+    <comment authorId="81" ref="A101" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A102" shapeId="0">
+    <comment authorId="82" ref="A103" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A103" shapeId="0">
+    <comment authorId="83" ref="A104" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A104" shapeId="0">
+    <comment authorId="84" ref="A105" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A105" shapeId="0">
+    <comment authorId="85" ref="A106" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A107" shapeId="0">
+    <comment authorId="86" ref="A108" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A108" shapeId="0">
+    <comment authorId="87" ref="A109" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A110" shapeId="0">
+    <comment authorId="88" ref="A111" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A111" shapeId="0">
+    <comment authorId="89" ref="A112" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A112" shapeId="0">
+    <comment authorId="90" ref="A113" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A113" shapeId="0">
+    <comment authorId="91" ref="A114" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A115" shapeId="0">
+    <comment authorId="92" ref="A116" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A116" shapeId="0">
+    <comment authorId="93" ref="A117" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A117" shapeId="0">
+    <comment authorId="94" ref="A118" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A118" shapeId="0">
+    <comment authorId="95" ref="A119" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A119" shapeId="0">
+    <comment authorId="96" ref="A120" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A120" shapeId="0">
+    <comment authorId="97" ref="A121" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A121" shapeId="0">
+    <comment authorId="98" ref="A122" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="98" ref="A122" shapeId="0">
+    <comment authorId="99" ref="A123" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="99" ref="A123" shapeId="0">
+    <comment authorId="100" ref="A124" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="100" ref="A124" shapeId="0">
+    <comment authorId="101" ref="A125" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="101" ref="A125" shapeId="0">
+    <comment authorId="102" ref="A126" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
@@ -6735,7 +6741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7298,7 +7304,7 @@
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>VSD Ejabberd License File</t>
+          <t>Continue Metroae execution on VSD license failure</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -7306,7 +7312,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>SD-WAN Portal License File</t>
+          <t>VSD Ejabberd License File</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
@@ -7314,30 +7320,30 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
+          <t>SD-WAN Portal License File</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="inlineStr">
+        <is>
           <t>NUH License File</t>
         </is>
       </c>
-      <c r="B70" s="9" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="B71" s="9" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>Yum and SSH Proxy</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="8" t="inlineStr">
-        <is>
-          <t>VSD yum update</t>
-        </is>
-      </c>
-      <c r="B72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="8" t="inlineStr">
         <is>
-          <t>VSTAT yum update</t>
+          <t>VSD yum update</t>
         </is>
       </c>
       <c r="B73" s="9" t="n"/>
@@ -7345,7 +7351,7 @@
     <row r="74">
       <c r="A74" s="8" t="inlineStr">
         <is>
-          <t>Proxy for Yum Updates</t>
+          <t>VSTAT yum update</t>
         </is>
       </c>
       <c r="B74" s="9" t="n"/>
@@ -7353,7 +7359,7 @@
     <row r="75">
       <c r="A75" s="8" t="inlineStr">
         <is>
-          <t>SSH proxy configuration username</t>
+          <t>Proxy for Yum Updates</t>
         </is>
       </c>
       <c r="B75" s="9" t="n"/>
@@ -7361,30 +7367,30 @@
     <row r="76">
       <c r="A76" s="8" t="inlineStr">
         <is>
+          <t>SSH proxy configuration username</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="inlineStr">
+        <is>
           <t>SSH proxy configuration host</t>
         </is>
       </c>
-      <c r="B76" s="9" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="3" t="inlineStr">
+      <c r="B77" s="9" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>Disk Space</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="8" t="inlineStr">
-        <is>
-          <t>VSD Disk Size</t>
-        </is>
-      </c>
-      <c r="B78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="8" t="inlineStr">
         <is>
-          <t>VSC Disk Size</t>
+          <t>VSD Disk Size</t>
         </is>
       </c>
       <c r="B79" s="9" t="n"/>
@@ -7392,7 +7398,7 @@
     <row r="80">
       <c r="A80" s="8" t="inlineStr">
         <is>
-          <t>VSTAT Disk Size</t>
+          <t>VSC Disk Size</t>
         </is>
       </c>
       <c r="B80" s="9" t="n"/>
@@ -7400,7 +7406,7 @@
     <row r="81">
       <c r="A81" s="8" t="inlineStr">
         <is>
-          <t>Portal Disk Size</t>
+          <t>VSTAT Disk Size</t>
         </is>
       </c>
       <c r="B81" s="9" t="n"/>
@@ -7408,7 +7414,7 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
-          <t>VCIN Disk Size</t>
+          <t>Portal Disk Size</t>
         </is>
       </c>
       <c r="B82" s="9" t="n"/>
@@ -7416,30 +7422,30 @@
     <row r="83">
       <c r="A83" s="8" t="inlineStr">
         <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="inlineStr">
+        <is>
           <t>NSGV Disk Size</t>
         </is>
       </c>
-      <c r="B83" s="9" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="B84" s="9" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>KVM RAM</t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B85" s="9" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC RAM</t>
+          <t>KVM VSD RAM</t>
         </is>
       </c>
       <c r="B86" s="9" t="n"/>
@@ -7447,7 +7453,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT RAM</t>
+          <t>KVM VSC RAM</t>
         </is>
       </c>
       <c r="B87" s="9" t="n"/>
@@ -7455,7 +7461,7 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN RAM</t>
+          <t>KVM VSTAT RAM</t>
         </is>
       </c>
       <c r="B88" s="9" t="n"/>
@@ -7463,7 +7469,7 @@
     <row r="89">
       <c r="A89" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH RAM</t>
+          <t>KVM VCIN RAM</t>
         </is>
       </c>
       <c r="B89" s="9" t="n"/>
@@ -7471,7 +7477,7 @@
     <row r="90">
       <c r="A90" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter RAM</t>
+          <t>KVM NUH RAM</t>
         </is>
       </c>
       <c r="B90" s="9" t="n"/>
@@ -7479,30 +7485,30 @@
     <row r="91">
       <c r="A91" s="8" t="inlineStr">
         <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B91" s="9" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="inlineStr">
+        <is>
           <t>KVM Portal RAM</t>
         </is>
       </c>
-      <c r="B91" s="9" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="3" t="inlineStr">
+      <c r="B92" s="9" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>KVM CPU</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B93" s="9" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="8" t="inlineStr">
         <is>
-          <t>VSC CPU cores</t>
+          <t>KVM VSD CPU cores</t>
         </is>
       </c>
       <c r="B94" s="9" t="n"/>
@@ -7510,7 +7516,7 @@
     <row r="95">
       <c r="A95" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT CPU cores</t>
+          <t>VSC CPU cores</t>
         </is>
       </c>
       <c r="B95" s="9" t="n"/>
@@ -7518,7 +7524,7 @@
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>KVM VNSUTIL CPU cores</t>
+          <t>KVM VSTAT CPU cores</t>
         </is>
       </c>
       <c r="B96" s="9" t="n"/>
@@ -7526,7 +7532,7 @@
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH CPU cores</t>
+          <t>KVM VNSUTIL CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>
@@ -7534,7 +7540,7 @@
     <row r="98">
       <c r="A98" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN CPU cores</t>
+          <t>KVM NUH CPU cores</t>
         </is>
       </c>
       <c r="B98" s="9" t="n"/>
@@ -7542,7 +7548,7 @@
     <row r="99">
       <c r="A99" s="8" t="inlineStr">
         <is>
-          <t>KVM Portal VM CPU cores</t>
+          <t>KVM VCIN CPU cores</t>
         </is>
       </c>
       <c r="B99" s="9" t="n"/>
@@ -7550,30 +7556,30 @@
     <row r="100">
       <c r="A100" s="8" t="inlineStr">
         <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B100" s="9" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="inlineStr">
+        <is>
           <t>KVM Webfilter VM CPU cores</t>
         </is>
       </c>
-      <c r="B100" s="9" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="3" t="inlineStr">
+      <c r="B101" s="9" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>Authentication</t>
         </is>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="8" t="inlineStr">
         <is>
-          <t>VSD Enterprise</t>
+          <t>VSD Architect URL</t>
         </is>
       </c>
       <c r="B103" s="9" t="n"/>
@@ -7581,7 +7587,7 @@
     <row r="104">
       <c r="A104" s="8" t="inlineStr">
         <is>
-          <t>VCIN URL</t>
+          <t>VSD Enterprise</t>
         </is>
       </c>
       <c r="B104" s="9" t="n"/>
@@ -7589,53 +7595,53 @@
     <row r="105">
       <c r="A105" s="8" t="inlineStr">
         <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B105" s="9" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="8" t="inlineStr">
+        <is>
           <t>VCIN Enterprise</t>
         </is>
       </c>
-      <c r="B105" s="9" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="3" t="inlineStr">
+      <c r="B106" s="9" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="inlineStr">
         <is>
           <t>Hooks</t>
         </is>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="8" t="inlineStr">
         <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
           <t>skip actions</t>
         </is>
       </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
+      <c r="B109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
         <is>
           <t>Component Health Report Email Options</t>
         </is>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="8" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server Port</t>
+          <t>Health Report SMTP Server</t>
         </is>
       </c>
       <c r="B111" s="9" t="n"/>
@@ -7643,7 +7649,7 @@
     <row r="112">
       <c r="A112" s="8" t="inlineStr">
         <is>
-          <t>Health Report Email From Address</t>
+          <t>Health Report SMTP Server Port</t>
         </is>
       </c>
       <c r="B112" s="9" t="n"/>
@@ -7651,30 +7657,30 @@
     <row r="113">
       <c r="A113" s="8" t="inlineStr">
         <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B113" s="9" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="8" t="inlineStr">
+        <is>
           <t>Health Report Destination Email Address(es)</t>
         </is>
       </c>
-      <c r="B113" s="9" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="3" t="inlineStr">
+      <c r="B114" s="9" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="inlineStr">
         <is>
           <t>VSD Monit Email Alerts Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Port</t>
+          <t>VSD Monit Mail Server</t>
         </is>
       </c>
       <c r="B116" s="9" t="n"/>
@@ -7682,7 +7688,7 @@
     <row r="117">
       <c r="A117" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
+          <t>VSD Monit Mail Server Port</t>
         </is>
       </c>
       <c r="B117" s="9" t="n"/>
@@ -7690,7 +7696,7 @@
     <row r="118">
       <c r="A118" s="8" t="inlineStr">
         <is>
-          <t>Use VSD Monit Eventqueue</t>
+          <t>VSD Monit Mail Server Encryption Type</t>
         </is>
       </c>
       <c r="B118" s="9" t="n"/>
@@ -7698,7 +7704,7 @@
     <row r="119">
       <c r="A119" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit From Email Address</t>
+          <t>Use VSD Monit Eventqueue</t>
         </is>
       </c>
       <c r="B119" s="9" t="n"/>
@@ -7706,7 +7712,7 @@
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Reply-To Email Address</t>
+          <t>VSD Monit From Email Address</t>
         </is>
       </c>
       <c r="B120" s="9" t="n"/>
@@ -7714,7 +7720,7 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Subject</t>
+          <t>VSD Monit Reply-To Email Address</t>
         </is>
       </c>
       <c r="B121" s="9" t="n"/>
@@ -7722,7 +7728,7 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Message</t>
+          <t>VSD Monit Email Alert Subject</t>
         </is>
       </c>
       <c r="B122" s="9" t="n"/>
@@ -7730,7 +7736,7 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Destination Email Address</t>
+          <t>VSD Monit Email Alert Message</t>
         </is>
       </c>
       <c r="B123" s="9" t="n"/>
@@ -7738,7 +7744,7 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Only Alert On</t>
+          <t>VSD Monit Destination Email Address</t>
         </is>
       </c>
       <c r="B124" s="9" t="n"/>
@@ -7746,10 +7752,18 @@
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
         <is>
+          <t>VSD Monit Only Alert On</t>
+        </is>
+      </c>
+      <c r="B125" s="9" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="8" t="inlineStr">
+        <is>
           <t>VSD Monit Do Not Alert On</t>
         </is>
       </c>
-      <c r="B125" s="9" t="n"/>
+      <c r="B126" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7765,16 +7779,16 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A115:B115"/>
   </mergeCells>
-  <dataValidations count="40">
+  <dataValidations count="41">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -7809,26 +7823,28 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B72" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B78" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B79" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
@@ -7836,9 +7852,10 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B100" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B111" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B116" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B118" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B101" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B112" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -856,6 +856,8 @@
     <author>smtp_secure</author>
     <author>sdwan_portal_secure</author>
     <author>portal_version</author>
+    <author>upgrade_portal</author>
+    <author>portal_upgrade_to_version</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -941,6 +943,16 @@
     <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>Portal version to be pulled from Docker hub [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="17" ref="A26" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to upgrade the SD-WAN Portal(s) [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="18" ref="A27" shapeId="0">
+      <text>
+        <t>Version to upgrade portals to [default: ]</t>
       </text>
     </comment>
   </commentList>
@@ -6016,7 +6028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6303,6 +6315,32 @@
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="7" t="n"/>
     </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade Portal</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal Upgrade Version</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
@@ -6311,7 +6349,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A23:G23"/>
   </mergeCells>
-  <dataValidations count="30">
+  <dataValidations count="36">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -6376,6 +6414,24 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G26" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -857,7 +857,6 @@
     <author>sdwan_portal_secure</author>
     <author>portal_version</author>
     <author>upgrade_portal</author>
-    <author>portal_upgrade_to_version</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -948,11 +947,6 @@
     <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Flag to indicate whether to upgrade the SD-WAN Portal(s) [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
-      <text>
-        <t>Version to upgrade portals to [default: ]</t>
       </text>
     </comment>
   </commentList>
@@ -6028,7 +6022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6327,19 +6321,6 @@
       <c r="E26" s="7" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal Upgrade Version</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -857,6 +857,8 @@
     <author>sdwan_portal_secure</author>
     <author>portal_version</author>
     <author>upgrade_portal</author>
+    <author>skip_portal_db_backup</author>
+    <author>skip_portal_snapshot</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -947,6 +949,16 @@
     <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Flag to indicate whether to upgrade the SD-WAN Portal(s) [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="18" ref="A27" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to backup the SD-WAN Portal database [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="19" ref="A28" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to snapshot the SD-WAN Portal VM prior to upgrade [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -6022,7 +6034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6322,6 +6334,32 @@
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="7" t="n"/>
     </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Skip Portal Database Backup</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+      <c r="C27" s="7" t="n"/>
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="7" t="n"/>
+      <c r="G27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>Skip Portal VM Snapshot</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
+      <c r="C28" s="7" t="n"/>
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="7" t="n"/>
+      <c r="G28" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
@@ -6330,7 +6368,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A23:G23"/>
   </mergeCells>
-  <dataValidations count="36">
+  <dataValidations count="48">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -6413,6 +6451,42 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G26" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G27" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G28" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -856,8 +856,6 @@
     <author>smtp_secure</author>
     <author>sdwan_portal_secure</author>
     <author>portal_version</author>
-    <author>upgrade_portal</author>
-    <author>skip_portal_db_backup</author>
     <author>skip_portal_snapshot</author>
   </authors>
   <commentList>
@@ -947,16 +945,6 @@
       </text>
     </comment>
     <comment authorId="17" ref="A26" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to upgrade the SD-WAN Portal(s) [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="18" ref="A27" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to backup the SD-WAN Portal database [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="19" ref="A28" shapeId="0">
       <text>
         <t>Flag to indicate whether to snapshot the SD-WAN Portal VM prior to upgrade [default: False]</t>
       </text>
@@ -2398,6 +2386,8 @@
     <author>upgrade_to_version</author>
     <author>backup_vsd_host_file</author>
     <author>force_vsc_standalone_upgrade</author>
+    <author>upgrade_portal</author>
+    <author>skip_portal_db_backup</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2423,6 +2413,16 @@
     <comment authorId="4" ref="A9" shapeId="0">
       <text>
         <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A10" shapeId="0">
+      <text>
+        <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A11" shapeId="0">
+      <text>
+        <t>Flag to indicate if the SD-WAN Portal database backup should be skipped [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -6034,7 +6034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6324,7 +6324,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>Upgrade Portal</t>
+          <t>Skip Portal VM Snapshot</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -6333,32 +6333,6 @@
       <c r="E26" s="7" t="n"/>
       <c r="F26" s="7" t="n"/>
       <c r="G26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>Skip Portal Database Backup</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n"/>
-      <c r="C27" s="7" t="n"/>
-      <c r="D27" s="7" t="n"/>
-      <c r="E27" s="7" t="n"/>
-      <c r="F27" s="7" t="n"/>
-      <c r="G27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>Skip Portal VM Snapshot</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="n"/>
-      <c r="C28" s="7" t="n"/>
-      <c r="D28" s="7" t="n"/>
-      <c r="E28" s="7" t="n"/>
-      <c r="F28" s="7" t="n"/>
-      <c r="G28" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6368,7 +6342,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A23:G23"/>
   </mergeCells>
-  <dataValidations count="48">
+  <dataValidations count="36">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -6451,42 +6425,6 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G27" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G28" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10021,7 +9959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10094,15 +10032,37 @@
       </c>
       <c r="B9" s="7" t="n"/>
     </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade SD-WAN Portal(s)</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Skip SD-WAN Portal Database Backup</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2387,7 +2387,6 @@
     <author>backup_vsd_host_file</author>
     <author>force_vsc_standalone_upgrade</author>
     <author>upgrade_portal</author>
-    <author>skip_portal_db_backup</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2418,11 +2417,6 @@
     <comment authorId="5" ref="A10" shapeId="0">
       <text>
         <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A11" shapeId="0">
-      <text>
-        <t>Flag to indicate if the SD-WAN Portal database backup should be skipped [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -9959,7 +9953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10040,19 +10034,11 @@
       </c>
       <c r="B10" s="7" t="n"/>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Skip SD-WAN Portal Database Backup</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -10060,9 +10046,6 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1185,6 +1185,7 @@
     <author>vsd_monit_destination_address</author>
     <author>vsd_monit_alert_only_on</author>
     <author>vsd_monit_alert_not_on</author>
+    <author>vsd_install_inplace_upgrade</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -1700,6 +1701,11 @@
     <comment authorId="102" ref="A126" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
+      </text>
+    </comment>
+    <comment authorId="103" ref="A127" shapeId="0">
+      <text>
+        <t>Allowing VSD in-place upgrade during Installation [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -6809,7 +6815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B126"/>
+  <dimension ref="A1:B127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7832,6 +7838,14 @@
         </is>
       </c>
       <c r="B126" s="9" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VSD In-place upgrade during Install </t>
+        </is>
+      </c>
+      <c r="B127" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -7856,7 +7870,7 @@
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A115:B115"/>
   </mergeCells>
-  <dataValidations count="41">
+  <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -7924,6 +7938,9 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B112" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B127" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -343,6 +343,8 @@
     <author>provision_vpc_nsg_wan_subnet_cidr</author>
     <author>provision_vpc_nsg_lan_subnet_cidr</author>
     <author>provision_vpc_private_subnet_cidr</author>
+    <author>deploy_only_nsgv</author>
+    <author>proxy_external_ip</author>
     <author>nsg_organization</author>
     <author>nsg_name</author>
     <author>match_type</author>
@@ -511,107 +513,117 @@
         <t>Private Subnet CIDR for provisioning a VPC for the NSGv on AWS [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A40" shapeId="0">
+    <comment authorId="29" ref="A39" shapeId="0">
+      <text>
+        <t>Whether all components are being deployed on AWS or only the NSGv. Only needed when provision_vpc parameters are provided [default: false]</t>
+      </text>
+    </comment>
+    <comment authorId="30" ref="A40" shapeId="0">
+      <text>
+        <t>Externally routable IP address of the VNSUtil VM or the NUH used as a proxy for the NSGv on AWS. Required when deploying only the NSGv on AWS [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Organization on the VSD to associate with the NSG being bootstrapped, overrides global setting. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Name of the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Field type to match against for NSGv activation. [default: none]</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Value to match against for NSGv activation. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Enables SSH on NSGv when set. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of the NSG infra profile template on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Name of the NSG infra profile on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Name of the NSG infra profile proxy DNS on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Allows NSGs using this profile to override SSH access. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A51" shapeId="0">
+    <comment authorId="40" ref="A53" shapeId="0">
       <text>
         <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A52" shapeId="0">
+    <comment authorId="41" ref="A54" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A53" shapeId="0">
+    <comment authorId="42" ref="A55" shapeId="0">
       <text>
         <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A54" shapeId="0">
+    <comment authorId="43" ref="A56" shapeId="0">
       <text>
         <t>Name of the network port for the NSG [default: ]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A56" shapeId="0">
+    <comment authorId="44" ref="A58" shapeId="0">
       <text>
         <t>Physical name of the network port for the NSG [default: port1]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A57" shapeId="0">
+    <comment authorId="45" ref="A59" shapeId="0">
       <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A58" shapeId="0">
+    <comment authorId="46" ref="A60" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A59" shapeId="0">
+    <comment authorId="47" ref="A61" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A60" shapeId="0">
+    <comment authorId="48" ref="A62" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A61" shapeId="0">
+    <comment authorId="49" ref="A63" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A63" shapeId="0">
+    <comment authorId="50" ref="A65" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A64" shapeId="0">
+    <comment authorId="51" ref="A66" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -856,7 +868,6 @@
     <author>smtp_secure</author>
     <author>sdwan_portal_secure</author>
     <author>portal_version</author>
-    <author>skip_portal_snapshot</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -942,11 +953,6 @@
     <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>Portal version to be pulled from Docker hub [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to snapshot the SD-WAN Portal VM prior to upgrade [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -4418,7 +4424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4869,16 +4875,22 @@
       <c r="G38" s="9" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>NSGv Zero-Factor Bootstrap</t>
-        </is>
-      </c>
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>Deploy Only NSGv on AWS</t>
+        </is>
+      </c>
+      <c r="B39" s="9" t="n"/>
+      <c r="C39" s="9" t="n"/>
+      <c r="D39" s="9" t="n"/>
+      <c r="E39" s="9" t="n"/>
+      <c r="F39" s="9" t="n"/>
+      <c r="G39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="8" t="inlineStr">
         <is>
-          <t>NSG Organization</t>
+          <t>Proxy IP Address</t>
         </is>
       </c>
       <c r="B40" s="9" t="n"/>
@@ -4889,68 +4901,68 @@
       <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="8" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>NSGv Zero-Factor Bootstrap</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="inlineStr">
+        <is>
+          <t>NSG Organization</t>
+        </is>
+      </c>
+      <c r="B42" s="9" t="n"/>
+      <c r="C42" s="9" t="n"/>
+      <c r="D42" s="9" t="n"/>
+      <c r="E42" s="9" t="n"/>
+      <c r="F42" s="9" t="n"/>
+      <c r="G42" s="9" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="8" t="inlineStr">
         <is>
           <t>NSG Name</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
+      <c r="D43" s="9" t="n"/>
+      <c r="E43" s="9" t="n"/>
+      <c r="F43" s="9" t="n"/>
+      <c r="G43" s="9" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
         <is>
           <t>Activation Matching Type</t>
         </is>
       </c>
-      <c r="B42" s="7" t="n"/>
-      <c r="C42" s="7" t="n"/>
-      <c r="D42" s="7" t="n"/>
-      <c r="E42" s="7" t="n"/>
-      <c r="F42" s="7" t="n"/>
-      <c r="G42" s="7" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
+      <c r="B44" s="7" t="n"/>
+      <c r="C44" s="7" t="n"/>
+      <c r="D44" s="7" t="n"/>
+      <c r="E44" s="7" t="n"/>
+      <c r="F44" s="7" t="n"/>
+      <c r="G44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>Activation Matching Value</t>
         </is>
       </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="n"/>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="8" t="inlineStr">
-        <is>
-          <t>Enable SSH on NSGv</t>
-        </is>
-      </c>
-      <c r="B44" s="9" t="n"/>
-      <c r="C44" s="9" t="n"/>
-      <c r="D44" s="9" t="n"/>
-      <c r="E44" s="9" t="n"/>
-      <c r="F44" s="9" t="n"/>
-      <c r="G44" s="9" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>NSG Advanced Options</t>
-        </is>
-      </c>
+      <c r="B45" s="7" t="n"/>
+      <c r="C45" s="7" t="n"/>
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="7" t="n"/>
+      <c r="F45" s="7" t="n"/>
+      <c r="G45" s="7" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Template Name</t>
+          <t>Enable SSH on NSGv</t>
         </is>
       </c>
       <c r="B46" s="9" t="n"/>
@@ -4961,22 +4973,16 @@
       <c r="G46" s="9" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="8" t="inlineStr">
-        <is>
-          <t>NSG Infra Profile Name</t>
-        </is>
-      </c>
-      <c r="B47" s="9" t="n"/>
-      <c r="C47" s="9" t="n"/>
-      <c r="D47" s="9" t="n"/>
-      <c r="E47" s="9" t="n"/>
-      <c r="F47" s="9" t="n"/>
-      <c r="G47" s="9" t="n"/>
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>NSG Advanced Options</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>NSG Infra Profile Proxy DNS Name</t>
+          <t>NSG Infra Profile Template Name</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -4989,7 +4995,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>Allow SSH Access Override</t>
+          <t>NSG Infra Profile Name</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -5000,16 +5006,22 @@
       <c r="G49" s="9" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>VSC Info</t>
-        </is>
-      </c>
+      <c r="A50" s="8" t="inlineStr">
+        <is>
+          <t>NSG Infra Profile Proxy DNS Name</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="n"/>
+      <c r="C50" s="9" t="n"/>
+      <c r="D50" s="9" t="n"/>
+      <c r="E50" s="9" t="n"/>
+      <c r="F50" s="9" t="n"/>
+      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Name</t>
+          <t>Allow SSH Access Override</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -5020,22 +5032,16 @@
       <c r="G51" s="9" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="8" t="inlineStr">
-        <is>
-          <t>VSC Infra Profile First Controller</t>
-        </is>
-      </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>VSC Info</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="8" t="inlineStr">
         <is>
-          <t>VSC Infra Profile Second Controller</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B53" s="9" t="n"/>
@@ -5048,7 +5054,7 @@
     <row r="54">
       <c r="A54" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Name</t>
+          <t>VSC Infra Profile First Controller</t>
         </is>
       </c>
       <c r="B54" s="9" t="n"/>
@@ -5059,16 +5065,22 @@
       <c r="G54" s="9" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr">
-        <is>
-          <t>Network and Access Ports</t>
-        </is>
-      </c>
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile Second Controller</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="n"/>
+      <c r="C55" s="9" t="n"/>
+      <c r="D55" s="9" t="n"/>
+      <c r="E55" s="9" t="n"/>
+      <c r="F55" s="9" t="n"/>
+      <c r="G55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="8" t="inlineStr">
         <is>
-          <t>NSG Network Port Physical Name</t>
+          <t>NSG Network Port Name</t>
         </is>
       </c>
       <c r="B56" s="9" t="n"/>
@@ -5079,22 +5091,16 @@
       <c r="G56" s="9" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>NSG Access Port Name</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-      <c r="D57" s="9" t="n"/>
-      <c r="E57" s="9" t="n"/>
-      <c r="F57" s="9" t="n"/>
-      <c r="G57" s="9" t="n"/>
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>Network and Access Ports</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Network Port Physical Name</t>
         </is>
       </c>
       <c r="B58" s="9" t="n"/>
@@ -5107,7 +5113,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
@@ -5120,7 +5126,7 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B60" s="9" t="n"/>
@@ -5131,50 +5137,76 @@
       <c r="G60" s="9" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Range</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="n"/>
+      <c r="C61" s="9" t="n"/>
+      <c r="D61" s="9" t="n"/>
+      <c r="E61" s="9" t="n"/>
+      <c r="F61" s="9" t="n"/>
+      <c r="G61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+      <c r="C62" s="9" t="n"/>
+      <c r="D62" s="9" t="n"/>
+      <c r="E62" s="9" t="n"/>
+      <c r="F62" s="9" t="n"/>
+      <c r="G62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B61" s="7" t="n"/>
-      <c r="C61" s="7" t="n"/>
-      <c r="D61" s="7" t="n"/>
-      <c r="E61" s="7" t="n"/>
-      <c r="F61" s="7" t="n"/>
-      <c r="G61" s="7" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="B63" s="7" t="n"/>
+      <c r="C63" s="7" t="n"/>
+      <c r="D63" s="7" t="n"/>
+      <c r="E63" s="7" t="n"/>
+      <c r="F63" s="7" t="n"/>
+      <c r="G63" s="7" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
         <is>
           <t>Telnet port for console</t>
         </is>
       </c>
-      <c r="B63" s="9" t="n"/>
-      <c r="C63" s="9" t="n"/>
-      <c r="D63" s="9" t="n"/>
-      <c r="E63" s="9" t="n"/>
-      <c r="F63" s="9" t="n"/>
-      <c r="G63" s="9" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="8" t="inlineStr">
+      <c r="B65" s="9" t="n"/>
+      <c r="C65" s="9" t="n"/>
+      <c r="D65" s="9" t="n"/>
+      <c r="E65" s="9" t="n"/>
+      <c r="F65" s="9" t="n"/>
+      <c r="G65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
         <is>
           <t>Credentials set name</t>
         </is>
       </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
-      <c r="D64" s="9" t="n"/>
-      <c r="E64" s="9" t="n"/>
-      <c r="F64" s="9" t="n"/>
-      <c r="G64" s="9" t="n"/>
+      <c r="B66" s="9" t="n"/>
+      <c r="C66" s="9" t="n"/>
+      <c r="D66" s="9" t="n"/>
+      <c r="E66" s="9" t="n"/>
+      <c r="F66" s="9" t="n"/>
+      <c r="G66" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5184,13 +5216,13 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A62:G62"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A57:G57"/>
+    <mergeCell ref="A64:G64"/>
   </mergeCells>
-  <dataValidations count="48">
+  <dataValidations count="54">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
       <formula1>"kvm,vcenter,aws"</formula1>
     </dataValidation>
@@ -5233,72 +5265,90 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="list">
       <formula1>"none,zfb_metro,zfb_external,activation_link"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G39" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"none,hostname,ip_address,mac_address,nsgateway_id,serial_number,uuid"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G46" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D60" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E60" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F60" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G60" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D63" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E63" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F63" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -6028,7 +6078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6315,19 +6365,6 @@
       <c r="F25" s="7" t="n"/>
       <c r="G25" s="7" t="n"/>
     </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>Skip Portal VM Snapshot</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="n"/>
-      <c r="C26" s="7" t="n"/>
-      <c r="D26" s="7" t="n"/>
-      <c r="E26" s="7" t="n"/>
-      <c r="F26" s="7" t="n"/>
-      <c r="G26" s="7" t="n"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
@@ -6336,7 +6373,7 @@
     <mergeCell ref="A19:G19"/>
     <mergeCell ref="A23:G23"/>
   </mergeCells>
-  <dataValidations count="36">
+  <dataValidations count="30">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -6401,24 +6438,6 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F26" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G26" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2397,6 +2397,7 @@
     <author>upgrade_from_version</author>
     <author>upgrade_to_version</author>
     <author>backup_vsd_host_file</author>
+    <author>skip_disable_stats_collection</author>
     <author>force_vsc_standalone_upgrade</author>
     <author>upgrade_portal</author>
   </authors>
@@ -2423,10 +2424,15 @@
     </comment>
     <comment authorId="4" ref="A9" shapeId="0">
       <text>
+        <t>Stats collection should be disabled during VSD upgrade. If for some reason, you would like to disable stats collection outside of MetroAE, change this to true. [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A10" shapeId="0">
+      <text>
         <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs [default: False]</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A10" shapeId="0">
+    <comment authorId="6" ref="A11" shapeId="0">
       <text>
         <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
       </text>
@@ -9989,7 +9995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10055,26 +10061,34 @@
       <c r="B8" s="9" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Force vscs standalone</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n"/>
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Skip stats collection disable before upgrade</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
+          <t>Force vscs standalone</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
           <t>Upgrade SD-WAN Portal(s)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -10082,6 +10096,9 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -440,7 +440,7 @@
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
       <text>
-        <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
+        <t>Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
     <comment authorId="15" ref="A23" shapeId="0">
@@ -1360,7 +1360,7 @@
     </comment>
     <comment authorId="34" ref="A46" shapeId="0">
       <text>
-        <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components. Can be overridden by individual components</t>
+        <t>Reference to the host on the vCenter cluster on which to deploy Nuage components. Can be overridden by individual components</t>
       </text>
     </comment>
     <comment authorId="35" ref="A47" shapeId="0">
@@ -1385,7 +1385,7 @@
     </comment>
     <comment authorId="39" ref="A52" shapeId="0">
       <text>
-        <t>This is the full path to the vCenter OVFtool executable. When running metroae from a clone of the nuage-metroae repo, this should be set to the path to ovftool on the host, usually /usr/bin/ovftool. When running the metroae Docker container, the ovftool installation directory, /usr/lib/vmware-ovftool, must be copied to the metroae_data directory and this parameter must be set to the internal container path to the ovftool in that directory, /data/vmware-ovftool/ovftool. [default: /usr/bin/ovftool]</t>
+        <t>Note: OVFtool no longer required. Will be depricated in a future release. This is the full path to the vCenter OVFtool executable. When running metroae from a clone of the nuage-metroae repo, this should be set to the path to ovftool on the host, usually /usr/bin/ovftool. When running the metroae Docker container, the ovftool installation directory, /usr/lib/vmware-ovftool, must be copied to the metroae_data directory and this parameter must be set to the internal container path to the ovftool in that directory, /data/vmware-ovftool/ovftool. [default: /usr/bin/ovftool]</t>
       </text>
     </comment>
     <comment authorId="40" ref="A53" shapeId="0">
@@ -2031,7 +2031,7 @@
     </comment>
     <comment authorId="17" ref="A27" shapeId="0">
       <text>
-        <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
+        <t>Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
     <comment authorId="18" ref="A28" shapeId="0">
@@ -2543,7 +2543,7 @@
     </comment>
     <comment authorId="11" ref="A18" shapeId="0">
       <text>
-        <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
+        <t>Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A19" shapeId="0">
@@ -2885,7 +2885,7 @@
     </comment>
     <comment authorId="26" ref="A36" shapeId="0">
       <text>
-        <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
+        <t>Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
     <comment authorId="27" ref="A37" shapeId="0">
@@ -3154,7 +3154,7 @@
     </comment>
     <comment authorId="12" ref="A19" shapeId="0">
       <text>
-        <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
+        <t>Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
     <comment authorId="13" ref="A20" shapeId="0">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1560,7 +1560,7 @@
     </comment>
     <comment authorId="74" ref="A94" shapeId="0">
       <text>
-        <t>Number of CPU's for VSD. Valid only for KVM deployments [default: 6]</t>
+        <t>Number of CPU's for VSD. Valid only for KVM and VCenter deployments [default: 6]</t>
       </text>
     </comment>
     <comment authorId="75" ref="A95" shapeId="0">
@@ -7594,7 +7594,7 @@
     <row r="94">
       <c r="A94" s="8" t="inlineStr">
         <is>
-          <t>KVM VSD CPU cores</t>
+          <t>VSD CPU cores</t>
         </is>
       </c>
       <c r="B94" s="9" t="n"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1525,7 +1525,7 @@
     </comment>
     <comment authorId="67" ref="A86" shapeId="0">
       <text>
-        <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
+        <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
     <comment authorId="68" ref="A87" shapeId="0">
@@ -7531,7 +7531,7 @@
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>KVM VSD RAM</t>
+          <t>VSD RAM</t>
         </is>
       </c>
       <c r="B86" s="9" t="n"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1530,17 +1530,17 @@
     </comment>
     <comment authorId="68" ref="A87" shapeId="0">
       <text>
-        <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
+        <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
     <comment authorId="69" ref="A88" shapeId="0">
       <text>
-        <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
+        <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
     <comment authorId="70" ref="A89" shapeId="0">
       <text>
-        <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
+        <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
     <comment authorId="71" ref="A90" shapeId="0">
@@ -1565,17 +1565,17 @@
     </comment>
     <comment authorId="75" ref="A95" shapeId="0">
       <text>
-        <t>Number of CPU's for VSC. Valid only for KVM deployments [default: 6]</t>
+        <t>Number of CPU's for VSC. Valid only for KVM and VCenter deployments [default: 6]</t>
       </text>
     </comment>
     <comment authorId="76" ref="A96" shapeId="0">
       <text>
-        <t>Number of CPU's for VSTAT. Valid only for KVM deployments [default: 6]</t>
+        <t>Number of CPU's for VSTAT. Valid only for KVM and VCenter deployments [default: 6]</t>
       </text>
     </comment>
     <comment authorId="77" ref="A97" shapeId="0">
       <text>
-        <t>Number of CPU's for VNSUTIL. Valid only for KVM deployments [default: 2]</t>
+        <t>Number of CPU's for VNSUTIL. Valid only for KVM and VCenter deployments [default: 2]</t>
       </text>
     </comment>
     <comment authorId="78" ref="A98" shapeId="0">
@@ -1585,7 +1585,7 @@
     </comment>
     <comment authorId="79" ref="A99" shapeId="0">
       <text>
-        <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
+        <t>Number of CPU's for VCIN. Valid only for KVM and VCenter deployments [default: 6]</t>
       </text>
     </comment>
     <comment authorId="80" ref="A100" shapeId="0">
@@ -7539,7 +7539,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC RAM</t>
+          <t>VSC RAM</t>
         </is>
       </c>
       <c r="B87" s="9" t="n"/>
@@ -7547,7 +7547,7 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT RAM</t>
+          <t>VSTAT RAM</t>
         </is>
       </c>
       <c r="B88" s="9" t="n"/>
@@ -7555,7 +7555,7 @@
     <row r="89">
       <c r="A89" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN RAM</t>
+          <t>VCIN RAM</t>
         </is>
       </c>
       <c r="B89" s="9" t="n"/>
@@ -7579,7 +7579,7 @@
     <row r="92">
       <c r="A92" s="8" t="inlineStr">
         <is>
-          <t>KVM Portal RAM</t>
+          <t>Portal RAM</t>
         </is>
       </c>
       <c r="B92" s="9" t="n"/>
@@ -7610,7 +7610,7 @@
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT CPU cores</t>
+          <t>VSTAT CPU cores</t>
         </is>
       </c>
       <c r="B96" s="9" t="n"/>
@@ -7618,7 +7618,7 @@
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>KVM VNSUTIL CPU cores</t>
+          <t>VNSUTIL CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>
@@ -7634,7 +7634,7 @@
     <row r="99">
       <c r="A99" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN CPU cores</t>
+          <t>VCIN CPU cores</t>
         </is>
       </c>
       <c r="B99" s="9" t="n"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -7579,7 +7579,7 @@
     <row r="92">
       <c r="A92" s="8" t="inlineStr">
         <is>
-          <t>Portal RAM</t>
+          <t>KVM Portal RAM</t>
         </is>
       </c>
       <c r="B92" s="9" t="n"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1560,22 +1560,22 @@
     </comment>
     <comment authorId="74" ref="A94" shapeId="0">
       <text>
-        <t>Number of CPU's for VSD. Valid only for KVM deployments [default: 6]</t>
+        <t>Number of CPU's for VSD. Valid only for KVM and VCenter deployments [default: 6]</t>
       </text>
     </comment>
     <comment authorId="75" ref="A95" shapeId="0">
       <text>
-        <t>Number of CPU's for VSC. Valid only for KVM deployments [default: 6]</t>
+        <t>Number of CPU's for VSC. Valid only for KVM and VCenter deployments [default: 6]</t>
       </text>
     </comment>
     <comment authorId="76" ref="A96" shapeId="0">
       <text>
-        <t>Number of CPU's for VSTAT. Valid only for KVM deployments [default: 6]</t>
+        <t>Number of CPU's for VSTAT. Valid only for KVM and VCenter deployments [default: 6]</t>
       </text>
     </comment>
     <comment authorId="77" ref="A97" shapeId="0">
       <text>
-        <t>Number of CPU's for VNSUTIL. Valid only for KVM deployments [default: 2]</t>
+        <t>Number of CPU's for VNSUTIL. Valid only for KVM and VCenter deployments [default: 2]</t>
       </text>
     </comment>
     <comment authorId="78" ref="A98" shapeId="0">
@@ -7594,7 +7594,7 @@
     <row r="94">
       <c r="A94" s="8" t="inlineStr">
         <is>
-          <t>KVM VSD CPU cores</t>
+          <t>VSD CPU cores</t>
         </is>
       </c>
       <c r="B94" s="9" t="n"/>
@@ -7610,7 +7610,7 @@
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT CPU cores</t>
+          <t>VSTAT CPU cores</t>
         </is>
       </c>
       <c r="B96" s="9" t="n"/>
@@ -7618,7 +7618,7 @@
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>KVM VNSUTIL CPU cores</t>
+          <t>VNSUTIL CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1525,17 +1525,17 @@
     </comment>
     <comment authorId="67" ref="A86" shapeId="0">
       <text>
-        <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
+        <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
     <comment authorId="68" ref="A87" shapeId="0">
       <text>
-        <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
+        <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
     <comment authorId="69" ref="A88" shapeId="0">
       <text>
-        <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
+        <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
     <comment authorId="70" ref="A89" shapeId="0">
@@ -7531,7 +7531,7 @@
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>KVM VSD RAM</t>
+          <t>VSD RAM</t>
         </is>
       </c>
       <c r="B86" s="9" t="n"/>
@@ -7539,7 +7539,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC RAM</t>
+          <t>VSC RAM</t>
         </is>
       </c>
       <c r="B87" s="9" t="n"/>
@@ -7547,7 +7547,7 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT RAM</t>
+          <t>VSTAT RAM</t>
         </is>
       </c>
       <c r="B88" s="9" t="n"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2459,6 +2459,7 @@
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
     <author>vcenter_host_clusters_folder</author>
+    <author>vcenter_disk_mode</author>
     <author>aws_region</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
@@ -2561,127 +2562,132 @@
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="15" ref="A22" shapeId="0">
+      <text>
+        <t>Disk Provisioning type for vcenter</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Only applicable for AWS deployments</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A24" shapeId="0">
+    <comment authorId="17" ref="A25" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A26" shapeId="0">
       <text>
         <t>AMI VSD ID of the latest VSD release. Used only during an upgrade</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A27" shapeId="0">
       <text>
         <t>Instance Type to be used for a VSD instance</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A28" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to AWS instances</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A28" shapeId="0">
+    <comment authorId="21" ref="A29" shapeId="0">
       <text>
         <t>ENI ID for VSD Instance on Management Subnet</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="25" ref="A34" shapeId="0">
       <text>
         <t>Name of network on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="26" ref="A35" shapeId="0">
       <text>
         <t>Name of subnet on OpenStack for VSD</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="27" ref="A36" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A36" shapeId="0">
+    <comment authorId="28" ref="A37" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A37" shapeId="0">
+    <comment authorId="29" ref="A38" shapeId="0">
       <text>
         <t>Project name for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A38" shapeId="0">
+    <comment authorId="30" ref="A39" shapeId="0">
       <text>
         <t>Keystone URL for OpenStack [default: ]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A40" shapeId="0">
+    <comment authorId="31" ref="A41" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSD requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A41" shapeId="0">
+    <comment authorId="32" ref="A42" shapeId="0">
       <text>
         <t>Lockout the user after reaching the number of failed login attempts</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A42" shapeId="0">
+    <comment authorId="33" ref="A43" shapeId="0">
       <text>
         <t>Lockout time after failed login attemps</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A43" shapeId="0">
+    <comment authorId="34" ref="A44" shapeId="0">
       <text>
         <t>Enables advance API access logging</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A44" shapeId="0">
+    <comment authorId="35" ref="A45" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>Deprecated TLS version to use - always set to 1.2 starting in version 6.*</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="37" ref="A48" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Path to intermediate certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A50" shapeId="0">
       <text>
         <t>Path to certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -3066,6 +3072,7 @@
     <author>vcenter_datastore</author>
     <author>vcenter_vmfolder</author>
     <author>vcenter_host_clusters_folder</author>
+    <author>vcenter_disk_mode</author>
     <author>aws_ami_id</author>
     <author>aws_upgrade_ami_id</author>
     <author>aws_instance_type</author>
@@ -3172,122 +3179,127 @@
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A24" shapeId="0">
+    <comment authorId="16" ref="A23" shapeId="0">
+      <text>
+        <t>Disk Provisioning type for vcenter</t>
+      </text>
+    </comment>
+    <comment authorId="17" ref="A25" shapeId="0">
       <text>
         <t>AMI ID for AWS instance</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A25" shapeId="0">
+    <comment authorId="18" ref="A26" shapeId="0">
       <text>
         <t>AMI ID of the upgraded image</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A26" shapeId="0">
+    <comment authorId="19" ref="A27" shapeId="0">
       <text>
         <t>Instance Type of the AWS Instance</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A27" shapeId="0">
+    <comment authorId="20" ref="A28" shapeId="0">
       <text>
         <t>Name of the Keypair used to connect to VPC</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A28" shapeId="0">
+    <comment authorId="21" ref="A29" shapeId="0">
       <text>
         <t>ENI ID for VSTAT Instance on Management Subnetwork</t>
       </text>
     </comment>
-    <comment authorId="21" ref="A30" shapeId="0">
+    <comment authorId="22" ref="A31" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="22" ref="A31" shapeId="0">
+    <comment authorId="23" ref="A32" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="23" ref="A32" shapeId="0">
+    <comment authorId="24" ref="A33" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="24" ref="A33" shapeId="0">
+    <comment authorId="25" ref="A34" shapeId="0">
       <text>
         <t>Name of network on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A34" shapeId="0">
+    <comment authorId="26" ref="A35" shapeId="0">
       <text>
         <t>Name of subnet on OpenStack for VSTAT</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A35" shapeId="0">
+    <comment authorId="27" ref="A36" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A36" shapeId="0">
+    <comment authorId="28" ref="A37" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="29" ref="A39" shapeId="0">
       <text>
         <t>NFS share for copying vstat backups. For example, NFS share should contain both the ip address and shared volume in this form 1.1.1.1:/nfshare</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="30" ref="A40" shapeId="0">
       <text>
         <t>Interval to restore database snapshots, min value is 0 and max value is 60 minutes [default: 5]</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A40" shapeId="0">
+    <comment authorId="31" ref="A41" shapeId="0">
       <text>
         <t>Interval to create database snapshots, min value is 0 and max value is 60 minutes [default: 5]</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A41" shapeId="0">
+    <comment authorId="32" ref="A42" shapeId="0">
       <text>
         <t>Repository name for storing backups</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="33" ref="A44" shapeId="0">
       <text>
         <t>Add a second disk to separate Elasticsearch data from primary image. Disk is added to path /var/lib/elasticsearch on the VSTAT. Supported on KVM only. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="34" ref="A45" shapeId="0">
       <text>
         <t>Size of the extra disk in GB. Supported on KVM only. [default: 1000]</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="35" ref="A46" shapeId="0">
       <text>
         <t>Path on the hypervisor to store the extra disk image. Supported on KVM only. [default: /var/lib/libvirt/images]</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="36" ref="A47" shapeId="0">
       <text>
         <t>Name of the extra disk image file. Supported on KVM only. [default: extra-disk-(hostname)]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A48" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSTAT requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Enable the setup of the Virtualized Security Services UI [default: False]</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A50" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A51" shapeId="0">
+    <comment authorId="40" ref="A52" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -10113,7 +10125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10493,29 +10505,29 @@
       <c r="G21" s="9" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Disk Provision</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>AWS Region</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n"/>
-      <c r="C23" s="7" t="n"/>
-      <c r="D23" s="7" t="n"/>
-      <c r="E23" s="7" t="n"/>
-      <c r="F23" s="7" t="n"/>
-      <c r="G23" s="7" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="inlineStr">
         <is>
-          <t>AWS VSD AMI ID</t>
+          <t>AWS Region</t>
         </is>
       </c>
       <c r="B24" s="7" t="n"/>
@@ -10528,7 +10540,7 @@
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>Upgrade AWS VSD AMI ID</t>
+          <t>AWS VSD AMI ID</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -10541,7 +10553,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>Upgrade AWS VSD AMI ID</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -10554,7 +10566,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -10567,7 +10579,7 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>AWS Management ENI ID</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
@@ -10578,29 +10590,29 @@
       <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>AWS Management ENI ID</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="7" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -10613,7 +10625,7 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -10626,7 +10638,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -10639,7 +10651,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Subnet</t>
+          <t>OpenStack Network</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -10652,7 +10664,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Subnet</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -10665,7 +10677,7 @@
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
@@ -10678,7 +10690,7 @@
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Project Name</t>
+          <t>OpenStack Port Security Groups</t>
         </is>
       </c>
       <c r="B37" s="7" t="n"/>
@@ -10691,7 +10703,7 @@
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Keystone URL</t>
+          <t>OpenStack Project Name</t>
         </is>
       </c>
       <c r="B38" s="7" t="n"/>
@@ -10702,29 +10714,29 @@
       <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Keystone URL</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="n"/>
+      <c r="C39" s="7" t="n"/>
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="7" t="n"/>
+      <c r="F39" s="7" t="n"/>
+      <c r="G39" s="7" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>VSD Options</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B40" s="9" t="n"/>
-      <c r="C40" s="9" t="n"/>
-      <c r="D40" s="9" t="n"/>
-      <c r="E40" s="9" t="n"/>
-      <c r="F40" s="9" t="n"/>
-      <c r="G40" s="9" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="8" t="inlineStr">
         <is>
-          <t>Failed login attempts</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B41" s="9" t="n"/>
@@ -10737,7 +10749,7 @@
     <row r="42">
       <c r="A42" s="8" t="inlineStr">
         <is>
-          <t>Failed login lockout time</t>
+          <t>Failed login attempts</t>
         </is>
       </c>
       <c r="B42" s="9" t="n"/>
@@ -10750,7 +10762,7 @@
     <row r="43">
       <c r="A43" s="8" t="inlineStr">
         <is>
-          <t>Advanced API Access Logging</t>
+          <t>Failed login lockout time</t>
         </is>
       </c>
       <c r="B43" s="9" t="n"/>
@@ -10763,7 +10775,7 @@
     <row r="44">
       <c r="A44" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>Advanced API Access Logging</t>
         </is>
       </c>
       <c r="B44" s="9" t="n"/>
@@ -10774,29 +10786,29 @@
       <c r="G44" s="9" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" s="8" t="inlineStr">
+        <is>
+          <t>Health monitoring agent</t>
+        </is>
+      </c>
+      <c r="B45" s="9" t="n"/>
+      <c r="C45" s="9" t="n"/>
+      <c r="D45" s="9" t="n"/>
+      <c r="E45" s="9" t="n"/>
+      <c r="F45" s="9" t="n"/>
+      <c r="G45" s="9" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>Security and Certificates</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="8" t="inlineStr">
-        <is>
-          <t>TLS version</t>
-        </is>
-      </c>
-      <c r="B46" s="9" t="n"/>
-      <c r="C46" s="9" t="n"/>
-      <c r="D46" s="9" t="n"/>
-      <c r="E46" s="9" t="n"/>
-      <c r="F46" s="9" t="n"/>
-      <c r="G46" s="9" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="8" t="inlineStr">
         <is>
-          <t>Path to CA certificate pem file</t>
+          <t>TLS version</t>
         </is>
       </c>
       <c r="B47" s="9" t="n"/>
@@ -10809,7 +10821,7 @@
     <row r="48">
       <c r="A48" s="8" t="inlineStr">
         <is>
-          <t>Path to intermediate certificate pem file</t>
+          <t>Path to CA certificate pem file</t>
         </is>
       </c>
       <c r="B48" s="9" t="n"/>
@@ -10822,7 +10834,7 @@
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>Path to certificate pem file</t>
+          <t>Path to intermediate certificate pem file</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -10835,7 +10847,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Path to certificate pem file</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -10845,15 +10857,28 @@
       <c r="F50" s="9" t="n"/>
       <c r="G50" s="9" t="n"/>
     </row>
+    <row r="51">
+      <c r="A51" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B51" s="9" t="n"/>
+      <c r="C51" s="9" t="n"/>
+      <c r="D51" s="9" t="n"/>
+      <c r="E51" s="9" t="n"/>
+      <c r="F51" s="9" t="n"/>
+      <c r="G51" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="A46:G46"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -10880,70 +10905,70 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="list">
       <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G42" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B46" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C46" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D46" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E46" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F46" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G46" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11701,7 +11726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12094,29 +12119,29 @@
       <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Disk Provision</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="G23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>AWS Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>AWS AMI ID</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>AWS AMI ID for Upgrading Instance</t>
+          <t>AWS AMI ID</t>
         </is>
       </c>
       <c r="B25" s="7" t="n"/>
@@ -12129,7 +12154,7 @@
     <row r="26">
       <c r="A26" s="6" t="inlineStr">
         <is>
-          <t>AWS Instance Type</t>
+          <t>AWS AMI ID for Upgrading Instance</t>
         </is>
       </c>
       <c r="B26" s="7" t="n"/>
@@ -12142,7 +12167,7 @@
     <row r="27">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>AWS Keypair Name</t>
+          <t>AWS Instance Type</t>
         </is>
       </c>
       <c r="B27" s="7" t="n"/>
@@ -12155,7 +12180,7 @@
     <row r="28">
       <c r="A28" s="6" t="inlineStr">
         <is>
-          <t>AWS Management ENI ID</t>
+          <t>AWS Keypair Name</t>
         </is>
       </c>
       <c r="B28" s="7" t="n"/>
@@ -12166,29 +12191,29 @@
       <c r="G28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>AWS Management ENI ID</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n"/>
+      <c r="C29" s="7" t="n"/>
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="7" t="n"/>
+      <c r="G29" s="7" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>OpenStack Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="n"/>
-      <c r="C30" s="7" t="n"/>
-      <c r="D30" s="7" t="n"/>
-      <c r="E30" s="7" t="n"/>
-      <c r="F30" s="7" t="n"/>
-      <c r="G30" s="7" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B31" s="7" t="n"/>
@@ -12201,7 +12226,7 @@
     <row r="32">
       <c r="A32" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Availability Zone</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B32" s="7" t="n"/>
@@ -12214,7 +12239,7 @@
     <row r="33">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Network</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B33" s="7" t="n"/>
@@ -12227,7 +12252,7 @@
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Subnet</t>
+          <t>OpenStack Network</t>
         </is>
       </c>
       <c r="B34" s="7" t="n"/>
@@ -12240,7 +12265,7 @@
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Subnet</t>
         </is>
       </c>
       <c r="B35" s="7" t="n"/>
@@ -12253,7 +12278,7 @@
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Port Name</t>
         </is>
       </c>
       <c r="B36" s="7" t="n"/>
@@ -12264,29 +12289,29 @@
       <c r="G36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="inlineStr">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n"/>
+      <c r="C37" s="7" t="n"/>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
+      <c r="F37" s="7" t="n"/>
+      <c r="G37" s="7" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>NFS Backup Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>NFS backup location</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
-      <c r="D38" s="7" t="n"/>
-      <c r="E38" s="7" t="n"/>
-      <c r="F38" s="7" t="n"/>
-      <c r="G38" s="7" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="6" t="inlineStr">
         <is>
-          <t>Interval to restore snapshots</t>
+          <t>NFS backup location</t>
         </is>
       </c>
       <c r="B39" s="7" t="n"/>
@@ -12299,7 +12324,7 @@
     <row r="40">
       <c r="A40" s="6" t="inlineStr">
         <is>
-          <t>Interval to create snapshots</t>
+          <t>Interval to restore snapshots</t>
         </is>
       </c>
       <c r="B40" s="7" t="n"/>
@@ -12312,7 +12337,7 @@
     <row r="41">
       <c r="A41" s="6" t="inlineStr">
         <is>
-          <t>Backup repository name</t>
+          <t>Interval to create snapshots</t>
         </is>
       </c>
       <c r="B41" s="7" t="n"/>
@@ -12323,29 +12348,29 @@
       <c r="G41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Backup repository name</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+      <c r="C42" s="7" t="n"/>
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="7" t="n"/>
+      <c r="F42" s="7" t="n"/>
+      <c r="G42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>Extra Disk</t>
         </is>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>Add extra disk</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
-      <c r="D43" s="7" t="n"/>
-      <c r="E43" s="7" t="n"/>
-      <c r="F43" s="7" t="n"/>
-      <c r="G43" s="7" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="6" t="inlineStr">
         <is>
-          <t>Extra disk size in GB</t>
+          <t>Add extra disk</t>
         </is>
       </c>
       <c r="B44" s="7" t="n"/>
@@ -12358,7 +12383,7 @@
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image path on hypervisor</t>
+          <t>Extra disk size in GB</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -12371,7 +12396,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image file prefix</t>
+          <t>Extra disk image path on hypervisor</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -12382,29 +12407,29 @@
       <c r="G46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>Extra disk image file prefix</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
+      <c r="C47" s="7" t="n"/>
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="7" t="n"/>
+      <c r="F47" s="7" t="n"/>
+      <c r="G47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>Other configuration</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B48" s="9" t="n"/>
-      <c r="C48" s="9" t="n"/>
-      <c r="D48" s="9" t="n"/>
-      <c r="E48" s="9" t="n"/>
-      <c r="F48" s="9" t="n"/>
-      <c r="G48" s="9" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="8" t="inlineStr">
         <is>
-          <t>Enable VSS UI</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B49" s="9" t="n"/>
@@ -12417,7 +12442,7 @@
     <row r="50">
       <c r="A50" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>Enable VSS UI</t>
         </is>
       </c>
       <c r="B50" s="9" t="n"/>
@@ -12430,7 +12455,7 @@
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -12440,16 +12465,29 @@
       <c r="F51" s="9" t="n"/>
       <c r="G51" s="9" t="n"/>
     </row>
+    <row r="52">
+      <c r="A52" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="n"/>
+      <c r="C52" s="9" t="n"/>
+      <c r="D52" s="9" t="n"/>
+      <c r="E52" s="9" t="n"/>
+      <c r="F52" s="9" t="n"/>
+      <c r="G52" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A48:G48"/>
   </mergeCells>
   <dataValidations count="48">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -12476,76 +12514,76 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F39" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G39" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D40" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E40" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F40" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G40" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G43" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B44" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C44" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D44" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E44" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F44" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G44" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B45" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C45" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D45" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B50" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D50" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E50" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F50" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G49" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G50" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2564,7 +2564,7 @@
     </comment>
     <comment authorId="15" ref="A22" shapeId="0">
       <text>
-        <t>Disk Provisioning type for vcenter</t>
+        <t>Disk Provisioning mode for vcenter [default: thin]</t>
       </text>
     </comment>
     <comment authorId="16" ref="A24" shapeId="0">
@@ -3181,7 +3181,7 @@
     </comment>
     <comment authorId="16" ref="A23" shapeId="0">
       <text>
-        <t>Disk Provisioning type for vcenter</t>
+        <t>Disk Provisioning mode for vcenter [default: thin]</t>
       </text>
     </comment>
     <comment authorId="17" ref="A25" shapeId="0">
@@ -10507,7 +10507,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>vCenter Disk Provision</t>
+          <t>vCenter Disk Provision mode</t>
         </is>
       </c>
       <c r="B22" s="9" t="n"/>
@@ -10880,7 +10880,7 @@
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A46:G46"/>
   </mergeCells>
-  <dataValidations count="42">
+  <dataValidations count="48">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -10904,6 +10904,24 @@
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="list">
       <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B42" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C42" type="whole"/>
@@ -12121,7 +12139,7 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>vCenter Disk Provision</t>
+          <t>vCenter Disk Provision mode</t>
         </is>
       </c>
       <c r="B23" s="9" t="n"/>
@@ -12489,7 +12507,7 @@
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A48:G48"/>
   </mergeCells>
-  <dataValidations count="48">
+  <dataValidations count="54">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -12513,6 +12531,24 @@
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B23" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D23" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E23" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F23" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G23" type="list">
+      <formula1>"thin,thick,thick_provisioned_eager_zeroed"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B40" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C40" type="whole"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -7599,7 +7599,7 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>KVM CPU</t>
+          <t>CPU</t>
         </is>
       </c>
     </row>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -663,6 +663,7 @@
     <author>vlan</author>
     <author>external_fqdn</author>
     <author>external_bridge</author>
+    <author>dvswitch_name</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -698,6 +699,11 @@
     <comment authorId="6" ref="A11" shapeId="0">
       <text>
         <t>Network Bridge used for the external network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using access bridge [default: (access bridge)]</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A12" shapeId="0">
+      <text>
+        <t>Name of the distrubuted vSwitch. Required to identify correct distributed portgroup, if there are multiple of the same name.</t>
       </text>
     </comment>
   </commentList>
@@ -750,6 +756,7 @@
     <author>internal_gateway</author>
     <author>external_interface_list</author>
     <author>target_server</author>
+    <author>target_server_type</author>
     <author>timezone</author>
     <author>custom_configuration_file_location</author>
     <author>skip_vsd_installed_check</author>
@@ -757,6 +764,9 @@
     <author>cpuset</author>
     <author>mgmt_bridge</author>
     <author>internal_bridge</author>
+    <author>vcenter_datacenter</author>
+    <author>vcenter_cluster</author>
+    <author>vcenter_datastore</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -811,37 +821,57 @@
     </comment>
     <comment authorId="10" ref="A18" shapeId="0">
       <text>
+        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A19" shapeId="0">
+      <text>
         <t>Timezone of the NUH [default: America/Toronto]</t>
       </text>
     </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
+    <comment authorId="12" ref="A20" shapeId="0">
       <text>
         <t>Optional user specified location of the yaml based configuration file for the NUH. This will replace the default yaml configuration file added by MetroAE</t>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t>Enable this option to install NUH in situations where no VSD is present [default: False]</t>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, NUH requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A24" shapeId="0">
+    <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>Network Bridge used for the management interface on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to the global setting [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Network Bridge used for the internal network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using management bridge [default: (management bridge)]</t>
+      </text>
+    </comment>
+    <comment authorId="18" ref="A28" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datacenter on which the VSD VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="19" ref="A29" shapeId="0">
+      <text>
+        <t>Name of the vCenter Cluster on which the VSD VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="20" ref="A30" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datastore on which the VSD VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
   </commentList>
@@ -5457,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5585,6 +5615,19 @@
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Distributed vSwitch Name</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5746,7 +5789,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5936,22 +5979,22 @@
       <c r="G17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Timezone</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="9" t="n"/>
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="8" t="inlineStr">
         <is>
-          <t>Custom NUH configuration file location</t>
+          <t>Timezone</t>
         </is>
       </c>
       <c r="B19" s="9" t="n"/>
@@ -5964,7 +6007,7 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Skip VSD installed check</t>
+          <t>Custom NUH configuration file location</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -5977,7 +6020,7 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>Skip VSD installed check</t>
         </is>
       </c>
       <c r="B21" s="9" t="n"/>
@@ -5990,7 +6033,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B22" s="9" t="n"/>
@@ -6001,47 +6044,107 @@
       <c r="G22" s="9" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="G23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Bridge details</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>Management Network Bridge</t>
         </is>
       </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
         <is>
           <t>Internal Network Bridge</t>
         </is>
       </c>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="9" t="n"/>
-      <c r="D25" s="9" t="n"/>
-      <c r="E25" s="9" t="n"/>
-      <c r="F25" s="9" t="n"/>
-      <c r="G25" s="9" t="n"/>
+      <c r="B26" s="9" t="n"/>
+      <c r="C26" s="9" t="n"/>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="9" t="n"/>
+      <c r="F26" s="9" t="n"/>
+      <c r="G26" s="9" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n"/>
+      <c r="C28" s="9" t="n"/>
+      <c r="D28" s="9" t="n"/>
+      <c r="E28" s="9" t="n"/>
+      <c r="F28" s="9" t="n"/>
+      <c r="G28" s="9" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n"/>
+      <c r="C29" s="9" t="n"/>
+      <c r="D29" s="9" t="n"/>
+      <c r="E29" s="9" t="n"/>
+      <c r="F29" s="9" t="n"/>
+      <c r="G29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A27:G27"/>
   </mergeCells>
-  <dataValidations count="24">
+  <dataValidations count="30">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
@@ -6054,40 +6157,58 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E20" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -821,7 +821,7 @@
     </comment>
     <comment authorId="10" ref="A18" shapeId="0">
       <text>
-        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy.</t>
+        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy. [default: kvm]</t>
       </text>
     </comment>
     <comment authorId="11" ref="A19" shapeId="0">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4063,7 +4063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4130,12 +4130,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4256,12 +4256,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4438,12 +4438,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5375,12 +5375,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5447,12 +5447,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5605,12 +5605,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5736,12 +5736,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6092,12 +6092,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6466,12 +6466,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6757,12 +6757,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6829,12 +6829,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7969,12 +7969,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8253,12 +8253,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8551,12 +8551,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9208,22 +9208,22 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="list">
-      <formula1>"kvm,vcenter,aws,nuagex,openstack,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B52" type="list">
       <formula1>"none,zabbix"</formula1>
@@ -9245,12 +9245,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9469,12 +9469,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9793,12 +9793,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9997,12 +9997,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10115,12 +10115,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10888,22 +10888,22 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
       <formula1>"thin,thick,eagerZeroedThick"</formula1>
@@ -10991,12 +10991,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11705,10 +11705,10 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B23" type="list">
-      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
-      <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
@@ -11734,12 +11734,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12515,22 +12515,22 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
-      <formula1>"kvm,vcenter,aws,openstack,nuagex,none"</formula1>
+      <formula1>"kvm,vcenter,aws,openstack,none"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B23" type="list">
       <formula1>"thin,thick,eagerZeroedThick"</formula1>
@@ -12624,12 +12624,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13452,12 +13452,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13810,12 +13810,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13915,6 +13915,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2339,6 +2339,8 @@
     <author>target_server_type</author>
     <author>target_server</author>
     <author>cpuset</author>
+    <author>cert_name</author>
+    <author>run_incompass_operation</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2384,6 +2386,16 @@
     <comment authorId="8" ref="A14" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, Webfilter requires 2 cores and sample values will be of the form [1, 2] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Certificate Username</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Run incompass operation command. This is enabled by default and may take up to 20 minutes and requires internet connection. [default: True]</t>
       </text>
     </comment>
   </commentList>
@@ -9803,7 +9815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9965,12 +9977,46 @@
       <c r="F14" s="9" t="n"/>
       <c r="G14" s="9" t="n"/>
     </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Webfilter details</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>Certificate Username</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>Run incompass operation command</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="18">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -9994,6 +10040,24 @@
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="list">
+      <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -758,6 +758,7 @@
     <author>target_server</author>
     <author>target_server_type</author>
     <author>timezone</author>
+    <author>timezone2</author>
     <author>custom_configuration_file_location</author>
     <author>skip_vsd_installed_check</author>
     <author>health_monitoring_agent</author>
@@ -831,45 +832,50 @@
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
+        <t>Timezone of the NUH [default: America/Toronto]</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
         <t>Optional user specified location of the yaml based configuration file for the NUH. This will replace the default yaml configuration file added by MetroAE</t>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t>Enable this option to install NUH in situations where no VSD is present [default: False]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, NUH requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Network Bridge used for the management interface on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to the global setting [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="18" ref="A27" shapeId="0">
       <text>
         <t>Network Bridge used for the internal network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using management bridge [default: (management bridge)]</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A28" shapeId="0">
+    <comment authorId="19" ref="A29" shapeId="0">
       <text>
         <t>Name of the vCenter Datacenter on which the VSD VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A29" shapeId="0">
+    <comment authorId="20" ref="A30" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSD VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A30" shapeId="0">
+    <comment authorId="21" ref="A31" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSD VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
@@ -4093,7 +4099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4160,12 +4166,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4286,12 +4292,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4468,12 +4474,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5405,12 +5411,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5477,12 +5483,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5648,12 +5654,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5779,17 +5785,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6007,7 +6013,7 @@
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Custom NUH configuration file location</t>
+          <t>Timezone 2</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -6020,7 +6026,7 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>Skip VSD installed check</t>
+          <t>Custom NUH configuration file location</t>
         </is>
       </c>
       <c r="B21" s="9" t="n"/>
@@ -6033,7 +6039,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>Skip VSD installed check</t>
         </is>
       </c>
       <c r="B22" s="9" t="n"/>
@@ -6046,7 +6052,7 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B23" s="9" t="n"/>
@@ -6057,62 +6063,62 @@
       <c r="G23" s="9" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="G24" s="9" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Bridge details</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Management Network Bridge</t>
         </is>
       </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>Internal Network Bridge</t>
         </is>
       </c>
-      <c r="B26" s="9" t="n"/>
-      <c r="C26" s="9" t="n"/>
-      <c r="D26" s="9" t="n"/>
-      <c r="E26" s="9" t="n"/>
-      <c r="F26" s="9" t="n"/>
-      <c r="G26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="B27" s="9" t="n"/>
+      <c r="C27" s="9" t="n"/>
+      <c r="D27" s="9" t="n"/>
+      <c r="E27" s="9" t="n"/>
+      <c r="F27" s="9" t="n"/>
+      <c r="G27" s="9" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>vCenter Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n"/>
-      <c r="C28" s="9" t="n"/>
-      <c r="D28" s="9" t="n"/>
-      <c r="E28" s="9" t="n"/>
-      <c r="F28" s="9" t="n"/>
-      <c r="G28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>vCenter Cluster Name</t>
+          <t>vCenter Datacenter Name</t>
         </is>
       </c>
       <c r="B29" s="9" t="n"/>
@@ -6125,7 +6131,7 @@
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datastore Name</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B30" s="9" t="n"/>
@@ -6135,14 +6141,27 @@
       <c r="F30" s="9" t="n"/>
       <c r="G30" s="9" t="n"/>
     </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
+      <c r="D31" s="9" t="n"/>
+      <c r="E31" s="9" t="n"/>
+      <c r="F31" s="9" t="n"/>
+      <c r="G31" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <dataValidations count="30">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
@@ -6175,50 +6194,50 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G18" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6587,12 +6606,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6878,12 +6897,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6950,12 +6969,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8090,12 +8109,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8374,12 +8393,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8672,12 +8691,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9366,12 +9385,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9590,12 +9609,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9914,12 +9933,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10118,12 +10137,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10236,12 +10255,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11112,12 +11131,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11855,12 +11874,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12745,12 +12764,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13573,12 +13592,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13931,12 +13950,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14036,6 +14055,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1555,185 +1555,185 @@
     </comment>
     <comment authorId="67" ref="A86" shapeId="0">
       <text>
-        <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
+        <t>For KVM and VCenter deployments: amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
     <comment authorId="68" ref="A87" shapeId="0">
       <text>
-        <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
+        <t>For KVM and VCenter deployments: amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
     <comment authorId="69" ref="A88" shapeId="0">
       <text>
-        <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
-      </text>
-    </comment>
-    <comment authorId="70" ref="A89" shapeId="0">
+        <t>For KVM and VCenter deployments: amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
+      </text>
+    </comment>
+    <comment authorId="70" ref="A90" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A90" shapeId="0">
+    <comment authorId="71" ref="A91" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A91" shapeId="0">
+    <comment authorId="72" ref="A92" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A92" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A94" shapeId="0">
-      <text>
-        <t>Number of CPU's for VSD. Valid only for KVM and VCenter deployments [default: 6]</t>
-      </text>
-    </comment>
-    <comment authorId="75" ref="A95" shapeId="0">
-      <text>
-        <t>Number of CPU's for VSC. Valid only for KVM and VCenter deployments [default: 6]</t>
-      </text>
-    </comment>
-    <comment authorId="76" ref="A96" shapeId="0">
-      <text>
-        <t>Number of CPU's for VSTAT. Valid only for KVM and VCenter deployments [default: 6]</t>
-      </text>
-    </comment>
-    <comment authorId="77" ref="A97" shapeId="0">
-      <text>
-        <t>Number of CPU's for VNSUTIL. Valid only for KVM and VCenter deployments [default: 2]</t>
-      </text>
-    </comment>
-    <comment authorId="78" ref="A98" shapeId="0">
+    <comment authorId="74" ref="A95" shapeId="0">
+      <text>
+        <t>For KVM and VCenter deployments: number of CPU's for VSD. [default: 6]</t>
+      </text>
+    </comment>
+    <comment authorId="75" ref="A96" shapeId="0">
+      <text>
+        <t>For KVM and VCenter deployments: number of CPU's for VSC. [default: 6]</t>
+      </text>
+    </comment>
+    <comment authorId="76" ref="A97" shapeId="0">
+      <text>
+        <t>For KVM and VCenter deployments: number of CPU's for VSTAT. [default: 6]</t>
+      </text>
+    </comment>
+    <comment authorId="77" ref="A98" shapeId="0">
+      <text>
+        <t>For KVM and VCenter deployments: number of CPU's for VNSUTIL. [default: 2]</t>
+      </text>
+    </comment>
+    <comment authorId="78" ref="A100" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A99" shapeId="0">
+    <comment authorId="79" ref="A101" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A100" shapeId="0">
+    <comment authorId="80" ref="A102" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A101" shapeId="0">
+    <comment authorId="81" ref="A103" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A103" shapeId="0">
+    <comment authorId="82" ref="A105" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A104" shapeId="0">
+    <comment authorId="83" ref="A106" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A105" shapeId="0">
+    <comment authorId="84" ref="A107" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A106" shapeId="0">
+    <comment authorId="85" ref="A108" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A108" shapeId="0">
+    <comment authorId="86" ref="A110" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A109" shapeId="0">
+    <comment authorId="87" ref="A111" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A111" shapeId="0">
+    <comment authorId="88" ref="A113" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A112" shapeId="0">
+    <comment authorId="89" ref="A114" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A113" shapeId="0">
+    <comment authorId="90" ref="A115" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A114" shapeId="0">
+    <comment authorId="91" ref="A116" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A116" shapeId="0">
+    <comment authorId="92" ref="A118" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A117" shapeId="0">
+    <comment authorId="93" ref="A119" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A118" shapeId="0">
+    <comment authorId="94" ref="A120" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A119" shapeId="0">
+    <comment authorId="95" ref="A121" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A120" shapeId="0">
+    <comment authorId="96" ref="A122" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A121" shapeId="0">
+    <comment authorId="97" ref="A123" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="98" ref="A122" shapeId="0">
+    <comment authorId="98" ref="A124" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="99" ref="A123" shapeId="0">
+    <comment authorId="99" ref="A125" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="100" ref="A124" shapeId="0">
+    <comment authorId="100" ref="A126" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="101" ref="A125" shapeId="0">
+    <comment authorId="101" ref="A127" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="102" ref="A126" shapeId="0">
+    <comment authorId="102" ref="A128" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="103" ref="A127" shapeId="0">
+    <comment authorId="103" ref="A129" shapeId="0">
       <text>
         <t>Allowing VSD in-place upgrade during Installation [default: False]</t>
       </text>
@@ -6960,7 +6960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7657,14 +7657,14 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>KVM RAM</t>
+          <t>KVM and VCenter RAM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>VSD RAM</t>
+          <t>KVM VSD RAM</t>
         </is>
       </c>
       <c r="B86" s="9" t="n"/>
@@ -7672,7 +7672,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>VSC RAM</t>
+          <t>KVM VSC RAM</t>
         </is>
       </c>
       <c r="B87" s="9" t="n"/>
@@ -7680,23 +7680,22 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>VSTAT RAM</t>
+          <t>KVM VSTAT RAM</t>
         </is>
       </c>
       <c r="B88" s="9" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN RAM</t>
-        </is>
-      </c>
-      <c r="B89" s="9" t="n"/>
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>KVM RAM</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH RAM</t>
+          <t>KVM VCIN RAM</t>
         </is>
       </c>
       <c r="B90" s="9" t="n"/>
@@ -7704,7 +7703,7 @@
     <row r="91">
       <c r="A91" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter RAM</t>
+          <t>KVM NUH RAM</t>
         </is>
       </c>
       <c r="B91" s="9" t="n"/>
@@ -7712,30 +7711,30 @@
     <row r="92">
       <c r="A92" s="8" t="inlineStr">
         <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="inlineStr">
+        <is>
           <t>KVM Portal RAM</t>
         </is>
       </c>
-      <c r="B92" s="9" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>CPU</t>
-        </is>
-      </c>
+      <c r="B93" s="9" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="inlineStr">
-        <is>
-          <t>VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B94" s="9" t="n"/>
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>KVM and VCenter CPU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="8" t="inlineStr">
         <is>
-          <t>VSC CPU cores</t>
+          <t>KVM VSD CPU cores</t>
         </is>
       </c>
       <c r="B95" s="9" t="n"/>
@@ -7743,7 +7742,7 @@
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>VSTAT CPU cores</t>
+          <t>KVM VSC CPU cores</t>
         </is>
       </c>
       <c r="B96" s="9" t="n"/>
@@ -7751,7 +7750,7 @@
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>VNSUTIL CPU cores</t>
+          <t>KVM VSTAT CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>
@@ -7759,23 +7758,22 @@
     <row r="98">
       <c r="A98" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH CPU cores</t>
+          <t>KVM VNSUTIL CPU cores</t>
         </is>
       </c>
       <c r="B98" s="9" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN CPU cores</t>
-        </is>
-      </c>
-      <c r="B99" s="9" t="n"/>
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>KVM CPU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="8" t="inlineStr">
         <is>
-          <t>KVM Portal VM CPU cores</t>
+          <t>KVM NUH CPU cores</t>
         </is>
       </c>
       <c r="B100" s="9" t="n"/>
@@ -7783,38 +7781,38 @@
     <row r="101">
       <c r="A101" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter VM CPU cores</t>
+          <t>KVM VCIN CPU cores</t>
         </is>
       </c>
       <c r="B101" s="9" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="inlineStr">
-        <is>
-          <t>Authentication</t>
-        </is>
-      </c>
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="8" t="inlineStr">
         <is>
-          <t>VSD Architect URL</t>
+          <t>KVM Webfilter VM CPU cores</t>
         </is>
       </c>
       <c r="B103" s="9" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="8" t="inlineStr">
-        <is>
-          <t>VSD Enterprise</t>
-        </is>
-      </c>
-      <c r="B104" s="9" t="n"/>
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>Authentication</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="8" t="inlineStr">
         <is>
-          <t>VCIN URL</t>
+          <t>VSD Architect URL</t>
         </is>
       </c>
       <c r="B105" s="9" t="n"/>
@@ -7822,61 +7820,61 @@
     <row r="106">
       <c r="A106" s="8" t="inlineStr">
         <is>
-          <t>VCIN Enterprise</t>
+          <t>VSD Enterprise</t>
         </is>
       </c>
       <c r="B106" s="9" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>Hooks</t>
-        </is>
-      </c>
+      <c r="A107" s="8" t="inlineStr">
+        <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="8" t="inlineStr">
         <is>
+          <t>VCIN Enterprise</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>Hooks</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="inlineStr">
+        <is>
           <t>hooks</t>
         </is>
       </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="8" t="inlineStr">
-        <is>
-          <t>skip actions</t>
-        </is>
-      </c>
-      <c r="B109" s="9" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="inlineStr">
-        <is>
-          <t>Component Health Report Email Options</t>
-        </is>
-      </c>
+      <c r="B110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="8" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server</t>
+          <t>skip actions</t>
         </is>
       </c>
       <c r="B111" s="9" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server Port</t>
-        </is>
-      </c>
-      <c r="B112" s="9" t="n"/>
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>Component Health Report Email Options</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="8" t="inlineStr">
         <is>
-          <t>Health Report Email From Address</t>
+          <t>Health Report SMTP Server</t>
         </is>
       </c>
       <c r="B113" s="9" t="n"/>
@@ -7884,38 +7882,38 @@
     <row r="114">
       <c r="A114" s="8" t="inlineStr">
         <is>
-          <t>Health Report Destination Email Address(es)</t>
+          <t>Health Report SMTP Server Port</t>
         </is>
       </c>
       <c r="B114" s="9" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alerts Configuration</t>
-        </is>
-      </c>
+      <c r="A115" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server</t>
+          <t>Health Report Destination Email Address(es)</t>
         </is>
       </c>
       <c r="B116" s="9" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Port</t>
-        </is>
-      </c>
-      <c r="B117" s="9" t="n"/>
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alerts Configuration</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
+          <t>VSD Monit Mail Server</t>
         </is>
       </c>
       <c r="B118" s="9" t="n"/>
@@ -7923,7 +7921,7 @@
     <row r="119">
       <c r="A119" s="8" t="inlineStr">
         <is>
-          <t>Use VSD Monit Eventqueue</t>
+          <t>VSD Monit Mail Server Port</t>
         </is>
       </c>
       <c r="B119" s="9" t="n"/>
@@ -7931,7 +7929,7 @@
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit From Email Address</t>
+          <t>VSD Monit Mail Server Encryption Type</t>
         </is>
       </c>
       <c r="B120" s="9" t="n"/>
@@ -7939,7 +7937,7 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Reply-To Email Address</t>
+          <t>Use VSD Monit Eventqueue</t>
         </is>
       </c>
       <c r="B121" s="9" t="n"/>
@@ -7947,7 +7945,7 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Subject</t>
+          <t>VSD Monit From Email Address</t>
         </is>
       </c>
       <c r="B122" s="9" t="n"/>
@@ -7955,7 +7953,7 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Message</t>
+          <t>VSD Monit Reply-To Email Address</t>
         </is>
       </c>
       <c r="B123" s="9" t="n"/>
@@ -7963,7 +7961,7 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Destination Email Address</t>
+          <t>VSD Monit Email Alert Subject</t>
         </is>
       </c>
       <c r="B124" s="9" t="n"/>
@@ -7971,7 +7969,7 @@
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Only Alert On</t>
+          <t>VSD Monit Email Alert Message</t>
         </is>
       </c>
       <c r="B125" s="9" t="n"/>
@@ -7979,7 +7977,7 @@
     <row r="126">
       <c r="A126" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Do Not Alert On</t>
+          <t>VSD Monit Destination Email Address</t>
         </is>
       </c>
       <c r="B126" s="9" t="n"/>
@@ -7987,13 +7985,29 @@
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
         <is>
+          <t>VSD Monit Only Alert On</t>
+        </is>
+      </c>
+      <c r="B127" s="9" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Do Not Alert On</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="8" t="inlineStr">
+        <is>
           <t xml:space="preserve">VSD In-place upgrade during Install </t>
         </is>
       </c>
-      <c r="B127" s="9" t="n"/>
+      <c r="B129" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A16:B16"/>
@@ -8009,11 +8023,13 @@
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A117:B117"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
@@ -8068,24 +8084,24 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B100" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B101" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B112" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B102" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B103" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B114" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B121" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B127" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B129" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1555,17 +1555,17 @@
     </comment>
     <comment authorId="67" ref="A86" shapeId="0">
       <text>
-        <t>For KVM and VCenter deployments: amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
+        <t>Valid for only KVM and VCenter deployments. Amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
     <comment authorId="68" ref="A87" shapeId="0">
       <text>
-        <t>For KVM and VCenter deployments: amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
+        <t>Valid for only KVM and VCenter deployments: amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
     <comment authorId="69" ref="A88" shapeId="0">
       <text>
-        <t>For KVM and VCenter deployments: amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
+        <t>Valid for only KVM and VCenter deployments: amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
     <comment authorId="70" ref="A90" shapeId="0">
@@ -1590,22 +1590,22 @@
     </comment>
     <comment authorId="74" ref="A95" shapeId="0">
       <text>
-        <t>For KVM and VCenter deployments: number of CPU's for VSD. [default: 6]</t>
+        <t>Valid for only KVM and VCenter deployments: number of CPU's for VSD. [default: 6]</t>
       </text>
     </comment>
     <comment authorId="75" ref="A96" shapeId="0">
       <text>
-        <t>For KVM and VCenter deployments: number of CPU's for VSC. [default: 6]</t>
+        <t>Valid for only KVM and VCenter deployments: number of CPU's for VSC. [default: 6]</t>
       </text>
     </comment>
     <comment authorId="76" ref="A97" shapeId="0">
       <text>
-        <t>For KVM and VCenter deployments: number of CPU's for VSTAT. [default: 6]</t>
+        <t>Valid for only KVM and VCenter deployments: number of CPU's for VSTAT. [default: 6]</t>
       </text>
     </comment>
     <comment authorId="77" ref="A98" shapeId="0">
       <text>
-        <t>For KVM and VCenter deployments: number of CPU's for VNSUTIL. [default: 2]</t>
+        <t>Valid for only KVM and VCenter deployments: number of CPU's for VNSUTIL. [default: 2]</t>
       </text>
     </comment>
     <comment authorId="78" ref="A100" shapeId="0">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1560,12 +1560,12 @@
     </comment>
     <comment authorId="68" ref="A87" shapeId="0">
       <text>
-        <t>Valid for only KVM and VCenter deployments: amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
+        <t>Valid for only KVM and VCenter deployments. Amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
     <comment authorId="69" ref="A88" shapeId="0">
       <text>
-        <t>Valid for only KVM and VCenter deployments: amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
+        <t>Valid for only KVM and VCenter deployments. Amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
     <comment authorId="70" ref="A90" shapeId="0">
@@ -1590,22 +1590,22 @@
     </comment>
     <comment authorId="74" ref="A95" shapeId="0">
       <text>
-        <t>Valid for only KVM and VCenter deployments: number of CPU's for VSD. [default: 6]</t>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSD. [default: 6]</t>
       </text>
     </comment>
     <comment authorId="75" ref="A96" shapeId="0">
       <text>
-        <t>Valid for only KVM and VCenter deployments: number of CPU's for VSC. [default: 6]</t>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSC. [default: 6]</t>
       </text>
     </comment>
     <comment authorId="76" ref="A97" shapeId="0">
       <text>
-        <t>Valid for only KVM and VCenter deployments: number of CPU's for VSTAT. [default: 6]</t>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSTAT. [default: 6]</t>
       </text>
     </comment>
     <comment authorId="77" ref="A98" shapeId="0">
       <text>
-        <t>Valid for only KVM and VCenter deployments: number of CPU's for VNSUTIL. [default: 2]</t>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VNSUTIL. [default: 2]</t>
       </text>
     </comment>
     <comment authorId="78" ref="A100" shapeId="0">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -3121,6 +3121,8 @@
     <author>repo_name</author>
     <author>add_extra_disk</author>
     <author>extra_disk_size_gb</author>
+    <author>extra_disk_device</author>
+    <author>extra_disk_mount_point</author>
     <author>extra_disk_image_path</author>
     <author>extra_disk_image_file_name</author>
     <author>cpuset</author>
@@ -3306,30 +3308,40 @@
     </comment>
     <comment authorId="35" ref="A46" shapeId="0">
       <text>
+        <t>Device for extra disk [default: vdb]</t>
+      </text>
+    </comment>
+    <comment authorId="36" ref="A47" shapeId="0">
+      <text>
+        <t>Mount point for extra disk [default: /var/lib/elasticsearch/]</t>
+      </text>
+    </comment>
+    <comment authorId="37" ref="A48" shapeId="0">
+      <text>
         <t>Path on the hypervisor to store the extra disk image. Supported on KVM only. [default: /var/lib/libvirt/images]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Name of the extra disk image file. Supported on KVM only. [default: extra-disk-(hostname)]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSTAT requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A50" shapeId="0">
+    <comment authorId="40" ref="A52" shapeId="0">
       <text>
         <t>Enable the setup of the Virtualized Security Services UI [default: False]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A53" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A52" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -11881,7 +11893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12551,7 +12563,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image path on hypervisor</t>
+          <t>Extra Disk Device</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -12564,7 +12576,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image file prefix</t>
+          <t>Extra Disk Mount Point</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -12575,42 +12587,42 @@
       <c r="G47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>Extra disk image path on hypervisor</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="n"/>
+      <c r="D48" s="7" t="n"/>
+      <c r="E48" s="7" t="n"/>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>Extra disk image file prefix</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="7" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>Other configuration</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-      <c r="C49" s="9" t="n"/>
-      <c r="D49" s="9" t="n"/>
-      <c r="E49" s="9" t="n"/>
-      <c r="F49" s="9" t="n"/>
-      <c r="G49" s="9" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>Enable VSS UI</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -12623,7 +12635,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Enable VSS UI</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -12632,6 +12644,32 @@
       <c r="E52" s="9" t="n"/>
       <c r="F52" s="9" t="n"/>
       <c r="G52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>Health monitoring agent</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12642,7 +12680,7 @@
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <dataValidations count="54">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -12723,40 +12761,40 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -663,6 +663,7 @@
     <author>vlan</author>
     <author>external_fqdn</author>
     <author>external_bridge</author>
+    <author>dvswitch_name</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -698,6 +699,11 @@
     <comment authorId="6" ref="A11" shapeId="0">
       <text>
         <t>Network Bridge used for the external network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using access bridge [default: (access bridge)]</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A12" shapeId="0">
+      <text>
+        <t>Name of the distrubuted vSwitch. Required to identify correct distributed portgroup, if there are multiple of the same name.</t>
       </text>
     </comment>
   </commentList>
@@ -750,6 +756,7 @@
     <author>internal_gateway</author>
     <author>external_interface_list</author>
     <author>target_server</author>
+    <author>target_server_type</author>
     <author>timezone</author>
     <author>custom_configuration_file_location</author>
     <author>skip_vsd_installed_check</author>
@@ -757,6 +764,9 @@
     <author>cpuset</author>
     <author>mgmt_bridge</author>
     <author>internal_bridge</author>
+    <author>vcenter_datacenter</author>
+    <author>vcenter_cluster</author>
+    <author>vcenter_datastore</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -811,37 +821,57 @@
     </comment>
     <comment authorId="10" ref="A18" shapeId="0">
       <text>
+        <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy. [default: kvm]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A19" shapeId="0">
+      <text>
         <t>Timezone of the NUH [default: America/Toronto]</t>
       </text>
     </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
+    <comment authorId="12" ref="A20" shapeId="0">
       <text>
         <t>Optional user specified location of the yaml based configuration file for the NUH. This will replace the default yaml configuration file added by MetroAE</t>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t>Enable this option to install NUH in situations where no VSD is present [default: False]</t>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, NUH requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A24" shapeId="0">
+    <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>Network Bridge used for the management interface on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to the global setting [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Network Bridge used for the internal network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using management bridge [default: (management bridge)]</t>
+      </text>
+    </comment>
+    <comment authorId="18" ref="A28" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datacenter on which the VSD VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="19" ref="A29" shapeId="0">
+      <text>
+        <t>Name of the vCenter Cluster on which the VSD VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
+      </text>
+    </comment>
+    <comment authorId="20" ref="A30" shapeId="0">
+      <text>
+        <t>Name of the vCenter Datastore on which the VSD VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
   </commentList>
@@ -1525,185 +1555,185 @@
     </comment>
     <comment authorId="67" ref="A86" shapeId="0">
       <text>
-        <t>Amount of VSD RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
+        <t>Valid for only KVM and VCenter deployments. Amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
     <comment authorId="68" ref="A87" shapeId="0">
       <text>
-        <t>Amount of VSC RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
+        <t>Valid for only KVM and VCenter deployments. Amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
     <comment authorId="69" ref="A88" shapeId="0">
       <text>
-        <t>Amount of VSTAT RAM to allocate, in GB. Valid only for KVM and VCenter deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
-      </text>
-    </comment>
-    <comment authorId="70" ref="A89" shapeId="0">
+        <t>Valid for only KVM and VCenter deployments. Amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
+      </text>
+    </comment>
+    <comment authorId="70" ref="A90" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A90" shapeId="0">
+    <comment authorId="71" ref="A91" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A91" shapeId="0">
+    <comment authorId="72" ref="A92" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A92" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A94" shapeId="0">
-      <text>
-        <t>Number of CPU's for VSD. Valid only for KVM and VCenter deployments [default: 6]</t>
-      </text>
-    </comment>
-    <comment authorId="75" ref="A95" shapeId="0">
-      <text>
-        <t>Number of CPU's for VSC. Valid only for KVM and VCenter deployments [default: 6]</t>
-      </text>
-    </comment>
-    <comment authorId="76" ref="A96" shapeId="0">
-      <text>
-        <t>Number of CPU's for VSTAT. Valid only for KVM and VCenter deployments [default: 6]</t>
-      </text>
-    </comment>
-    <comment authorId="77" ref="A97" shapeId="0">
-      <text>
-        <t>Number of CPU's for VNSUTIL. Valid only for KVM and VCenter deployments [default: 2]</t>
-      </text>
-    </comment>
-    <comment authorId="78" ref="A98" shapeId="0">
+    <comment authorId="74" ref="A95" shapeId="0">
+      <text>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSD. [default: 6]</t>
+      </text>
+    </comment>
+    <comment authorId="75" ref="A96" shapeId="0">
+      <text>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSC. [default: 6]</t>
+      </text>
+    </comment>
+    <comment authorId="76" ref="A97" shapeId="0">
+      <text>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSTAT. [default: 6]</t>
+      </text>
+    </comment>
+    <comment authorId="77" ref="A98" shapeId="0">
+      <text>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VNSUTIL. [default: 2]</t>
+      </text>
+    </comment>
+    <comment authorId="78" ref="A100" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A99" shapeId="0">
+    <comment authorId="79" ref="A101" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A100" shapeId="0">
+    <comment authorId="80" ref="A102" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A101" shapeId="0">
+    <comment authorId="81" ref="A103" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A103" shapeId="0">
+    <comment authorId="82" ref="A105" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A104" shapeId="0">
+    <comment authorId="83" ref="A106" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A105" shapeId="0">
+    <comment authorId="84" ref="A107" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A106" shapeId="0">
+    <comment authorId="85" ref="A108" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A108" shapeId="0">
+    <comment authorId="86" ref="A110" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A109" shapeId="0">
+    <comment authorId="87" ref="A111" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A111" shapeId="0">
+    <comment authorId="88" ref="A113" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A112" shapeId="0">
+    <comment authorId="89" ref="A114" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A113" shapeId="0">
+    <comment authorId="90" ref="A115" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A114" shapeId="0">
+    <comment authorId="91" ref="A116" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A116" shapeId="0">
+    <comment authorId="92" ref="A118" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A117" shapeId="0">
+    <comment authorId="93" ref="A119" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A118" shapeId="0">
+    <comment authorId="94" ref="A120" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A119" shapeId="0">
+    <comment authorId="95" ref="A121" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A120" shapeId="0">
+    <comment authorId="96" ref="A122" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A121" shapeId="0">
+    <comment authorId="97" ref="A123" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="98" ref="A122" shapeId="0">
+    <comment authorId="98" ref="A124" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="99" ref="A123" shapeId="0">
+    <comment authorId="99" ref="A125" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="100" ref="A124" shapeId="0">
+    <comment authorId="100" ref="A126" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="101" ref="A125" shapeId="0">
+    <comment authorId="101" ref="A127" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="102" ref="A126" shapeId="0">
+    <comment authorId="102" ref="A128" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="103" ref="A127" shapeId="0">
+    <comment authorId="103" ref="A129" shapeId="0">
       <text>
         <t>Allowing VSD in-place upgrade during Installation [default: False]</t>
       </text>
@@ -4075,7 +4105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4142,12 +4172,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4268,12 +4298,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4450,12 +4480,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5387,12 +5417,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5459,17 +5489,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5597,6 +5627,19 @@
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Distributed vSwitch Name</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5617,12 +5660,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5748,12 +5791,446 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nuage Utility Host VM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Configuration for Nuage Utility Host VM.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Host and VM Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Management Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Management IP address</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>Management IP Prefix Length</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Management Gateway IP</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Network Interfaces</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Internal Network IP address</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Internal Network IP Prefix Length</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Internal Network Gateway IP</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>External interface name list</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Other parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Timezone</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Custom NUH configuration file location</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="inlineStr">
+        <is>
+          <t>Skip VSD installed check</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="n"/>
+      <c r="C21" s="9" t="n"/>
+      <c r="D21" s="9" t="n"/>
+      <c r="E21" s="9" t="n"/>
+      <c r="F21" s="9" t="n"/>
+      <c r="G21" s="9" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="8" t="inlineStr">
+        <is>
+          <t>Health monitoring agent</t>
+        </is>
+      </c>
+      <c r="B22" s="9" t="n"/>
+      <c r="C22" s="9" t="n"/>
+      <c r="D22" s="9" t="n"/>
+      <c r="E22" s="9" t="n"/>
+      <c r="F22" s="9" t="n"/>
+      <c r="G22" s="9" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B23" s="9" t="n"/>
+      <c r="C23" s="9" t="n"/>
+      <c r="D23" s="9" t="n"/>
+      <c r="E23" s="9" t="n"/>
+      <c r="F23" s="9" t="n"/>
+      <c r="G23" s="9" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Bridge details</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="8" t="inlineStr">
+        <is>
+          <t>Internal Network Bridge</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="n"/>
+      <c r="C26" s="9" t="n"/>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="9" t="n"/>
+      <c r="F26" s="9" t="n"/>
+      <c r="G26" s="9" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n"/>
+      <c r="C28" s="9" t="n"/>
+      <c r="D28" s="9" t="n"/>
+      <c r="E28" s="9" t="n"/>
+      <c r="F28" s="9" t="n"/>
+      <c r="G28" s="9" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n"/>
+      <c r="C29" s="9" t="n"/>
+      <c r="D29" s="9" t="n"/>
+      <c r="E29" s="9" t="n"/>
+      <c r="F29" s="9" t="n"/>
+      <c r="G29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+      <c r="C30" s="9" t="n"/>
+      <c r="D30" s="9" t="n"/>
+      <c r="E30" s="9" t="n"/>
+      <c r="F30" s="9" t="n"/>
+      <c r="G30" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A27:G27"/>
+  </mergeCells>
+  <dataValidations count="30">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G18" type="list">
+      <formula1>"kvm,vcenter,none"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
+      <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5778,362 +6255,6 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nuage Utility Host VM</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Configuration for Nuage Utility Host VM.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Host and VM Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>Management Interface</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Management IP address</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>Management IP Prefix Length</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>Management Gateway IP</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Network Interfaces</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Internal Network IP address</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Internal Network IP Prefix Length</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Internal Network Gateway IP</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>External interface name list</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Other parameters</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="inlineStr">
-        <is>
-          <t>Timezone</t>
-        </is>
-      </c>
-      <c r="B18" s="9" t="n"/>
-      <c r="C18" s="9" t="n"/>
-      <c r="D18" s="9" t="n"/>
-      <c r="E18" s="9" t="n"/>
-      <c r="F18" s="9" t="n"/>
-      <c r="G18" s="9" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Custom NUH configuration file location</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="8" t="inlineStr">
-        <is>
-          <t>Skip VSD installed check</t>
-        </is>
-      </c>
-      <c r="B20" s="9" t="n"/>
-      <c r="C20" s="9" t="n"/>
-      <c r="D20" s="9" t="n"/>
-      <c r="E20" s="9" t="n"/>
-      <c r="F20" s="9" t="n"/>
-      <c r="G20" s="9" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>Health monitoring agent</t>
-        </is>
-      </c>
-      <c r="B21" s="9" t="n"/>
-      <c r="C21" s="9" t="n"/>
-      <c r="D21" s="9" t="n"/>
-      <c r="E21" s="9" t="n"/>
-      <c r="F21" s="9" t="n"/>
-      <c r="G21" s="9" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B22" s="9" t="n"/>
-      <c r="C22" s="9" t="n"/>
-      <c r="D22" s="9" t="n"/>
-      <c r="E22" s="9" t="n"/>
-      <c r="F22" s="9" t="n"/>
-      <c r="G22" s="9" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Bridge details</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="inlineStr">
-        <is>
-          <t>Internal Network Bridge</t>
-        </is>
-      </c>
-      <c r="B25" s="9" t="n"/>
-      <c r="C25" s="9" t="n"/>
-      <c r="D25" s="9" t="n"/>
-      <c r="E25" s="9" t="n"/>
-      <c r="F25" s="9" t="n"/>
-      <c r="G25" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A23:G23"/>
-  </mergeCells>
-  <dataValidations count="24">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="list">
-      <formula1>"none,zabbix"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
           <t>Nuage SD-WAN Portal</t>
         </is>
       </c>
@@ -6478,12 +6599,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6769,12 +6890,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6841,17 +6962,17 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:B129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7548,14 +7669,14 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>KVM RAM</t>
+          <t>KVM and VCenter RAM</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="8" t="inlineStr">
         <is>
-          <t>VSD RAM</t>
+          <t>KVM VSD RAM</t>
         </is>
       </c>
       <c r="B86" s="9" t="n"/>
@@ -7563,7 +7684,7 @@
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>VSC RAM</t>
+          <t>KVM VSC RAM</t>
         </is>
       </c>
       <c r="B87" s="9" t="n"/>
@@ -7571,23 +7692,22 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>VSTAT RAM</t>
+          <t>KVM VSTAT RAM</t>
         </is>
       </c>
       <c r="B88" s="9" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN RAM</t>
-        </is>
-      </c>
-      <c r="B89" s="9" t="n"/>
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>KVM RAM</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH RAM</t>
+          <t>KVM VCIN RAM</t>
         </is>
       </c>
       <c r="B90" s="9" t="n"/>
@@ -7595,7 +7715,7 @@
     <row r="91">
       <c r="A91" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter RAM</t>
+          <t>KVM NUH RAM</t>
         </is>
       </c>
       <c r="B91" s="9" t="n"/>
@@ -7603,30 +7723,30 @@
     <row r="92">
       <c r="A92" s="8" t="inlineStr">
         <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="inlineStr">
+        <is>
           <t>KVM Portal RAM</t>
         </is>
       </c>
-      <c r="B92" s="9" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>CPU</t>
-        </is>
-      </c>
+      <c r="B93" s="9" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="8" t="inlineStr">
-        <is>
-          <t>VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B94" s="9" t="n"/>
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>KVM and VCenter CPU</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="8" t="inlineStr">
         <is>
-          <t>VSC CPU cores</t>
+          <t>KVM VSD CPU cores</t>
         </is>
       </c>
       <c r="B95" s="9" t="n"/>
@@ -7634,7 +7754,7 @@
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>VSTAT CPU cores</t>
+          <t>KVM VSC CPU cores</t>
         </is>
       </c>
       <c r="B96" s="9" t="n"/>
@@ -7642,7 +7762,7 @@
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>VNSUTIL CPU cores</t>
+          <t>KVM VSTAT CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>
@@ -7650,23 +7770,22 @@
     <row r="98">
       <c r="A98" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH CPU cores</t>
+          <t>KVM VNSUTIL CPU cores</t>
         </is>
       </c>
       <c r="B98" s="9" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN CPU cores</t>
-        </is>
-      </c>
-      <c r="B99" s="9" t="n"/>
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>KVM CPU</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="8" t="inlineStr">
         <is>
-          <t>KVM Portal VM CPU cores</t>
+          <t>KVM NUH CPU cores</t>
         </is>
       </c>
       <c r="B100" s="9" t="n"/>
@@ -7674,38 +7793,38 @@
     <row r="101">
       <c r="A101" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter VM CPU cores</t>
+          <t>KVM VCIN CPU cores</t>
         </is>
       </c>
       <c r="B101" s="9" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="inlineStr">
-        <is>
-          <t>Authentication</t>
-        </is>
-      </c>
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="8" t="inlineStr">
         <is>
-          <t>VSD Architect URL</t>
+          <t>KVM Webfilter VM CPU cores</t>
         </is>
       </c>
       <c r="B103" s="9" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="8" t="inlineStr">
-        <is>
-          <t>VSD Enterprise</t>
-        </is>
-      </c>
-      <c r="B104" s="9" t="n"/>
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>Authentication</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="8" t="inlineStr">
         <is>
-          <t>VCIN URL</t>
+          <t>VSD Architect URL</t>
         </is>
       </c>
       <c r="B105" s="9" t="n"/>
@@ -7713,61 +7832,61 @@
     <row r="106">
       <c r="A106" s="8" t="inlineStr">
         <is>
-          <t>VCIN Enterprise</t>
+          <t>VSD Enterprise</t>
         </is>
       </c>
       <c r="B106" s="9" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>Hooks</t>
-        </is>
-      </c>
+      <c r="A107" s="8" t="inlineStr">
+        <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="A108" s="8" t="inlineStr">
         <is>
+          <t>VCIN Enterprise</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>Hooks</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="inlineStr">
+        <is>
           <t>hooks</t>
         </is>
       </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="8" t="inlineStr">
-        <is>
-          <t>skip actions</t>
-        </is>
-      </c>
-      <c r="B109" s="9" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="inlineStr">
-        <is>
-          <t>Component Health Report Email Options</t>
-        </is>
-      </c>
+      <c r="B110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="8" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server</t>
+          <t>skip actions</t>
         </is>
       </c>
       <c r="B111" s="9" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server Port</t>
-        </is>
-      </c>
-      <c r="B112" s="9" t="n"/>
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>Component Health Report Email Options</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="8" t="inlineStr">
         <is>
-          <t>Health Report Email From Address</t>
+          <t>Health Report SMTP Server</t>
         </is>
       </c>
       <c r="B113" s="9" t="n"/>
@@ -7775,38 +7894,38 @@
     <row r="114">
       <c r="A114" s="8" t="inlineStr">
         <is>
-          <t>Health Report Destination Email Address(es)</t>
+          <t>Health Report SMTP Server Port</t>
         </is>
       </c>
       <c r="B114" s="9" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alerts Configuration</t>
-        </is>
-      </c>
+      <c r="A115" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server</t>
+          <t>Health Report Destination Email Address(es)</t>
         </is>
       </c>
       <c r="B116" s="9" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Port</t>
-        </is>
-      </c>
-      <c r="B117" s="9" t="n"/>
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alerts Configuration</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
+          <t>VSD Monit Mail Server</t>
         </is>
       </c>
       <c r="B118" s="9" t="n"/>
@@ -7814,7 +7933,7 @@
     <row r="119">
       <c r="A119" s="8" t="inlineStr">
         <is>
-          <t>Use VSD Monit Eventqueue</t>
+          <t>VSD Monit Mail Server Port</t>
         </is>
       </c>
       <c r="B119" s="9" t="n"/>
@@ -7822,7 +7941,7 @@
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit From Email Address</t>
+          <t>VSD Monit Mail Server Encryption Type</t>
         </is>
       </c>
       <c r="B120" s="9" t="n"/>
@@ -7830,7 +7949,7 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Reply-To Email Address</t>
+          <t>Use VSD Monit Eventqueue</t>
         </is>
       </c>
       <c r="B121" s="9" t="n"/>
@@ -7838,7 +7957,7 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Subject</t>
+          <t>VSD Monit From Email Address</t>
         </is>
       </c>
       <c r="B122" s="9" t="n"/>
@@ -7846,7 +7965,7 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Message</t>
+          <t>VSD Monit Reply-To Email Address</t>
         </is>
       </c>
       <c r="B123" s="9" t="n"/>
@@ -7854,7 +7973,7 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Destination Email Address</t>
+          <t>VSD Monit Email Alert Subject</t>
         </is>
       </c>
       <c r="B124" s="9" t="n"/>
@@ -7862,7 +7981,7 @@
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Only Alert On</t>
+          <t>VSD Monit Email Alert Message</t>
         </is>
       </c>
       <c r="B125" s="9" t="n"/>
@@ -7870,7 +7989,7 @@
     <row r="126">
       <c r="A126" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Do Not Alert On</t>
+          <t>VSD Monit Destination Email Address</t>
         </is>
       </c>
       <c r="B126" s="9" t="n"/>
@@ -7878,13 +7997,29 @@
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
         <is>
+          <t>VSD Monit Only Alert On</t>
+        </is>
+      </c>
+      <c r="B127" s="9" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Do Not Alert On</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="8" t="inlineStr">
+        <is>
           <t xml:space="preserve">VSD In-place upgrade during Install </t>
         </is>
       </c>
-      <c r="B127" s="9" t="n"/>
+      <c r="B129" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A16:B16"/>
@@ -7900,11 +8035,13 @@
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A117:B117"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
@@ -7959,34 +8096,34 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B100" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B101" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B112" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B117" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B102" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B103" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B114" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B121" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B127" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B129" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8265,12 +8402,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8563,12 +8700,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9257,12 +9394,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9481,12 +9618,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9805,12 +9942,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10061,12 +10198,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10179,12 +10316,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11055,12 +11192,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11798,12 +11935,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12688,12 +12825,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13516,12 +13653,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13874,12 +14011,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13979,6 +14116,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2428,7 +2428,6 @@
     <author>upgrade_to_version</author>
     <author>backup_vsd_host_file</author>
     <author>skip_disable_stats_collection</author>
-    <author>force_vsc_standalone_upgrade</author>
     <author>upgrade_portal</author>
   </authors>
   <commentList>
@@ -2458,11 +2457,6 @@
       </text>
     </comment>
     <comment authorId="5" ref="A10" shapeId="0">
-      <text>
-        <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A11" shapeId="0">
       <text>
         <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
       </text>
@@ -4093,7 +4087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4160,12 +4154,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4286,12 +4280,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4468,12 +4462,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5405,12 +5399,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5477,12 +5471,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5648,12 +5642,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5779,12 +5773,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6213,12 +6207,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6587,12 +6581,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6878,12 +6872,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6950,12 +6944,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8106,12 +8100,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8390,12 +8384,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8688,12 +8682,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9382,12 +9376,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9606,12 +9600,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9930,12 +9924,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10134,17 +10128,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10220,24 +10214,16 @@
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>Force vscs standalone</t>
+          <t>Upgrade SD-WAN Portal(s)</t>
         </is>
       </c>
       <c r="B10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Upgrade SD-WAN Portal(s)</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -10247,17 +10233,14 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11128,12 +11111,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11871,12 +11854,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12761,12 +12744,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13589,12 +13572,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13947,12 +13930,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14052,6 +14035,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2420,7 +2420,7 @@
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
       <text>
-        <t>Certificate Username</t>
+        <t>Provide certificate username for Webfiler VM. Defaults to webfilter [default: (Hostname)]</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2753,6 +2753,9 @@
     <author>internal_ctrl_ip</author>
     <author>internal_data_gateway_ip</author>
     <author>route_reflector_ip_list</author>
+    <author>bgp_interface_ip_address</author>
+    <author>bgp_interface_ip_prefix</author>
+    <author>bgp_interface_vlan_id</author>
     <author>vcenter_datacenter</author>
     <author>vcenter_cluster</author>
     <author>vcenter_host_reference</author>
@@ -2911,170 +2914,185 @@
     </comment>
     <comment authorId="24" ref="A34" shapeId="0">
       <text>
+        <t>IP Address for Optional BGP Interface</t>
+      </text>
+    </comment>
+    <comment authorId="25" ref="A35" shapeId="0">
+      <text>
+        <t>Prefix length for the optional BGP interface [default: 24]</t>
+      </text>
+    </comment>
+    <comment authorId="26" ref="A36" shapeId="0">
+      <text>
+        <t>VLAN ID for the optional BGP interface [default: 0]</t>
+      </text>
+    </comment>
+    <comment authorId="27" ref="A38" shapeId="0">
+      <text>
         <t>Name of the vCenter Datacenter on which the VSC VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A39" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSC VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSC VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="40" ref="A52" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="41" ref="A53" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A52" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A53" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="46" ref="A59" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="47" ref="A60" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A58" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A59" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="51" ref="A65" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="52" ref="A66" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="53" ref="A67" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A65" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A66" shapeId="0">
+    <comment authorId="56" ref="A70" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="57" ref="A72" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A69" shapeId="0">
+    <comment authorId="58" ref="A73" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A70" shapeId="0">
+    <comment authorId="59" ref="A74" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A71" shapeId="0">
+    <comment authorId="60" ref="A75" shapeId="0">
       <text>
         <t>This will override the Metro Provided config on the VSC by the config provided in vsc_config_file_paths [default: False]</t>
       </text>
@@ -11138,7 +11156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11483,111 +11501,109 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>vCenter Parameters</t>
+          <t>BGP Interface</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datacenter Name</t>
+          <t>BGP Interface IP Address</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
       <c r="C34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>BGP Interface Prefix length</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>BGP Interface VLAN ID</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
       <c r="C36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B37" s="9" t="n"/>
-      <c r="C37" s="9" t="n"/>
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>vCenter Hosts and Clusters Folder</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
       <c r="C39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>vCenter VM Folder</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
       <c r="C42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Network</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Subnet</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -11596,7 +11612,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Name</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -11605,7 +11621,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -11614,7 +11630,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Network</t>
+          <t>OpenStack Mgmt Network</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -11623,7 +11639,7 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Subnet</t>
+          <t>OpenStack Mgmt Subnet</t>
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
@@ -11632,7 +11648,7 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Name</t>
+          <t>OpenStack Mgmt Port Name</t>
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
@@ -11641,7 +11657,7 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Security Groups</t>
+          <t>OpenStack Mgmt Port Security Groups</t>
         </is>
       </c>
       <c r="B51" s="7" t="n"/>
@@ -11650,7 +11666,7 @@
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Control Network</t>
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
@@ -11659,75 +11675,77 @@
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Control Subnet</t>
         </is>
       </c>
       <c r="B53" s="7" t="n"/>
       <c r="C53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Name</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+      <c r="C55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+      <c r="C56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n"/>
+      <c r="C57" s="7" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>Health Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of vswitches</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of host vports</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of VM vports</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-      <c r="C58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>Expected number of gateway ports</t>
+          <t>Expected number of BGP neighbors</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
       <c r="C59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Certificates and credentials</t>
-        </is>
-      </c>
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of vswitches</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>Ejabberd user id</t>
+          <t>Expected number of host vports</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -11736,7 +11754,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Private key path</t>
+          <t>Expected number of VM vports</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -11745,25 +11763,23 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>Certificate path</t>
+          <t>Expected number of gateway ports</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
       <c r="C63" s="9" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>CA certificate path</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Certificates and credentials</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>XMPP domain</t>
+          <t>Ejabberd user id</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
@@ -11772,23 +11788,25 @@
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Private key path</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
       <c r="C66" s="9" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>VSC Options</t>
-        </is>
-      </c>
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Certificate path</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>CA certificate path</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -11797,7 +11815,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>Harden VSC</t>
+          <t>XMPP domain</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
@@ -11806,35 +11824,70 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>Paths to VSC Config Files</t>
+          <t>Credentials set name</t>
         </is>
       </c>
       <c r="B70" s="9" t="n"/>
       <c r="C70" s="9" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>VSC Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+      <c r="C72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>Harden VSC</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="n"/>
+      <c r="C73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+      <c r="C74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
         <is>
           <t>Override the configuration on VSC</t>
         </is>
       </c>
-      <c r="B71" s="9" t="n"/>
-      <c r="C71" s="9" t="n"/>
+      <c r="B75" s="9" t="n"/>
+      <c r="C75" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
   </mergeCells>
-  <dataValidations count="22">
+  <dataValidations count="26">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
@@ -11847,26 +11900,30 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B36" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C36" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2747,6 +2747,9 @@
     <author>internal_ctrl_ip</author>
     <author>internal_data_gateway_ip</author>
     <author>route_reflector_ip_list</author>
+    <author>bgp_interface_ip_address</author>
+    <author>bgp_interface_ip_prefix</author>
+    <author>bgp_interface_vlan_id</author>
     <author>vcenter_datacenter</author>
     <author>vcenter_cluster</author>
     <author>vcenter_host_reference</author>
@@ -2905,170 +2908,185 @@
     </comment>
     <comment authorId="24" ref="A34" shapeId="0">
       <text>
+        <t>IP Address for Optional BGP Interface</t>
+      </text>
+    </comment>
+    <comment authorId="25" ref="A35" shapeId="0">
+      <text>
+        <t>Prefix length for the optional BGP interface [default: 24]</t>
+      </text>
+    </comment>
+    <comment authorId="26" ref="A36" shapeId="0">
+      <text>
+        <t>VLAN ID for the optional BGP interface [default: 1000]</t>
+      </text>
+    </comment>
+    <comment authorId="27" ref="A38" shapeId="0">
+      <text>
         <t>Name of the vCenter Datacenter on which the VSC VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A39" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSC VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSC VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="40" ref="A52" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="41" ref="A53" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A52" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A53" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="46" ref="A59" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="47" ref="A60" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A58" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A59" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="51" ref="A65" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="52" ref="A66" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="53" ref="A67" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A65" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A66" shapeId="0">
+    <comment authorId="56" ref="A70" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="57" ref="A72" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A69" shapeId="0">
+    <comment authorId="58" ref="A73" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A70" shapeId="0">
+    <comment authorId="59" ref="A74" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A71" shapeId="0">
+    <comment authorId="60" ref="A75" shapeId="0">
       <text>
         <t>This will override the Metro Provided config on the VSC by the config provided in vsc_config_file_paths [default: False]</t>
       </text>
@@ -11121,7 +11139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11466,111 +11484,109 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>vCenter Parameters</t>
+          <t>BGP Interface</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datacenter Name</t>
+          <t>BGP Interface IP Address</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
       <c r="C34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>BGP Interface Prefix length</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>BGP Interface VLAN ID</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
       <c r="C36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B37" s="9" t="n"/>
-      <c r="C37" s="9" t="n"/>
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>vCenter Hosts and Clusters Folder</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
       <c r="C39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>vCenter VM Folder</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
       <c r="C42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Network</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Subnet</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -11579,7 +11595,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Name</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -11588,7 +11604,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -11597,7 +11613,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Network</t>
+          <t>OpenStack Mgmt Network</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -11606,7 +11622,7 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Subnet</t>
+          <t>OpenStack Mgmt Subnet</t>
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
@@ -11615,7 +11631,7 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Name</t>
+          <t>OpenStack Mgmt Port Name</t>
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
@@ -11624,7 +11640,7 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Security Groups</t>
+          <t>OpenStack Mgmt Port Security Groups</t>
         </is>
       </c>
       <c r="B51" s="7" t="n"/>
@@ -11633,7 +11649,7 @@
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Control Network</t>
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
@@ -11642,75 +11658,77 @@
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Control Subnet</t>
         </is>
       </c>
       <c r="B53" s="7" t="n"/>
       <c r="C53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Name</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+      <c r="C55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+      <c r="C56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n"/>
+      <c r="C57" s="7" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>Health Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of vswitches</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of host vports</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of VM vports</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-      <c r="C58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>Expected number of gateway ports</t>
+          <t>Expected number of BGP neighbors</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
       <c r="C59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Certificates and credentials</t>
-        </is>
-      </c>
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of vswitches</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>Ejabberd user id</t>
+          <t>Expected number of host vports</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -11719,7 +11737,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Private key path</t>
+          <t>Expected number of VM vports</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -11728,25 +11746,23 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>Certificate path</t>
+          <t>Expected number of gateway ports</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
       <c r="C63" s="9" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>CA certificate path</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Certificates and credentials</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>XMPP domain</t>
+          <t>Ejabberd user id</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
@@ -11755,23 +11771,25 @@
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Private key path</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
       <c r="C66" s="9" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>VSC Options</t>
-        </is>
-      </c>
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Certificate path</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>CA certificate path</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -11780,7 +11798,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>Harden VSC</t>
+          <t>XMPP domain</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
@@ -11789,35 +11807,70 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>Paths to VSC Config Files</t>
+          <t>Credentials set name</t>
         </is>
       </c>
       <c r="B70" s="9" t="n"/>
       <c r="C70" s="9" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>VSC Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+      <c r="C72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>Harden VSC</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="n"/>
+      <c r="C73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+      <c r="C74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
         <is>
           <t>Override the configuration on VSC</t>
         </is>
       </c>
-      <c r="B71" s="9" t="n"/>
-      <c r="C71" s="9" t="n"/>
+      <c r="B75" s="9" t="n"/>
+      <c r="C75" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
   </mergeCells>
-  <dataValidations count="22">
+  <dataValidations count="26">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
@@ -11830,26 +11883,30 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B36" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C36" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2765,6 +2765,9 @@
     <author>internal_ctrl_ip</author>
     <author>internal_data_gateway_ip</author>
     <author>route_reflector_ip_list</author>
+    <author>bgp_interface_ip_address</author>
+    <author>bgp_interface_ip_prefix</author>
+    <author>bgp_interface_vlan_id</author>
     <author>vcenter_datacenter</author>
     <author>vcenter_cluster</author>
     <author>vcenter_host_reference</author>
@@ -2923,170 +2926,185 @@
     </comment>
     <comment authorId="24" ref="A34" shapeId="0">
       <text>
+        <t>IP Address for Optional BGP Interface</t>
+      </text>
+    </comment>
+    <comment authorId="25" ref="A35" shapeId="0">
+      <text>
+        <t>Prefix length for the optional BGP interface [default: 24]</t>
+      </text>
+    </comment>
+    <comment authorId="26" ref="A36" shapeId="0">
+      <text>
+        <t>VLAN ID for the optional BGP interface [default: 1000]</t>
+      </text>
+    </comment>
+    <comment authorId="27" ref="A38" shapeId="0">
+      <text>
         <t>Name of the vCenter Datacenter on which the VSC VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A39" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSC VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSC VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="40" ref="A52" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="41" ref="A53" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A52" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A53" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="46" ref="A59" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="47" ref="A60" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A58" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A59" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="51" ref="A65" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="52" ref="A66" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="53" ref="A67" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A65" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A66" shapeId="0">
+    <comment authorId="56" ref="A70" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="57" ref="A72" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A69" shapeId="0">
+    <comment authorId="58" ref="A73" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A70" shapeId="0">
+    <comment authorId="59" ref="A74" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A71" shapeId="0">
+    <comment authorId="60" ref="A75" shapeId="0">
       <text>
         <t>This will override the Metro Provided config on the VSC by the config provided in vsc_config_file_paths [default: False]</t>
       </text>
@@ -4105,7 +4123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4172,12 +4190,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4298,12 +4316,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4480,12 +4498,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5417,12 +5435,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5489,12 +5507,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5660,12 +5678,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5791,12 +5809,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6225,12 +6243,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6599,12 +6617,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6890,12 +6908,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6962,12 +6980,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8118,12 +8136,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8402,12 +8420,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8700,12 +8718,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9394,12 +9412,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9618,12 +9636,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9942,12 +9960,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10198,12 +10216,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10316,12 +10334,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11192,17 +11210,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11547,111 +11565,109 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>vCenter Parameters</t>
+          <t>BGP Interface</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datacenter Name</t>
+          <t>BGP Interface IP Address</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
       <c r="C34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>BGP Interface Prefix length</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>BGP Interface VLAN ID</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
       <c r="C36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B37" s="9" t="n"/>
-      <c r="C37" s="9" t="n"/>
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>vCenter Hosts and Clusters Folder</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
       <c r="C39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>vCenter VM Folder</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
       <c r="C42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Network</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Subnet</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -11660,7 +11676,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Name</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -11669,7 +11685,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -11678,7 +11694,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Network</t>
+          <t>OpenStack Mgmt Network</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -11687,7 +11703,7 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Subnet</t>
+          <t>OpenStack Mgmt Subnet</t>
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
@@ -11696,7 +11712,7 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Name</t>
+          <t>OpenStack Mgmt Port Name</t>
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
@@ -11705,7 +11721,7 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Security Groups</t>
+          <t>OpenStack Mgmt Port Security Groups</t>
         </is>
       </c>
       <c r="B51" s="7" t="n"/>
@@ -11714,7 +11730,7 @@
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Control Network</t>
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
@@ -11723,75 +11739,77 @@
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Control Subnet</t>
         </is>
       </c>
       <c r="B53" s="7" t="n"/>
       <c r="C53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Name</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+      <c r="C55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+      <c r="C56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n"/>
+      <c r="C57" s="7" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>Health Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of vswitches</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of host vports</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of VM vports</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-      <c r="C58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>Expected number of gateway ports</t>
+          <t>Expected number of BGP neighbors</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
       <c r="C59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Certificates and credentials</t>
-        </is>
-      </c>
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of vswitches</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>Ejabberd user id</t>
+          <t>Expected number of host vports</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -11800,7 +11818,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Private key path</t>
+          <t>Expected number of VM vports</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -11809,25 +11827,23 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>Certificate path</t>
+          <t>Expected number of gateway ports</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
       <c r="C63" s="9" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>CA certificate path</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Certificates and credentials</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>XMPP domain</t>
+          <t>Ejabberd user id</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
@@ -11836,23 +11852,25 @@
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Private key path</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
       <c r="C66" s="9" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>VSC Options</t>
-        </is>
-      </c>
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Certificate path</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>CA certificate path</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -11861,7 +11879,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>Harden VSC</t>
+          <t>XMPP domain</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
@@ -11870,35 +11888,70 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>Paths to VSC Config Files</t>
+          <t>Credentials set name</t>
         </is>
       </c>
       <c r="B70" s="9" t="n"/>
       <c r="C70" s="9" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>VSC Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+      <c r="C72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>Harden VSC</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="n"/>
+      <c r="C73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+      <c r="C74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
         <is>
           <t>Override the configuration on VSC</t>
         </is>
       </c>
-      <c r="B71" s="9" t="n"/>
-      <c r="C71" s="9" t="n"/>
+      <c r="B75" s="9" t="n"/>
+      <c r="C75" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
   </mergeCells>
-  <dataValidations count="22">
+  <dataValidations count="26">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
@@ -11911,36 +11964,40 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B36" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C36" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12825,12 +12882,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13653,12 +13710,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14011,12 +14068,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14116,6 +14173,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2428,6 +2428,7 @@
     <author>upgrade_to_version</author>
     <author>backup_vsd_host_file</author>
     <author>skip_disable_stats_collection</author>
+    <author>force_vsc_standalone_upgrade</author>
     <author>upgrade_portal</author>
   </authors>
   <commentList>
@@ -2457,6 +2458,11 @@
       </text>
     </comment>
     <comment authorId="5" ref="A10" shapeId="0">
+      <text>
+        <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs, This is deprecated in favor of usused use-case and and will be removed in future releases.  [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A11" shapeId="0">
       <text>
         <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
       </text>
@@ -10156,7 +10162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10232,16 +10238,24 @@
     <row r="10">
       <c r="A10" s="6" t="inlineStr">
         <is>
+          <t>Force vscs standalone</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
           <t>Upgrade SD-WAN Portal(s)</t>
         </is>
       </c>
-      <c r="B10" s="7" t="n"/>
+      <c r="B11" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -10249,6 +10263,9 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2369,6 +2369,8 @@
     <author>target_server_type</author>
     <author>target_server</author>
     <author>cpuset</author>
+    <author>cert_name</author>
+    <author>run_incompass_operation</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2414,6 +2416,16 @@
     <comment authorId="8" ref="A14" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, Webfilter requires 2 cores and sample values will be of the form [1, 2] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Provide certificate username for Webfiler VM. Defaults to webfilter [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Run incompass operation command. This is enabled by default and may take up to 20 minutes and requires internet connection. [default: True]</t>
       </text>
     </comment>
   </commentList>
@@ -2753,6 +2765,9 @@
     <author>internal_ctrl_ip</author>
     <author>internal_data_gateway_ip</author>
     <author>route_reflector_ip_list</author>
+    <author>bgp_interface_ip_address</author>
+    <author>bgp_interface_ip_prefix</author>
+    <author>bgp_interface_vlan_id</author>
     <author>vcenter_datacenter</author>
     <author>vcenter_cluster</author>
     <author>vcenter_host_reference</author>
@@ -2911,170 +2926,185 @@
     </comment>
     <comment authorId="24" ref="A34" shapeId="0">
       <text>
+        <t>IP Address for Optional BGP Interface</t>
+      </text>
+    </comment>
+    <comment authorId="25" ref="A35" shapeId="0">
+      <text>
+        <t>Prefix length for the optional BGP interface [default: 24]</t>
+      </text>
+    </comment>
+    <comment authorId="26" ref="A36" shapeId="0">
+      <text>
+        <t>VLAN ID for the optional BGP interface [default: 1000]</t>
+      </text>
+    </comment>
+    <comment authorId="27" ref="A38" shapeId="0">
+      <text>
         <t>Name of the vCenter Datacenter on which the VSC VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A39" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSC VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSC VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="40" ref="A52" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="41" ref="A53" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A52" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A53" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="46" ref="A59" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="47" ref="A60" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A58" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A59" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="51" ref="A65" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="52" ref="A66" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="53" ref="A67" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A65" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A66" shapeId="0">
+    <comment authorId="56" ref="A70" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="57" ref="A72" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A69" shapeId="0">
+    <comment authorId="58" ref="A73" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A70" shapeId="0">
+    <comment authorId="59" ref="A74" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A71" shapeId="0">
+    <comment authorId="60" ref="A75" shapeId="0">
       <text>
         <t>This will override the Metro Provided config on the VSC by the config provided in vsc_config_file_paths [default: False]</t>
       </text>
@@ -9952,7 +9982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10114,12 +10144,46 @@
       <c r="F14" s="9" t="n"/>
       <c r="G14" s="9" t="n"/>
     </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Webfilter details</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>Certificate Username</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>Run incompass operation command</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="18">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -10143,6 +10207,24 @@
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="list">
+      <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -11150,7 +11232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11495,111 +11577,109 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>vCenter Parameters</t>
+          <t>BGP Interface</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datacenter Name</t>
+          <t>BGP Interface IP Address</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
       <c r="C34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>BGP Interface Prefix length</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>BGP Interface VLAN ID</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
       <c r="C36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B37" s="9" t="n"/>
-      <c r="C37" s="9" t="n"/>
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>vCenter Hosts and Clusters Folder</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
       <c r="C39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>vCenter VM Folder</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
       <c r="C42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Network</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Subnet</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -11608,7 +11688,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Name</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -11617,7 +11697,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -11626,7 +11706,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Network</t>
+          <t>OpenStack Mgmt Network</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -11635,7 +11715,7 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Subnet</t>
+          <t>OpenStack Mgmt Subnet</t>
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
@@ -11644,7 +11724,7 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Name</t>
+          <t>OpenStack Mgmt Port Name</t>
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
@@ -11653,7 +11733,7 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Security Groups</t>
+          <t>OpenStack Mgmt Port Security Groups</t>
         </is>
       </c>
       <c r="B51" s="7" t="n"/>
@@ -11662,7 +11742,7 @@
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Control Network</t>
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
@@ -11671,75 +11751,77 @@
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Control Subnet</t>
         </is>
       </c>
       <c r="B53" s="7" t="n"/>
       <c r="C53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Name</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+      <c r="C55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+      <c r="C56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n"/>
+      <c r="C57" s="7" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>Health Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of vswitches</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of host vports</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of VM vports</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-      <c r="C58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>Expected number of gateway ports</t>
+          <t>Expected number of BGP neighbors</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
       <c r="C59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Certificates and credentials</t>
-        </is>
-      </c>
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of vswitches</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>Ejabberd user id</t>
+          <t>Expected number of host vports</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -11748,7 +11830,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Private key path</t>
+          <t>Expected number of VM vports</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -11757,25 +11839,23 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>Certificate path</t>
+          <t>Expected number of gateway ports</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
       <c r="C63" s="9" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>CA certificate path</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Certificates and credentials</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>XMPP domain</t>
+          <t>Ejabberd user id</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
@@ -11784,23 +11864,25 @@
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Private key path</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
       <c r="C66" s="9" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>VSC Options</t>
-        </is>
-      </c>
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Certificate path</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>CA certificate path</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -11809,7 +11891,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>Harden VSC</t>
+          <t>XMPP domain</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
@@ -11818,35 +11900,70 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>Paths to VSC Config Files</t>
+          <t>Credentials set name</t>
         </is>
       </c>
       <c r="B70" s="9" t="n"/>
       <c r="C70" s="9" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>VSC Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+      <c r="C72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>Harden VSC</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="n"/>
+      <c r="C73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+      <c r="C74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
         <is>
           <t>Override the configuration on VSC</t>
         </is>
       </c>
-      <c r="B71" s="9" t="n"/>
-      <c r="C71" s="9" t="n"/>
+      <c r="B75" s="9" t="n"/>
+      <c r="C75" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
   </mergeCells>
-  <dataValidations count="22">
+  <dataValidations count="26">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
@@ -11859,26 +11976,30 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B36" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C36" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2436,6 +2436,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>metro_backup_root</author>
+    <author>vsd_pre_upgrade_check_script</author>
     <author>upgrade_from_version</author>
     <author>upgrade_to_version</author>
     <author>backup_vsd_host_file</author>
@@ -2451,30 +2452,35 @@
     </comment>
     <comment authorId="1" ref="A6" shapeId="0">
       <text>
+        <t>Path to the VSD Pre upgrade check script file for the VSD [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
         <t>Version VSP is being upgraded from. Required for all component upgrades. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
+    <comment authorId="3" ref="A8" shapeId="0">
       <text>
         <t>Version VSP is being upgraded to. Required for all component upgrades. [default: ]</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
+    <comment authorId="4" ref="A9" shapeId="0">
       <text>
         <t>Backup the /etc/hosts file on VSD before upgrade and restore it after upgrade [default: False]</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A9" shapeId="0">
+    <comment authorId="5" ref="A10" shapeId="0">
       <text>
         <t>Stats collection should be disabled during VSD upgrade. If for some reason, you would like to disable stats collection outside of MetroAE, change this to true. [default: False]</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A10" shapeId="0">
+    <comment authorId="6" ref="A11" shapeId="0">
       <text>
         <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs [default: False]</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A11" shapeId="0">
+    <comment authorId="7" ref="A12" shapeId="0">
       <text>
         <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
       </text>
@@ -2765,6 +2771,9 @@
     <author>internal_ctrl_ip</author>
     <author>internal_data_gateway_ip</author>
     <author>route_reflector_ip_list</author>
+    <author>bgp_interface_ip_address</author>
+    <author>bgp_interface_ip_prefix</author>
+    <author>bgp_interface_vlan_id</author>
     <author>vcenter_datacenter</author>
     <author>vcenter_cluster</author>
     <author>vcenter_host_reference</author>
@@ -2923,170 +2932,185 @@
     </comment>
     <comment authorId="24" ref="A34" shapeId="0">
       <text>
+        <t>IP Address for Optional BGP Interface</t>
+      </text>
+    </comment>
+    <comment authorId="25" ref="A35" shapeId="0">
+      <text>
+        <t>Prefix length for the optional BGP interface [default: 24]</t>
+      </text>
+    </comment>
+    <comment authorId="26" ref="A36" shapeId="0">
+      <text>
+        <t>VLAN ID for the optional BGP interface [default: 1000]</t>
+      </text>
+    </comment>
+    <comment authorId="27" ref="A38" shapeId="0">
+      <text>
         <t>Name of the vCenter Datacenter on which the VSC VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A39" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSC VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSC VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="40" ref="A52" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="41" ref="A53" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A52" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A53" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="46" ref="A59" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="47" ref="A60" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A58" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A59" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="51" ref="A65" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="52" ref="A66" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="53" ref="A67" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A65" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A66" shapeId="0">
+    <comment authorId="56" ref="A70" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="57" ref="A72" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A69" shapeId="0">
+    <comment authorId="58" ref="A73" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A70" shapeId="0">
+    <comment authorId="59" ref="A74" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A71" shapeId="0">
+    <comment authorId="60" ref="A75" shapeId="0">
       <text>
         <t>This will override the Metro Provided config on the VSC by the config provided in vsc_config_file_paths [default: False]</t>
       </text>
@@ -10208,7 +10232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10250,61 +10274,66 @@
       <c r="B5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Upgrade From Version</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>VSD Pre upgrade check script File</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
+          <t>Upgrade From Version</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
           <t>Upgrade To Version</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Backup the /etc/hosts file on VSD</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n"/>
+      <c r="B8" s="7" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
+          <t>Backup the /etc/hosts file on VSD</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
           <t>Skip stats collection disable before upgrade</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Force vscs standalone</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n"/>
+      <c r="B10" s="9" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
+          <t>Force vscs standalone</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
           <t>Upgrade SD-WAN Portal(s)</t>
         </is>
       </c>
-      <c r="B11" s="7" t="n"/>
+      <c r="B12" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -10312,6 +10341,9 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11202,7 +11234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11547,111 +11579,109 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>vCenter Parameters</t>
+          <t>BGP Interface</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datacenter Name</t>
+          <t>BGP Interface IP Address</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
       <c r="C34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>BGP Interface Prefix length</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>BGP Interface VLAN ID</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
       <c r="C36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B37" s="9" t="n"/>
-      <c r="C37" s="9" t="n"/>
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>vCenter Hosts and Clusters Folder</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
       <c r="C39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>vCenter VM Folder</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
       <c r="C42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Network</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Subnet</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -11660,7 +11690,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Name</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -11669,7 +11699,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -11678,7 +11708,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Network</t>
+          <t>OpenStack Mgmt Network</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -11687,7 +11717,7 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Subnet</t>
+          <t>OpenStack Mgmt Subnet</t>
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
@@ -11696,7 +11726,7 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Name</t>
+          <t>OpenStack Mgmt Port Name</t>
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
@@ -11705,7 +11735,7 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Security Groups</t>
+          <t>OpenStack Mgmt Port Security Groups</t>
         </is>
       </c>
       <c r="B51" s="7" t="n"/>
@@ -11714,7 +11744,7 @@
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Control Network</t>
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
@@ -11723,75 +11753,77 @@
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Control Subnet</t>
         </is>
       </c>
       <c r="B53" s="7" t="n"/>
       <c r="C53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Name</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+      <c r="C55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+      <c r="C56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n"/>
+      <c r="C57" s="7" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>Health Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of vswitches</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of host vports</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of VM vports</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-      <c r="C58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>Expected number of gateway ports</t>
+          <t>Expected number of BGP neighbors</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
       <c r="C59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Certificates and credentials</t>
-        </is>
-      </c>
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of vswitches</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>Ejabberd user id</t>
+          <t>Expected number of host vports</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -11800,7 +11832,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Private key path</t>
+          <t>Expected number of VM vports</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -11809,25 +11841,23 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>Certificate path</t>
+          <t>Expected number of gateway ports</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
       <c r="C63" s="9" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>CA certificate path</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Certificates and credentials</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>XMPP domain</t>
+          <t>Ejabberd user id</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
@@ -11836,23 +11866,25 @@
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Private key path</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
       <c r="C66" s="9" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>VSC Options</t>
-        </is>
-      </c>
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Certificate path</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>CA certificate path</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -11861,7 +11893,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>Harden VSC</t>
+          <t>XMPP domain</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
@@ -11870,35 +11902,70 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>Paths to VSC Config Files</t>
+          <t>Credentials set name</t>
         </is>
       </c>
       <c r="B70" s="9" t="n"/>
       <c r="C70" s="9" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>VSC Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+      <c r="C72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>Harden VSC</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="n"/>
+      <c r="C73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+      <c r="C74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
         <is>
           <t>Override the configuration on VSC</t>
         </is>
       </c>
-      <c r="B71" s="9" t="n"/>
-      <c r="C71" s="9" t="n"/>
+      <c r="B75" s="9" t="n"/>
+      <c r="C75" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
   </mergeCells>
-  <dataValidations count="22">
+  <dataValidations count="26">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
@@ -11911,26 +11978,30 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B36" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C36" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2436,13 +2436,13 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>metro_backup_root</author>
-    <author>vsd_pre_upgrade_check_script</author>
     <author>upgrade_from_version</author>
     <author>upgrade_to_version</author>
     <author>backup_vsd_host_file</author>
     <author>skip_disable_stats_collection</author>
     <author>force_vsc_standalone_upgrade</author>
     <author>upgrade_portal</author>
+    <author>vsd_pre_upgrade_check_script</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2452,37 +2452,37 @@
     </comment>
     <comment authorId="1" ref="A6" shapeId="0">
       <text>
+        <t>Version VSP is being upgraded from. Required for all component upgrades. [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Version VSP is being upgraded to. Required for all component upgrades. [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Backup the /etc/hosts file on VSD before upgrade and restore it after upgrade [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A9" shapeId="0">
+      <text>
+        <t>Stats collection should be disabled during VSD upgrade. If for some reason, you would like to disable stats collection outside of MetroAE, change this to true. [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A10" shapeId="0">
+      <text>
+        <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A11" shapeId="0">
+      <text>
+        <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A13" shapeId="0">
+      <text>
         <t>Path to the VSD Pre upgrade check script file for the VSD [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Version VSP is being upgraded from. Required for all component upgrades. [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Version VSP is being upgraded to. Required for all component upgrades. [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A9" shapeId="0">
-      <text>
-        <t>Backup the /etc/hosts file on VSD before upgrade and restore it after upgrade [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A10" shapeId="0">
-      <text>
-        <t>Stats collection should be disabled during VSD upgrade. If for some reason, you would like to disable stats collection outside of MetroAE, change this to true. [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A11" shapeId="0">
-      <text>
-        <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A12" shapeId="0">
-      <text>
-        <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -10232,7 +10232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10274,66 +10274,77 @@
       <c r="B5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>VSD Pre upgrade check script File</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n"/>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade From Version</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>Upgrade From Version</t>
+          <t>Upgrade To Version</t>
         </is>
       </c>
       <c r="B7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Upgrade To Version</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n"/>
+      <c r="A8" s="8" t="inlineStr">
+        <is>
+          <t>Backup the /etc/hosts file on VSD</t>
+        </is>
+      </c>
+      <c r="B8" s="9" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
         <is>
-          <t>Backup the /etc/hosts file on VSD</t>
+          <t>Skip stats collection disable before upgrade</t>
         </is>
       </c>
       <c r="B9" s="9" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Skip stats collection disable before upgrade</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n"/>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Force vscs standalone</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>Force vscs standalone</t>
+          <t>Upgrade SD-WAN Portal(s)</t>
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Upgrade SD-WAN Portal(s)</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>VSD Pre upgrade Script</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="inlineStr">
+        <is>
+          <t>VSD Pre upgrade check script File</t>
+        </is>
+      </c>
+      <c r="B13" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -10341,9 +10352,6 @@
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2369,6 +2369,8 @@
     <author>target_server_type</author>
     <author>target_server</author>
     <author>cpuset</author>
+    <author>cert_name</author>
+    <author>run_incompass_operation</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2414,6 +2416,16 @@
     <comment authorId="8" ref="A14" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, Webfilter requires 2 cores and sample values will be of the form [1, 2] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Provide certificate username for Webfiler VM. Defaults to webfilter [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Run incompass operation command. This is enabled by default and may take up to 20 minutes and requires internet connection. [default: True]</t>
       </text>
     </comment>
   </commentList>
@@ -3139,6 +3151,8 @@
     <author>repo_name</author>
     <author>add_extra_disk</author>
     <author>extra_disk_size_gb</author>
+    <author>extra_disk_device</author>
+    <author>extra_disk_mount_point</author>
     <author>extra_disk_image_path</author>
     <author>extra_disk_image_file_name</author>
     <author>cpuset</author>
@@ -3324,30 +3338,40 @@
     </comment>
     <comment authorId="35" ref="A46" shapeId="0">
       <text>
+        <t>Device for extra disk [default: vdb]</t>
+      </text>
+    </comment>
+    <comment authorId="36" ref="A47" shapeId="0">
+      <text>
+        <t>Mount point for extra disk [default: /var/lib/elasticsearch/]</t>
+      </text>
+    </comment>
+    <comment authorId="37" ref="A48" shapeId="0">
+      <text>
         <t>Path on the hypervisor to store the extra disk image. Supported on KVM only. [default: /var/lib/libvirt/images]</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="38" ref="A49" shapeId="0">
       <text>
         <t>Name of the extra disk image file. Supported on KVM only. [default: extra-disk-(hostname)]</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A49" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSTAT requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A50" shapeId="0">
+    <comment authorId="40" ref="A52" shapeId="0">
       <text>
         <t>Enable the setup of the Virtualized Security Services UI [default: False]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A51" shapeId="0">
+    <comment authorId="41" ref="A53" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A52" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -9958,7 +9982,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10120,12 +10144,46 @@
       <c r="F14" s="9" t="n"/>
       <c r="G14" s="9" t="n"/>
     </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Webfilter details</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="inlineStr">
+        <is>
+          <t>Certificate Username</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="D16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
+      <c r="F16" s="9" t="n"/>
+      <c r="G16" s="9" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="8" t="inlineStr">
+        <is>
+          <t>Run incompass operation command</t>
+        </is>
+      </c>
+      <c r="B17" s="9" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="9" t="n"/>
+      <c r="E17" s="9" t="n"/>
+      <c r="F17" s="9" t="n"/>
+      <c r="G17" s="9" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
-  <dataValidations count="12">
+  <dataValidations count="18">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -10149,6 +10207,24 @@
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="list">
+      <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -11938,7 +12014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12608,7 +12684,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image path on hypervisor</t>
+          <t>Extra Disk Device</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -12621,7 +12697,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>Extra disk image file prefix</t>
+          <t>Extra Disk Mount Point</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -12632,42 +12708,42 @@
       <c r="G47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>Extra disk image path on hypervisor</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
+      <c r="C48" s="7" t="n"/>
+      <c r="D48" s="7" t="n"/>
+      <c r="E48" s="7" t="n"/>
+      <c r="F48" s="7" t="n"/>
+      <c r="G48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>Extra disk image file prefix</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+      <c r="C49" s="7" t="n"/>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="7" t="n"/>
+      <c r="F49" s="7" t="n"/>
+      <c r="G49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>Other configuration</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B49" s="9" t="n"/>
-      <c r="C49" s="9" t="n"/>
-      <c r="D49" s="9" t="n"/>
-      <c r="E49" s="9" t="n"/>
-      <c r="F49" s="9" t="n"/>
-      <c r="G49" s="9" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="8" t="inlineStr">
-        <is>
-          <t>Enable VSS UI</t>
-        </is>
-      </c>
-      <c r="B50" s="9" t="n"/>
-      <c r="C50" s="9" t="n"/>
-      <c r="D50" s="9" t="n"/>
-      <c r="E50" s="9" t="n"/>
-      <c r="F50" s="9" t="n"/>
-      <c r="G50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>KVM cpuset information</t>
         </is>
       </c>
       <c r="B51" s="9" t="n"/>
@@ -12680,7 +12756,7 @@
     <row r="52">
       <c r="A52" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Enable VSS UI</t>
         </is>
       </c>
       <c r="B52" s="9" t="n"/>
@@ -12689,6 +12765,32 @@
       <c r="E52" s="9" t="n"/>
       <c r="F52" s="9" t="n"/>
       <c r="G52" s="9" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>Health monitoring agent</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -12699,7 +12801,7 @@
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A50:G50"/>
   </mergeCells>
   <dataValidations count="54">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
@@ -12780,40 +12882,40 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E45" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F45" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G45" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G50" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G52" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2480,9 +2480,9 @@
         <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
-      <text>
-        <t>Path to the VSD Pre upgrade check script file for the VSD [default: ]</t>
+    <comment authorId="7" ref="A12" shapeId="0">
+      <text>
+        <t>Path to the VSD Pre upgrade check script [default: ]</t>
       </text>
     </comment>
   </commentList>
@@ -10232,7 +10232,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10322,24 +10322,16 @@
       <c r="B11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>VSD Pre upgrade Script</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8" t="inlineStr">
+      <c r="A12" s="8" t="inlineStr">
         <is>
           <t>VSD Pre upgrade check script File</t>
         </is>
       </c>
-      <c r="B13" s="9" t="n"/>
+      <c r="B12" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A12:B12"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="list">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2471,7 +2471,7 @@
     </comment>
     <comment authorId="5" ref="A10" shapeId="0">
       <text>
-        <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs, This is deprecated in favor of usused use-case and and will be removed in future releases.  [default: False]</t>
+        <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs. Do not use this parameter. Support has been removed. This is deprecated and and will be removed in a future release.  [default: False]</t>
       </text>
     </comment>
     <comment authorId="6" ref="A11" shapeId="0">
@@ -4135,7 +4135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4202,12 +4202,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4328,12 +4328,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4510,12 +4510,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5447,12 +5447,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5519,12 +5519,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5690,12 +5690,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5821,12 +5821,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6255,12 +6255,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6629,12 +6629,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6920,12 +6920,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6992,12 +6992,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8148,12 +8148,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8432,12 +8432,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8730,12 +8730,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9424,12 +9424,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9648,12 +9648,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9972,12 +9972,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10228,12 +10228,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10346,12 +10346,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11222,12 +11222,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12004,12 +12004,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12920,12 +12920,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13748,12 +13748,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14106,12 +14106,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14211,6 +14211,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4141,7 +4141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4208,12 +4208,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4334,12 +4334,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4516,12 +4516,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5453,12 +5453,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5525,12 +5525,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5696,12 +5696,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5827,12 +5827,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6261,12 +6261,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6635,12 +6635,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6926,12 +6926,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6998,12 +6998,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8154,12 +8154,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8438,12 +8438,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8736,12 +8736,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9430,12 +9430,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9654,12 +9654,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9978,12 +9978,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10234,12 +10234,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10360,12 +10360,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11236,12 +11236,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12018,12 +12018,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12934,12 +12934,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13762,12 +13762,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14120,12 +14120,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14225,6 +14225,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2472,7 +2472,7 @@
     </comment>
     <comment authorId="5" ref="A10" shapeId="0">
       <text>
-        <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs [default: False]</t>
+        <t>Force all the vscs to deploy in standalone mode, otherwise the vscs will be deployed in ha mode if there are more than one vscs. Do not use this parameter. Support has been removed. This is deprecated and and will be removed in a future release.  [default: False]</t>
       </text>
     </comment>
     <comment authorId="6" ref="A11" shapeId="0">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2527,6 +2527,13 @@
     <author>intermediate_certificate_path</author>
     <author>certificate_path</author>
     <author>credentials_set</author>
+    <author>vsd_ram</author>
+    <author>vsd_cpu_cores</author>
+    <author>vsd_run_disk_performance_test</author>
+    <author>vsd_disk_performance_test_total_file_size</author>
+    <author>vsd_disk_performance_test_minimum_threshold</author>
+    <author>vsd_disk_performance_test_max_time</author>
+    <author>vsd_ignore_disk_performance_test_errors</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2732,6 +2739,41 @@
     <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
+      </text>
+    </comment>
+    <comment authorId="41" ref="A53" shapeId="0">
+      <text>
+        <t>Amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: (global VSD RAM)]</t>
+      </text>
+    </comment>
+    <comment authorId="42" ref="A54" shapeId="0">
+      <text>
+        <t>Number of CPU's for VSD. [default: (global VSD CPU Cores)]</t>
+      </text>
+    </comment>
+    <comment authorId="43" ref="A55" shapeId="0">
+      <text>
+        <t>Run the VSD disk performance test when true, else skip the test [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="44" ref="A56" shapeId="0">
+      <text>
+        <t>Sets the total size of created files for VSD disk performance test. For a valid measurement, the total file size must be larger than VSD RAM to minimize the effects of caching. [default: 100G]</t>
+      </text>
+    </comment>
+    <comment authorId="45" ref="A57" shapeId="0">
+      <text>
+        <t>Sets the minimum value for VSD disk performance test in IOPS [default: 10000]</t>
+      </text>
+    </comment>
+    <comment authorId="46" ref="A58" shapeId="0">
+      <text>
+        <t>Sets the duration of the VSD disk performance test in seconds [default: 300]</t>
+      </text>
+    </comment>
+    <comment authorId="47" ref="A59" shapeId="0">
+      <text>
+        <t>When true, ignore the results of the VSD disk performance test [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -3159,6 +3201,9 @@
     <author>enable_vss_ui</author>
     <author>health_monitoring_agent</author>
     <author>credentials_set</author>
+    <author>vstat_ram</author>
+    <author>vstat_cpu_cores</author>
+    <author>vstat_allocate_size_gb</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -3374,6 +3419,21 @@
     <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
+      </text>
+    </comment>
+    <comment authorId="43" ref="A56" shapeId="0">
+      <text>
+        <t>Valid for only KVM and VCenter deployments. Amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: (global VSTAT RAM)]</t>
+      </text>
+    </comment>
+    <comment authorId="44" ref="A57" shapeId="0">
+      <text>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSTAT. [default: (global VSTAT CPU)]</t>
+      </text>
+    </comment>
+    <comment authorId="45" ref="A58" shapeId="0">
+      <text>
+        <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: (global VSTAT DISK)]</t>
       </text>
     </comment>
   </commentList>
@@ -10356,7 +10416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11101,8 +11161,106 @@
       <c r="F51" s="9" t="n"/>
       <c r="G51" s="9" t="n"/>
     </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>VSD RAM, CPU and Disk Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD RAM</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD CPU cores</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>Run VSD Disk Performance Test</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="n"/>
+      <c r="C55" s="9" t="n"/>
+      <c r="D55" s="9" t="n"/>
+      <c r="E55" s="9" t="n"/>
+      <c r="F55" s="9" t="n"/>
+      <c r="G55" s="9" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>Total Size of Disk Performance Test Files</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="9" t="n"/>
+      <c r="F56" s="9" t="n"/>
+      <c r="G56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>Minimum Disk Performance Threshold</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+      <c r="C57" s="9" t="n"/>
+      <c r="D57" s="9" t="n"/>
+      <c r="E57" s="9" t="n"/>
+      <c r="F57" s="9" t="n"/>
+      <c r="G57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>Duration of Disk Performance Test in Seconds</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+      <c r="D58" s="9" t="n"/>
+      <c r="E58" s="9" t="n"/>
+      <c r="F58" s="9" t="n"/>
+      <c r="G58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>Ignore Disk Performance Test Errors</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+      <c r="C59" s="9" t="n"/>
+      <c r="D59" s="9" t="n"/>
+      <c r="E59" s="9" t="n"/>
+      <c r="F59" s="9" t="n"/>
+      <c r="G59" s="9" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A15:G15"/>
@@ -11110,8 +11268,9 @@
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A52:G52"/>
   </mergeCells>
-  <dataValidations count="48">
+  <dataValidations count="72">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -11219,6 +11378,54 @@
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
       <formula1>"1.0,1.2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D55" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E55" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F55" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D59" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E59" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F59" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G59" type="list">
+      <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -12014,7 +12221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12792,8 +12999,54 @@
       <c r="F54" s="9" t="n"/>
       <c r="G54" s="9" t="n"/>
     </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>VSTAT RAM, CPU and Disk Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT RAM</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="9" t="n"/>
+      <c r="F56" s="9" t="n"/>
+      <c r="G56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT CPU cores</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+      <c r="C57" s="9" t="n"/>
+      <c r="D57" s="9" t="n"/>
+      <c r="E57" s="9" t="n"/>
+      <c r="F57" s="9" t="n"/>
+      <c r="G57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT Disk Size</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+      <c r="D58" s="9" t="n"/>
+      <c r="E58" s="9" t="n"/>
+      <c r="F58" s="9" t="n"/>
+      <c r="G58" s="9" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A16:G16"/>
@@ -12802,8 +13055,9 @@
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A55:G55"/>
   </mergeCells>
-  <dataValidations count="54">
+  <dataValidations count="72">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -12918,6 +13172,24 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2529,11 +2529,7 @@
     <author>credentials_set</author>
     <author>vsd_ram</author>
     <author>vsd_cpu_cores</author>
-    <author>vsd_run_disk_performance_test</author>
-    <author>vsd_disk_performance_test_total_file_size</author>
-    <author>vsd_disk_performance_test_minimum_threshold</author>
-    <author>vsd_disk_performance_test_max_time</author>
-    <author>vsd_ignore_disk_performance_test_errors</author>
+    <author>vsd_fallocate_size_gb</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2753,27 +2749,7 @@
     </comment>
     <comment authorId="43" ref="A55" shapeId="0">
       <text>
-        <t>Run the VSD disk performance test when true, else skip the test [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
-      <text>
-        <t>Sets the total size of created files for VSD disk performance test. For a valid measurement, the total file size must be larger than VSD RAM to minimize the effects of caching. [default: 100G]</t>
-      </text>
-    </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
-      <text>
-        <t>Sets the minimum value for VSD disk performance test in IOPS [default: 10000]</t>
-      </text>
-    </comment>
-    <comment authorId="46" ref="A58" shapeId="0">
-      <text>
-        <t>Sets the duration of the VSD disk performance test in seconds [default: 300]</t>
-      </text>
-    </comment>
-    <comment authorId="47" ref="A59" shapeId="0">
-      <text>
-        <t>When true, ignore the results of the VSD disk performance test [default: False]</t>
+        <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: (global VSD CPU Cores)]</t>
       </text>
     </comment>
   </commentList>
@@ -10416,7 +10392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11197,7 +11173,7 @@
     <row r="55">
       <c r="A55" s="8" t="inlineStr">
         <is>
-          <t>Run VSD Disk Performance Test</t>
+          <t>VSD Disk Size</t>
         </is>
       </c>
       <c r="B55" s="9" t="n"/>
@@ -11206,58 +11182,6 @@
       <c r="E55" s="9" t="n"/>
       <c r="F55" s="9" t="n"/>
       <c r="G55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Total Size of Disk Performance Test Files</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-      <c r="D56" s="9" t="n"/>
-      <c r="E56" s="9" t="n"/>
-      <c r="F56" s="9" t="n"/>
-      <c r="G56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Minimum Disk Performance Threshold</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-      <c r="D57" s="9" t="n"/>
-      <c r="E57" s="9" t="n"/>
-      <c r="F57" s="9" t="n"/>
-      <c r="G57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>Duration of Disk Performance Test in Seconds</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-      <c r="C58" s="9" t="n"/>
-      <c r="D58" s="9" t="n"/>
-      <c r="E58" s="9" t="n"/>
-      <c r="F58" s="9" t="n"/>
-      <c r="G58" s="9" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>Ignore Disk Performance Test Errors</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="n"/>
-      <c r="C59" s="9" t="n"/>
-      <c r="D59" s="9" t="n"/>
-      <c r="E59" s="9" t="n"/>
-      <c r="F59" s="9" t="n"/>
-      <c r="G59" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11270,7 +11194,7 @@
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A52:G52"/>
   </mergeCells>
-  <dataValidations count="72">
+  <dataValidations count="66">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -11391,42 +11315,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E54" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F54" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G54" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D55" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E55" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F55" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D59" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E59" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F59" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G59" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Nsgv network port vlans" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Nsgvs" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nuh common" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh external interfaces" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuh vrrp" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Nuhs" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Portals" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Proxys" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Stcv global" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Stcvs" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Vcins" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vnsutils" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vrss" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Vsrs" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Webfilters" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -314,6 +315,51 @@
 <file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>name</author>
+    <author>vlan_number</author>
+    <author>vsc_infra_profile_name</author>
+    <author>first_controller_address</author>
+    <author>second_controller_address</author>
+    <author>uplink</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>VLAN name of the NSGv network port [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>VLAN number of the NSGv network port [default: 0]</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A9" shapeId="0">
+      <text>
+        <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A10" shapeId="0">
+      <text>
+        <t>If vlan 0 has an uplink, then other vlans can't. If multiple uplinks are defined, then network acceleration will be enabled [default: No]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>vmname</author>
     <author>target_server_type</author>
     <author>target_server</author>
@@ -359,6 +405,7 @@
     <author>second_controller_address</author>
     <author>network_port_name</author>
     <author>network_port_physical_name</author>
+    <author>network_port_vlans</author>
     <author>access_port_name</author>
     <author>access_port_physical_name</author>
     <author>access_port_vlan_range</author>
@@ -595,35 +642,40 @@
     </comment>
     <comment authorId="45" ref="A59" shapeId="0">
       <text>
+        <t>VLAN name list of the network port for the NSG (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="46" ref="A60" shapeId="0">
+      <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A60" shapeId="0">
+    <comment authorId="47" ref="A61" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A61" shapeId="0">
+    <comment authorId="48" ref="A62" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A62" shapeId="0">
+    <comment authorId="49" ref="A63" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A63" shapeId="0">
+    <comment authorId="50" ref="A64" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A65" shapeId="0">
+    <comment authorId="51" ref="A66" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A66" shapeId="0">
+    <comment authorId="52" ref="A67" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -632,7 +684,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vsdconfig_enable</author>
@@ -653,7 +705,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -710,7 +762,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>router_id</author>
@@ -743,7 +795,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -878,7 +930,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -989,7 +1041,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1076,33 +1128,6 @@
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t>The FQDN value that VSD3 VM holds</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>stcv_image_path</author>
-    <author>stcv_image_filename</author>
-    <author>spirent_license_server</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Path on the MetroAE host for the qcow2 image for the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Name of the qcow2 image for the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>IP address of the server where the STCv license is found</t>
       </text>
     </comment>
   </commentList>
@@ -1745,6 +1770,33 @@
 <file path=xl/comments/comment20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>stcv_image_path</author>
+    <author>stcv_image_filename</author>
+    <author>spirent_license_server</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Path on the MetroAE host for the qcow2 image for the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Name of the qcow2 image for the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>IP address of the server where the STCv license is found</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>target_server</author>
     <author>target_server_type</author>
     <author>hostname</author>
@@ -1829,7 +1881,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1928,7 +1980,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2183,7 +2235,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2246,7 +2298,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2357,7 +2409,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2765,6 +2817,9 @@
     <author>internal_ctrl_ip</author>
     <author>internal_data_gateway_ip</author>
     <author>route_reflector_ip_list</author>
+    <author>bgp_interface_ip_address</author>
+    <author>bgp_interface_ip_prefix</author>
+    <author>bgp_interface_vlan_id</author>
     <author>vcenter_datacenter</author>
     <author>vcenter_cluster</author>
     <author>vcenter_host_reference</author>
@@ -2923,170 +2978,185 @@
     </comment>
     <comment authorId="24" ref="A34" shapeId="0">
       <text>
+        <t>IP Address for Optional BGP Interface</t>
+      </text>
+    </comment>
+    <comment authorId="25" ref="A35" shapeId="0">
+      <text>
+        <t>Prefix length for the optional BGP interface [default: 24]</t>
+      </text>
+    </comment>
+    <comment authorId="26" ref="A36" shapeId="0">
+      <text>
+        <t>VLAN ID for the optional BGP interface [default: 1000]</t>
+      </text>
+    </comment>
+    <comment authorId="27" ref="A38" shapeId="0">
+      <text>
         <t>Name of the vCenter Datacenter on which the VSC VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="25" ref="A35" shapeId="0">
+    <comment authorId="28" ref="A39" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSC VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="26" ref="A36" shapeId="0">
+    <comment authorId="29" ref="A40" shapeId="0">
       <text>
         <t>Requires ovftool 4.3. Reference to the host on the vCenter cluster on which to deploy Nuage components [default: (global vCenter Host Reference)]</t>
       </text>
     </comment>
-    <comment authorId="27" ref="A37" shapeId="0">
+    <comment authorId="30" ref="A41" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSC VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
     </comment>
-    <comment authorId="28" ref="A38" shapeId="0">
+    <comment authorId="31" ref="A42" shapeId="0">
       <text>
         <t>Optional path to a folder defined on vCenter where VM will be instantiated [default: (global vCenter VM folder)]</t>
       </text>
     </comment>
-    <comment authorId="29" ref="A39" shapeId="0">
+    <comment authorId="32" ref="A43" shapeId="0">
       <text>
         <t>Optional path to a hosts and clusters folder defined on vCenter where VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="30" ref="A41" shapeId="0">
+    <comment authorId="33" ref="A45" shapeId="0">
       <text>
         <t>Name of image installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="31" ref="A42" shapeId="0">
+    <comment authorId="34" ref="A46" shapeId="0">
       <text>
         <t>Name of instance flavor installed on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="32" ref="A43" shapeId="0">
+    <comment authorId="35" ref="A47" shapeId="0">
       <text>
         <t>Name of availability zone on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="33" ref="A44" shapeId="0">
+    <comment authorId="36" ref="A48" shapeId="0">
       <text>
         <t>Name of management network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="34" ref="A45" shapeId="0">
+    <comment authorId="37" ref="A49" shapeId="0">
       <text>
         <t>Name of management subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="35" ref="A46" shapeId="0">
+    <comment authorId="38" ref="A50" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="36" ref="A47" shapeId="0">
+    <comment authorId="39" ref="A51" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="37" ref="A48" shapeId="0">
+    <comment authorId="40" ref="A52" shapeId="0">
       <text>
         <t>Name of control network on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="38" ref="A49" shapeId="0">
+    <comment authorId="41" ref="A53" shapeId="0">
       <text>
         <t>Name of control subnet on OpenStack for VSC</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A50" shapeId="0">
+    <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name for Control interface</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A51" shapeId="0">
+    <comment authorId="43" ref="A55" shapeId="0">
       <text>
         <t>Set of security groups to associate with Control interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A52" shapeId="0">
+    <comment authorId="44" ref="A56" shapeId="0">
       <text>
         <t>Name for Mgmt interface</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A53" shapeId="0">
+    <comment authorId="45" ref="A57" shapeId="0">
       <text>
         <t>Set of security groups to associate with Mgmt interface (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A55" shapeId="0">
+    <comment authorId="46" ref="A59" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A56" shapeId="0">
+    <comment authorId="47" ref="A60" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A57" shapeId="0">
+    <comment authorId="48" ref="A61" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A58" shapeId="0">
+    <comment authorId="49" ref="A62" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A59" shapeId="0">
+    <comment authorId="50" ref="A63" shapeId="0">
       <text>
         <t>Used in postdeploy and health workflows as expected values if non-zero [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A61" shapeId="0">
+    <comment authorId="51" ref="A65" shapeId="0">
       <text>
         <t>Ejabberd user id used to create the certificate</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A62" shapeId="0">
+    <comment authorId="52" ref="A66" shapeId="0">
       <text>
         <t>Path to VSC certificate key pem file</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A63" shapeId="0">
+    <comment authorId="53" ref="A67" shapeId="0">
       <text>
         <t>Path to VSC certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A64" shapeId="0">
+    <comment authorId="54" ref="A68" shapeId="0">
       <text>
         <t>Path to CA certificate pem file</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A65" shapeId="0">
+    <comment authorId="55" ref="A69" shapeId="0">
       <text>
         <t>XMPP domain used in custom certificates</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A66" shapeId="0">
+    <comment authorId="56" ref="A70" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsc</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A68" shapeId="0">
+    <comment authorId="57" ref="A72" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, VSC requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A69" shapeId="0">
+    <comment authorId="58" ref="A73" shapeId="0">
       <text>
         <t>Enables hardening configuration on VSC [default: True]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A70" shapeId="0">
+    <comment authorId="59" ref="A74" shapeId="0">
       <text>
         <t>Paths to files that can be optionally applied for additional VSC configuration (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A71" shapeId="0">
+    <comment authorId="60" ref="A75" shapeId="0">
       <text>
         <t>This will override the Metro Provided config on the VSC by the config provided in vsc_config_file_paths [default: False]</t>
       </text>
@@ -4105,7 +4175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4172,12 +4242,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4298,12 +4368,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4480,17 +4550,17 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4510,28 +4580,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Network Services Gateway</t>
+          <t>NSGv Network Port VLANs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Specify configuration for Nuage MetroAE NSGvs.</t>
+          <t>Specify NSGvs network port VLAN configuration.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>VM and Target Server</t>
+          <t>Network ports</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>VM name</t>
+          <t>NSGv Network Port VLAN Name</t>
         </is>
       </c>
       <c r="B5" s="5" t="n"/>
@@ -4544,7 +4614,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Target Server type</t>
+          <t>NSGv Network Port VLAN Number</t>
         </is>
       </c>
       <c r="B6" s="5" t="n"/>
@@ -4557,7 +4627,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Target Server hostname</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B7" s="5" t="n"/>
@@ -4568,6 +4638,163 @@
       <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile First Controller</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile Second Controller</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Create uplink connection on this Vlan</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Network Services Gateway</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage MetroAE NSGvs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>VM and Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Target Server type</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Target Server hostname</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Number of CPU cores</t>
@@ -5179,7 +5406,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port VLAN list</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
@@ -5192,7 +5419,7 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B60" s="9" t="n"/>
@@ -5205,7 +5432,7 @@
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -5218,7 +5445,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -5229,42 +5456,42 @@
       <c r="G62" s="9" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="inlineStr">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+      <c r="G63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B63" s="7" t="n"/>
-      <c r="C63" s="7" t="n"/>
-      <c r="D63" s="7" t="n"/>
-      <c r="E63" s="7" t="n"/>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="7" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="B64" s="7" t="n"/>
+      <c r="C64" s="7" t="n"/>
+      <c r="D64" s="7" t="n"/>
+      <c r="E64" s="7" t="n"/>
+      <c r="F64" s="7" t="n"/>
+      <c r="G64" s="7" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="n"/>
-      <c r="C65" s="9" t="n"/>
-      <c r="D65" s="9" t="n"/>
-      <c r="E65" s="9" t="n"/>
-      <c r="F65" s="9" t="n"/>
-      <c r="G65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
@@ -5273,6 +5500,19 @@
       <c r="E66" s="9" t="n"/>
       <c r="F66" s="9" t="n"/>
       <c r="G66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
+      <c r="D67" s="9" t="n"/>
+      <c r="E67" s="9" t="n"/>
+      <c r="F67" s="9" t="n"/>
+      <c r="G67" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5286,7 +5526,7 @@
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A65:G65"/>
   </mergeCells>
   <dataValidations count="54">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
@@ -5403,26 +5643,26 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G66" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5489,12 +5729,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5660,12 +5900,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5791,12 +6031,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6225,12 +6465,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6599,12 +6839,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6890,84 +7130,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="70"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>STCv Globals</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify configuration for Nuage STCvs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>STCv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>STCv Image Path</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>STCv Image Filename</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Spirent License Server</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8118,12 +8286,84 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STCv Globals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage STCvs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>STCv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>STCv Image Path</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>STCv Image Filename</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Spirent License Server</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8402,12 +8642,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8700,12 +8940,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9394,12 +9634,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9618,12 +9858,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9942,12 +10182,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10198,12 +10438,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10316,12 +10556,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11192,17 +11432,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11547,111 +11787,109 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>vCenter Parameters</t>
+          <t>BGP Interface</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datacenter Name</t>
+          <t>BGP Interface IP Address</t>
         </is>
       </c>
       <c r="B34" s="9" t="n"/>
       <c r="C34" s="9" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-      <c r="C35" s="9" t="n"/>
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>BGP Interface Prefix length</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
+      <c r="C35" s="7" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="8" t="inlineStr">
         <is>
-          <t>vCenter Host Reference</t>
+          <t>BGP Interface VLAN ID</t>
         </is>
       </c>
       <c r="B36" s="9" t="n"/>
       <c r="C36" s="9" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B37" s="9" t="n"/>
-      <c r="C37" s="9" t="n"/>
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>vCenter Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
-      <c r="C38" s="7" t="n"/>
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter Name</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+      <c r="C38" s="9" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="8" t="inlineStr">
         <is>
-          <t>vCenter Hosts and Clusters Folder</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B39" s="9" t="n"/>
       <c r="C39" s="9" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack Parameters</t>
-        </is>
-      </c>
+      <c r="A40" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B40" s="9" t="n"/>
+      <c r="C40" s="9" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Image</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-      <c r="C41" s="7" t="n"/>
+      <c r="A41" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B41" s="9" t="n"/>
+      <c r="C41" s="9" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Flavor</t>
+          <t>vCenter VM Folder</t>
         </is>
       </c>
       <c r="B42" s="7" t="n"/>
       <c r="C42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Availability Zone</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
-      <c r="C43" s="7" t="n"/>
+      <c r="A43" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B43" s="9" t="n"/>
+      <c r="C43" s="9" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Mgmt Network</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-      <c r="C44" s="7" t="n"/>
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack Parameters</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Subnet</t>
+          <t>OpenStack Image</t>
         </is>
       </c>
       <c r="B45" s="7" t="n"/>
@@ -11660,7 +11898,7 @@
     <row r="46">
       <c r="A46" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Name</t>
+          <t>OpenStack Flavor</t>
         </is>
       </c>
       <c r="B46" s="7" t="n"/>
@@ -11669,7 +11907,7 @@
     <row r="47">
       <c r="A47" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Mgmt Port Security Groups</t>
+          <t>OpenStack Availability Zone</t>
         </is>
       </c>
       <c r="B47" s="7" t="n"/>
@@ -11678,7 +11916,7 @@
     <row r="48">
       <c r="A48" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Network</t>
+          <t>OpenStack Mgmt Network</t>
         </is>
       </c>
       <c r="B48" s="7" t="n"/>
@@ -11687,7 +11925,7 @@
     <row r="49">
       <c r="A49" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Subnet</t>
+          <t>OpenStack Mgmt Subnet</t>
         </is>
       </c>
       <c r="B49" s="7" t="n"/>
@@ -11696,7 +11934,7 @@
     <row r="50">
       <c r="A50" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Name</t>
+          <t>OpenStack Mgmt Port Name</t>
         </is>
       </c>
       <c r="B50" s="7" t="n"/>
@@ -11705,7 +11943,7 @@
     <row r="51">
       <c r="A51" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Control Port Security Groups</t>
+          <t>OpenStack Mgmt Port Security Groups</t>
         </is>
       </c>
       <c r="B51" s="7" t="n"/>
@@ -11714,7 +11952,7 @@
     <row r="52">
       <c r="A52" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Name</t>
+          <t>OpenStack Control Network</t>
         </is>
       </c>
       <c r="B52" s="7" t="n"/>
@@ -11723,75 +11961,77 @@
     <row r="53">
       <c r="A53" s="6" t="inlineStr">
         <is>
-          <t>OpenStack Port Security Groups</t>
+          <t>OpenStack Control Subnet</t>
         </is>
       </c>
       <c r="B53" s="7" t="n"/>
       <c r="C53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Name</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Control Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+      <c r="C55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Name</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+      <c r="C56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Port Security Groups</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n"/>
+      <c r="C57" s="7" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>Health Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of BGP neighbors</t>
-        </is>
-      </c>
-      <c r="B55" s="9" t="n"/>
-      <c r="C55" s="9" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of vswitches</t>
-        </is>
-      </c>
-      <c r="B56" s="9" t="n"/>
-      <c r="C56" s="9" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of host vports</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-      <c r="C57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>Expected number of VM vports</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-      <c r="C58" s="9" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>Expected number of gateway ports</t>
+          <t>Expected number of BGP neighbors</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
       <c r="C59" s="9" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Certificates and credentials</t>
-        </is>
-      </c>
+      <c r="A60" s="8" t="inlineStr">
+        <is>
+          <t>Expected number of vswitches</t>
+        </is>
+      </c>
+      <c r="B60" s="9" t="n"/>
+      <c r="C60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>Ejabberd user id</t>
+          <t>Expected number of host vports</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -11800,7 +12040,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>Private key path</t>
+          <t>Expected number of VM vports</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -11809,25 +12049,23 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
-          <t>Certificate path</t>
+          <t>Expected number of gateway ports</t>
         </is>
       </c>
       <c r="B63" s="9" t="n"/>
       <c r="C63" s="9" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="8" t="inlineStr">
-        <is>
-          <t>CA certificate path</t>
-        </is>
-      </c>
-      <c r="B64" s="9" t="n"/>
-      <c r="C64" s="9" t="n"/>
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Certificates and credentials</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="8" t="inlineStr">
         <is>
-          <t>XMPP domain</t>
+          <t>Ejabberd user id</t>
         </is>
       </c>
       <c r="B65" s="9" t="n"/>
@@ -11836,23 +12074,25 @@
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Private key path</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
       <c r="C66" s="9" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>VSC Options</t>
-        </is>
-      </c>
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Certificate path</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>CA certificate path</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -11861,7 +12101,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>Harden VSC</t>
+          <t>XMPP domain</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
@@ -11870,35 +12110,70 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>Paths to VSC Config Files</t>
+          <t>Credentials set name</t>
         </is>
       </c>
       <c r="B70" s="9" t="n"/>
       <c r="C70" s="9" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="8" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>VSC Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+      <c r="C72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
+          <t>Harden VSC</t>
+        </is>
+      </c>
+      <c r="B73" s="9" t="n"/>
+      <c r="C73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Paths to VSC Config Files</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+      <c r="C74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
         <is>
           <t>Override the configuration on VSC</t>
         </is>
       </c>
-      <c r="B71" s="9" t="n"/>
-      <c r="C71" s="9" t="n"/>
+      <c r="B75" s="9" t="n"/>
+      <c r="C75" s="9" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A71:C71"/>
   </mergeCells>
-  <dataValidations count="22">
+  <dataValidations count="26">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="whole"/>
@@ -11911,36 +12186,40 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"kvm,vcenter,openstack,nuagex,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C35" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B36" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C36" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B59" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C59" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C60" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C61" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C69" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C73" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C71" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12825,12 +13104,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13653,12 +13932,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14011,12 +14290,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14116,6 +14395,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Nsgv network port vlans" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Nsgvs" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nuh common" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh external interfaces" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuh vrrp" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Nuhs" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Portals" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Proxys" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Stcv global" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Stcvs" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Vcins" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vnsutils" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vrss" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Vsrs" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Webfilters" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -314,6 +315,51 @@
 <file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>name</author>
+    <author>vlan_number</author>
+    <author>vsc_infra_profile_name</author>
+    <author>first_controller_address</author>
+    <author>second_controller_address</author>
+    <author>uplink</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>VLAN name of the NSGv network port [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>VLAN number of the NSGv network port [default: 0]</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A9" shapeId="0">
+      <text>
+        <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A10" shapeId="0">
+      <text>
+        <t>If vlan 0 has an uplink, then other vlans can't. If multiple uplinks are defined, then network acceleration will be enabled [default: No]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>vmname</author>
     <author>target_server_type</author>
     <author>target_server</author>
@@ -359,6 +405,7 @@
     <author>second_controller_address</author>
     <author>network_port_name</author>
     <author>network_port_physical_name</author>
+    <author>network_port_vlans</author>
     <author>access_port_name</author>
     <author>access_port_physical_name</author>
     <author>access_port_vlan_range</author>
@@ -595,35 +642,40 @@
     </comment>
     <comment authorId="45" ref="A59" shapeId="0">
       <text>
+        <t>VLAN name list of the network port for the NSG (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="46" ref="A60" shapeId="0">
+      <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A60" shapeId="0">
+    <comment authorId="47" ref="A61" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A61" shapeId="0">
+    <comment authorId="48" ref="A62" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A62" shapeId="0">
+    <comment authorId="49" ref="A63" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A63" shapeId="0">
+    <comment authorId="50" ref="A64" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A65" shapeId="0">
+    <comment authorId="51" ref="A66" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A66" shapeId="0">
+    <comment authorId="52" ref="A67" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -632,7 +684,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vsdconfig_enable</author>
@@ -653,7 +705,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -710,7 +762,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>router_id</author>
@@ -743,7 +795,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -878,7 +930,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -989,7 +1041,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1076,33 +1128,6 @@
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t>The FQDN value that VSD3 VM holds</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>stcv_image_path</author>
-    <author>stcv_image_filename</author>
-    <author>spirent_license_server</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Path on the MetroAE host for the qcow2 image for the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Name of the qcow2 image for the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>IP address of the server where the STCv license is found</t>
       </text>
     </comment>
   </commentList>
@@ -1745,6 +1770,33 @@
 <file path=xl/comments/comment20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>stcv_image_path</author>
+    <author>stcv_image_filename</author>
+    <author>spirent_license_server</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Path on the MetroAE host for the qcow2 image for the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Name of the qcow2 image for the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>IP address of the server where the STCv license is found</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>target_server</author>
     <author>target_server_type</author>
     <author>hostname</author>
@@ -1829,7 +1881,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1928,7 +1980,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2183,7 +2235,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2246,7 +2298,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2357,7 +2409,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -4135,7 +4187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4202,12 +4254,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4328,12 +4380,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4510,17 +4562,17 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4540,28 +4592,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Network Services Gateway</t>
+          <t>NSGv Network Port VLANs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Specify configuration for Nuage MetroAE NSGvs.</t>
+          <t>Specify NSGvs network port VLAN configuration.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>VM and Target Server</t>
+          <t>Network ports</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>VM name</t>
+          <t>NSGv Network Port VLAN Name</t>
         </is>
       </c>
       <c r="B5" s="5" t="n"/>
@@ -4574,7 +4626,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Target Server type</t>
+          <t>NSGv Network Port VLAN Number</t>
         </is>
       </c>
       <c r="B6" s="5" t="n"/>
@@ -4587,7 +4639,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Target Server hostname</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B7" s="5" t="n"/>
@@ -4598,6 +4650,163 @@
       <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile First Controller</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile Second Controller</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Create uplink connection on this Vlan</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Network Services Gateway</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage MetroAE NSGvs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>VM and Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Target Server type</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Target Server hostname</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Number of CPU cores</t>
@@ -5209,7 +5418,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port VLAN list</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
@@ -5222,7 +5431,7 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B60" s="9" t="n"/>
@@ -5235,7 +5444,7 @@
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -5248,7 +5457,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -5259,42 +5468,42 @@
       <c r="G62" s="9" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="inlineStr">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+      <c r="G63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B63" s="7" t="n"/>
-      <c r="C63" s="7" t="n"/>
-      <c r="D63" s="7" t="n"/>
-      <c r="E63" s="7" t="n"/>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="7" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="B64" s="7" t="n"/>
+      <c r="C64" s="7" t="n"/>
+      <c r="D64" s="7" t="n"/>
+      <c r="E64" s="7" t="n"/>
+      <c r="F64" s="7" t="n"/>
+      <c r="G64" s="7" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="n"/>
-      <c r="C65" s="9" t="n"/>
-      <c r="D65" s="9" t="n"/>
-      <c r="E65" s="9" t="n"/>
-      <c r="F65" s="9" t="n"/>
-      <c r="G65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
@@ -5303,6 +5512,19 @@
       <c r="E66" s="9" t="n"/>
       <c r="F66" s="9" t="n"/>
       <c r="G66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
+      <c r="D67" s="9" t="n"/>
+      <c r="E67" s="9" t="n"/>
+      <c r="F67" s="9" t="n"/>
+      <c r="G67" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5316,7 +5538,7 @@
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A65:G65"/>
   </mergeCells>
   <dataValidations count="54">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
@@ -5433,26 +5655,26 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G66" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5519,12 +5741,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5690,12 +5912,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5821,12 +6043,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6255,12 +6477,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6629,12 +6851,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6920,84 +7142,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="70"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>STCv Globals</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify configuration for Nuage STCvs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>STCv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>STCv Image Path</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>STCv Image Filename</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Spirent License Server</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8148,12 +8298,84 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STCv Globals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage STCvs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>STCv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>STCv Image Path</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>STCv Image Filename</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Spirent License Server</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8432,12 +8654,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8730,12 +8952,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9424,12 +9646,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9648,12 +9870,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9972,12 +10194,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10228,12 +10450,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10346,12 +10568,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11222,12 +11444,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12004,12 +12226,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12920,12 +13142,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13748,12 +13970,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14106,12 +14328,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14211,6 +14433,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,37 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4135,7 +4135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4202,12 +4202,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4328,12 +4328,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4510,12 +4510,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5447,12 +5447,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5519,12 +5519,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5690,12 +5690,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5821,12 +5821,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6255,12 +6255,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6629,12 +6629,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6920,12 +6920,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6992,12 +6992,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8148,12 +8148,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8432,12 +8432,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8730,12 +8730,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9424,12 +9424,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9648,12 +9648,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9972,12 +9972,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10228,12 +10228,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10346,12 +10346,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11222,12 +11222,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12004,12 +12004,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12920,12 +12920,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13748,12 +13748,12 @@
     <mergeCell ref="A65:G65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14106,12 +14106,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14211,6 +14211,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2442,6 +2442,7 @@
     <author>skip_disable_stats_collection</author>
     <author>force_vsc_standalone_upgrade</author>
     <author>upgrade_portal</author>
+    <author>vsd_preupgrade_db_script_path</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2477,6 +2478,11 @@
     <comment authorId="6" ref="A11" shapeId="0">
       <text>
         <t>Upgrade the SD-WAN Portal or Cluster [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A12" shapeId="0">
+      <text>
+        <t>Path to the VSD pre-upgrade database check script. [default: /media/CDROM]</t>
       </text>
     </comment>
   </commentList>
@@ -10238,7 +10244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10326,6 +10332,14 @@
         </is>
       </c>
       <c r="B11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>VSD Pre-upgrade Database Check Script Path</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2442,7 +2442,7 @@
     <author>skip_disable_stats_collection</author>
     <author>force_vsc_standalone_upgrade</author>
     <author>upgrade_portal</author>
-    <author>vsd_preupgrade_db_script_path</author>
+    <author>vsd_preupgrade_db_check_script_path</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2482,7 +2482,7 @@
     </comment>
     <comment authorId="7" ref="A12" shapeId="0">
       <text>
-        <t>Path to the VSD pre-upgrade database check script. [default: /media/CDROM]</t>
+        <t>Path on the MetroAE host to the VSD pre-upgrade database check script [default: ]</t>
       </text>
     </comment>
   </commentList>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -18,20 +18,21 @@
     <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgvs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nuh common" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh external interfaces" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh vrrp" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuhs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Portals" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Proxys" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Stcv global" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcvs" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Vcins" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vnsutils" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vrss" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vsrs" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Webfilters" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Nsgv network port vlans" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Nsgvs" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nuh common" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh external interfaces" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuh vrrp" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Nuhs" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Portals" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Proxys" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Stcv global" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Stcvs" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Vcins" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vnsutils" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vrss" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Vsrs" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Webfilters" sheetId="26" state="visible" r:id="rId26"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -314,6 +315,51 @@
 <file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>name</author>
+    <author>vlan_number</author>
+    <author>vsc_infra_profile_name</author>
+    <author>first_controller_address</author>
+    <author>second_controller_address</author>
+    <author>uplink</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>VLAN name of the NSGv network port [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>VLAN number of the NSGv network port [default: 0]</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Name of the VSC infra profile for the NSG on the VSD [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Host name or IP address of the VSC infra profile first controller for the NSG [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A9" shapeId="0">
+      <text>
+        <t>Host name or IP address of the VSC infra profile second controller for the NSG [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A10" shapeId="0">
+      <text>
+        <t>If vlan 0 has an uplink, then other vlans can't. If multiple uplinks are defined, then network acceleration will be enabled [default: No]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>vmname</author>
     <author>target_server_type</author>
     <author>target_server</author>
@@ -359,6 +405,7 @@
     <author>second_controller_address</author>
     <author>network_port_name</author>
     <author>network_port_physical_name</author>
+    <author>network_port_vlans</author>
     <author>access_port_name</author>
     <author>access_port_physical_name</author>
     <author>access_port_vlan_range</author>
@@ -595,35 +642,40 @@
     </comment>
     <comment authorId="45" ref="A59" shapeId="0">
       <text>
+        <t>VLAN name list of the network port for the NSG (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="46" ref="A60" shapeId="0">
+      <text>
         <t>Name of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A60" shapeId="0">
+    <comment authorId="47" ref="A61" shapeId="0">
       <text>
         <t>Physical name of the access port for the NSG. Deprecated in favor of access_ports [default: port2]</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A61" shapeId="0">
+    <comment authorId="48" ref="A62" shapeId="0">
       <text>
         <t>VLAN range of the access port for the NSG. Deprecated in favor of access_ports [default: ]</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A62" shapeId="0">
+    <comment authorId="49" ref="A63" shapeId="0">
       <text>
         <t>VLAN number of the NSG access port for the NSG. Deprecated in favor of access_ports [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A63" shapeId="0">
+    <comment authorId="50" ref="A64" shapeId="0">
       <text>
         <t>Name of access ports list. (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A65" shapeId="0">
+    <comment authorId="51" ref="A66" shapeId="0">
       <text>
         <t>The port for telnet to HV host to access NSGv serial or console terminal [default: 2300]</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A66" shapeId="0">
+    <comment authorId="52" ref="A67" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
       </text>
@@ -632,7 +684,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vsdconfig_enable</author>
@@ -653,7 +705,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -710,7 +762,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>router_id</author>
@@ -743,7 +795,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -878,7 +930,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -989,7 +1041,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1076,33 +1128,6 @@
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t>The FQDN value that VSD3 VM holds</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>stcv_image_path</author>
-    <author>stcv_image_filename</author>
-    <author>spirent_license_server</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Path on the MetroAE host for the qcow2 image for the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Name of the qcow2 image for the STCv VM</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>IP address of the server where the STCv license is found</t>
       </text>
     </comment>
   </commentList>
@@ -1745,6 +1770,33 @@
 <file path=xl/comments/comment20.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>stcv_image_path</author>
+    <author>stcv_image_filename</author>
+    <author>spirent_license_server</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Path on the MetroAE host for the qcow2 image for the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Name of the qcow2 image for the STCv VM</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>IP address of the server where the STCv license is found</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>target_server</author>
     <author>target_server_type</author>
     <author>hostname</author>
@@ -1829,7 +1881,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1928,7 +1980,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2183,7 +2235,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2246,7 +2298,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2357,7 +2409,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2533,6 +2585,9 @@
     <author>intermediate_certificate_path</author>
     <author>certificate_path</author>
     <author>credentials_set</author>
+    <author>vsd_ram</author>
+    <author>vsd_cpu_cores</author>
+    <author>vsd_fallocate_size_gb</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -2738,6 +2793,21 @@
     <comment authorId="40" ref="A51" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
+      </text>
+    </comment>
+    <comment authorId="41" ref="A53" shapeId="0">
+      <text>
+        <t>Amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: (global VSD RAM)]</t>
+      </text>
+    </comment>
+    <comment authorId="42" ref="A54" shapeId="0">
+      <text>
+        <t>Number of CPU's for VSD. [default: (global VSD CPU Cores)]</t>
+      </text>
+    </comment>
+    <comment authorId="43" ref="A55" shapeId="0">
+      <text>
+        <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: (global VSD CPU Cores)]</t>
       </text>
     </comment>
   </commentList>
@@ -3165,6 +3235,9 @@
     <author>enable_vss_ui</author>
     <author>health_monitoring_agent</author>
     <author>credentials_set</author>
+    <author>vstat_ram</author>
+    <author>vstat_cpu_cores</author>
+    <author>vstat_allocate_size_gb</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -3380,6 +3453,21 @@
     <comment authorId="42" ref="A54" shapeId="0">
       <text>
         <t>Name of the credentials set for the vsd</t>
+      </text>
+    </comment>
+    <comment authorId="43" ref="A56" shapeId="0">
+      <text>
+        <t>Valid for only KVM and VCenter deployments. Amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: (global VSTAT RAM)]</t>
+      </text>
+    </comment>
+    <comment authorId="44" ref="A57" shapeId="0">
+      <text>
+        <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSTAT. [default: (global VSTAT CPU)]</t>
+      </text>
+    </comment>
+    <comment authorId="45" ref="A58" shapeId="0">
+      <text>
+        <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: (global VSTAT DISK)]</t>
       </text>
     </comment>
   </commentList>
@@ -4526,7 +4614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4546,28 +4634,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Network Services Gateway</t>
+          <t>NSGv Network Port VLANs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Specify configuration for Nuage MetroAE NSGvs.</t>
+          <t>Specify NSGvs network port VLAN configuration.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>VM and Target Server</t>
+          <t>Network ports</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>VM name</t>
+          <t>NSGv Network Port VLAN Name</t>
         </is>
       </c>
       <c r="B5" s="5" t="n"/>
@@ -4580,7 +4668,7 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>Target Server type</t>
+          <t>NSGv Network Port VLAN Number</t>
         </is>
       </c>
       <c r="B6" s="5" t="n"/>
@@ -4593,7 +4681,7 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>Target Server hostname</t>
+          <t>VSC Infra Profile Name</t>
         </is>
       </c>
       <c r="B7" s="5" t="n"/>
@@ -4604,6 +4692,163 @@
       <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile First Controller</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>VSC Infra Profile Second Controller</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>Create uplink connection on this Vlan</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <dataValidations count="12">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Network Services Gateway</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage MetroAE NSGvs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>VM and Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>Target Server type</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Target Server hostname</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
           <t>Number of CPU cores</t>
@@ -5215,7 +5460,7 @@
     <row r="59">
       <c r="A59" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Name</t>
+          <t>NSG Network Port VLAN list</t>
         </is>
       </c>
       <c r="B59" s="9" t="n"/>
@@ -5228,7 +5473,7 @@
     <row r="60">
       <c r="A60" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port Physical Name</t>
+          <t>NSG Access Port Name</t>
         </is>
       </c>
       <c r="B60" s="9" t="n"/>
@@ -5241,7 +5486,7 @@
     <row r="61">
       <c r="A61" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Range</t>
+          <t>NSG Access Port Physical Name</t>
         </is>
       </c>
       <c r="B61" s="9" t="n"/>
@@ -5254,7 +5499,7 @@
     <row r="62">
       <c r="A62" s="8" t="inlineStr">
         <is>
-          <t>NSG Access Port VLAN Number</t>
+          <t>NSG Access Port VLAN Range</t>
         </is>
       </c>
       <c r="B62" s="9" t="n"/>
@@ -5265,42 +5510,42 @@
       <c r="G62" s="9" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="inlineStr">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>NSG Access Port VLAN Number</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+      <c r="C63" s="9" t="n"/>
+      <c r="D63" s="9" t="n"/>
+      <c r="E63" s="9" t="n"/>
+      <c r="F63" s="9" t="n"/>
+      <c r="G63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="inlineStr">
         <is>
           <t>NSGv Access ports list name</t>
         </is>
       </c>
-      <c r="B63" s="7" t="n"/>
-      <c r="C63" s="7" t="n"/>
-      <c r="D63" s="7" t="n"/>
-      <c r="E63" s="7" t="n"/>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="7" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="B64" s="7" t="n"/>
+      <c r="C64" s="7" t="n"/>
+      <c r="D64" s="7" t="n"/>
+      <c r="E64" s="7" t="n"/>
+      <c r="F64" s="7" t="n"/>
+      <c r="G64" s="7" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>Telnet and Credentials</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="inlineStr">
-        <is>
-          <t>Telnet port for console</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="n"/>
-      <c r="C65" s="9" t="n"/>
-      <c r="D65" s="9" t="n"/>
-      <c r="E65" s="9" t="n"/>
-      <c r="F65" s="9" t="n"/>
-      <c r="G65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>Credentials set name</t>
+          <t>Telnet port for console</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
@@ -5309,6 +5554,19 @@
       <c r="E66" s="9" t="n"/>
       <c r="F66" s="9" t="n"/>
       <c r="G66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>Credentials set name</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+      <c r="C67" s="9" t="n"/>
+      <c r="D67" s="9" t="n"/>
+      <c r="E67" s="9" t="n"/>
+      <c r="F67" s="9" t="n"/>
+      <c r="G67" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5322,7 +5580,7 @@
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A52:G52"/>
     <mergeCell ref="A57:G57"/>
-    <mergeCell ref="A64:G64"/>
+    <mergeCell ref="A65:G65"/>
   </mergeCells>
   <dataValidations count="54">
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="list">
@@ -5439,25 +5697,25 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G51" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G62" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F65" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G65" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G63" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F66" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G66" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5529,7 +5787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5700,7 +5958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5831,7 +6089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6265,7 +6523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6639,7 +6897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6925,78 +7183,6 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="70"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>STCv Globals</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify configuration for Nuage STCvs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>STCv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>STCv Image Path</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>STCv Image Filename</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>Spirent License Server</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:B4"/>
-  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
@@ -8164,6 +8350,78 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STCv Globals</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Nuage STCvs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>STCv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>STCv Image Path</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>STCv Image Filename</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>Spirent License Server</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8442,7 +8700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8740,7 +8998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9434,7 +9692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9658,7 +9916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9982,7 +10240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10370,7 +10628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11115,8 +11373,54 @@
       <c r="F51" s="9" t="n"/>
       <c r="G51" s="9" t="n"/>
     </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>VSD RAM, CPU and Disk Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>VSD RAM</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+      <c r="C53" s="9" t="n"/>
+      <c r="D53" s="9" t="n"/>
+      <c r="E53" s="9" t="n"/>
+      <c r="F53" s="9" t="n"/>
+      <c r="G53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="8" t="inlineStr">
+        <is>
+          <t>VSD CPU cores</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="n"/>
+      <c r="C54" s="9" t="n"/>
+      <c r="D54" s="9" t="n"/>
+      <c r="E54" s="9" t="n"/>
+      <c r="F54" s="9" t="n"/>
+      <c r="G54" s="9" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="8" t="inlineStr">
+        <is>
+          <t>VSD Disk Size</t>
+        </is>
+      </c>
+      <c r="B55" s="9" t="n"/>
+      <c r="C55" s="9" t="n"/>
+      <c r="D55" s="9" t="n"/>
+      <c r="E55" s="9" t="n"/>
+      <c r="F55" s="9" t="n"/>
+      <c r="G55" s="9" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A15:G15"/>
@@ -11124,8 +11428,9 @@
     <mergeCell ref="A30:G30"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A46:G46"/>
+    <mergeCell ref="A52:G52"/>
   </mergeCells>
-  <dataValidations count="48">
+  <dataValidations count="66">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -11234,6 +11539,24 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G47" type="list">
       <formula1>"1.0,1.2"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G53" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G54" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F55" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -12028,7 +12351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12806,8 +13129,54 @@
       <c r="F54" s="9" t="n"/>
       <c r="G54" s="9" t="n"/>
     </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>VSTAT RAM, CPU and Disk Parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT RAM</t>
+        </is>
+      </c>
+      <c r="B56" s="9" t="n"/>
+      <c r="C56" s="9" t="n"/>
+      <c r="D56" s="9" t="n"/>
+      <c r="E56" s="9" t="n"/>
+      <c r="F56" s="9" t="n"/>
+      <c r="G56" s="9" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT CPU cores</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+      <c r="C57" s="9" t="n"/>
+      <c r="D57" s="9" t="n"/>
+      <c r="E57" s="9" t="n"/>
+      <c r="F57" s="9" t="n"/>
+      <c r="G57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT Disk Size</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+      <c r="C58" s="9" t="n"/>
+      <c r="D58" s="9" t="n"/>
+      <c r="E58" s="9" t="n"/>
+      <c r="F58" s="9" t="n"/>
+      <c r="G58" s="9" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A16:G16"/>
@@ -12816,8 +13185,9 @@
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A43:G43"/>
     <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A55:G55"/>
   </mergeCells>
-  <dataValidations count="54">
+  <dataValidations count="72">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -12932,6 +13302,24 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G53" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G56" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G57" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F58" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -16,23 +16,24 @@
     <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv network port vlans" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgvs" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh common" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh external interfaces" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuh vrrp" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Nuhs" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Portals" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Proxys" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcv global" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stcvs" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vcins" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vnsutils" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vrss" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Vsrs" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Webfilters" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Portals" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -189,6 +190,33 @@
 <file path=xl/comments/comment10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>hostname</author>
+    <author>nfs_ip</author>
+    <author>mount_directory_location</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname of NFS Server</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>IP address of the NFS server.</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Optional user specified location of the mount directory to export for the NFS. Defaults to /nfs. [default: /nfs]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>name</author>
     <author>physical_name</author>
     <author>vlan_range</author>
@@ -225,7 +253,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>nsgv_organization</author>
@@ -312,7 +340,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -357,7 +385,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vmname</author>
@@ -684,7 +712,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vsdconfig_enable</author>
@@ -705,7 +733,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -762,7 +790,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>router_id</author>
@@ -795,7 +823,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -930,7 +958,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1035,99 +1063,6 @@
     <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>Portal version to be pulled from Docker hub [default: ]</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hostname</author>
-    <author>vmname</author>
-    <author>target_server_type</author>
-    <author>target_server</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_gateway</author>
-    <author>mgmt_netmask</author>
-    <author>proxy_vm_qcow2_path</author>
-    <author>proxy_vm_qcow2_file_name</author>
-    <author>vcpus</author>
-    <author>ram</author>
-    <author>vsd1_fqdn</author>
-    <author>vsd2_fqdn</author>
-    <author>vsd3_fqdn</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname to assign to the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Vmname to assign to the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment into which the instance will be created</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the KVM hypervisor where the PROXY VM will be instantiated</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>IP address to assign to the management network interface of the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>IP address of the network gateway for the management network interface of the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Management network netmask for the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A14" shapeId="0">
-      <text>
-        <t>Path to the Proxy qcow2 image</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>File name of the Proxy qcow2 image</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Number of vCPUs to apply to the Proxy VM</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Amount of RAM to apply to the Proxy VM</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>The FQDN value that VSD1 VM holds</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>The FQDN value that VSD2 VM holds</t>
-      </text>
-    </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
-      <text>
-        <t>The FQDN value that VSD3 VM holds</t>
       </text>
     </comment>
   </commentList>
@@ -1191,6 +1126,7 @@
     <author>vsd_license_required_days_left</author>
     <author>vsd_continue_on_license_failure</author>
     <author>vsd_ejabberd_license_file</author>
+    <author>vstat_license_file</author>
     <author>portal_license_file</author>
     <author>nuh_license_file</author>
     <author>yum_update</author>
@@ -1345,7 +1281,7 @@
     </comment>
     <comment authorId="20" ref="A30" shapeId="0">
       <text>
-        <t>When true, do not validate the RTT between VSDs in a cluster is less than max RTT [default: False]</t>
+        <t>When true, continue MetroAE execution upon error and do not validate the RTT between VSDs in a cluster is less than max RTT, else stop MetroAE execution upon error [default: False]</t>
       </text>
     </comment>
     <comment authorId="21" ref="A31" shapeId="0">
@@ -1380,7 +1316,7 @@
     </comment>
     <comment authorId="27" ref="A37" shapeId="0">
       <text>
-        <t>When true, ignore the results of the VSD disk performance test [default: False]</t>
+        <t>When true, continue MetroAE execution upon error and ignore the results of the VSD disk performance test, else stop MetroAE execution upon error [default: False]</t>
       </text>
     </comment>
     <comment authorId="28" ref="A38" shapeId="0">
@@ -1515,250 +1451,255 @@
     </comment>
     <comment authorId="54" ref="A70" shapeId="0">
       <text>
+        <t>Optional License File for Elasticsearch [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="55" ref="A71" shapeId="0">
+      <text>
         <t>Path to the license file for the SD-WAN Portal including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A71" shapeId="0">
+    <comment authorId="56" ref="A72" shapeId="0">
       <text>
         <t>Path to the license file for the NUH including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A73" shapeId="0">
+    <comment authorId="57" ref="A74" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSD during the installation [default: True]</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A74" shapeId="0">
+    <comment authorId="58" ref="A75" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSTAT during the installation [default: False]</t>
       </text>
     </comment>
-    <comment authorId="58" ref="A75" shapeId="0">
+    <comment authorId="59" ref="A76" shapeId="0">
       <text>
         <t>Proxy URL to be used if Yum repositories cannot be directly reached [default: NONE]</t>
       </text>
     </comment>
-    <comment authorId="59" ref="A76" shapeId="0">
+    <comment authorId="60" ref="A77" shapeId="0">
       <text>
         <t>Username of the SSH proxy host if one is used [default: root]</t>
       </text>
     </comment>
-    <comment authorId="60" ref="A77" shapeId="0">
+    <comment authorId="61" ref="A78" shapeId="0">
       <text>
         <t>IP Address or Hostname of the SSH host if one is used [default: sshhost]</t>
       </text>
     </comment>
-    <comment authorId="61" ref="A79" shapeId="0">
+    <comment authorId="62" ref="A80" shapeId="0">
       <text>
         <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="62" ref="A80" shapeId="0">
+    <comment authorId="63" ref="A81" shapeId="0">
       <text>
         <t>Amount of VSC disk space to pre-allocate, in GB. The only valid values are 0 and 1. When undefined or 0, file size allocation will be skipped. Production deployments should set this value to 1. [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="63" ref="A81" shapeId="0">
+    <comment authorId="64" ref="A82" shapeId="0">
       <text>
         <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="65" ref="A83" shapeId="0">
       <text>
         <t>Amount of Portal disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A83" shapeId="0">
+    <comment authorId="66" ref="A84" shapeId="0">
       <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A84" shapeId="0">
+    <comment authorId="67" ref="A85" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A86" shapeId="0">
+    <comment authorId="68" ref="A87" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A87" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A90" shapeId="0">
+    <comment authorId="71" ref="A91" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A91" shapeId="0">
+    <comment authorId="72" ref="A92" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A92" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A93" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A95" shapeId="0">
+    <comment authorId="75" ref="A96" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSD. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A96" shapeId="0">
+    <comment authorId="76" ref="A97" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSC. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A97" shapeId="0">
+    <comment authorId="77" ref="A98" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSTAT. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A98" shapeId="0">
+    <comment authorId="78" ref="A99" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VNSUTIL. [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A100" shapeId="0">
+    <comment authorId="79" ref="A101" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A101" shapeId="0">
+    <comment authorId="80" ref="A102" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A102" shapeId="0">
+    <comment authorId="81" ref="A103" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A103" shapeId="0">
+    <comment authorId="82" ref="A104" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A105" shapeId="0">
+    <comment authorId="83" ref="A106" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A106" shapeId="0">
+    <comment authorId="84" ref="A107" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A107" shapeId="0">
+    <comment authorId="85" ref="A108" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A108" shapeId="0">
+    <comment authorId="86" ref="A109" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A110" shapeId="0">
+    <comment authorId="87" ref="A111" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A111" shapeId="0">
+    <comment authorId="88" ref="A112" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A113" shapeId="0">
+    <comment authorId="89" ref="A114" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A114" shapeId="0">
+    <comment authorId="90" ref="A115" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A115" shapeId="0">
+    <comment authorId="91" ref="A116" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A116" shapeId="0">
+    <comment authorId="92" ref="A117" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A118" shapeId="0">
+    <comment authorId="93" ref="A119" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A119" shapeId="0">
+    <comment authorId="94" ref="A120" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A120" shapeId="0">
+    <comment authorId="95" ref="A121" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A121" shapeId="0">
+    <comment authorId="96" ref="A122" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A122" shapeId="0">
+    <comment authorId="97" ref="A123" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A123" shapeId="0">
+    <comment authorId="98" ref="A124" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="98" ref="A124" shapeId="0">
+    <comment authorId="99" ref="A125" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="99" ref="A125" shapeId="0">
+    <comment authorId="100" ref="A126" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="100" ref="A126" shapeId="0">
+    <comment authorId="101" ref="A127" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="101" ref="A127" shapeId="0">
+    <comment authorId="102" ref="A128" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="102" ref="A128" shapeId="0">
+    <comment authorId="103" ref="A129" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="103" ref="A129" shapeId="0">
+    <comment authorId="104" ref="A130" shapeId="0">
       <text>
         <t>Allowing VSD in-place upgrade during Installation [default: False]</t>
       </text>
@@ -1768,6 +1709,99 @@
 </file>
 
 <file path=xl/comments/comment20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hostname</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_netmask</author>
+    <author>proxy_vm_qcow2_path</author>
+    <author>proxy_vm_qcow2_file_name</author>
+    <author>vcpus</author>
+    <author>ram</author>
+    <author>vsd1_fqdn</author>
+    <author>vsd2_fqdn</author>
+    <author>vsd3_fqdn</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname to assign to the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Vmname to assign to the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the KVM hypervisor where the PROXY VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>IP address to assign to the management network interface of the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>IP address of the network gateway for the management network interface of the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Management network netmask for the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A14" shapeId="0">
+      <text>
+        <t>Path to the Proxy qcow2 image</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>File name of the Proxy qcow2 image</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Number of vCPUs to apply to the Proxy VM</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Amount of RAM to apply to the Proxy VM</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A19" shapeId="0">
+      <text>
+        <t>The FQDN value that VSD1 VM holds</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>The FQDN value that VSD2 VM holds</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>The FQDN value that VSD3 VM holds</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>stcv_image_path</author>
@@ -1794,7 +1828,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>target_server</author>
@@ -1881,7 +1915,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1980,7 +2014,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2235,7 +2269,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2298,7 +2332,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2409,7 +2443,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2422,6 +2456,9 @@
     <author>target_server</author>
     <author>cpuset</author>
     <author>cert_name</author>
+    <author>web_http_proxy</author>
+    <author>web_proxy_host</author>
+    <author>web_proxy_port</author>
     <author>run_incompass_operation</author>
   </authors>
   <commentList>
@@ -2476,6 +2513,21 @@
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Optional HTTP Proxy for webfilter VM [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>HTTP Proxy host for webfilter proxy [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A19" shapeId="0">
+      <text>
+        <t>HTTP Proxy port for webfilter proxy [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A20" shapeId="0">
       <text>
         <t>Run incompass operation command. This is enabled by default and may take up to 20 minutes and requires internet connection. [default: True]</t>
       </text>
@@ -3516,6 +3568,7 @@
     <author>portal_custom_password</author>
     <author>smtp_auth_username</author>
     <author>smtp_auth_password</author>
+    <author>nfs_custom_username</author>
     <author>netconf_vm_username</author>
     <author>netconf_vm_password</author>
     <author>netconf_username</author>
@@ -3725,62 +3778,67 @@
         <t>Password for SMTP authentication [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A55" shapeId="0">
+    <comment authorId="39" ref="A54" shapeId="0">
+      <text>
+        <t>NFS username to login into command line. Default user is root [default: root]</t>
+      </text>
+    </comment>
+    <comment authorId="40" ref="A56" shapeId="0">
       <text>
         <t>Username for NETCONF Manager VM. Default user is root [default: root]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A56" shapeId="0">
+    <comment authorId="41" ref="A57" shapeId="0">
       <text>
         <t>Password for NETCONF manager VM [default: ]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A57" shapeId="0">
+    <comment authorId="42" ref="A58" shapeId="0">
       <text>
         <t>Username for NETCONF Manager user [default: netconfmgr]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A58" shapeId="0">
+    <comment authorId="43" ref="A59" shapeId="0">
       <text>
         <t>Password for NETCONF manager user [default: password]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A60" shapeId="0">
+    <comment authorId="44" ref="A61" shapeId="0">
       <text>
         <t>Username for SMTP Server</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A61" shapeId="0">
+    <comment authorId="45" ref="A62" shapeId="0">
       <text>
         <t>Password for SMTP Server</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A63" shapeId="0">
+    <comment authorId="46" ref="A64" shapeId="0">
       <text>
         <t>Username for the monit mail server</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A64" shapeId="0">
+    <comment authorId="47" ref="A65" shapeId="0">
       <text>
         <t>Password for the monit mail server</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A66" shapeId="0">
+    <comment authorId="48" ref="A67" shapeId="0">
       <text>
         <t>Username for NUH notification application</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A67" shapeId="0">
+    <comment authorId="49" ref="A68" shapeId="0">
       <text>
         <t>Password for NUH notification application</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A68" shapeId="0">
+    <comment authorId="50" ref="A69" shapeId="0">
       <text>
         <t>Username for NUH notification application</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A69" shapeId="0">
+    <comment authorId="51" ref="A70" shapeId="0">
       <text>
         <t>Password for NUH notification application</t>
       </text>
@@ -4306,6 +4364,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NFS Server VM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Configure NFS Server VM using MetroAE. Note: Metroae will not bring up the NFS server, it will configure it for Elasticsearch mounting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NFS parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>NFS server IP address</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>NFS mount directory location</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4426,7 +4576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4608,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4765,7 +4915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5715,7 +5865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5787,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5958,7 +6108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6089,7 +6239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6523,7 +6673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6897,7 +7047,1171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="70"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Common Configuration Settings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Common configuration settings for this deployment</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Paths and Domains</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Nuage Unzip Files Directory</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>/my/unzipped/filedir</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>Nuage Software Version</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>KVM Images Directory</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>Domain Name</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>company.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Reports Directory</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
+        <is>
+          <t>Branding Zip File</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Management FQDNs</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>Global VSD FQDN</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>vsd.company.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Global VSD API port</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Global SD-WAN Portal FQDN</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Global VSTAT FQDN</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Network Bridges</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>br0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Data Network Bridge</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>br1</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>NSGv Access Bridge</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>Network Services</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>NTP Server IP(s)</t>
+        </is>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>5.5.5.5, 2.2.2.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>DNS server IP(s)</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>10.1.0.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Stats Out</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Statistics Out Deployment</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Statistics Out Proxy Address</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>192.168.120.150</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Timezone</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="8" t="inlineStr">
+        <is>
+          <t>Skip DNS Resolution Tests</t>
+        </is>
+      </c>
+      <c r="B28" s="9" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="inlineStr">
+        <is>
+          <t>Run VSD Cluster RTT Tests</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="inlineStr">
+        <is>
+          <t>Ignore RTT Test Errors</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>Max VSD cluster RTT</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Max VSD active-standby RTT</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>Run VSD Disk Performance Test</t>
+        </is>
+      </c>
+      <c r="B33" s="9" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>Total Size of Disk Performance Test Files</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>Minimum Disk Performance Threshold</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>Duration of Disk Performance Test in Seconds</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
+        <is>
+          <t>Ignore Disk Performance Test Errors</t>
+        </is>
+      </c>
+      <c r="B37" s="9" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="inlineStr">
+        <is>
+          <t>Prompt before destroying components</t>
+        </is>
+      </c>
+      <c r="B38" s="9" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Backup and Restore</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>Backup directory</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Maximum number of backups to store.</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Backup set directory to be restored.</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>vCenter infrastructure</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Datacenter</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Cluster Name</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Host Reference</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>vCenter VM Folder</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Hosts and Clusters Folder</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>vCenter common</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>vCenter Resource Pool</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>OVF tool location</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Interfaces Disabled State</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>OpenStack</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Project Name</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>OpenStack Keystone URL</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack Project Domain Name</t>
+        </is>
+      </c>
+      <c r="B57" s="9" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack User Domain Name</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="8" t="inlineStr">
+        <is>
+          <t>OpenStack CA Certificate</t>
+        </is>
+      </c>
+      <c r="B59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="inlineStr">
+        <is>
+          <t>SSH Public Key</t>
+        </is>
+      </c>
+      <c r="B61" s="9" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="8" t="inlineStr">
+        <is>
+          <t>XMPP TLS</t>
+        </is>
+      </c>
+      <c r="B62" s="9" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="8" t="inlineStr">
+        <is>
+          <t>OpenFlow TLS</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>Licenses</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="8" t="inlineStr">
+        <is>
+          <t>VSD Standard License File</t>
+        </is>
+      </c>
+      <c r="B65" s="9" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="inlineStr">
+        <is>
+          <t>VSD Cluster License File</t>
+        </is>
+      </c>
+      <c r="B66" s="9" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="8" t="inlineStr">
+        <is>
+          <t>VSD License Required Days Left</t>
+        </is>
+      </c>
+      <c r="B67" s="9" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="8" t="inlineStr">
+        <is>
+          <t>Continue Metroae execution on VSD license failure</t>
+        </is>
+      </c>
+      <c r="B68" s="9" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="8" t="inlineStr">
+        <is>
+          <t>VSD Ejabberd License File</t>
+        </is>
+      </c>
+      <c r="B69" s="9" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT License File</t>
+        </is>
+      </c>
+      <c r="B70" s="9" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="8" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal License File</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
+          <t>NUH License File</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Yum and SSH Proxy</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>VSD yum update</t>
+        </is>
+      </c>
+      <c r="B74" s="9" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT yum update</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="inlineStr">
+        <is>
+          <t>Proxy for Yum Updates</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="inlineStr">
+        <is>
+          <t>SSH proxy configuration username</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="inlineStr">
+        <is>
+          <t>SSH proxy configuration host</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Disk Space</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8" t="inlineStr">
+        <is>
+          <t>VSD Disk Size</t>
+        </is>
+      </c>
+      <c r="B80" s="9" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8" t="inlineStr">
+        <is>
+          <t>VSC Disk Size</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8" t="inlineStr">
+        <is>
+          <t>VSTAT Disk Size</t>
+        </is>
+      </c>
+      <c r="B82" s="9" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="inlineStr">
+        <is>
+          <t>Portal Disk Size</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="8" t="inlineStr">
+        <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="inlineStr">
+        <is>
+          <t>NSGV Disk Size</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>KVM and VCenter RAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD RAM</t>
+        </is>
+      </c>
+      <c r="B87" s="9" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSC RAM</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT RAM</t>
+        </is>
+      </c>
+      <c r="B89" s="9" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>KVM RAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="8" t="inlineStr">
+        <is>
+          <t>KVM VCIN RAM</t>
+        </is>
+      </c>
+      <c r="B91" s="9" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8" t="inlineStr">
+        <is>
+          <t>KVM NUH RAM</t>
+        </is>
+      </c>
+      <c r="B92" s="9" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="inlineStr">
+        <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal RAM</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t>KVM and VCenter CPU</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSD CPU cores</t>
+        </is>
+      </c>
+      <c r="B96" s="9" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSC CPU cores</t>
+        </is>
+      </c>
+      <c r="B97" s="9" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="8" t="inlineStr">
+        <is>
+          <t>KVM VSTAT CPU cores</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="inlineStr">
+        <is>
+          <t>KVM VNSUTIL CPU cores</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>KVM CPU</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="8" t="inlineStr">
+        <is>
+          <t>KVM NUH CPU cores</t>
+        </is>
+      </c>
+      <c r="B101" s="9" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="8" t="inlineStr">
+        <is>
+          <t>KVM VCIN CPU cores</t>
+        </is>
+      </c>
+      <c r="B102" s="9" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="8" t="inlineStr">
+        <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="inlineStr">
+        <is>
+          <t>KVM Webfilter VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>Authentication</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="8" t="inlineStr">
+        <is>
+          <t>VSD Architect URL</t>
+        </is>
+      </c>
+      <c r="B106" s="9" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="8" t="inlineStr">
+        <is>
+          <t>VSD Enterprise</t>
+        </is>
+      </c>
+      <c r="B107" s="9" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="8" t="inlineStr">
+        <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
+          <t>VCIN Enterprise</t>
+        </is>
+      </c>
+      <c r="B109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>Hooks</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="8" t="inlineStr">
+        <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="inlineStr">
+        <is>
+          <t>skip actions</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>Component Health Report Email Options</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="8" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server</t>
+        </is>
+      </c>
+      <c r="B114" s="9" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server Port</t>
+        </is>
+      </c>
+      <c r="B115" s="9" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="8" t="inlineStr">
+        <is>
+          <t>Health Report Destination Email Address(es)</t>
+        </is>
+      </c>
+      <c r="B117" s="9" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alerts Configuration</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Port</t>
+        </is>
+      </c>
+      <c r="B120" s="9" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Encryption Type</t>
+        </is>
+      </c>
+      <c r="B121" s="9" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="8" t="inlineStr">
+        <is>
+          <t>Use VSD Monit Eventqueue</t>
+        </is>
+      </c>
+      <c r="B122" s="9" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit From Email Address</t>
+        </is>
+      </c>
+      <c r="B123" s="9" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Reply-To Email Address</t>
+        </is>
+      </c>
+      <c r="B124" s="9" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alert Subject</t>
+        </is>
+      </c>
+      <c r="B125" s="9" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Email Alert Message</t>
+        </is>
+      </c>
+      <c r="B126" s="9" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Destination Email Address</t>
+        </is>
+      </c>
+      <c r="B127" s="9" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Only Alert On</t>
+        </is>
+      </c>
+      <c r="B128" s="9" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="8" t="inlineStr">
+        <is>
+          <t>VSD Monit Do Not Alert On</t>
+        </is>
+      </c>
+      <c r="B129" s="9" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VSD In-place upgrade during Install </t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A118:B118"/>
+  </mergeCells>
+  <dataValidations count="42">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B29" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B31" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B32" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B37" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B101" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B102" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B103" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B104" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B115" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B120" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B122" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B130" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7188,1163 +8502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B129"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="70"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Common Configuration Settings</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Common configuration settings for this deployment</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Paths and Domains</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Nuage Unzip Files Directory</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>/my/unzipped/filedir</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>Nuage Software Version</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>KVM Images Directory</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Domain Name</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>company.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Reports Directory</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Branding Zip File</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Management FQDNs</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>Global VSD FQDN</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>vsd.company.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Global VSD API port</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Global SD-WAN Portal FQDN</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Global VSTAT FQDN</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t>Network Bridges</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>br0</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Data Network Bridge</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>br1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>NSGv Access Bridge</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>Network Services</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>NTP Server IP(s)</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>5.5.5.5, 2.2.2.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>DNS server IP(s)</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>10.1.0.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Stats Out</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Statistics Out Deployment</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>Statistics Out Proxy Address</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>192.168.120.150</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>Timezone</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>Skip DNS Resolution Tests</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="inlineStr">
-        <is>
-          <t>Run VSD Cluster RTT Tests</t>
-        </is>
-      </c>
-      <c r="B29" s="9" t="n"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="inlineStr">
-        <is>
-          <t>Ignore RTT Test Errors</t>
-        </is>
-      </c>
-      <c r="B30" s="9" t="n"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="inlineStr">
-        <is>
-          <t>Max VSD cluster RTT</t>
-        </is>
-      </c>
-      <c r="B31" s="9" t="n"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>Max VSD active-standby RTT</t>
-        </is>
-      </c>
-      <c r="B32" s="9" t="n"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>Run VSD Disk Performance Test</t>
-        </is>
-      </c>
-      <c r="B33" s="9" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>Total Size of Disk Performance Test Files</t>
-        </is>
-      </c>
-      <c r="B34" s="9" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>Minimum Disk Performance Threshold</t>
-        </is>
-      </c>
-      <c r="B35" s="9" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>Duration of Disk Performance Test in Seconds</t>
-        </is>
-      </c>
-      <c r="B36" s="9" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="8" t="inlineStr">
-        <is>
-          <t>Ignore Disk Performance Test Errors</t>
-        </is>
-      </c>
-      <c r="B37" s="9" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="inlineStr">
-        <is>
-          <t>Prompt before destroying components</t>
-        </is>
-      </c>
-      <c r="B38" s="9" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>Backup and Restore</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>Backup directory</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>Maximum number of backups to store.</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>Backup set directory to be restored.</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>vCenter infrastructure</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Cluster Name</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Host Reference</t>
-        </is>
-      </c>
-      <c r="B46" s="7" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Datastore Name</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>vCenter VM Folder</t>
-        </is>
-      </c>
-      <c r="B48" s="7" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Hosts and Clusters Folder</t>
-        </is>
-      </c>
-      <c r="B49" s="7" t="n"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>vCenter common</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>vCenter Resource Pool</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>OVF tool location</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Interfaces Disabled State</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>OpenStack</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Project Name</t>
-        </is>
-      </c>
-      <c r="B55" s="7" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="6" t="inlineStr">
-        <is>
-          <t>OpenStack Keystone URL</t>
-        </is>
-      </c>
-      <c r="B56" s="7" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack Project Domain Name</t>
-        </is>
-      </c>
-      <c r="B57" s="9" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack User Domain Name</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>OpenStack CA Certificate</t>
-        </is>
-      </c>
-      <c r="B59" s="9" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
-        <is>
-          <t>Security</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="8" t="inlineStr">
-        <is>
-          <t>SSH Public Key</t>
-        </is>
-      </c>
-      <c r="B61" s="9" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="8" t="inlineStr">
-        <is>
-          <t>XMPP TLS</t>
-        </is>
-      </c>
-      <c r="B62" s="9" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="8" t="inlineStr">
-        <is>
-          <t>OpenFlow TLS</t>
-        </is>
-      </c>
-      <c r="B63" s="9" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>Licenses</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="inlineStr">
-        <is>
-          <t>VSD Standard License File</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="8" t="inlineStr">
-        <is>
-          <t>VSD Cluster License File</t>
-        </is>
-      </c>
-      <c r="B66" s="9" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="8" t="inlineStr">
-        <is>
-          <t>VSD License Required Days Left</t>
-        </is>
-      </c>
-      <c r="B67" s="9" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="8" t="inlineStr">
-        <is>
-          <t>Continue Metroae execution on VSD license failure</t>
-        </is>
-      </c>
-      <c r="B68" s="9" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="8" t="inlineStr">
-        <is>
-          <t>VSD Ejabberd License File</t>
-        </is>
-      </c>
-      <c r="B69" s="9" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="8" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal License File</t>
-        </is>
-      </c>
-      <c r="B70" s="9" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="8" t="inlineStr">
-        <is>
-          <t>NUH License File</t>
-        </is>
-      </c>
-      <c r="B71" s="9" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>Yum and SSH Proxy</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="8" t="inlineStr">
-        <is>
-          <t>VSD yum update</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="8" t="inlineStr">
-        <is>
-          <t>VSTAT yum update</t>
-        </is>
-      </c>
-      <c r="B74" s="9" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="8" t="inlineStr">
-        <is>
-          <t>Proxy for Yum Updates</t>
-        </is>
-      </c>
-      <c r="B75" s="9" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="8" t="inlineStr">
-        <is>
-          <t>SSH proxy configuration username</t>
-        </is>
-      </c>
-      <c r="B76" s="9" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="8" t="inlineStr">
-        <is>
-          <t>SSH proxy configuration host</t>
-        </is>
-      </c>
-      <c r="B77" s="9" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>Disk Space</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="8" t="inlineStr">
-        <is>
-          <t>VSD Disk Size</t>
-        </is>
-      </c>
-      <c r="B79" s="9" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="8" t="inlineStr">
-        <is>
-          <t>VSC Disk Size</t>
-        </is>
-      </c>
-      <c r="B80" s="9" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="8" t="inlineStr">
-        <is>
-          <t>VSTAT Disk Size</t>
-        </is>
-      </c>
-      <c r="B81" s="9" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="8" t="inlineStr">
-        <is>
-          <t>Portal Disk Size</t>
-        </is>
-      </c>
-      <c r="B82" s="9" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="8" t="inlineStr">
-        <is>
-          <t>VCIN Disk Size</t>
-        </is>
-      </c>
-      <c r="B83" s="9" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="8" t="inlineStr">
-        <is>
-          <t>NSGV Disk Size</t>
-        </is>
-      </c>
-      <c r="B84" s="9" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>KVM and VCenter RAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B86" s="9" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSC RAM</t>
-        </is>
-      </c>
-      <c r="B87" s="9" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSTAT RAM</t>
-        </is>
-      </c>
-      <c r="B88" s="9" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="inlineStr">
-        <is>
-          <t>KVM RAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN RAM</t>
-        </is>
-      </c>
-      <c r="B90" s="9" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH RAM</t>
-        </is>
-      </c>
-      <c r="B91" s="9" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="8" t="inlineStr">
-        <is>
-          <t>KVM Webfilter RAM</t>
-        </is>
-      </c>
-      <c r="B92" s="9" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="8" t="inlineStr">
-        <is>
-          <t>KVM Portal RAM</t>
-        </is>
-      </c>
-      <c r="B93" s="9" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>KVM and VCenter CPU</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B95" s="9" t="n"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSC CPU cores</t>
-        </is>
-      </c>
-      <c r="B96" s="9" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSTAT CPU cores</t>
-        </is>
-      </c>
-      <c r="B97" s="9" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="8" t="inlineStr">
-        <is>
-          <t>KVM VNSUTIL CPU cores</t>
-        </is>
-      </c>
-      <c r="B98" s="9" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>KVM CPU</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH CPU cores</t>
-        </is>
-      </c>
-      <c r="B100" s="9" t="n"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN CPU cores</t>
-        </is>
-      </c>
-      <c r="B101" s="9" t="n"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="8" t="inlineStr">
-        <is>
-          <t>KVM Portal VM CPU cores</t>
-        </is>
-      </c>
-      <c r="B102" s="9" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="8" t="inlineStr">
-        <is>
-          <t>KVM Webfilter VM CPU cores</t>
-        </is>
-      </c>
-      <c r="B103" s="9" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>Authentication</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="8" t="inlineStr">
-        <is>
-          <t>VSD Enterprise</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="8" t="inlineStr">
-        <is>
-          <t>VCIN URL</t>
-        </is>
-      </c>
-      <c r="B107" s="9" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="8" t="inlineStr">
-        <is>
-          <t>VCIN Enterprise</t>
-        </is>
-      </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>Hooks</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="8" t="inlineStr">
-        <is>
-          <t>skip actions</t>
-        </is>
-      </c>
-      <c r="B111" s="9" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="inlineStr">
-        <is>
-          <t>Component Health Report Email Options</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server Port</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="8" t="inlineStr">
-        <is>
-          <t>Health Report Email From Address</t>
-        </is>
-      </c>
-      <c r="B115" s="9" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="8" t="inlineStr">
-        <is>
-          <t>Health Report Destination Email Address(es)</t>
-        </is>
-      </c>
-      <c r="B116" s="9" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alerts Configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Port</t>
-        </is>
-      </c>
-      <c r="B119" s="9" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
-        </is>
-      </c>
-      <c r="B120" s="9" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="8" t="inlineStr">
-        <is>
-          <t>Use VSD Monit Eventqueue</t>
-        </is>
-      </c>
-      <c r="B121" s="9" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit From Email Address</t>
-        </is>
-      </c>
-      <c r="B122" s="9" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Reply-To Email Address</t>
-        </is>
-      </c>
-      <c r="B123" s="9" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alert Subject</t>
-        </is>
-      </c>
-      <c r="B124" s="9" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Email Alert Message</t>
-        </is>
-      </c>
-      <c r="B125" s="9" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Destination Email Address</t>
-        </is>
-      </c>
-      <c r="B126" s="9" t="n"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Only Alert On</t>
-        </is>
-      </c>
-      <c r="B127" s="9" t="n"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Do Not Alert On</t>
-        </is>
-      </c>
-      <c r="B128" s="9" t="n"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VSD In-place upgrade during Install </t>
-        </is>
-      </c>
-      <c r="B129" s="9" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A117:B117"/>
-  </mergeCells>
-  <dataValidations count="42">
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B28" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B29" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B30" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B31" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B32" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B33" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B37" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B38" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B41" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B53" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B79" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B100" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B101" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B102" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B103" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B114" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B121" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B129" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8416,7 +8574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8700,7 +8858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8998,7 +9156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9692,7 +9850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9916,7 +10074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10240,13 +10398,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10431,7 +10589,7 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>Run incompass operation command</t>
+          <t>Http proxy</t>
         </is>
       </c>
       <c r="B17" s="9" t="n"/>
@@ -10440,6 +10598,45 @@
       <c r="E17" s="9" t="n"/>
       <c r="F17" s="9" t="n"/>
       <c r="G17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Http proxy host</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Http proxy port</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Run incompass operation command</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10472,22 +10669,22 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13332,7 +13529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13917,7 +14114,7 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>SMTP</t>
+          <t>SMTP and NFS</t>
         </is>
       </c>
     </row>
@@ -13948,29 +14145,29 @@
       <c r="G53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>NFS System Username</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="7" t="n"/>
+      <c r="F54" s="7" t="n"/>
+      <c r="G54" s="7" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>NETCONF Manager</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>NETCONF Manager VM username</t>
-        </is>
-      </c>
-      <c r="B55" s="7" t="n"/>
-      <c r="C55" s="7" t="n"/>
-      <c r="D55" s="7" t="n"/>
-      <c r="E55" s="7" t="n"/>
-      <c r="F55" s="7" t="n"/>
-      <c r="G55" s="7" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager VM password for running sudo commands</t>
+          <t>NETCONF Manager VM username</t>
         </is>
       </c>
       <c r="B56" s="7" t="n"/>
@@ -13983,7 +14180,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager username</t>
+          <t>NETCONF Manager VM password for running sudo commands</t>
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
@@ -13996,7 +14193,7 @@
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager password</t>
+          <t>NETCONF Manager username</t>
         </is>
       </c>
       <c r="B58" s="7" t="n"/>
@@ -14007,29 +14204,29 @@
       <c r="G58" s="7" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>NETCONF Manager password</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="n"/>
+      <c r="C59" s="7" t="n"/>
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="7" t="n"/>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="7" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>Health Report Email Server</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server Username</t>
-        </is>
-      </c>
-      <c r="B60" s="7" t="n"/>
-      <c r="C60" s="7" t="n"/>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="7" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server Password</t>
+          <t>Health Report SMTP Server Username</t>
         </is>
       </c>
       <c r="B61" s="7" t="n"/>
@@ -14040,29 +14237,29 @@
       <c r="G61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server Password</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="n"/>
+      <c r="C62" s="7" t="n"/>
+      <c r="D62" s="7" t="n"/>
+      <c r="E62" s="7" t="n"/>
+      <c r="F62" s="7" t="n"/>
+      <c r="G62" s="7" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>Monit Alerts Email Server</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="6" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Username</t>
-        </is>
-      </c>
-      <c r="B63" s="7" t="n"/>
-      <c r="C63" s="7" t="n"/>
-      <c r="D63" s="7" t="n"/>
-      <c r="E63" s="7" t="n"/>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="7" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Password</t>
+          <t>VSD Monit Mail Server Username</t>
         </is>
       </c>
       <c r="B64" s="7" t="n"/>
@@ -14073,29 +14270,29 @@
       <c r="G64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Password</t>
+        </is>
+      </c>
+      <c r="B65" s="7" t="n"/>
+      <c r="C65" s="7" t="n"/>
+      <c r="D65" s="7" t="n"/>
+      <c r="E65" s="7" t="n"/>
+      <c r="F65" s="7" t="n"/>
+      <c r="G65" s="7" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>NUH notification application</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="6" t="inlineStr">
-        <is>
-          <t>NUH notification application 1 username</t>
-        </is>
-      </c>
-      <c r="B66" s="7" t="n"/>
-      <c r="C66" s="7" t="n"/>
-      <c r="D66" s="7" t="n"/>
-      <c r="E66" s="7" t="n"/>
-      <c r="F66" s="7" t="n"/>
-      <c r="G66" s="7" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>NUH notification application 1 password</t>
+          <t>NUH notification application 1 username</t>
         </is>
       </c>
       <c r="B67" s="7" t="n"/>
@@ -14108,7 +14305,7 @@
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>NUH notification application 2 username</t>
+          <t>NUH notification application 1 password</t>
         </is>
       </c>
       <c r="B68" s="7" t="n"/>
@@ -14121,7 +14318,7 @@
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>NUH notification application 2 password</t>
+          <t>NUH notification application 2 username</t>
         </is>
       </c>
       <c r="B69" s="7" t="n"/>
@@ -14130,6 +14327,19 @@
       <c r="E69" s="7" t="n"/>
       <c r="F69" s="7" t="n"/>
       <c r="G69" s="7" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>NUH notification application 2 password</t>
+        </is>
+      </c>
+      <c r="B70" s="7" t="n"/>
+      <c r="C70" s="7" t="n"/>
+      <c r="D70" s="7" t="n"/>
+      <c r="E70" s="7" t="n"/>
+      <c r="F70" s="7" t="n"/>
+      <c r="G70" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -14144,10 +14354,10 @@
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A66:G66"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -16,23 +16,24 @@
     <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv network port vlans" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgvs" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh common" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh external interfaces" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuh vrrp" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Nuhs" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Portals" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Proxys" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcv global" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stcvs" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vcins" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vnsutils" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vrss" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Vsrs" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Webfilters" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Portals" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -189,6 +190,33 @@
 <file path=xl/comments/comment10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>hostname</author>
+    <author>nfs_ip</author>
+    <author>mount_directory_location</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname of NFS Server</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>IP address of the NFS server.</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Optional user specified location of the mount directory to export for the NFS. Defaults to /nfs. [default: /nfs]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>name</author>
     <author>physical_name</author>
     <author>vlan_range</author>
@@ -225,7 +253,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>nsgv_organization</author>
@@ -312,7 +340,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -357,7 +385,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vmname</author>
@@ -684,7 +712,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vsdconfig_enable</author>
@@ -705,7 +733,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -762,7 +790,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>router_id</author>
@@ -795,7 +823,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -930,7 +958,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1035,99 +1063,6 @@
     <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>Portal version to be pulled from Docker hub [default: ]</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hostname</author>
-    <author>vmname</author>
-    <author>target_server_type</author>
-    <author>target_server</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_gateway</author>
-    <author>mgmt_netmask</author>
-    <author>proxy_vm_qcow2_path</author>
-    <author>proxy_vm_qcow2_file_name</author>
-    <author>vcpus</author>
-    <author>ram</author>
-    <author>vsd1_fqdn</author>
-    <author>vsd2_fqdn</author>
-    <author>vsd3_fqdn</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname to assign to the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Vmname to assign to the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment into which the instance will be created</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the KVM hypervisor where the PROXY VM will be instantiated</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>IP address to assign to the management network interface of the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>IP address of the network gateway for the management network interface of the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Management network netmask for the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A14" shapeId="0">
-      <text>
-        <t>Path to the Proxy qcow2 image</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>File name of the Proxy qcow2 image</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Number of vCPUs to apply to the Proxy VM</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Amount of RAM to apply to the Proxy VM</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>The FQDN value that VSD1 VM holds</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>The FQDN value that VSD2 VM holds</t>
-      </text>
-    </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
-      <text>
-        <t>The FQDN value that VSD3 VM holds</t>
       </text>
     </comment>
   </commentList>
@@ -1345,7 +1280,7 @@
     </comment>
     <comment authorId="20" ref="A30" shapeId="0">
       <text>
-        <t>When true, do not validate the RTT between VSDs in a cluster is less than max RTT [default: False]</t>
+        <t>When true, continue MetroAE execution upon error and do not validate the RTT between VSDs in a cluster is less than max RTT, else stop MetroAE execution upon error [default: False]</t>
       </text>
     </comment>
     <comment authorId="21" ref="A31" shapeId="0">
@@ -1380,7 +1315,7 @@
     </comment>
     <comment authorId="27" ref="A37" shapeId="0">
       <text>
-        <t>When true, ignore the results of the VSD disk performance test [default: False]</t>
+        <t>When true, continue MetroAE execution upon error and ignore the results of the VSD disk performance test, else stop MetroAE execution upon error [default: False]</t>
       </text>
     </comment>
     <comment authorId="28" ref="A38" shapeId="0">
@@ -1768,6 +1703,99 @@
 </file>
 
 <file path=xl/comments/comment20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hostname</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_netmask</author>
+    <author>proxy_vm_qcow2_path</author>
+    <author>proxy_vm_qcow2_file_name</author>
+    <author>vcpus</author>
+    <author>ram</author>
+    <author>vsd1_fqdn</author>
+    <author>vsd2_fqdn</author>
+    <author>vsd3_fqdn</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname to assign to the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Vmname to assign to the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the KVM hypervisor where the PROXY VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>IP address to assign to the management network interface of the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>IP address of the network gateway for the management network interface of the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Management network netmask for the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A14" shapeId="0">
+      <text>
+        <t>Path to the Proxy qcow2 image</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>File name of the Proxy qcow2 image</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Number of vCPUs to apply to the Proxy VM</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Amount of RAM to apply to the Proxy VM</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A19" shapeId="0">
+      <text>
+        <t>The FQDN value that VSD1 VM holds</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>The FQDN value that VSD2 VM holds</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>The FQDN value that VSD3 VM holds</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>stcv_image_path</author>
@@ -1794,7 +1822,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>target_server</author>
@@ -1881,7 +1909,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1980,7 +2008,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2235,7 +2263,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2298,7 +2326,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2409,7 +2437,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2422,6 +2450,9 @@
     <author>target_server</author>
     <author>cpuset</author>
     <author>cert_name</author>
+    <author>web_http_proxy</author>
+    <author>web_proxy_host</author>
+    <author>web_proxy_port</author>
     <author>run_incompass_operation</author>
   </authors>
   <commentList>
@@ -2476,6 +2507,21 @@
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Optional HTTP Proxy for webfilter VM [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>HTTP Proxy host for webfilter proxy [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A19" shapeId="0">
+      <text>
+        <t>HTTP Proxy port for webfilter proxy [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A20" shapeId="0">
       <text>
         <t>Run incompass operation command. This is enabled by default and may take up to 20 minutes and requires internet connection. [default: True]</t>
       </text>
@@ -3516,6 +3562,7 @@
     <author>portal_custom_password</author>
     <author>smtp_auth_username</author>
     <author>smtp_auth_password</author>
+    <author>nfs_custom_username</author>
     <author>netconf_vm_username</author>
     <author>netconf_vm_password</author>
     <author>netconf_username</author>
@@ -3552,52 +3599,52 @@
     </comment>
     <comment authorId="4" ref="A10" shapeId="0">
       <text>
-        <t>Username to be used while logging into VSD command line. [default: root]</t>
+        <t>VSD Username will be used for logging into VSD command line. Used for both Install and Upgrade procedures. [default: root]</t>
       </text>
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
       <text>
-        <t>Password for the VSD user used to login to the command line [default: Alcateldc]</t>
+        <t>VSD password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: Alcateldc]</t>
       </text>
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>VSC username to login into command line. Should have admin privileges. [default: ]</t>
+        <t>VSC Username will be used for logging into command line (should have admin privileges). Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="7" ref="A13" shapeId="0">
       <text>
-        <t>VSC password to login into command line [default: ]</t>
+        <t>VSC password will be used for logging into the command line. Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="8" ref="A15" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) username to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) Username will be used for logging into command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) password to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) root password required for Stats Upgrade [default: ]</t>
+        <t>ElasticSearch (Stats) root password required for VSTAT Upgrade only [default: ]</t>
       </text>
     </comment>
     <comment authorId="11" ref="A19" shapeId="0">
       <text>
-        <t>Username for API authentication. Must have csproot privileges. Also known as csproot user [default: csproot]</t>
+        <t>This VSD Username(also known as csproot user). Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
-        <t>Password for API authentication. Must have csproot privileges. Also known as csproot password [default: csproot]</t>
+        <t>This VSD password(also known as csproot password) will be used for API authentication. Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
-        <t>Mysql password for vsd [default: ]</t>
+        <t>This VSD Mysql password. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
@@ -3662,7 +3709,7 @@
     </comment>
     <comment authorId="26" ref="A37" shapeId="0">
       <text>
-        <t>Username for OpenStack [default: ]</t>
+        <t>Username for OpenStack. [default: ]</t>
       </text>
     </comment>
     <comment authorId="27" ref="A38" shapeId="0">
@@ -3672,7 +3719,7 @@
     </comment>
     <comment authorId="28" ref="A40" shapeId="0">
       <text>
-        <t>vCenter Username [default: ]</t>
+        <t>vCenter Username. [default: ]</t>
       </text>
     </comment>
     <comment authorId="29" ref="A41" shapeId="0">
@@ -3682,12 +3729,12 @@
     </comment>
     <comment authorId="30" ref="A43" shapeId="0">
       <text>
-        <t>Username for Compute node to install VRS [default: root]</t>
+        <t>Username for Compute node to install VRS. [default: root]</t>
       </text>
     </comment>
     <comment authorId="31" ref="A44" shapeId="0">
       <text>
-        <t>Password for Compute node [default: ]</t>
+        <t>Password for Compute node, and will be used for installation of VRS [default: ]</t>
       </text>
     </comment>
     <comment authorId="32" ref="A45" shapeId="0">
@@ -3725,64 +3772,69 @@
         <t>Password for SMTP authentication [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A55" shapeId="0">
-      <text>
-        <t>Username for NETCONF Manager VM. Default user is root [default: root]</t>
+    <comment authorId="39" ref="A54" shapeId="0">
+      <text>
+        <t>NFS username to login into command line, and will be used for NFS configuration. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="40" ref="A56" shapeId="0">
       <text>
+        <t>Username for NETCONF Manager VM, and will be used for the installation of NETCONF Manager. Default user is root. [default: root]</t>
+      </text>
+    </comment>
+    <comment authorId="41" ref="A57" shapeId="0">
+      <text>
         <t>Password for NETCONF manager VM [default: ]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A57" shapeId="0">
-      <text>
-        <t>Username for NETCONF Manager user [default: netconfmgr]</t>
-      </text>
-    </comment>
     <comment authorId="42" ref="A58" shapeId="0">
       <text>
-        <t>Password for NETCONF manager user [default: password]</t>
-      </text>
-    </comment>
-    <comment authorId="43" ref="A60" shapeId="0">
-      <text>
-        <t>Username for SMTP Server</t>
+        <t>Username for NETCONF Manager user, and will be used for the installation of NETCONF Manager. [default: netconfmgr]</t>
+      </text>
+    </comment>
+    <comment authorId="43" ref="A59" shapeId="0">
+      <text>
+        <t>Password for NETCONF manager user, and will be used for the installation of NETCONF Manager. [default: password]</t>
       </text>
     </comment>
     <comment authorId="44" ref="A61" shapeId="0">
       <text>
-        <t>Password for SMTP Server</t>
-      </text>
-    </comment>
-    <comment authorId="45" ref="A63" shapeId="0">
-      <text>
-        <t>Username for the monit mail server</t>
+        <t>Username for SMTP Server, and will be used for Email health report.</t>
+      </text>
+    </comment>
+    <comment authorId="45" ref="A62" shapeId="0">
+      <text>
+        <t>Password for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="46" ref="A64" shapeId="0">
       <text>
+        <t>Username for the monit mail server.</t>
+      </text>
+    </comment>
+    <comment authorId="47" ref="A65" shapeId="0">
+      <text>
         <t>Password for the monit mail server</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A66" shapeId="0">
-      <text>
-        <t>Username for NUH notification application</t>
-      </text>
-    </comment>
     <comment authorId="48" ref="A67" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="49" ref="A68" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="50" ref="A69" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
+      </text>
+    </comment>
+    <comment authorId="51" ref="A70" shapeId="0">
+      <text>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
   </commentList>
@@ -4306,6 +4358,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NFS Server VM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Configure NFS Server VM using MetroAE. Note: Metroae will not bring up the NFS server, it will configure it for Elasticsearch mounting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NFS parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>NFS server IP address</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>NFS mount directory location</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4426,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4608,7 +4752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4765,7 +4909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5715,7 +5859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5787,7 +5931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5958,7 +6102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6089,7 +6233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6523,7 +6667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6891,297 +7035,6 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Proxy VM</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify configuration for Proxy to Architect</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Host and target server info</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Vmname</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Target Server Type</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Management network</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Management IP Address</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Gateway</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Prefix Length</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>VM details</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Image path of the Proxy VM</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Image file name of the Proxy VM</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>VM VCPUs</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>VM RAM</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>VSD fqdn</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>FQDN of VSD1</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>FQDN of VSD2</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>FQDN of VSD3</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A18:G18"/>
-  </mergeCells>
-  <dataValidations count="18">
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -8350,6 +8203,297 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Proxy VM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Proxy to Architect</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Host and target server info</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Vmname</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Management network</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Management IP Address</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Gateway</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Prefix Length</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>VM details</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Image path of the Proxy VM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Image file name of the Proxy VM</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>VM VCPUs</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>VM RAM</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>VSD fqdn</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>FQDN of VSD1</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>FQDN of VSD2</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>FQDN of VSD3</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A18:G18"/>
+  </mergeCells>
+  <dataValidations count="18">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8416,7 +8560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8700,7 +8844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8998,7 +9142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9692,7 +9836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9916,7 +10060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10240,13 +10384,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10431,7 +10575,7 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>Run incompass operation command</t>
+          <t>Http proxy</t>
         </is>
       </c>
       <c r="B17" s="9" t="n"/>
@@ -10440,6 +10584,45 @@
       <c r="E17" s="9" t="n"/>
       <c r="F17" s="9" t="n"/>
       <c r="G17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Http proxy host</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Http proxy port</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Run incompass operation command</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10472,22 +10655,22 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13332,7 +13515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13917,7 +14100,7 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>SMTP</t>
+          <t>SMTP and NFS</t>
         </is>
       </c>
     </row>
@@ -13948,29 +14131,29 @@
       <c r="G53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>NFS System Username</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="7" t="n"/>
+      <c r="F54" s="7" t="n"/>
+      <c r="G54" s="7" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>NETCONF Manager</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>NETCONF Manager VM username</t>
-        </is>
-      </c>
-      <c r="B55" s="7" t="n"/>
-      <c r="C55" s="7" t="n"/>
-      <c r="D55" s="7" t="n"/>
-      <c r="E55" s="7" t="n"/>
-      <c r="F55" s="7" t="n"/>
-      <c r="G55" s="7" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager VM password for running sudo commands</t>
+          <t>NETCONF Manager VM username</t>
         </is>
       </c>
       <c r="B56" s="7" t="n"/>
@@ -13983,7 +14166,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager username</t>
+          <t>NETCONF Manager VM password for running sudo commands, and will be used for the installation of NETCONF Manager.</t>
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
@@ -13996,7 +14179,7 @@
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager password</t>
+          <t>NETCONF Manager username</t>
         </is>
       </c>
       <c r="B58" s="7" t="n"/>
@@ -14007,29 +14190,29 @@
       <c r="G58" s="7" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>NETCONF Manager password</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="n"/>
+      <c r="C59" s="7" t="n"/>
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="7" t="n"/>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="7" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>Health Report Email Server</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server Username</t>
-        </is>
-      </c>
-      <c r="B60" s="7" t="n"/>
-      <c r="C60" s="7" t="n"/>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="7" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server Password</t>
+          <t>Health Report SMTP Server Username</t>
         </is>
       </c>
       <c r="B61" s="7" t="n"/>
@@ -14040,29 +14223,29 @@
       <c r="G61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server Password</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="n"/>
+      <c r="C62" s="7" t="n"/>
+      <c r="D62" s="7" t="n"/>
+      <c r="E62" s="7" t="n"/>
+      <c r="F62" s="7" t="n"/>
+      <c r="G62" s="7" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>Monit Alerts Email Server</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="6" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Username</t>
-        </is>
-      </c>
-      <c r="B63" s="7" t="n"/>
-      <c r="C63" s="7" t="n"/>
-      <c r="D63" s="7" t="n"/>
-      <c r="E63" s="7" t="n"/>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="7" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Password</t>
+          <t>VSD Monit Mail Server Username</t>
         </is>
       </c>
       <c r="B64" s="7" t="n"/>
@@ -14073,29 +14256,29 @@
       <c r="G64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Password</t>
+        </is>
+      </c>
+      <c r="B65" s="7" t="n"/>
+      <c r="C65" s="7" t="n"/>
+      <c r="D65" s="7" t="n"/>
+      <c r="E65" s="7" t="n"/>
+      <c r="F65" s="7" t="n"/>
+      <c r="G65" s="7" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>NUH notification application</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="6" t="inlineStr">
-        <is>
-          <t>NUH notification application 1 username</t>
-        </is>
-      </c>
-      <c r="B66" s="7" t="n"/>
-      <c r="C66" s="7" t="n"/>
-      <c r="D66" s="7" t="n"/>
-      <c r="E66" s="7" t="n"/>
-      <c r="F66" s="7" t="n"/>
-      <c r="G66" s="7" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>NUH notification application 1 password</t>
+          <t>NUH notification application 1 username</t>
         </is>
       </c>
       <c r="B67" s="7" t="n"/>
@@ -14108,7 +14291,7 @@
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>NUH notification application 2 username</t>
+          <t>NUH notification application 1 password</t>
         </is>
       </c>
       <c r="B68" s="7" t="n"/>
@@ -14121,7 +14304,7 @@
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>NUH notification application 2 password</t>
+          <t>NUH notification application 2 username</t>
         </is>
       </c>
       <c r="B69" s="7" t="n"/>
@@ -14130,6 +14313,19 @@
       <c r="E69" s="7" t="n"/>
       <c r="F69" s="7" t="n"/>
       <c r="G69" s="7" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>NUH notification application 2 password</t>
+        </is>
+      </c>
+      <c r="B70" s="7" t="n"/>
+      <c r="C70" s="7" t="n"/>
+      <c r="D70" s="7" t="n"/>
+      <c r="E70" s="7" t="n"/>
+      <c r="F70" s="7" t="n"/>
+      <c r="G70" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -14144,10 +14340,10 @@
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A66:G66"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1166,6 +1166,7 @@
     <author>vsd_license_required_days_left</author>
     <author>vsd_continue_on_license_failure</author>
     <author>vsd_ejabberd_license_file</author>
+    <author>vstat_license_file</author>
     <author>portal_license_file</author>
     <author>nuh_license_file</author>
     <author>yum_update</author>
@@ -1490,250 +1491,255 @@
     </comment>
     <comment authorId="54" ref="A70" shapeId="0">
       <text>
+        <t>Optional License File for Elasticsearch [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="55" ref="A71" shapeId="0">
+      <text>
         <t>Path to the license file for the SD-WAN Portal including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A71" shapeId="0">
+    <comment authorId="56" ref="A72" shapeId="0">
       <text>
         <t>Path to the license file for the NUH including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A73" shapeId="0">
+    <comment authorId="57" ref="A74" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSD during the installation [default: True]</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A74" shapeId="0">
+    <comment authorId="58" ref="A75" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSTAT during the installation [default: False]</t>
       </text>
     </comment>
-    <comment authorId="58" ref="A75" shapeId="0">
+    <comment authorId="59" ref="A76" shapeId="0">
       <text>
         <t>Proxy URL to be used if Yum repositories cannot be directly reached [default: NONE]</t>
       </text>
     </comment>
-    <comment authorId="59" ref="A76" shapeId="0">
+    <comment authorId="60" ref="A77" shapeId="0">
       <text>
         <t>Username of the SSH proxy host if one is used [default: root]</t>
       </text>
     </comment>
-    <comment authorId="60" ref="A77" shapeId="0">
+    <comment authorId="61" ref="A78" shapeId="0">
       <text>
         <t>IP Address or Hostname of the SSH host if one is used [default: sshhost]</t>
       </text>
     </comment>
-    <comment authorId="61" ref="A79" shapeId="0">
+    <comment authorId="62" ref="A80" shapeId="0">
       <text>
         <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="62" ref="A80" shapeId="0">
+    <comment authorId="63" ref="A81" shapeId="0">
       <text>
         <t>Amount of VSC disk space to pre-allocate, in GB. The only valid values are 0 and 1. When undefined or 0, file size allocation will be skipped. Production deployments should set this value to 1. [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="63" ref="A81" shapeId="0">
+    <comment authorId="64" ref="A82" shapeId="0">
       <text>
         <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="65" ref="A83" shapeId="0">
       <text>
         <t>Amount of Portal disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A83" shapeId="0">
+    <comment authorId="66" ref="A84" shapeId="0">
       <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A84" shapeId="0">
+    <comment authorId="67" ref="A85" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A86" shapeId="0">
+    <comment authorId="68" ref="A87" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A87" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A90" shapeId="0">
+    <comment authorId="71" ref="A91" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A91" shapeId="0">
+    <comment authorId="72" ref="A92" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A92" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A93" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A95" shapeId="0">
+    <comment authorId="75" ref="A96" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSD. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A96" shapeId="0">
+    <comment authorId="76" ref="A97" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSC. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A97" shapeId="0">
+    <comment authorId="77" ref="A98" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSTAT. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A98" shapeId="0">
+    <comment authorId="78" ref="A99" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VNSUTIL. [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A100" shapeId="0">
+    <comment authorId="79" ref="A101" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A101" shapeId="0">
+    <comment authorId="80" ref="A102" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A102" shapeId="0">
+    <comment authorId="81" ref="A103" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A103" shapeId="0">
+    <comment authorId="82" ref="A104" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A105" shapeId="0">
+    <comment authorId="83" ref="A106" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A106" shapeId="0">
+    <comment authorId="84" ref="A107" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A107" shapeId="0">
+    <comment authorId="85" ref="A108" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A108" shapeId="0">
+    <comment authorId="86" ref="A109" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A110" shapeId="0">
+    <comment authorId="87" ref="A111" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A111" shapeId="0">
+    <comment authorId="88" ref="A112" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A113" shapeId="0">
+    <comment authorId="89" ref="A114" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A114" shapeId="0">
+    <comment authorId="90" ref="A115" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A115" shapeId="0">
+    <comment authorId="91" ref="A116" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A116" shapeId="0">
+    <comment authorId="92" ref="A117" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A118" shapeId="0">
+    <comment authorId="93" ref="A119" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A119" shapeId="0">
+    <comment authorId="94" ref="A120" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A120" shapeId="0">
+    <comment authorId="95" ref="A121" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A121" shapeId="0">
+    <comment authorId="96" ref="A122" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A122" shapeId="0">
+    <comment authorId="97" ref="A123" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A123" shapeId="0">
+    <comment authorId="98" ref="A124" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="98" ref="A124" shapeId="0">
+    <comment authorId="99" ref="A125" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="99" ref="A125" shapeId="0">
+    <comment authorId="100" ref="A126" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="100" ref="A126" shapeId="0">
+    <comment authorId="101" ref="A127" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="101" ref="A127" shapeId="0">
+    <comment authorId="102" ref="A128" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="102" ref="A128" shapeId="0">
+    <comment authorId="103" ref="A129" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="103" ref="A129" shapeId="0">
+    <comment authorId="104" ref="A130" shapeId="0">
       <text>
         <t>Allowing VSD in-place upgrade during Installation [default: False]</t>
       </text>
@@ -7002,7 +7008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7581,7 +7587,7 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>SD-WAN Portal License File</t>
+          <t>VSTAT License File</t>
         </is>
       </c>
       <c r="B70" s="9" t="n"/>
@@ -7589,30 +7595,30 @@
     <row r="71">
       <c r="A71" s="8" t="inlineStr">
         <is>
+          <t>SD-WAN Portal License File</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
           <t>NUH License File</t>
         </is>
       </c>
-      <c r="B71" s="9" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="B72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>Yum and SSH Proxy</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="8" t="inlineStr">
-        <is>
-          <t>VSD yum update</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="8" t="inlineStr">
         <is>
-          <t>VSTAT yum update</t>
+          <t>VSD yum update</t>
         </is>
       </c>
       <c r="B74" s="9" t="n"/>
@@ -7620,7 +7626,7 @@
     <row r="75">
       <c r="A75" s="8" t="inlineStr">
         <is>
-          <t>Proxy for Yum Updates</t>
+          <t>VSTAT yum update</t>
         </is>
       </c>
       <c r="B75" s="9" t="n"/>
@@ -7628,7 +7634,7 @@
     <row r="76">
       <c r="A76" s="8" t="inlineStr">
         <is>
-          <t>SSH proxy configuration username</t>
+          <t>Proxy for Yum Updates</t>
         </is>
       </c>
       <c r="B76" s="9" t="n"/>
@@ -7636,30 +7642,30 @@
     <row r="77">
       <c r="A77" s="8" t="inlineStr">
         <is>
+          <t>SSH proxy configuration username</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="inlineStr">
+        <is>
           <t>SSH proxy configuration host</t>
         </is>
       </c>
-      <c r="B77" s="9" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="B78" s="9" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>Disk Space</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="8" t="inlineStr">
-        <is>
-          <t>VSD Disk Size</t>
-        </is>
-      </c>
-      <c r="B79" s="9" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="8" t="inlineStr">
         <is>
-          <t>VSC Disk Size</t>
+          <t>VSD Disk Size</t>
         </is>
       </c>
       <c r="B80" s="9" t="n"/>
@@ -7667,7 +7673,7 @@
     <row r="81">
       <c r="A81" s="8" t="inlineStr">
         <is>
-          <t>VSTAT Disk Size</t>
+          <t>VSC Disk Size</t>
         </is>
       </c>
       <c r="B81" s="9" t="n"/>
@@ -7675,7 +7681,7 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
-          <t>Portal Disk Size</t>
+          <t>VSTAT Disk Size</t>
         </is>
       </c>
       <c r="B82" s="9" t="n"/>
@@ -7683,7 +7689,7 @@
     <row r="83">
       <c r="A83" s="8" t="inlineStr">
         <is>
-          <t>VCIN Disk Size</t>
+          <t>Portal Disk Size</t>
         </is>
       </c>
       <c r="B83" s="9" t="n"/>
@@ -7691,30 +7697,30 @@
     <row r="84">
       <c r="A84" s="8" t="inlineStr">
         <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="inlineStr">
+        <is>
           <t>NSGV Disk Size</t>
         </is>
       </c>
-      <c r="B84" s="9" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="B85" s="9" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>KVM and VCenter RAM</t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B86" s="9" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC RAM</t>
+          <t>KVM VSD RAM</t>
         </is>
       </c>
       <c r="B87" s="9" t="n"/>
@@ -7722,30 +7728,30 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
+          <t>KVM VSC RAM</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="inlineStr">
+        <is>
           <t>KVM VSTAT RAM</t>
         </is>
       </c>
-      <c r="B88" s="9" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="inlineStr">
+      <c r="B89" s="9" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>KVM RAM</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN RAM</t>
-        </is>
-      </c>
-      <c r="B90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH RAM</t>
+          <t>KVM VCIN RAM</t>
         </is>
       </c>
       <c r="B91" s="9" t="n"/>
@@ -7753,7 +7759,7 @@
     <row r="92">
       <c r="A92" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter RAM</t>
+          <t>KVM NUH RAM</t>
         </is>
       </c>
       <c r="B92" s="9" t="n"/>
@@ -7761,30 +7767,30 @@
     <row r="93">
       <c r="A93" s="8" t="inlineStr">
         <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="inlineStr">
+        <is>
           <t>KVM Portal RAM</t>
         </is>
       </c>
-      <c r="B93" s="9" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="inlineStr">
+      <c r="B94" s="9" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>KVM and VCenter CPU</t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B95" s="9" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC CPU cores</t>
+          <t>KVM VSD CPU cores</t>
         </is>
       </c>
       <c r="B96" s="9" t="n"/>
@@ -7792,7 +7798,7 @@
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT CPU cores</t>
+          <t>KVM VSC CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>
@@ -7800,30 +7806,30 @@
     <row r="98">
       <c r="A98" s="8" t="inlineStr">
         <is>
+          <t>KVM VSTAT CPU cores</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="inlineStr">
+        <is>
           <t>KVM VNSUTIL CPU cores</t>
         </is>
       </c>
-      <c r="B98" s="9" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
+      <c r="B99" s="9" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>KVM CPU</t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH CPU cores</t>
-        </is>
-      </c>
-      <c r="B100" s="9" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN CPU cores</t>
+          <t>KVM NUH CPU cores</t>
         </is>
       </c>
       <c r="B101" s="9" t="n"/>
@@ -7831,7 +7837,7 @@
     <row r="102">
       <c r="A102" s="8" t="inlineStr">
         <is>
-          <t>KVM Portal VM CPU cores</t>
+          <t>KVM VCIN CPU cores</t>
         </is>
       </c>
       <c r="B102" s="9" t="n"/>
@@ -7839,30 +7845,30 @@
     <row r="103">
       <c r="A103" s="8" t="inlineStr">
         <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="inlineStr">
+        <is>
           <t>KVM Webfilter VM CPU cores</t>
         </is>
       </c>
-      <c r="B103" s="9" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="inlineStr">
+      <c r="B104" s="9" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
         <is>
           <t>Authentication</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="8" t="inlineStr">
         <is>
-          <t>VSD Enterprise</t>
+          <t>VSD Architect URL</t>
         </is>
       </c>
       <c r="B106" s="9" t="n"/>
@@ -7870,7 +7876,7 @@
     <row r="107">
       <c r="A107" s="8" t="inlineStr">
         <is>
-          <t>VCIN URL</t>
+          <t>VSD Enterprise</t>
         </is>
       </c>
       <c r="B107" s="9" t="n"/>
@@ -7878,53 +7884,53 @@
     <row r="108">
       <c r="A108" s="8" t="inlineStr">
         <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
           <t>VCIN Enterprise</t>
         </is>
       </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
+      <c r="B109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
         <is>
           <t>Hooks</t>
         </is>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="8" t="inlineStr">
         <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="inlineStr">
+        <is>
           <t>skip actions</t>
         </is>
       </c>
-      <c r="B111" s="9" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="inlineStr">
+      <c r="B112" s="9" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
         <is>
           <t>Component Health Report Email Options</t>
         </is>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="8" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server Port</t>
+          <t>Health Report SMTP Server</t>
         </is>
       </c>
       <c r="B114" s="9" t="n"/>
@@ -7932,7 +7938,7 @@
     <row r="115">
       <c r="A115" s="8" t="inlineStr">
         <is>
-          <t>Health Report Email From Address</t>
+          <t>Health Report SMTP Server Port</t>
         </is>
       </c>
       <c r="B115" s="9" t="n"/>
@@ -7940,30 +7946,30 @@
     <row r="116">
       <c r="A116" s="8" t="inlineStr">
         <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="8" t="inlineStr">
+        <is>
           <t>Health Report Destination Email Address(es)</t>
         </is>
       </c>
-      <c r="B116" s="9" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
+      <c r="B117" s="9" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
         <is>
           <t>VSD Monit Email Alerts Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Port</t>
+          <t>VSD Monit Mail Server</t>
         </is>
       </c>
       <c r="B119" s="9" t="n"/>
@@ -7971,7 +7977,7 @@
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
+          <t>VSD Monit Mail Server Port</t>
         </is>
       </c>
       <c r="B120" s="9" t="n"/>
@@ -7979,7 +7985,7 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>Use VSD Monit Eventqueue</t>
+          <t>VSD Monit Mail Server Encryption Type</t>
         </is>
       </c>
       <c r="B121" s="9" t="n"/>
@@ -7987,7 +7993,7 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit From Email Address</t>
+          <t>Use VSD Monit Eventqueue</t>
         </is>
       </c>
       <c r="B122" s="9" t="n"/>
@@ -7995,7 +8001,7 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Reply-To Email Address</t>
+          <t>VSD Monit From Email Address</t>
         </is>
       </c>
       <c r="B123" s="9" t="n"/>
@@ -8003,7 +8009,7 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Subject</t>
+          <t>VSD Monit Reply-To Email Address</t>
         </is>
       </c>
       <c r="B124" s="9" t="n"/>
@@ -8011,7 +8017,7 @@
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Message</t>
+          <t>VSD Monit Email Alert Subject</t>
         </is>
       </c>
       <c r="B125" s="9" t="n"/>
@@ -8019,7 +8025,7 @@
     <row r="126">
       <c r="A126" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Destination Email Address</t>
+          <t>VSD Monit Email Alert Message</t>
         </is>
       </c>
       <c r="B126" s="9" t="n"/>
@@ -8027,7 +8033,7 @@
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Only Alert On</t>
+          <t>VSD Monit Destination Email Address</t>
         </is>
       </c>
       <c r="B127" s="9" t="n"/>
@@ -8035,7 +8041,7 @@
     <row r="128">
       <c r="A128" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Do Not Alert On</t>
+          <t>VSD Monit Only Alert On</t>
         </is>
       </c>
       <c r="B128" s="9" t="n"/>
@@ -8043,10 +8049,18 @@
     <row r="129">
       <c r="A129" s="8" t="inlineStr">
         <is>
+          <t>VSD Monit Do Not Alert On</t>
+        </is>
+      </c>
+      <c r="B129" s="9" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="8" t="inlineStr">
+        <is>
           <t xml:space="preserve">VSD In-place upgrade during Install </t>
         </is>
       </c>
-      <c r="B129" s="9" t="n"/>
+      <c r="B130" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8062,16 +8076,16 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A118:B118"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
@@ -8111,39 +8125,39 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B79" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B100" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B101" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B102" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B103" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B114" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B121" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B104" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B115" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B120" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B122" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B129" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B130" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -16,23 +16,24 @@
     <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nsgv access ports" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv bootstrap" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv network port vlans" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgvs" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nuh common" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh external interfaces" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuh vrrp" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Nuhs" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Portals" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Proxys" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Stcv global" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stcvs" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Vcins" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vnsutils" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vrss" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Vsrs" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Webfilters" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Portals" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -189,6 +190,33 @@
 <file path=xl/comments/comment10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>hostname</author>
+    <author>nfs_ip</author>
+    <author>mount_directory_location</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname of NFS Server</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>IP address of the NFS server.</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Optional user specified location of the mount directory to export for the NFS. Defaults to /nfs. [default: /nfs]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>name</author>
     <author>physical_name</author>
     <author>vlan_range</author>
@@ -225,7 +253,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>nsgv_organization</author>
@@ -312,7 +340,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -357,7 +385,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vmname</author>
@@ -684,7 +712,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vsdconfig_enable</author>
@@ -705,7 +733,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -762,7 +790,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>router_id</author>
@@ -795,7 +823,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -930,7 +958,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1035,99 +1063,6 @@
     <comment authorId="16" ref="A25" shapeId="0">
       <text>
         <t>Portal version to be pulled from Docker hub [default: ]</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hostname</author>
-    <author>vmname</author>
-    <author>target_server_type</author>
-    <author>target_server</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_gateway</author>
-    <author>mgmt_netmask</author>
-    <author>proxy_vm_qcow2_path</author>
-    <author>proxy_vm_qcow2_file_name</author>
-    <author>vcpus</author>
-    <author>ram</author>
-    <author>vsd1_fqdn</author>
-    <author>vsd2_fqdn</author>
-    <author>vsd3_fqdn</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname to assign to the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Vmname to assign to the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment into which the instance will be created</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the KVM hypervisor where the PROXY VM will be instantiated</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
-      <text>
-        <t>IP address to assign to the management network interface of the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>IP address of the network gateway for the management network interface of the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Management network netmask for the PROXY VM</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A14" shapeId="0">
-      <text>
-        <t>Path to the Proxy qcow2 image</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
-      <text>
-        <t>File name of the Proxy qcow2 image</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Number of vCPUs to apply to the Proxy VM</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Amount of RAM to apply to the Proxy VM</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
-      <text>
-        <t>The FQDN value that VSD1 VM holds</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>The FQDN value that VSD2 VM holds</t>
-      </text>
-    </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
-      <text>
-        <t>The FQDN value that VSD3 VM holds</t>
       </text>
     </comment>
   </commentList>
@@ -1345,7 +1280,7 @@
     </comment>
     <comment authorId="20" ref="A30" shapeId="0">
       <text>
-        <t>When true, do not validate the RTT between VSDs in a cluster is less than max RTT [default: False]</t>
+        <t>When true, continue MetroAE execution upon error and do not validate the RTT between VSDs in a cluster is less than max RTT, else stop MetroAE execution upon error [default: False]</t>
       </text>
     </comment>
     <comment authorId="21" ref="A31" shapeId="0">
@@ -1380,7 +1315,7 @@
     </comment>
     <comment authorId="27" ref="A37" shapeId="0">
       <text>
-        <t>When true, ignore the results of the VSD disk performance test [default: False]</t>
+        <t>When true, continue MetroAE execution upon error and ignore the results of the VSD disk performance test, else stop MetroAE execution upon error [default: False]</t>
       </text>
     </comment>
     <comment authorId="28" ref="A38" shapeId="0">
@@ -1768,6 +1703,99 @@
 </file>
 
 <file path=xl/comments/comment20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hostname</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_netmask</author>
+    <author>proxy_vm_qcow2_path</author>
+    <author>proxy_vm_qcow2_file_name</author>
+    <author>vcpus</author>
+    <author>ram</author>
+    <author>vsd1_fqdn</author>
+    <author>vsd2_fqdn</author>
+    <author>vsd3_fqdn</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname to assign to the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Vmname to assign to the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the KVM hypervisor where the PROXY VM will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A10" shapeId="0">
+      <text>
+        <t>IP address to assign to the management network interface of the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>IP address of the network gateway for the management network interface of the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Management network netmask for the PROXY VM</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A14" shapeId="0">
+      <text>
+        <t>Path to the Proxy qcow2 image</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A15" shapeId="0">
+      <text>
+        <t>File name of the Proxy qcow2 image</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Number of vCPUs to apply to the Proxy VM</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Amount of RAM to apply to the Proxy VM</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A19" shapeId="0">
+      <text>
+        <t>The FQDN value that VSD1 VM holds</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>The FQDN value that VSD2 VM holds</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>The FQDN value that VSD3 VM holds</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>stcv_image_path</author>
@@ -1794,7 +1822,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>target_server</author>
@@ -1881,7 +1909,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -1980,7 +2008,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2235,7 +2263,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2298,7 +2326,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2409,7 +2437,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2422,6 +2450,9 @@
     <author>target_server</author>
     <author>cpuset</author>
     <author>cert_name</author>
+    <author>web_http_proxy</author>
+    <author>web_proxy_host</author>
+    <author>web_proxy_port</author>
     <author>run_incompass_operation</author>
   </authors>
   <commentList>
@@ -2476,6 +2507,21 @@
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Optional HTTP Proxy for webfilter VM [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>HTTP Proxy host for webfilter proxy [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A19" shapeId="0">
+      <text>
+        <t>HTTP Proxy port for webfilter proxy [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A20" shapeId="0">
       <text>
         <t>Run incompass operation command. This is enabled by default and may take up to 20 minutes and requires internet connection. [default: True]</t>
       </text>
@@ -2878,6 +2924,7 @@
     <author>enable_hardening</author>
     <author>vsc_config_file_paths</author>
     <author>override_vsc_config</author>
+    <author>custom_vsc_config_filename</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -3183,6 +3230,11 @@
     <comment authorId="60" ref="A75" shapeId="0">
       <text>
         <t>This will override the Metro Provided config on the VSC by the config provided in vsc_config_file_paths [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="61" ref="A76" shapeId="0">
+      <text>
+        <t>Custom VSC Config Filename. Used only for upgrades</t>
       </text>
     </comment>
   </commentList>
@@ -3516,6 +3568,7 @@
     <author>portal_custom_password</author>
     <author>smtp_auth_username</author>
     <author>smtp_auth_password</author>
+    <author>nfs_custom_username</author>
     <author>netconf_vm_username</author>
     <author>netconf_vm_password</author>
     <author>netconf_username</author>
@@ -3725,62 +3778,67 @@
         <t>Password for SMTP authentication [default: ]</t>
       </text>
     </comment>
-    <comment authorId="39" ref="A55" shapeId="0">
+    <comment authorId="39" ref="A54" shapeId="0">
+      <text>
+        <t>NFS username to login into command line. Default user is root [default: root]</t>
+      </text>
+    </comment>
+    <comment authorId="40" ref="A56" shapeId="0">
       <text>
         <t>Username for NETCONF Manager VM. Default user is root [default: root]</t>
       </text>
     </comment>
-    <comment authorId="40" ref="A56" shapeId="0">
+    <comment authorId="41" ref="A57" shapeId="0">
       <text>
         <t>Password for NETCONF manager VM [default: ]</t>
       </text>
     </comment>
-    <comment authorId="41" ref="A57" shapeId="0">
+    <comment authorId="42" ref="A58" shapeId="0">
       <text>
         <t>Username for NETCONF Manager user [default: netconfmgr]</t>
       </text>
     </comment>
-    <comment authorId="42" ref="A58" shapeId="0">
+    <comment authorId="43" ref="A59" shapeId="0">
       <text>
         <t>Password for NETCONF manager user [default: password]</t>
       </text>
     </comment>
-    <comment authorId="43" ref="A60" shapeId="0">
+    <comment authorId="44" ref="A61" shapeId="0">
       <text>
         <t>Username for SMTP Server</t>
       </text>
     </comment>
-    <comment authorId="44" ref="A61" shapeId="0">
+    <comment authorId="45" ref="A62" shapeId="0">
       <text>
         <t>Password for SMTP Server</t>
       </text>
     </comment>
-    <comment authorId="45" ref="A63" shapeId="0">
+    <comment authorId="46" ref="A64" shapeId="0">
       <text>
         <t>Username for the monit mail server</t>
       </text>
     </comment>
-    <comment authorId="46" ref="A64" shapeId="0">
+    <comment authorId="47" ref="A65" shapeId="0">
       <text>
         <t>Password for the monit mail server</t>
       </text>
     </comment>
-    <comment authorId="47" ref="A66" shapeId="0">
+    <comment authorId="48" ref="A67" shapeId="0">
       <text>
         <t>Username for NUH notification application</t>
       </text>
     </comment>
-    <comment authorId="48" ref="A67" shapeId="0">
+    <comment authorId="49" ref="A68" shapeId="0">
       <text>
         <t>Password for NUH notification application</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A68" shapeId="0">
+    <comment authorId="50" ref="A69" shapeId="0">
       <text>
         <t>Username for NUH notification application</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A69" shapeId="0">
+    <comment authorId="51" ref="A70" shapeId="0">
       <text>
         <t>Password for NUH notification application</t>
       </text>
@@ -4306,6 +4364,98 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NFS Server VM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Configure NFS Server VM using MetroAE. Note: Metroae will not bring up the NFS server, it will configure it for Elasticsearch mounting.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>NFS parameters</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>NFS server IP address</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="inlineStr">
+        <is>
+          <t>NFS mount directory location</t>
+        </is>
+      </c>
+      <c r="B7" s="9" t="n"/>
+      <c r="C7" s="9" t="n"/>
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="9" t="n"/>
+      <c r="G7" s="9" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4426,7 +4576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4608,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4765,7 +4915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5715,7 +5865,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5787,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5958,7 +6108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6089,7 +6239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6523,7 +6673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6891,297 +7041,6 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Proxy VM</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Specify configuration for Proxy to Architect</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Host and target server info</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>Hostname</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n"/>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Vmname</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Target Server Type</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>Management network</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Management IP Address</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n"/>
-      <c r="C10" s="7" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Gateway</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Prefix Length</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>VM details</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Image path of the Proxy VM</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n"/>
-      <c r="C14" s="7" t="n"/>
-      <c r="D14" s="7" t="n"/>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
-      <c r="G14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>Image file name of the Proxy VM</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>VM VCPUs</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>VM RAM</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>VSD fqdn</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>FQDN of VSD1</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>FQDN of VSD2</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>FQDN of VSD3</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A18:G18"/>
-  </mergeCells>
-  <dataValidations count="18">
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
-      <formula1>"kvm,vcenter"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G16" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
@@ -8350,6 +8209,297 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Proxy VM</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Specify configuration for Proxy to Architect</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Host and target server info</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Hostname</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="n"/>
+      <c r="C5" s="7" t="n"/>
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="n"/>
+      <c r="F5" s="7" t="n"/>
+      <c r="G5" s="7" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Vmname</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Management network</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>Management IP Address</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
+      <c r="C10" s="7" t="n"/>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="7" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Gateway</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Prefix Length</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>VM details</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Image path of the Proxy VM</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Image file name of the Proxy VM</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>VM VCPUs</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>VM RAM</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>VSD fqdn</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>FQDN of VSD1</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>FQDN of VSD2</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>FQDN of VSD3</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A18:G18"/>
+  </mergeCells>
+  <dataValidations count="18">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="list">
+      <formula1>"kvm,vcenter"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G16" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8416,7 +8566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8700,7 +8850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8998,7 +9148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9692,7 +9842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9916,7 +10066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10240,13 +10390,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10431,7 +10581,7 @@
     <row r="17">
       <c r="A17" s="8" t="inlineStr">
         <is>
-          <t>Run incompass operation command</t>
+          <t>Http proxy</t>
         </is>
       </c>
       <c r="B17" s="9" t="n"/>
@@ -10440,6 +10590,45 @@
       <c r="E17" s="9" t="n"/>
       <c r="F17" s="9" t="n"/>
       <c r="G17" s="9" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="inlineStr">
+        <is>
+          <t>Http proxy host</t>
+        </is>
+      </c>
+      <c r="B18" s="9" t="n"/>
+      <c r="C18" s="9" t="n"/>
+      <c r="D18" s="9" t="n"/>
+      <c r="E18" s="9" t="n"/>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="9" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="inlineStr">
+        <is>
+          <t>Http proxy port</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="n"/>
+      <c r="C19" s="9" t="n"/>
+      <c r="D19" s="9" t="n"/>
+      <c r="E19" s="9" t="n"/>
+      <c r="F19" s="9" t="n"/>
+      <c r="G19" s="9" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="inlineStr">
+        <is>
+          <t>Run incompass operation command</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="n"/>
+      <c r="C20" s="9" t="n"/>
+      <c r="D20" s="9" t="n"/>
+      <c r="E20" s="9" t="n"/>
+      <c r="F20" s="9" t="n"/>
+      <c r="G20" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10472,22 +10661,22 @@
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11569,7 +11758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12285,6 +12474,15 @@
       </c>
       <c r="B75" s="9" t="n"/>
       <c r="C75" s="9" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="8" t="inlineStr">
+        <is>
+          <t>Custom VSC Config Filename</t>
+        </is>
+      </c>
+      <c r="B76" s="9" t="n"/>
+      <c r="C76" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13332,7 +13530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13917,7 +14115,7 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>SMTP</t>
+          <t>SMTP and NFS</t>
         </is>
       </c>
     </row>
@@ -13948,29 +14146,29 @@
       <c r="G53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>NFS System Username</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
+      <c r="C54" s="7" t="n"/>
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="7" t="n"/>
+      <c r="F54" s="7" t="n"/>
+      <c r="G54" s="7" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>NETCONF Manager</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>NETCONF Manager VM username</t>
-        </is>
-      </c>
-      <c r="B55" s="7" t="n"/>
-      <c r="C55" s="7" t="n"/>
-      <c r="D55" s="7" t="n"/>
-      <c r="E55" s="7" t="n"/>
-      <c r="F55" s="7" t="n"/>
-      <c r="G55" s="7" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager VM password for running sudo commands</t>
+          <t>NETCONF Manager VM username</t>
         </is>
       </c>
       <c r="B56" s="7" t="n"/>
@@ -13983,7 +14181,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager username</t>
+          <t>NETCONF Manager VM password for running sudo commands</t>
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
@@ -13996,7 +14194,7 @@
     <row r="58">
       <c r="A58" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager password</t>
+          <t>NETCONF Manager username</t>
         </is>
       </c>
       <c r="B58" s="7" t="n"/>
@@ -14007,29 +14205,29 @@
       <c r="G58" s="7" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>NETCONF Manager password</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="n"/>
+      <c r="C59" s="7" t="n"/>
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="7" t="n"/>
+      <c r="F59" s="7" t="n"/>
+      <c r="G59" s="7" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>Health Report Email Server</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="6" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server Username</t>
-        </is>
-      </c>
-      <c r="B60" s="7" t="n"/>
-      <c r="C60" s="7" t="n"/>
-      <c r="D60" s="7" t="n"/>
-      <c r="E60" s="7" t="n"/>
-      <c r="F60" s="7" t="n"/>
-      <c r="G60" s="7" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="6" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server Password</t>
+          <t>Health Report SMTP Server Username</t>
         </is>
       </c>
       <c r="B61" s="7" t="n"/>
@@ -14040,29 +14238,29 @@
       <c r="G61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>Health Report SMTP Server Password</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="n"/>
+      <c r="C62" s="7" t="n"/>
+      <c r="D62" s="7" t="n"/>
+      <c r="E62" s="7" t="n"/>
+      <c r="F62" s="7" t="n"/>
+      <c r="G62" s="7" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>Monit Alerts Email Server</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="6" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server Username</t>
-        </is>
-      </c>
-      <c r="B63" s="7" t="n"/>
-      <c r="C63" s="7" t="n"/>
-      <c r="D63" s="7" t="n"/>
-      <c r="E63" s="7" t="n"/>
-      <c r="F63" s="7" t="n"/>
-      <c r="G63" s="7" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="6" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Password</t>
+          <t>VSD Monit Mail Server Username</t>
         </is>
       </c>
       <c r="B64" s="7" t="n"/>
@@ -14073,29 +14271,29 @@
       <c r="G64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>VSD Monit Mail Server Password</t>
+        </is>
+      </c>
+      <c r="B65" s="7" t="n"/>
+      <c r="C65" s="7" t="n"/>
+      <c r="D65" s="7" t="n"/>
+      <c r="E65" s="7" t="n"/>
+      <c r="F65" s="7" t="n"/>
+      <c r="G65" s="7" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>NUH notification application</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="6" t="inlineStr">
-        <is>
-          <t>NUH notification application 1 username</t>
-        </is>
-      </c>
-      <c r="B66" s="7" t="n"/>
-      <c r="C66" s="7" t="n"/>
-      <c r="D66" s="7" t="n"/>
-      <c r="E66" s="7" t="n"/>
-      <c r="F66" s="7" t="n"/>
-      <c r="G66" s="7" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="6" t="inlineStr">
         <is>
-          <t>NUH notification application 1 password</t>
+          <t>NUH notification application 1 username</t>
         </is>
       </c>
       <c r="B67" s="7" t="n"/>
@@ -14108,7 +14306,7 @@
     <row r="68">
       <c r="A68" s="6" t="inlineStr">
         <is>
-          <t>NUH notification application 2 username</t>
+          <t>NUH notification application 1 password</t>
         </is>
       </c>
       <c r="B68" s="7" t="n"/>
@@ -14121,7 +14319,7 @@
     <row r="69">
       <c r="A69" s="6" t="inlineStr">
         <is>
-          <t>NUH notification application 2 password</t>
+          <t>NUH notification application 2 username</t>
         </is>
       </c>
       <c r="B69" s="7" t="n"/>
@@ -14130,6 +14328,19 @@
       <c r="E69" s="7" t="n"/>
       <c r="F69" s="7" t="n"/>
       <c r="G69" s="7" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>NUH notification application 2 password</t>
+        </is>
+      </c>
+      <c r="B70" s="7" t="n"/>
+      <c r="C70" s="7" t="n"/>
+      <c r="D70" s="7" t="n"/>
+      <c r="E70" s="7" t="n"/>
+      <c r="F70" s="7" t="n"/>
+      <c r="G70" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -14144,10 +14355,10 @@
     <mergeCell ref="A42:G42"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="A62:G62"/>
-    <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="A63:G63"/>
+    <mergeCell ref="A66:G66"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -2924,7 +2924,6 @@
     <author>enable_hardening</author>
     <author>vsc_config_file_paths</author>
     <author>override_vsc_config</author>
-    <author>custom_vsc_config_filename</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -3230,11 +3229,6 @@
     <comment authorId="60" ref="A75" shapeId="0">
       <text>
         <t>This will override the Metro Provided config on the VSC by the config provided in vsc_config_file_paths [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="61" ref="A76" shapeId="0">
-      <text>
-        <t>Custom VSC Config Filename. Used only for upgrades</t>
       </text>
     </comment>
   </commentList>
@@ -11758,7 +11752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12474,15 +12468,6 @@
       </c>
       <c r="B75" s="9" t="n"/>
       <c r="C75" s="9" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="8" t="inlineStr">
-        <is>
-          <t>Custom VSC Config Filename</t>
-        </is>
-      </c>
-      <c r="B76" s="9" t="n"/>
-      <c r="C76" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Portals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1120,6 +1120,7 @@
     <author>openstack_cacert</author>
     <author>user_ssh_pub_key</author>
     <author>xmpp_tls</author>
+    <author>xmpp_tls_mode</author>
     <author>openflow_tls</author>
     <author>vsd_license_file</author>
     <author>vsd_cluster_license_file</author>
@@ -1421,285 +1422,290 @@
     </comment>
     <comment authorId="48" ref="A63" shapeId="0">
       <text>
+        <t>Set XMPP TLS mode require or allow</t>
+      </text>
+    </comment>
+    <comment authorId="49" ref="A64" shapeId="0">
+      <text>
         <t>Flag to indicate when secure communications via TLS will be used between VSCs and data plane components, e.g. VRS or NSGv; If VRS is defined, target_server_password must be defined in credentials.yml [default: True]</t>
       </text>
     </comment>
-    <comment authorId="49" ref="A65" shapeId="0">
+    <comment authorId="50" ref="A66" shapeId="0">
       <text>
         <t>Path to the standard license file for the VSD including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="50" ref="A66" shapeId="0">
+    <comment authorId="51" ref="A67" shapeId="0">
       <text>
         <t>Path to the cluster license file for the VSD including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="51" ref="A67" shapeId="0">
+    <comment authorId="52" ref="A68" shapeId="0">
       <text>
         <t>Raise a failure if the VSD licenses (Standard or cluster only) do not have at least the specified number of days remaining before expiration. If undefined, no check of days remaining before VSD license expiration will be made. If you want to verify that the number of days left before expiration is more than a certain number of days, uncomment this variable and set the value to the number of days. [default: -1]</t>
       </text>
     </comment>
-    <comment authorId="52" ref="A68" shapeId="0">
+    <comment authorId="53" ref="A69" shapeId="0">
       <text>
         <t>Continue Metroae execution even after license failure if this is set to true [default: False]</t>
       </text>
     </comment>
-    <comment authorId="53" ref="A69" shapeId="0">
+    <comment authorId="54" ref="A70" shapeId="0">
       <text>
         <t>Path to the Ejabberd license file for the VSD including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="54" ref="A70" shapeId="0">
+    <comment authorId="55" ref="A71" shapeId="0">
       <text>
         <t>Optional License File for Elasticsearch [default: ]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A71" shapeId="0">
+    <comment authorId="56" ref="A72" shapeId="0">
       <text>
         <t>Path to the license file for the SD-WAN Portal including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A72" shapeId="0">
+    <comment authorId="57" ref="A73" shapeId="0">
       <text>
         <t>Path to the license file for the NUH including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A74" shapeId="0">
+    <comment authorId="58" ref="A75" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSD during the installation [default: True]</t>
       </text>
     </comment>
-    <comment authorId="58" ref="A75" shapeId="0">
+    <comment authorId="59" ref="A76" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSTAT during the installation [default: False]</t>
       </text>
     </comment>
-    <comment authorId="59" ref="A76" shapeId="0">
+    <comment authorId="60" ref="A77" shapeId="0">
       <text>
         <t>Proxy URL to be used if Yum repositories cannot be directly reached [default: NONE]</t>
       </text>
     </comment>
-    <comment authorId="60" ref="A77" shapeId="0">
+    <comment authorId="61" ref="A78" shapeId="0">
       <text>
         <t>Username of the SSH proxy host if one is used [default: root]</t>
       </text>
     </comment>
-    <comment authorId="61" ref="A78" shapeId="0">
+    <comment authorId="62" ref="A79" shapeId="0">
       <text>
         <t>IP Address or Hostname of the SSH host if one is used [default: sshhost]</t>
       </text>
     </comment>
-    <comment authorId="62" ref="A80" shapeId="0">
+    <comment authorId="63" ref="A81" shapeId="0">
       <text>
         <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="63" ref="A81" shapeId="0">
+    <comment authorId="64" ref="A82" shapeId="0">
       <text>
         <t>Amount of VSC disk space to pre-allocate, in GB. The only valid values are 0 and 1. When undefined or 0, file size allocation will be skipped. Production deployments should set this value to 1. [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="65" ref="A83" shapeId="0">
       <text>
         <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A83" shapeId="0">
+    <comment authorId="66" ref="A84" shapeId="0">
       <text>
         <t>Amount of Portal disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A84" shapeId="0">
+    <comment authorId="67" ref="A85" shapeId="0">
       <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A85" shapeId="0">
+    <comment authorId="68" ref="A86" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A87" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A89" shapeId="0">
+    <comment authorId="71" ref="A90" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A91" shapeId="0">
+    <comment authorId="72" ref="A92" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A92" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A93" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A94" shapeId="0">
+    <comment authorId="75" ref="A95" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A96" shapeId="0">
+    <comment authorId="76" ref="A97" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSD. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A97" shapeId="0">
+    <comment authorId="77" ref="A98" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSC. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A98" shapeId="0">
+    <comment authorId="78" ref="A99" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSTAT. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A99" shapeId="0">
+    <comment authorId="79" ref="A100" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VNSUTIL. [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A101" shapeId="0">
+    <comment authorId="80" ref="A102" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A102" shapeId="0">
+    <comment authorId="81" ref="A103" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A103" shapeId="0">
+    <comment authorId="82" ref="A104" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A104" shapeId="0">
+    <comment authorId="83" ref="A105" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A106" shapeId="0">
+    <comment authorId="84" ref="A107" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A107" shapeId="0">
+    <comment authorId="85" ref="A108" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A108" shapeId="0">
+    <comment authorId="86" ref="A109" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A109" shapeId="0">
+    <comment authorId="87" ref="A110" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A111" shapeId="0">
+    <comment authorId="88" ref="A112" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A112" shapeId="0">
+    <comment authorId="89" ref="A113" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A114" shapeId="0">
+    <comment authorId="90" ref="A115" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A115" shapeId="0">
+    <comment authorId="91" ref="A116" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A116" shapeId="0">
+    <comment authorId="92" ref="A117" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A117" shapeId="0">
+    <comment authorId="93" ref="A118" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A119" shapeId="0">
+    <comment authorId="94" ref="A120" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A120" shapeId="0">
+    <comment authorId="95" ref="A121" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A121" shapeId="0">
+    <comment authorId="96" ref="A122" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A122" shapeId="0">
+    <comment authorId="97" ref="A123" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A123" shapeId="0">
+    <comment authorId="98" ref="A124" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="98" ref="A124" shapeId="0">
+    <comment authorId="99" ref="A125" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="99" ref="A125" shapeId="0">
+    <comment authorId="100" ref="A126" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="100" ref="A126" shapeId="0">
+    <comment authorId="101" ref="A127" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="101" ref="A127" shapeId="0">
+    <comment authorId="102" ref="A128" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="102" ref="A128" shapeId="0">
+    <comment authorId="103" ref="A129" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="103" ref="A129" shapeId="0">
+    <comment authorId="104" ref="A130" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="104" ref="A130" shapeId="0">
+    <comment authorId="105" ref="A131" shapeId="0">
       <text>
         <t>Allowing VSD in-place upgrade during Installation [default: False]</t>
       </text>
@@ -3605,52 +3611,52 @@
     </comment>
     <comment authorId="4" ref="A10" shapeId="0">
       <text>
-        <t>Username to be used while logging into VSD command line. [default: root]</t>
+        <t>VSD Username will be used for logging into VSD command line. Used for both Install and Upgrade procedures. [default: root]</t>
       </text>
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
       <text>
-        <t>Password for the VSD user used to login to the command line [default: Alcateldc]</t>
+        <t>VSD password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: Alcateldc]</t>
       </text>
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>VSC username to login into command line. Should have admin privileges. [default: ]</t>
+        <t>VSC Username will be used for logging into command line (should have admin privileges). Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="7" ref="A13" shapeId="0">
       <text>
-        <t>VSC password to login into command line [default: ]</t>
+        <t>VSC password will be used for logging into the command line. Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="8" ref="A15" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) username to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) Username will be used for logging into command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) password to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) root password required for Stats Upgrade [default: ]</t>
+        <t>ElasticSearch (Stats) root password required for VSTAT Upgrade only [default: ]</t>
       </text>
     </comment>
     <comment authorId="11" ref="A19" shapeId="0">
       <text>
-        <t>Username for API authentication. Must have csproot privileges. Also known as csproot user [default: csproot]</t>
+        <t>This VSD Username(also known as csproot user). Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
-        <t>Password for API authentication. Must have csproot privileges. Also known as csproot password [default: csproot]</t>
+        <t>This VSD password(also known as csproot password) will be used for API authentication. Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
-        <t>Mysql password for vsd [default: ]</t>
+        <t>This VSD Mysql password. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
@@ -3715,7 +3721,7 @@
     </comment>
     <comment authorId="26" ref="A37" shapeId="0">
       <text>
-        <t>Username for OpenStack [default: ]</t>
+        <t>Username for OpenStack. [default: ]</t>
       </text>
     </comment>
     <comment authorId="27" ref="A38" shapeId="0">
@@ -3725,7 +3731,7 @@
     </comment>
     <comment authorId="28" ref="A40" shapeId="0">
       <text>
-        <t>vCenter Username [default: ]</t>
+        <t>vCenter Username. [default: ]</t>
       </text>
     </comment>
     <comment authorId="29" ref="A41" shapeId="0">
@@ -3735,12 +3741,12 @@
     </comment>
     <comment authorId="30" ref="A43" shapeId="0">
       <text>
-        <t>Username for Compute node to install VRS [default: root]</t>
+        <t>Username for Compute node to install VRS. [default: root]</t>
       </text>
     </comment>
     <comment authorId="31" ref="A44" shapeId="0">
       <text>
-        <t>Password for Compute node [default: ]</t>
+        <t>Password for Compute node, and will be used for installation of VRS [default: ]</t>
       </text>
     </comment>
     <comment authorId="32" ref="A45" shapeId="0">
@@ -3780,12 +3786,12 @@
     </comment>
     <comment authorId="39" ref="A54" shapeId="0">
       <text>
-        <t>NFS username to login into command line. Default user is root [default: root]</t>
+        <t>NFS username to login into command line, and will be used for NFS configuration. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="40" ref="A56" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager VM. Default user is root [default: root]</t>
+        <t>Username for NETCONF Manager VM, and will be used for the installation of NETCONF Manager. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="41" ref="A57" shapeId="0">
@@ -3795,27 +3801,27 @@
     </comment>
     <comment authorId="42" ref="A58" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager user [default: netconfmgr]</t>
+        <t>Username for NETCONF Manager user, and will be used for the installation of NETCONF Manager. [default: netconfmgr]</t>
       </text>
     </comment>
     <comment authorId="43" ref="A59" shapeId="0">
       <text>
-        <t>Password for NETCONF manager user [default: password]</t>
+        <t>Password for NETCONF manager user, and will be used for the installation of NETCONF Manager. [default: password]</t>
       </text>
     </comment>
     <comment authorId="44" ref="A61" shapeId="0">
       <text>
-        <t>Username for SMTP Server</t>
+        <t>Username for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="45" ref="A62" shapeId="0">
       <text>
-        <t>Password for SMTP Server</t>
+        <t>Password for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="46" ref="A64" shapeId="0">
       <text>
-        <t>Username for the monit mail server</t>
+        <t>Username for the monit mail server.</t>
       </text>
     </comment>
     <comment authorId="47" ref="A65" shapeId="0">
@@ -3825,22 +3831,22 @@
     </comment>
     <comment authorId="48" ref="A67" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="49" ref="A68" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="50" ref="A69" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="51" ref="A70" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
   </commentList>
@@ -4287,7 +4293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4354,12 +4360,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4446,12 +4452,12 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4572,12 +4578,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4754,12 +4760,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4911,12 +4917,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5861,12 +5867,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G66" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5933,12 +5939,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6104,12 +6110,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6235,12 +6241,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6669,12 +6675,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7043,17 +7049,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7577,30 +7583,30 @@
     <row r="63">
       <c r="A63" s="8" t="inlineStr">
         <is>
+          <t>Set XMPP TLS mode require or allow</t>
+        </is>
+      </c>
+      <c r="B63" s="9" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="8" t="inlineStr">
+        <is>
           <t>OpenFlow TLS</t>
         </is>
       </c>
-      <c r="B63" s="9" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="B64" s="9" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>Licenses</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="8" t="inlineStr">
-        <is>
-          <t>VSD Standard License File</t>
-        </is>
-      </c>
-      <c r="B65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="8" t="inlineStr">
         <is>
-          <t>VSD Cluster License File</t>
+          <t>VSD Standard License File</t>
         </is>
       </c>
       <c r="B66" s="9" t="n"/>
@@ -7608,7 +7614,7 @@
     <row r="67">
       <c r="A67" s="8" t="inlineStr">
         <is>
-          <t>VSD License Required Days Left</t>
+          <t>VSD Cluster License File</t>
         </is>
       </c>
       <c r="B67" s="9" t="n"/>
@@ -7616,7 +7622,7 @@
     <row r="68">
       <c r="A68" s="8" t="inlineStr">
         <is>
-          <t>Continue Metroae execution on VSD license failure</t>
+          <t>VSD License Required Days Left</t>
         </is>
       </c>
       <c r="B68" s="9" t="n"/>
@@ -7624,7 +7630,7 @@
     <row r="69">
       <c r="A69" s="8" t="inlineStr">
         <is>
-          <t>VSD Ejabberd License File</t>
+          <t>Continue Metroae execution on VSD license failure</t>
         </is>
       </c>
       <c r="B69" s="9" t="n"/>
@@ -7632,7 +7638,7 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>VSTAT License File</t>
+          <t>VSD Ejabberd License File</t>
         </is>
       </c>
       <c r="B70" s="9" t="n"/>
@@ -7640,7 +7646,7 @@
     <row r="71">
       <c r="A71" s="8" t="inlineStr">
         <is>
-          <t>SD-WAN Portal License File</t>
+          <t>VSTAT License File</t>
         </is>
       </c>
       <c r="B71" s="9" t="n"/>
@@ -7648,30 +7654,30 @@
     <row r="72">
       <c r="A72" s="8" t="inlineStr">
         <is>
+          <t>SD-WAN Portal License File</t>
+        </is>
+      </c>
+      <c r="B72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="inlineStr">
+        <is>
           <t>NUH License File</t>
         </is>
       </c>
-      <c r="B72" s="9" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
+      <c r="B73" s="9" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>Yum and SSH Proxy</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="8" t="inlineStr">
-        <is>
-          <t>VSD yum update</t>
-        </is>
-      </c>
-      <c r="B74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="8" t="inlineStr">
         <is>
-          <t>VSTAT yum update</t>
+          <t>VSD yum update</t>
         </is>
       </c>
       <c r="B75" s="9" t="n"/>
@@ -7679,7 +7685,7 @@
     <row r="76">
       <c r="A76" s="8" t="inlineStr">
         <is>
-          <t>Proxy for Yum Updates</t>
+          <t>VSTAT yum update</t>
         </is>
       </c>
       <c r="B76" s="9" t="n"/>
@@ -7687,7 +7693,7 @@
     <row r="77">
       <c r="A77" s="8" t="inlineStr">
         <is>
-          <t>SSH proxy configuration username</t>
+          <t>Proxy for Yum Updates</t>
         </is>
       </c>
       <c r="B77" s="9" t="n"/>
@@ -7695,30 +7701,30 @@
     <row r="78">
       <c r="A78" s="8" t="inlineStr">
         <is>
+          <t>SSH proxy configuration username</t>
+        </is>
+      </c>
+      <c r="B78" s="9" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8" t="inlineStr">
+        <is>
           <t>SSH proxy configuration host</t>
         </is>
       </c>
-      <c r="B78" s="9" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="3" t="inlineStr">
+      <c r="B79" s="9" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>Disk Space</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="8" t="inlineStr">
-        <is>
-          <t>VSD Disk Size</t>
-        </is>
-      </c>
-      <c r="B80" s="9" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="8" t="inlineStr">
         <is>
-          <t>VSC Disk Size</t>
+          <t>VSD Disk Size</t>
         </is>
       </c>
       <c r="B81" s="9" t="n"/>
@@ -7726,7 +7732,7 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
-          <t>VSTAT Disk Size</t>
+          <t>VSC Disk Size</t>
         </is>
       </c>
       <c r="B82" s="9" t="n"/>
@@ -7734,7 +7740,7 @@
     <row r="83">
       <c r="A83" s="8" t="inlineStr">
         <is>
-          <t>Portal Disk Size</t>
+          <t>VSTAT Disk Size</t>
         </is>
       </c>
       <c r="B83" s="9" t="n"/>
@@ -7742,7 +7748,7 @@
     <row r="84">
       <c r="A84" s="8" t="inlineStr">
         <is>
-          <t>VCIN Disk Size</t>
+          <t>Portal Disk Size</t>
         </is>
       </c>
       <c r="B84" s="9" t="n"/>
@@ -7750,30 +7756,30 @@
     <row r="85">
       <c r="A85" s="8" t="inlineStr">
         <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8" t="inlineStr">
+        <is>
           <t>NSGV Disk Size</t>
         </is>
       </c>
-      <c r="B85" s="9" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="inlineStr">
+      <c r="B86" s="9" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>KVM and VCenter RAM</t>
         </is>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B87" s="9" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC RAM</t>
+          <t>KVM VSD RAM</t>
         </is>
       </c>
       <c r="B88" s="9" t="n"/>
@@ -7781,30 +7787,30 @@
     <row r="89">
       <c r="A89" s="8" t="inlineStr">
         <is>
+          <t>KVM VSC RAM</t>
+        </is>
+      </c>
+      <c r="B89" s="9" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="8" t="inlineStr">
+        <is>
           <t>KVM VSTAT RAM</t>
         </is>
       </c>
-      <c r="B89" s="9" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="inlineStr">
+      <c r="B90" s="9" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>KVM RAM</t>
         </is>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN RAM</t>
-        </is>
-      </c>
-      <c r="B91" s="9" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH RAM</t>
+          <t>KVM VCIN RAM</t>
         </is>
       </c>
       <c r="B92" s="9" t="n"/>
@@ -7812,7 +7818,7 @@
     <row r="93">
       <c r="A93" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter RAM</t>
+          <t>KVM NUH RAM</t>
         </is>
       </c>
       <c r="B93" s="9" t="n"/>
@@ -7820,30 +7826,30 @@
     <row r="94">
       <c r="A94" s="8" t="inlineStr">
         <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B94" s="9" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="8" t="inlineStr">
+        <is>
           <t>KVM Portal RAM</t>
         </is>
       </c>
-      <c r="B94" s="9" t="n"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="3" t="inlineStr">
+      <c r="B95" s="9" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>KVM and VCenter CPU</t>
         </is>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B96" s="9" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC CPU cores</t>
+          <t>KVM VSD CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>
@@ -7851,7 +7857,7 @@
     <row r="98">
       <c r="A98" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT CPU cores</t>
+          <t>KVM VSC CPU cores</t>
         </is>
       </c>
       <c r="B98" s="9" t="n"/>
@@ -7859,30 +7865,30 @@
     <row r="99">
       <c r="A99" s="8" t="inlineStr">
         <is>
+          <t>KVM VSTAT CPU cores</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="8" t="inlineStr">
+        <is>
           <t>KVM VNSUTIL CPU cores</t>
         </is>
       </c>
-      <c r="B99" s="9" t="n"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="3" t="inlineStr">
+      <c r="B100" s="9" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>KVM CPU</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH CPU cores</t>
-        </is>
-      </c>
-      <c r="B101" s="9" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN CPU cores</t>
+          <t>KVM NUH CPU cores</t>
         </is>
       </c>
       <c r="B102" s="9" t="n"/>
@@ -7890,7 +7896,7 @@
     <row r="103">
       <c r="A103" s="8" t="inlineStr">
         <is>
-          <t>KVM Portal VM CPU cores</t>
+          <t>KVM VCIN CPU cores</t>
         </is>
       </c>
       <c r="B103" s="9" t="n"/>
@@ -7898,30 +7904,30 @@
     <row r="104">
       <c r="A104" s="8" t="inlineStr">
         <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B104" s="9" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="8" t="inlineStr">
+        <is>
           <t>KVM Webfilter VM CPU cores</t>
         </is>
       </c>
-      <c r="B104" s="9" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="3" t="inlineStr">
+      <c r="B105" s="9" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="inlineStr">
         <is>
           <t>Authentication</t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B106" s="9" t="n"/>
     </row>
     <row r="107">
       <c r="A107" s="8" t="inlineStr">
         <is>
-          <t>VSD Enterprise</t>
+          <t>VSD Architect URL</t>
         </is>
       </c>
       <c r="B107" s="9" t="n"/>
@@ -7929,7 +7935,7 @@
     <row r="108">
       <c r="A108" s="8" t="inlineStr">
         <is>
-          <t>VCIN URL</t>
+          <t>VSD Enterprise</t>
         </is>
       </c>
       <c r="B108" s="9" t="n"/>
@@ -7937,53 +7943,53 @@
     <row r="109">
       <c r="A109" s="8" t="inlineStr">
         <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="8" t="inlineStr">
+        <is>
           <t>VCIN Enterprise</t>
         </is>
       </c>
-      <c r="B109" s="9" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="3" t="inlineStr">
+      <c r="B110" s="9" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="inlineStr">
         <is>
           <t>Hooks</t>
         </is>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B111" s="9" t="n"/>
     </row>
     <row r="112">
       <c r="A112" s="8" t="inlineStr">
         <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B112" s="9" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="8" t="inlineStr">
+        <is>
           <t>skip actions</t>
         </is>
       </c>
-      <c r="B112" s="9" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="3" t="inlineStr">
+      <c r="B113" s="9" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>Component Health Report Email Options</t>
         </is>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B114" s="9" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="8" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server Port</t>
+          <t>Health Report SMTP Server</t>
         </is>
       </c>
       <c r="B115" s="9" t="n"/>
@@ -7991,7 +7997,7 @@
     <row r="116">
       <c r="A116" s="8" t="inlineStr">
         <is>
-          <t>Health Report Email From Address</t>
+          <t>Health Report SMTP Server Port</t>
         </is>
       </c>
       <c r="B116" s="9" t="n"/>
@@ -7999,30 +8005,30 @@
     <row r="117">
       <c r="A117" s="8" t="inlineStr">
         <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B117" s="9" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="8" t="inlineStr">
+        <is>
           <t>Health Report Destination Email Address(es)</t>
         </is>
       </c>
-      <c r="B117" s="9" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="3" t="inlineStr">
+      <c r="B118" s="9" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="inlineStr">
         <is>
           <t>VSD Monit Email Alerts Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B119" s="9" t="n"/>
     </row>
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Port</t>
+          <t>VSD Monit Mail Server</t>
         </is>
       </c>
       <c r="B120" s="9" t="n"/>
@@ -8030,7 +8036,7 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
+          <t>VSD Monit Mail Server Port</t>
         </is>
       </c>
       <c r="B121" s="9" t="n"/>
@@ -8038,7 +8044,7 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>Use VSD Monit Eventqueue</t>
+          <t>VSD Monit Mail Server Encryption Type</t>
         </is>
       </c>
       <c r="B122" s="9" t="n"/>
@@ -8046,7 +8052,7 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit From Email Address</t>
+          <t>Use VSD Monit Eventqueue</t>
         </is>
       </c>
       <c r="B123" s="9" t="n"/>
@@ -8054,7 +8060,7 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Reply-To Email Address</t>
+          <t>VSD Monit From Email Address</t>
         </is>
       </c>
       <c r="B124" s="9" t="n"/>
@@ -8062,7 +8068,7 @@
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Subject</t>
+          <t>VSD Monit Reply-To Email Address</t>
         </is>
       </c>
       <c r="B125" s="9" t="n"/>
@@ -8070,7 +8076,7 @@
     <row r="126">
       <c r="A126" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Message</t>
+          <t>VSD Monit Email Alert Subject</t>
         </is>
       </c>
       <c r="B126" s="9" t="n"/>
@@ -8078,7 +8084,7 @@
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Destination Email Address</t>
+          <t>VSD Monit Email Alert Message</t>
         </is>
       </c>
       <c r="B127" s="9" t="n"/>
@@ -8086,7 +8092,7 @@
     <row r="128">
       <c r="A128" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Only Alert On</t>
+          <t>VSD Monit Destination Email Address</t>
         </is>
       </c>
       <c r="B128" s="9" t="n"/>
@@ -8094,7 +8100,7 @@
     <row r="129">
       <c r="A129" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Do Not Alert On</t>
+          <t>VSD Monit Only Alert On</t>
         </is>
       </c>
       <c r="B129" s="9" t="n"/>
@@ -8102,10 +8108,18 @@
     <row r="130">
       <c r="A130" s="8" t="inlineStr">
         <is>
+          <t>VSD Monit Do Not Alert On</t>
+        </is>
+      </c>
+      <c r="B130" s="9" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="8" t="inlineStr">
+        <is>
           <t xml:space="preserve">VSD In-place upgrade during Install </t>
         </is>
       </c>
-      <c r="B130" s="9" t="n"/>
+      <c r="B131" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8120,17 +8134,17 @@
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A119:B119"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
@@ -8163,56 +8177,56 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B64" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B67" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B69" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B76" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B101" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B100" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B102" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B103" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B104" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B115" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B120" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B122" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B105" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B116" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B121" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B123" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B130" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B131" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8498,12 +8512,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8570,12 +8584,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8854,12 +8868,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9152,12 +9166,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9846,12 +9860,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10070,12 +10084,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10394,12 +10408,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10689,12 +10703,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10815,12 +10829,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11756,12 +11770,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12538,12 +12552,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13519,12 +13533,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14180,7 +14194,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager VM password for running sudo commands</t>
+          <t>NETCONF Manager VM password for running sudo commands, and will be used for the installation of NETCONF Manager.</t>
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
@@ -14360,12 +14374,12 @@
     <mergeCell ref="A66:G66"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14718,12 +14732,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14823,6 +14837,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -8146,7 +8146,7 @@
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A119:B119"/>
   </mergeCells>
-  <dataValidations count="42">
+  <dataValidations count="43">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -8176,6 +8176,9 @@
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B62" type="list">
       <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B63" type="list">
+      <formula1>"allow,require"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B64" type="list">
       <formula1>"true,false"</formula1>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Portals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -828,6 +828,7 @@
   <authors>
     <author>hostname</author>
     <author>vmname</author>
+    <author>upgrade_vmname</author>
     <author>mgmt_ip</author>
     <author>mgmt_ip_prefix</author>
     <author>mgmt_gateway</author>
@@ -859,97 +860,102 @@
         <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
       </text>
     </comment>
-    <comment authorId="2" ref="A8" shapeId="0">
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Virtual Machine name of the new NUH. Used during Upgrade only</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A9" shapeId="0">
       <text>
         <t>IP address of the management interface</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A9" shapeId="0">
+    <comment authorId="4" ref="A10" shapeId="0">
       <text>
         <t>IP Prefix length for the management network</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A10" shapeId="0">
+    <comment authorId="5" ref="A11" shapeId="0">
       <text>
         <t>IP address of the gateway on the management network</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A12" shapeId="0">
+    <comment authorId="6" ref="A13" shapeId="0">
       <text>
         <t>IP address of the internal network interface. Used for VSD connection when configured</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A13" shapeId="0">
+    <comment authorId="7" ref="A14" shapeId="0">
       <text>
         <t>IP Prefix length for the internal network</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A14" shapeId="0">
+    <comment authorId="8" ref="A15" shapeId="0">
       <text>
         <t>IP address of the gateway on the internal network</t>
       </text>
     </comment>
-    <comment authorId="8" ref="A15" shapeId="0">
+    <comment authorId="9" ref="A16" shapeId="0">
       <text>
         <t>Name of the external interface as defined in the nuh_internal_interface file (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A17" shapeId="0">
+    <comment authorId="10" ref="A18" shapeId="0">
       <text>
         <t>Hostname or IP address of the KVM hypervisor where the NUH VM will be instantiated</t>
       </text>
     </comment>
-    <comment authorId="10" ref="A18" shapeId="0">
+    <comment authorId="11" ref="A19" shapeId="0">
       <text>
         <t>Type of hypervisor environment where VMs will be instantiated. Use 'none' when skipping predeploy. [default: kvm]</t>
       </text>
     </comment>
-    <comment authorId="11" ref="A19" shapeId="0">
+    <comment authorId="12" ref="A20" shapeId="0">
       <text>
         <t>Timezone of the NUH [default: America/Toronto]</t>
       </text>
     </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
+    <comment authorId="13" ref="A21" shapeId="0">
       <text>
         <t>Optional user specified location of the yaml based configuration file for the NUH. This will replace the default yaml configuration file added by MetroAE</t>
       </text>
     </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
+    <comment authorId="14" ref="A22" shapeId="0">
       <text>
         <t>Enable this option to install NUH in situations where no VSD is present [default: False]</t>
       </text>
     </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
+    <comment authorId="15" ref="A23" shapeId="0">
       <text>
         <t>Enables setup of a health monitoring agent [default: none]</t>
       </text>
     </comment>
-    <comment authorId="15" ref="A23" shapeId="0">
+    <comment authorId="16" ref="A24" shapeId="0">
       <text>
         <t>Cpuset information for cpu pinning on KVM. For example, NUH requires 4 cores and sample values will be of the form [ 0, 1, 2, 3 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
+    <comment authorId="17" ref="A26" shapeId="0">
       <text>
         <t>Network Bridge used for the management interface on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to the global setting [default: (global Bridge interface)]</t>
       </text>
     </comment>
-    <comment authorId="17" ref="A26" shapeId="0">
+    <comment authorId="18" ref="A27" shapeId="0">
       <text>
         <t>Network Bridge used for the internal network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using management bridge [default: (management bridge)]</t>
       </text>
     </comment>
-    <comment authorId="18" ref="A28" shapeId="0">
+    <comment authorId="19" ref="A29" shapeId="0">
       <text>
         <t>Name of the vCenter Datacenter on which the VSD VM will be deployed. Defaults to the common vCenter Datacenter Name if not defined here. [default: (global vCenter Datacenter Name)]</t>
       </text>
     </comment>
-    <comment authorId="19" ref="A29" shapeId="0">
+    <comment authorId="20" ref="A30" shapeId="0">
       <text>
         <t>Name of the vCenter Cluster on which the VSD VM will be deployed. Defaults to the common vCenter Cluster Name if not defined here. [default: (global vCenter Cluster Name)]</t>
       </text>
     </comment>
-    <comment authorId="20" ref="A30" shapeId="0">
+    <comment authorId="21" ref="A31" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSD VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
       </text>
@@ -3605,52 +3611,52 @@
     </comment>
     <comment authorId="4" ref="A10" shapeId="0">
       <text>
-        <t>Username to be used while logging into VSD command line. [default: root]</t>
+        <t>VSD Username will be used for logging into VSD command line. Used for both Install and Upgrade procedures. [default: root]</t>
       </text>
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
       <text>
-        <t>Password for the VSD user used to login to the command line [default: Alcateldc]</t>
+        <t>VSD password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: Alcateldc]</t>
       </text>
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>VSC username to login into command line. Should have admin privileges. [default: ]</t>
+        <t>VSC Username will be used for logging into command line (should have admin privileges). Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="7" ref="A13" shapeId="0">
       <text>
-        <t>VSC password to login into command line [default: ]</t>
+        <t>VSC password will be used for logging into the command line. Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="8" ref="A15" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) username to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) Username will be used for logging into command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) password to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) root password required for Stats Upgrade [default: ]</t>
+        <t>ElasticSearch (Stats) root password required for VSTAT Upgrade only [default: ]</t>
       </text>
     </comment>
     <comment authorId="11" ref="A19" shapeId="0">
       <text>
-        <t>Username for API authentication. Must have csproot privileges. Also known as csproot user [default: csproot]</t>
+        <t>This VSD Username(also known as csproot user). Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
-        <t>Password for API authentication. Must have csproot privileges. Also known as csproot password [default: csproot]</t>
+        <t>This VSD password(also known as csproot password) will be used for API authentication. Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
-        <t>Mysql password for vsd [default: ]</t>
+        <t>This VSD Mysql password. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
@@ -3715,7 +3721,7 @@
     </comment>
     <comment authorId="26" ref="A37" shapeId="0">
       <text>
-        <t>Username for OpenStack [default: ]</t>
+        <t>Username for OpenStack. [default: ]</t>
       </text>
     </comment>
     <comment authorId="27" ref="A38" shapeId="0">
@@ -3725,7 +3731,7 @@
     </comment>
     <comment authorId="28" ref="A40" shapeId="0">
       <text>
-        <t>vCenter Username [default: ]</t>
+        <t>vCenter Username. [default: ]</t>
       </text>
     </comment>
     <comment authorId="29" ref="A41" shapeId="0">
@@ -3735,12 +3741,12 @@
     </comment>
     <comment authorId="30" ref="A43" shapeId="0">
       <text>
-        <t>Username for Compute node to install VRS [default: root]</t>
+        <t>Username for Compute node to install VRS. [default: root]</t>
       </text>
     </comment>
     <comment authorId="31" ref="A44" shapeId="0">
       <text>
-        <t>Password for Compute node [default: ]</t>
+        <t>Password for Compute node, and will be used for installation of VRS [default: ]</t>
       </text>
     </comment>
     <comment authorId="32" ref="A45" shapeId="0">
@@ -3780,12 +3786,12 @@
     </comment>
     <comment authorId="39" ref="A54" shapeId="0">
       <text>
-        <t>NFS username to login into command line. Default user is root [default: root]</t>
+        <t>NFS username to login into command line, and will be used for NFS configuration. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="40" ref="A56" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager VM. Default user is root [default: root]</t>
+        <t>Username for NETCONF Manager VM, and will be used for the installation of NETCONF Manager. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="41" ref="A57" shapeId="0">
@@ -3795,27 +3801,27 @@
     </comment>
     <comment authorId="42" ref="A58" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager user [default: netconfmgr]</t>
+        <t>Username for NETCONF Manager user, and will be used for the installation of NETCONF Manager. [default: netconfmgr]</t>
       </text>
     </comment>
     <comment authorId="43" ref="A59" shapeId="0">
       <text>
-        <t>Password for NETCONF manager user [default: password]</t>
+        <t>Password for NETCONF manager user, and will be used for the installation of NETCONF Manager. [default: password]</t>
       </text>
     </comment>
     <comment authorId="44" ref="A61" shapeId="0">
       <text>
-        <t>Username for SMTP Server</t>
+        <t>Username for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="45" ref="A62" shapeId="0">
       <text>
-        <t>Password for SMTP Server</t>
+        <t>Password for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="46" ref="A64" shapeId="0">
       <text>
-        <t>Username for the monit mail server</t>
+        <t>Username for the monit mail server.</t>
       </text>
     </comment>
     <comment authorId="47" ref="A65" shapeId="0">
@@ -3825,22 +3831,22 @@
     </comment>
     <comment authorId="48" ref="A67" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="49" ref="A68" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="50" ref="A69" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="51" ref="A70" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
   </commentList>
@@ -4287,7 +4293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4354,12 +4360,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4446,12 +4452,12 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4572,12 +4578,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4754,12 +4760,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4911,12 +4917,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5861,12 +5867,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G66" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5933,12 +5939,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6104,12 +6110,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6235,17 +6241,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6310,29 +6316,29 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Upgrade VM Name</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Management Interface</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>Management IP address</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>Management IP Prefix Length</t>
+          <t>Management IP address</t>
         </is>
       </c>
       <c r="B9" s="5" t="n"/>
@@ -6345,7 +6351,7 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>Management Gateway IP</t>
+          <t>Management IP Prefix Length</t>
         </is>
       </c>
       <c r="B10" s="5" t="n"/>
@@ -6356,29 +6362,29 @@
       <c r="G10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>Management Gateway IP</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Network Interfaces</t>
         </is>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Internal Network IP address</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>Internal Network IP Prefix Length</t>
+          <t>Internal Network IP address</t>
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
@@ -6391,7 +6397,7 @@
     <row r="14">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>Internal Network Gateway IP</t>
+          <t>Internal Network IP Prefix Length</t>
         </is>
       </c>
       <c r="B14" s="7" t="n"/>
@@ -6404,7 +6410,7 @@
     <row r="15">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>External interface name list</t>
+          <t>Internal Network Gateway IP</t>
         </is>
       </c>
       <c r="B15" s="7" t="n"/>
@@ -6415,55 +6421,55 @@
       <c r="G15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>External interface name list</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Other parameters</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="5" t="n"/>
-      <c r="E17" s="5" t="n"/>
-      <c r="F17" s="5" t="n"/>
-      <c r="G17" s="5" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>Target Server Type</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Timezone</t>
-        </is>
-      </c>
-      <c r="B19" s="9" t="n"/>
-      <c r="C19" s="9" t="n"/>
-      <c r="D19" s="9" t="n"/>
-      <c r="E19" s="9" t="n"/>
-      <c r="F19" s="9" t="n"/>
-      <c r="G19" s="9" t="n"/>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="8" t="inlineStr">
         <is>
-          <t>Custom NUH configuration file location</t>
+          <t>Timezone</t>
         </is>
       </c>
       <c r="B20" s="9" t="n"/>
@@ -6476,7 +6482,7 @@
     <row r="21">
       <c r="A21" s="8" t="inlineStr">
         <is>
-          <t>Skip VSD installed check</t>
+          <t>Custom NUH configuration file location</t>
         </is>
       </c>
       <c r="B21" s="9" t="n"/>
@@ -6489,7 +6495,7 @@
     <row r="22">
       <c r="A22" s="8" t="inlineStr">
         <is>
-          <t>Health monitoring agent</t>
+          <t>Skip VSD installed check</t>
         </is>
       </c>
       <c r="B22" s="9" t="n"/>
@@ -6502,7 +6508,7 @@
     <row r="23">
       <c r="A23" s="8" t="inlineStr">
         <is>
-          <t>KVM cpuset information</t>
+          <t>Health monitoring agent</t>
         </is>
       </c>
       <c r="B23" s="9" t="n"/>
@@ -6513,62 +6519,62 @@
       <c r="G23" s="9" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="n"/>
+      <c r="C24" s="9" t="n"/>
+      <c r="D24" s="9" t="n"/>
+      <c r="E24" s="9" t="n"/>
+      <c r="F24" s="9" t="n"/>
+      <c r="G24" s="9" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>Bridge details</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
         <is>
           <t>Management Network Bridge</t>
         </is>
       </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="inlineStr">
+      <c r="B26" s="7" t="n"/>
+      <c r="C26" s="7" t="n"/>
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
+      <c r="F26" s="7" t="n"/>
+      <c r="G26" s="7" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="8" t="inlineStr">
         <is>
           <t>Internal Network Bridge</t>
         </is>
       </c>
-      <c r="B26" s="9" t="n"/>
-      <c r="C26" s="9" t="n"/>
-      <c r="D26" s="9" t="n"/>
-      <c r="E26" s="9" t="n"/>
-      <c r="F26" s="9" t="n"/>
-      <c r="G26" s="9" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="B27" s="9" t="n"/>
+      <c r="C27" s="9" t="n"/>
+      <c r="D27" s="9" t="n"/>
+      <c r="E27" s="9" t="n"/>
+      <c r="F27" s="9" t="n"/>
+      <c r="G27" s="9" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>vCenter Parameters</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="inlineStr">
-        <is>
-          <t>vCenter Datacenter Name</t>
-        </is>
-      </c>
-      <c r="B28" s="9" t="n"/>
-      <c r="C28" s="9" t="n"/>
-      <c r="D28" s="9" t="n"/>
-      <c r="E28" s="9" t="n"/>
-      <c r="F28" s="9" t="n"/>
-      <c r="G28" s="9" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
         <is>
-          <t>vCenter Cluster Name</t>
+          <t>vCenter Datacenter Name</t>
         </is>
       </c>
       <c r="B29" s="9" t="n"/>
@@ -6581,7 +6587,7 @@
     <row r="30">
       <c r="A30" s="8" t="inlineStr">
         <is>
-          <t>vCenter Datastore Name</t>
+          <t>vCenter Cluster Name</t>
         </is>
       </c>
       <c r="B30" s="9" t="n"/>
@@ -6591,90 +6597,103 @@
       <c r="F30" s="9" t="n"/>
       <c r="G30" s="9" t="n"/>
     </row>
+    <row r="31">
+      <c r="A31" s="8" t="inlineStr">
+        <is>
+          <t>vCenter Datastore Name</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="n"/>
+      <c r="C31" s="9" t="n"/>
+      <c r="D31" s="9" t="n"/>
+      <c r="E31" s="9" t="n"/>
+      <c r="F31" s="9" t="n"/>
+      <c r="G31" s="9" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A28:G28"/>
   </mergeCells>
   <dataValidations count="30">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G13" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B18" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B14" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C14" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D14" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E14" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F14" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G14" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B19" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C18" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C19" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D18" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D19" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E18" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E19" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F18" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F19" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G18" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G19" type="list">
       <formula1>"kvm,vcenter,none"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G23" type="list">
       <formula1>"none,zabbix"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7043,12 +7062,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8207,12 +8226,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8498,12 +8517,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8570,12 +8589,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8854,12 +8873,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9152,12 +9171,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9846,12 +9865,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10070,12 +10089,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10394,12 +10413,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10689,12 +10708,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10815,12 +10834,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11756,12 +11775,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12538,12 +12557,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13519,12 +13538,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14180,7 +14199,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager VM password for running sudo commands</t>
+          <t>NETCONF Manager VM password for running sudo commands, and will be used for the installation of NETCONF Manager.</t>
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
@@ -14360,12 +14379,12 @@
     <mergeCell ref="A66:G66"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14718,12 +14737,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14823,6 +14842,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Portals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1177,6 +1177,7 @@
     <author>vsd_monit_alert_only_on</author>
     <author>vsd_monit_alert_not_on</author>
     <author>vsd_install_inplace_upgrade</author>
+    <author>keep_root_access</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -1702,6 +1703,11 @@
     <comment authorId="104" ref="A130" shapeId="0">
       <text>
         <t>Allowing VSD in-place upgrade during Installation [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="105" ref="A131" shapeId="0">
+      <text>
+        <t>Create custom username and password without hardening [default: False]</t>
       </text>
     </comment>
   </commentList>
@@ -3605,52 +3611,52 @@
     </comment>
     <comment authorId="4" ref="A10" shapeId="0">
       <text>
-        <t>Username to be used while logging into VSD command line. [default: root]</t>
+        <t>VSD Username will be used for logging into VSD command line. Used for both Install and Upgrade procedures. [default: root]</t>
       </text>
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
       <text>
-        <t>Password for the VSD user used to login to the command line [default: Alcateldc]</t>
+        <t>VSD password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: Alcateldc]</t>
       </text>
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>VSC username to login into command line. Should have admin privileges. [default: ]</t>
+        <t>VSC Username will be used for logging into command line (should have admin privileges). Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="7" ref="A13" shapeId="0">
       <text>
-        <t>VSC password to login into command line [default: ]</t>
+        <t>VSC password will be used for logging into the command line. Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="8" ref="A15" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) username to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) Username will be used for logging into command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) password to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) root password required for Stats Upgrade [default: ]</t>
+        <t>ElasticSearch (Stats) root password required for VSTAT Upgrade only [default: ]</t>
       </text>
     </comment>
     <comment authorId="11" ref="A19" shapeId="0">
       <text>
-        <t>Username for API authentication. Must have csproot privileges. Also known as csproot user [default: csproot]</t>
+        <t>This VSD Username(also known as csproot user). Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
-        <t>Password for API authentication. Must have csproot privileges. Also known as csproot password [default: csproot]</t>
+        <t>This VSD password(also known as csproot password) will be used for API authentication. Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
-        <t>Mysql password for vsd [default: ]</t>
+        <t>This VSD Mysql password. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
@@ -3715,7 +3721,7 @@
     </comment>
     <comment authorId="26" ref="A37" shapeId="0">
       <text>
-        <t>Username for OpenStack [default: ]</t>
+        <t>Username for OpenStack. [default: ]</t>
       </text>
     </comment>
     <comment authorId="27" ref="A38" shapeId="0">
@@ -3725,7 +3731,7 @@
     </comment>
     <comment authorId="28" ref="A40" shapeId="0">
       <text>
-        <t>vCenter Username [default: ]</t>
+        <t>vCenter Username. [default: ]</t>
       </text>
     </comment>
     <comment authorId="29" ref="A41" shapeId="0">
@@ -3735,12 +3741,12 @@
     </comment>
     <comment authorId="30" ref="A43" shapeId="0">
       <text>
-        <t>Username for Compute node to install VRS [default: root]</t>
+        <t>Username for Compute node to install VRS. [default: root]</t>
       </text>
     </comment>
     <comment authorId="31" ref="A44" shapeId="0">
       <text>
-        <t>Password for Compute node [default: ]</t>
+        <t>Password for Compute node, and will be used for installation of VRS [default: ]</t>
       </text>
     </comment>
     <comment authorId="32" ref="A45" shapeId="0">
@@ -3780,12 +3786,12 @@
     </comment>
     <comment authorId="39" ref="A54" shapeId="0">
       <text>
-        <t>NFS username to login into command line. Default user is root [default: root]</t>
+        <t>NFS username to login into command line, and will be used for NFS configuration. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="40" ref="A56" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager VM. Default user is root [default: root]</t>
+        <t>Username for NETCONF Manager VM, and will be used for the installation of NETCONF Manager. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="41" ref="A57" shapeId="0">
@@ -3795,27 +3801,27 @@
     </comment>
     <comment authorId="42" ref="A58" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager user [default: netconfmgr]</t>
+        <t>Username for NETCONF Manager user, and will be used for the installation of NETCONF Manager. [default: netconfmgr]</t>
       </text>
     </comment>
     <comment authorId="43" ref="A59" shapeId="0">
       <text>
-        <t>Password for NETCONF manager user [default: password]</t>
+        <t>Password for NETCONF manager user, and will be used for the installation of NETCONF Manager. [default: password]</t>
       </text>
     </comment>
     <comment authorId="44" ref="A61" shapeId="0">
       <text>
-        <t>Username for SMTP Server</t>
+        <t>Username for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="45" ref="A62" shapeId="0">
       <text>
-        <t>Password for SMTP Server</t>
+        <t>Password for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="46" ref="A64" shapeId="0">
       <text>
-        <t>Username for the monit mail server</t>
+        <t>Username for the monit mail server.</t>
       </text>
     </comment>
     <comment authorId="47" ref="A65" shapeId="0">
@@ -3825,22 +3831,22 @@
     </comment>
     <comment authorId="48" ref="A67" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="49" ref="A68" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="50" ref="A69" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="51" ref="A70" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
   </commentList>
@@ -4287,7 +4293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4354,12 +4360,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4446,12 +4452,12 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4572,12 +4578,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4754,12 +4760,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4911,12 +4917,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5861,12 +5867,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G66" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5933,12 +5939,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6104,12 +6110,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6235,12 +6241,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6669,12 +6675,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7043,17 +7049,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8106,6 +8112,14 @@
         </is>
       </c>
       <c r="B130" s="9" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Keep root access</t>
+        </is>
+      </c>
+      <c r="B131" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8132,7 +8146,7 @@
     <mergeCell ref="A113:B113"/>
     <mergeCell ref="A118:B118"/>
   </mergeCells>
-  <dataValidations count="42">
+  <dataValidations count="43">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
@@ -8205,14 +8219,17 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B130" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B131" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8498,12 +8515,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8570,12 +8587,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8854,12 +8871,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9152,12 +9169,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9846,12 +9863,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10070,12 +10087,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10394,12 +10411,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10689,12 +10706,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10815,12 +10832,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11756,12 +11773,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12538,12 +12555,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13519,12 +13536,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14180,7 +14197,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager VM password for running sudo commands</t>
+          <t>NETCONF Manager VM password for running sudo commands, and will be used for the installation of NETCONF Manager.</t>
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
@@ -14360,12 +14377,12 @@
     <mergeCell ref="A66:G66"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14718,12 +14735,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14823,6 +14840,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,39 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Portals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grcn" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nfss" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv network port vlans" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -190,6 +191,39 @@
 <file path=xl/comments/comment10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>netconf_server</author>
+    <author>email</author>
+    <author>first_name</author>
+    <author>last_name</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the machine where NETCONF manager will be installed</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Email address to configure netconf server with</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>First name of the NETCONF manager user</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Last name of the NETCONF manager user</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>hostname</author>
     <author>nfs_ip</author>
     <author>mount_directory_location</author>
@@ -214,7 +248,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -253,7 +287,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>nsgv_organization</author>
@@ -340,7 +374,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -385,7 +419,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vmname</author>
@@ -712,7 +746,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vsdconfig_enable</author>
@@ -733,7 +767,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -790,7 +824,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>router_id</author>
@@ -823,7 +857,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -952,117 +986,6 @@
     <comment authorId="20" ref="A30" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSD VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hostname</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_ip_prefix</author>
-    <author>mgmt_gateway</author>
-    <author>mgmt_bridge</author>
-    <author>vmname</author>
-    <author>target_server_type</author>
-    <author>target_server</author>
-    <author>cpuset</author>
-    <author>password_reset_email</author>
-    <author>new_account_email</author>
-    <author>forgot_password_email</author>
-    <author>smtp_fqdn</author>
-    <author>smtp_port</author>
-    <author>smtp_secure</author>
-    <author>sdwan_portal_secure</author>
-    <author>portal_version</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>SD-WAN Portal VM hostname or IP address</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Management IP of SD-WAN Portal</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>Management network prefix length for SD-WAN Portal</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Management network gateway for SD-WAN Portal</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A9" shapeId="0">
-      <text>
-        <t>Network Bridge used for the management interface of Portal. It is a Linux network bridge. This field can be overridden by defining the management network bridge separately in the component configuration. Defaults to the global setting [default: (global Bridge interface)]</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment into which the instance will be created</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A14" shapeId="0">
-      <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, Portal requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Sender Email address used for password resets [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Sender Email address used for new accounts [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A18" shapeId="0">
-      <text>
-        <t>Sender Email address used for forgotten password [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>SMTP server hostname user for account management</t>
-      </text>
-    </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
-      <text>
-        <t>SMTP port for mail delivery [default: 25]</t>
-      </text>
-    </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to use authentication for SMTP server [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="15" ref="A24" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to use SSL [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
-      <text>
-        <t>Portal version to be pulled from Docker hub [default: ]</t>
       </text>
     </comment>
   </commentList>
@@ -1712,6 +1635,117 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_bridge</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>cpuset</author>
+    <author>password_reset_email</author>
+    <author>new_account_email</author>
+    <author>forgot_password_email</author>
+    <author>smtp_fqdn</author>
+    <author>smtp_port</author>
+    <author>smtp_secure</author>
+    <author>sdwan_portal_secure</author>
+    <author>portal_version</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>SD-WAN Portal VM hostname or IP address</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Management IP of SD-WAN Portal</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Management network prefix length for SD-WAN Portal</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Management network gateway for SD-WAN Portal</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A9" shapeId="0">
+      <text>
+        <t>Network Bridge used for the management interface of Portal. It is a Linux network bridge. This field can be overridden by defining the management network bridge separately in the component configuration. Defaults to the global setting [default: (global Bridge interface)]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A13" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A14" shapeId="0">
+      <text>
+        <t>Cpuset information for cpu pinning on KVM. For example, Portal requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Sender Email address used for password resets [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Sender Email address used for new accounts [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>Sender Email address used for forgotten password [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>SMTP server hostname user for account management</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>SMTP port for mail delivery [default: 25]</t>
+      </text>
+    </comment>
+    <comment authorId="14" ref="A22" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to use authentication for SMTP server [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="15" ref="A24" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to use SSL [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A25" shapeId="0">
+      <text>
+        <t>Portal version to be pulled from Docker hub [default: ]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hostname</author>
     <author>vmname</author>
     <author>target_server_type</author>
     <author>target_server</author>
@@ -1801,7 +1835,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>stcv_image_path</author>
@@ -1828,7 +1862,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>target_server</author>
@@ -1915,7 +1949,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2014,7 +2048,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2269,7 +2303,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vrs_os_type</author>
@@ -2332,7 +2366,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -2443,7 +2477,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment28.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -3605,52 +3639,52 @@
     </comment>
     <comment authorId="4" ref="A10" shapeId="0">
       <text>
-        <t>Username to be used while logging into VSD command line. [default: root]</t>
+        <t>VSD Username will be used for logging into VSD command line. Used for both Install and Upgrade procedures. [default: root]</t>
       </text>
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
       <text>
-        <t>Password for the VSD user used to login to the command line [default: Alcateldc]</t>
+        <t>VSD password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: Alcateldc]</t>
       </text>
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>VSC username to login into command line. Should have admin privileges. [default: ]</t>
+        <t>VSC Username will be used for logging into command line (should have admin privileges). Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="7" ref="A13" shapeId="0">
       <text>
-        <t>VSC password to login into command line [default: ]</t>
+        <t>VSC password will be used for logging into the command line. Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="8" ref="A15" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) username to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) Username will be used for logging into command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) password to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) root password required for Stats Upgrade [default: ]</t>
+        <t>ElasticSearch (Stats) root password required for VSTAT Upgrade only [default: ]</t>
       </text>
     </comment>
     <comment authorId="11" ref="A19" shapeId="0">
       <text>
-        <t>Username for API authentication. Must have csproot privileges. Also known as csproot user [default: csproot]</t>
+        <t>This VSD Username(also known as csproot user). Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
-        <t>Password for API authentication. Must have csproot privileges. Also known as csproot password [default: csproot]</t>
+        <t>This VSD password(also known as csproot password) will be used for API authentication. Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
-        <t>Mysql password for vsd [default: ]</t>
+        <t>This VSD Mysql password. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
@@ -3715,7 +3749,7 @@
     </comment>
     <comment authorId="26" ref="A37" shapeId="0">
       <text>
-        <t>Username for OpenStack [default: ]</t>
+        <t>Username for OpenStack. [default: ]</t>
       </text>
     </comment>
     <comment authorId="27" ref="A38" shapeId="0">
@@ -3725,7 +3759,7 @@
     </comment>
     <comment authorId="28" ref="A40" shapeId="0">
       <text>
-        <t>vCenter Username [default: ]</t>
+        <t>vCenter Username. [default: ]</t>
       </text>
     </comment>
     <comment authorId="29" ref="A41" shapeId="0">
@@ -3735,12 +3769,12 @@
     </comment>
     <comment authorId="30" ref="A43" shapeId="0">
       <text>
-        <t>Username for Compute node to install VRS [default: root]</t>
+        <t>Username for Compute node to install VRS. [default: root]</t>
       </text>
     </comment>
     <comment authorId="31" ref="A44" shapeId="0">
       <text>
-        <t>Password for Compute node [default: ]</t>
+        <t>Password for Compute node, and will be used for installation of VRS [default: ]</t>
       </text>
     </comment>
     <comment authorId="32" ref="A45" shapeId="0">
@@ -3780,12 +3814,12 @@
     </comment>
     <comment authorId="39" ref="A54" shapeId="0">
       <text>
-        <t>NFS username to login into command line. Default user is root [default: root]</t>
+        <t>NFS username to login into command line, and will be used for NFS configuration. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="40" ref="A56" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager VM. Default user is root [default: root]</t>
+        <t>Username for NETCONF Manager VM, and will be used for the installation of NETCONF Manager. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="41" ref="A57" shapeId="0">
@@ -3795,27 +3829,27 @@
     </comment>
     <comment authorId="42" ref="A58" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager user [default: netconfmgr]</t>
+        <t>Username for NETCONF Manager user, and will be used for the installation of NETCONF Manager. [default: netconfmgr]</t>
       </text>
     </comment>
     <comment authorId="43" ref="A59" shapeId="0">
       <text>
-        <t>Password for NETCONF manager user [default: password]</t>
+        <t>Password for NETCONF manager user, and will be used for the installation of NETCONF Manager. [default: password]</t>
       </text>
     </comment>
     <comment authorId="44" ref="A61" shapeId="0">
       <text>
-        <t>Username for SMTP Server</t>
+        <t>Username for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="45" ref="A62" shapeId="0">
       <text>
-        <t>Password for SMTP Server</t>
+        <t>Password for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="46" ref="A64" shapeId="0">
       <text>
-        <t>Username for the monit mail server</t>
+        <t>Username for the monit mail server.</t>
       </text>
     </comment>
     <comment authorId="47" ref="A65" shapeId="0">
@@ -3825,22 +3859,22 @@
     </comment>
     <comment authorId="48" ref="A67" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="49" ref="A68" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="50" ref="A69" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="51" ref="A70" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
   </commentList>
@@ -3973,30 +4007,108 @@
 <file path=xl/comments/comment9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>netconf_server</author>
-    <author>email</author>
-    <author>first_name</author>
-    <author>last_name</author>
+    <author>hostname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_bridge</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>cpuset</author>
+    <author>password_reset_email</author>
+    <author>new_account_email</author>
+    <author>forgot_password_email</author>
+    <author>smtp_fqdn</author>
+    <author>smtp_port</author>
+    <author>smtp_secure</author>
+    <author>sdwan_portal_secure</author>
+    <author>portal_version</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
       <text>
-        <t>Hostname or IP address of the machine where NETCONF manager will be installed</t>
+        <t>SD-WAN Portal GRCN VM hostname or IP address</t>
       </text>
     </comment>
     <comment authorId="1" ref="A6" shapeId="0">
       <text>
-        <t>Email address to configure netconf server with</t>
+        <t>Management IP of SD-WAN Portal GRCN</t>
       </text>
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
-        <t>First name of the NETCONF manager user</t>
+        <t>Management network prefix length for SD-WAN Portal GRCN</t>
       </text>
     </comment>
     <comment authorId="3" ref="A8" shapeId="0">
       <text>
-        <t>Last name of the NETCONF manager user</t>
+        <t>Management network gateway for SD-WAN Portal GRCN</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A9" shapeId="0">
+      <text>
+        <t>Network Bridge used for the management interface of Portal GRCN. It is a Linux network bridge. This field can be overridden by defining the management network bridge separately in the component configuration. Defaults to the global setting [default: (global Bridge interface)]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A13" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A14" shapeId="0">
+      <text>
+        <t>Cpuset information for cpu pinning on KVM. For example, Portal requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Sender Email address used for password resets [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Sender Email address used for new accounts [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>Sender Email address used for forgotten password [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>SMTP server hostname user for account management</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>SMTP port for mail delivery [default: 25]</t>
+      </text>
+    </comment>
+    <comment authorId="14" ref="A22" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to use authentication for SMTP server [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="15" ref="A24" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to use SSL [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A25" shapeId="0">
+      <text>
+        <t>Portal GRCN version to be pulled from Docker hub [default: ]</t>
       </text>
     </comment>
   </commentList>
@@ -4287,7 +4399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4354,12 +4466,117 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>NETCONF Managers</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Configuration for Netconf Manager.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Server Details</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>NETCONF Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Email address</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>First name</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Last name</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4446,12 +4663,12 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4572,12 +4789,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4754,12 +4971,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4911,12 +5128,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5861,12 +6078,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G66" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5933,12 +6150,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6104,12 +6321,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6235,12 +6452,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6669,386 +6886,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nuage SD-WAN Portal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Configuration for Nuage SD-WAN Portals</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Management Interface</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Management IP Address</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Prefix Length</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Management Network Gateway</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>VM and Target Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Target Server Type</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="n"/>
-      <c r="C14" s="9" t="n"/>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="9" t="n"/>
-      <c r="F14" s="9" t="n"/>
-      <c r="G14" s="9" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Reset Email</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>New account Email</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Forgot password sender Email</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>SMTP</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>SMTP FQDN</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>SMTP port</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>SMTP Secure</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Portal</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Portal SSL</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal version</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A23:G23"/>
-  </mergeCells>
-  <dataValidations count="30">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8207,12 +8050,386 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nuage SD-WAN Portal</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Configuration for Nuage SD-WAN Portals</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Management Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Management IP Address</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Prefix Length</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Gateway</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>VM and Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n"/>
+      <c r="D14" s="9" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Reset Email</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>New account Email</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Forgot password sender Email</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>SMTP</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>SMTP FQDN</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>SMTP port</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>SMTP Secure</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Portal</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Portal SSL</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal version</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A23:G23"/>
+  </mergeCells>
+  <dataValidations count="30">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8498,12 +8715,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8570,12 +8787,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8854,12 +9071,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9152,12 +9369,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9846,12 +10063,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10070,12 +10287,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10394,12 +10611,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10689,12 +10906,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10815,12 +11032,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11756,12 +11973,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12538,12 +12755,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13519,12 +13736,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14180,7 +14397,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager VM password for running sudo commands</t>
+          <t>NETCONF Manager VM password for running sudo commands, and will be used for the installation of NETCONF Manager.</t>
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
@@ -14360,12 +14577,12 @@
     <mergeCell ref="A66:G66"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14718,17 +14935,17 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14748,28 +14965,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>NETCONF Managers</t>
+          <t>Nuage SD-WAN Portal GRCN</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Configuration for Netconf Manager.</t>
+          <t>Configuration for Nuage SD-WAN Portal GRCN</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Server Details</t>
+          <t>Management Interface</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>NETCONF Server IP or FQDN</t>
+          <t>SD-WAN Portal GRCN IP or FQDN</t>
         </is>
       </c>
       <c r="B5" s="5" t="n"/>
@@ -14782,7 +14999,7 @@
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Email address</t>
+          <t>Management IP Address</t>
         </is>
       </c>
       <c r="B6" s="7" t="n"/>
@@ -14795,7 +15012,7 @@
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>First name</t>
+          <t>Management Network Prefix Length</t>
         </is>
       </c>
       <c r="B7" s="7" t="n"/>
@@ -14808,7 +15025,7 @@
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>Last name</t>
+          <t>Management Network Gateway</t>
         </is>
       </c>
       <c r="B8" s="7" t="n"/>
@@ -14818,11 +15035,280 @@
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
     </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>VM and Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n"/>
+      <c r="D14" s="9" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Reset Email</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>New account Email</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Forgot password sender Email</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>SMTP</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>SMTP FQDN</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>SMTP port</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>SMTP Secure</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Portal GRCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Portal SSL</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal GRCN version</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A23:G23"/>
   </mergeCells>
+  <dataValidations count="30">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -15,17 +15,17 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Grcn" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nfss" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv network port vlans" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portal grcn" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="20" state="visible" r:id="rId20"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="21" state="visible" r:id="rId21"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="22" state="visible" r:id="rId22"/>
@@ -191,39 +191,6 @@
 <file path=xl/comments/comment10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>netconf_server</author>
-    <author>email</author>
-    <author>first_name</author>
-    <author>last_name</author>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A5" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the machine where NETCONF manager will be installed</t>
-      </text>
-    </comment>
-    <comment authorId="1" ref="A6" shapeId="0">
-      <text>
-        <t>Email address to configure netconf server with</t>
-      </text>
-    </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
-      <text>
-        <t>First name of the NETCONF manager user</t>
-      </text>
-    </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
-      <text>
-        <t>Last name of the NETCONF manager user</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
     <author>hostname</author>
     <author>nfs_ip</author>
     <author>mount_directory_location</author>
@@ -248,7 +215,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -287,7 +254,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>nsgv_organization</author>
@@ -374,7 +341,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -419,7 +386,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vmname</author>
@@ -746,7 +713,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vsdconfig_enable</author>
@@ -767,7 +734,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
@@ -824,7 +791,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>router_id</author>
@@ -857,7 +824,7 @@
 </comments>
 </file>
 
-<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments/comment18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
@@ -986,6 +953,117 @@
     <comment authorId="20" ref="A30" shapeId="0">
       <text>
         <t>Name of the vCenter Datastore on which the VSD VM will be deployed. Defaults to the common vCenter Datastore Name if not defined here. [default: (global vCenter Datastore Name)]</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>hostname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_bridge</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>cpuset</author>
+    <author>password_reset_email</author>
+    <author>new_account_email</author>
+    <author>forgot_password_email</author>
+    <author>smtp_fqdn</author>
+    <author>smtp_port</author>
+    <author>smtp_secure</author>
+    <author>sdwan_portal_secure</author>
+    <author>portal_version</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>SD-WAN Portal GRCN VM hostname or IP address</t>
+      </text>
+    </comment>
+    <comment authorId="1" ref="A6" shapeId="0">
+      <text>
+        <t>Management IP of SD-WAN Portal GRCN</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
+        <t>Management network prefix length for SD-WAN Portal GRCN</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
+        <t>Management network gateway for SD-WAN Portal GRCN</t>
+      </text>
+    </comment>
+    <comment authorId="4" ref="A9" shapeId="0">
+      <text>
+        <t>Network Bridge used for the management interface of Portal GRCN. It is a Linux network bridge. This field can be overridden by defining the management network bridge separately in the component configuration. Defaults to the global setting [default: (global Bridge interface)]</t>
+      </text>
+    </comment>
+    <comment authorId="5" ref="A11" shapeId="0">
+      <text>
+        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A12" shapeId="0">
+      <text>
+        <t>Type of hypervisor environment into which the instance will be created</t>
+      </text>
+    </comment>
+    <comment authorId="7" ref="A13" shapeId="0">
+      <text>
+        <t>Hostname or IP address of the hypervisor where VM  will be instantiated</t>
+      </text>
+    </comment>
+    <comment authorId="8" ref="A14" shapeId="0">
+      <text>
+        <t>Cpuset information for cpu pinning on KVM. For example, Portal requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
+      </text>
+    </comment>
+    <comment authorId="9" ref="A16" shapeId="0">
+      <text>
+        <t>Sender Email address used for password resets [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A17" shapeId="0">
+      <text>
+        <t>Sender Email address used for new accounts [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A18" shapeId="0">
+      <text>
+        <t>Sender Email address used for forgotten password [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A20" shapeId="0">
+      <text>
+        <t>SMTP server hostname user for account management</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A21" shapeId="0">
+      <text>
+        <t>SMTP port for mail delivery [default: 25]</t>
+      </text>
+    </comment>
+    <comment authorId="14" ref="A22" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to use authentication for SMTP server [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="15" ref="A24" shapeId="0">
+      <text>
+        <t>Flag to indicate whether to use SSL [default: False]</t>
+      </text>
+    </comment>
+    <comment authorId="16" ref="A25" shapeId="0">
+      <text>
+        <t>Portal GRCN version to be pulled from Docker hub [default: ]</t>
       </text>
     </comment>
   </commentList>
@@ -4007,108 +4085,30 @@
 <file path=xl/comments/comment9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>hostname</author>
-    <author>mgmt_ip</author>
-    <author>mgmt_ip_prefix</author>
-    <author>mgmt_gateway</author>
-    <author>mgmt_bridge</author>
-    <author>vmname</author>
-    <author>target_server_type</author>
-    <author>target_server</author>
-    <author>cpuset</author>
-    <author>password_reset_email</author>
-    <author>new_account_email</author>
-    <author>forgot_password_email</author>
-    <author>smtp_fqdn</author>
-    <author>smtp_port</author>
-    <author>smtp_secure</author>
-    <author>sdwan_portal_secure</author>
-    <author>portal_version</author>
+    <author>netconf_server</author>
+    <author>email</author>
+    <author>first_name</author>
+    <author>last_name</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
       <text>
-        <t>SD-WAN Portal GRCN VM hostname or IP address</t>
+        <t>Hostname or IP address of the machine where NETCONF manager will be installed</t>
       </text>
     </comment>
     <comment authorId="1" ref="A6" shapeId="0">
       <text>
-        <t>Management IP of SD-WAN Portal GRCN</t>
+        <t>Email address to configure netconf server with</t>
       </text>
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
-        <t>Management network prefix length for SD-WAN Portal GRCN</t>
+        <t>First name of the NETCONF manager user</t>
       </text>
     </comment>
     <comment authorId="3" ref="A8" shapeId="0">
       <text>
-        <t>Management network gateway for SD-WAN Portal GRCN</t>
-      </text>
-    </comment>
-    <comment authorId="4" ref="A9" shapeId="0">
-      <text>
-        <t>Network Bridge used for the management interface of Portal GRCN. It is a Linux network bridge. This field can be overridden by defining the management network bridge separately in the component configuration. Defaults to the global setting [default: (global Bridge interface)]</t>
-      </text>
-    </comment>
-    <comment authorId="5" ref="A11" shapeId="0">
-      <text>
-        <t>Name of the Virtual Machine on the Hypervisor [default: (Hostname)]</t>
-      </text>
-    </comment>
-    <comment authorId="6" ref="A12" shapeId="0">
-      <text>
-        <t>Type of hypervisor environment into which the instance will be created</t>
-      </text>
-    </comment>
-    <comment authorId="7" ref="A13" shapeId="0">
-      <text>
-        <t>Hostname or IP address of the hypervisor where VM  will be instantiated</t>
-      </text>
-    </comment>
-    <comment authorId="8" ref="A14" shapeId="0">
-      <text>
-        <t>Cpuset information for cpu pinning on KVM. For example, Portal requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
-      </text>
-    </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Sender Email address used for password resets [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Sender Email address used for new accounts [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A18" shapeId="0">
-      <text>
-        <t>Sender Email address used for forgotten password [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>SMTP server hostname user for account management</t>
-      </text>
-    </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
-      <text>
-        <t>SMTP port for mail delivery [default: 25]</t>
-      </text>
-    </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to use authentication for SMTP server [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="15" ref="A24" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to use SSL [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
-      <text>
-        <t>Portal GRCN version to be pulled from Docker hub [default: ]</t>
+        <t>Last name of the NETCONF manager user</t>
       </text>
     </comment>
   </commentList>
@@ -4476,111 +4476,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="70"/>
-    <col customWidth="1" max="2" min="2" width="25"/>
-    <col customWidth="1" max="3" min="3" width="25"/>
-    <col customWidth="1" max="4" min="4" width="25"/>
-    <col customWidth="1" max="5" min="5" width="25"/>
-    <col customWidth="1" max="6" min="6" width="25"/>
-    <col customWidth="1" max="7" min="7" width="25"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NETCONF Managers</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Configuration for Netconf Manager.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Server Details</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>NETCONF Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Email address</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>First name</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Last name</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:G4"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4667,7 +4562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4793,7 +4688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4975,7 +4870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5132,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6082,7 +5977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6154,7 +6049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6325,7 +6220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6456,7 +6351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6883,6 +6778,380 @@
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
       <formula1>"none,zabbix"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="70"/>
+    <col customWidth="1" max="2" min="2" width="25"/>
+    <col customWidth="1" max="3" min="3" width="25"/>
+    <col customWidth="1" max="4" min="4" width="25"/>
+    <col customWidth="1" max="5" min="5" width="25"/>
+    <col customWidth="1" max="6" min="6" width="25"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nuage SD-WAN Portal GRCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Configuration for Nuage SD-WAN Portal GRCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Management Interface</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal GRCN IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="5" t="n"/>
+      <c r="G5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Management IP Address</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Prefix Length</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Management Network Gateway</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="inlineStr">
+        <is>
+          <t>Management Network Bridge</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="n"/>
+      <c r="C9" s="9" t="n"/>
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="9" t="n"/>
+      <c r="F9" s="9" t="n"/>
+      <c r="G9" s="9" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>VM and Target Server</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>VM name</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
+      <c r="C11" s="7" t="n"/>
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="7" t="n"/>
+      <c r="G11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Target Server Type</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
+      <c r="C12" s="7" t="n"/>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Target Server IP or FQDN</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="inlineStr">
+        <is>
+          <t>KVM cpuset information</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="n"/>
+      <c r="C14" s="9" t="n"/>
+      <c r="D14" s="9" t="n"/>
+      <c r="E14" s="9" t="n"/>
+      <c r="F14" s="9" t="n"/>
+      <c r="G14" s="9" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Reset Email</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n"/>
+      <c r="C16" s="7" t="n"/>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="7" t="n"/>
+      <c r="G16" s="7" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>New account Email</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
+      <c r="C17" s="7" t="n"/>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="7" t="n"/>
+      <c r="G17" s="7" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>Forgot password sender Email</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
+      <c r="C18" s="7" t="n"/>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="7" t="n"/>
+      <c r="G18" s="7" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>SMTP</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>SMTP FQDN</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
+      <c r="C20" s="7" t="n"/>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="7" t="n"/>
+      <c r="G20" s="7" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>SMTP port</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n"/>
+      <c r="C21" s="7" t="n"/>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="7" t="n"/>
+      <c r="G21" s="7" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>SMTP Secure</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
+      <c r="C22" s="7" t="n"/>
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="7" t="n"/>
+      <c r="G22" s="7" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Portal GRCN</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Portal SSL</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
+      <c r="C24" s="7" t="n"/>
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="7" t="n"/>
+      <c r="G24" s="7" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>SD-WAN Portal GRCN version</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
+      <c r="C25" s="7" t="n"/>
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
+      <c r="F25" s="7" t="n"/>
+      <c r="G25" s="7" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A23:G23"/>
+  </mergeCells>
+  <dataValidations count="30">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
+      <formula1>"kvm"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F24" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
+      <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -14945,7 +15214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14965,28 +15234,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nuage SD-WAN Portal GRCN</t>
+          <t>NETCONF Managers</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Configuration for Nuage SD-WAN Portal GRCN</t>
+          <t>Configuration for Netconf Manager.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Management Interface</t>
+          <t>Server Details</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>SD-WAN Portal GRCN IP or FQDN</t>
+          <t>NETCONF Server IP or FQDN</t>
         </is>
       </c>
       <c r="B5" s="5" t="n"/>
@@ -14999,7 +15268,7 @@
     <row r="6">
       <c r="A6" s="6" t="inlineStr">
         <is>
-          <t>Management IP Address</t>
+          <t>Email address</t>
         </is>
       </c>
       <c r="B6" s="7" t="n"/>
@@ -15012,7 +15281,7 @@
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>Management Network Prefix Length</t>
+          <t>First name</t>
         </is>
       </c>
       <c r="B7" s="7" t="n"/>
@@ -15025,7 +15294,7 @@
     <row r="8">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>Management Network Gateway</t>
+          <t>Last name</t>
         </is>
       </c>
       <c r="B8" s="7" t="n"/>
@@ -15035,279 +15304,10 @@
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
     </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t>Management Network Bridge</t>
-        </is>
-      </c>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>VM and Target Server</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>VM name</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Target Server Type</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Target Server IP or FQDN</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="inlineStr">
-        <is>
-          <t>KVM cpuset information</t>
-        </is>
-      </c>
-      <c r="B14" s="9" t="n"/>
-      <c r="C14" s="9" t="n"/>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="9" t="n"/>
-      <c r="F14" s="9" t="n"/>
-      <c r="G14" s="9" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>Reset Email</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>New account Email</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>Forgot password sender Email</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>SMTP</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>SMTP FQDN</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>SMTP port</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>SMTP Secure</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Portal GRCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Portal SSL</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal GRCN version</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A23:G23"/>
   </mergeCells>
-  <dataValidations count="30">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="B12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="C12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="D12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="E12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="F12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
-      <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -971,14 +971,11 @@
     <author>target_server_type</author>
     <author>target_server</author>
     <author>cpuset</author>
-    <author>password_reset_email</author>
-    <author>new_account_email</author>
-    <author>forgot_password_email</author>
-    <author>smtp_fqdn</author>
-    <author>smtp_port</author>
-    <author>smtp_secure</author>
-    <author>sdwan_portal_secure</author>
-    <author>portal_version</author>
+    <author>current_dc</author>
+    <author>other_dc_portal1_ip</author>
+    <author>other_dc_portal2_ip</author>
+    <author>other_dc_portal3_ip</author>
+    <author>other_dc_grcn_ip</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
@@ -1026,44 +1023,29 @@
         <t>Cpuset information for cpu pinning on KVM. For example, Portal requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Sender Email address used for password resets [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Sender Email address used for new accounts [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A18" shapeId="0">
-      <text>
-        <t>Sender Email address used for forgotten password [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>SMTP server hostname user for account management</t>
-      </text>
-    </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
-      <text>
-        <t>SMTP port for mail delivery [default: 25]</t>
-      </text>
-    </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to use authentication for SMTP server [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="15" ref="A24" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to use SSL [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
-      <text>
-        <t>Portal GRCN version to be pulled from Docker hub [default: ]</t>
+    <comment authorId="9" ref="A15" shapeId="0">
+      <text>
+        <t>Name of the current datacenter</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A16" shapeId="0">
+      <text>
+        <t>Management IP of other datacenter's portal 1</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A17" shapeId="0">
+      <text>
+        <t>Management IP of other datacenter's portal 2</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A18" shapeId="0">
+      <text>
+        <t>Management IP of other datacenter's portal 3</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A19" shapeId="0">
+      <text>
+        <t>Management IP of other datacenter's GRCN</t>
       </text>
     </comment>
   </commentList>
@@ -6791,7 +6773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6954,16 +6936,22 @@
       <c r="G14" s="9" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Current DC</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
+      <c r="C15" s="7" t="n"/>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="7" t="n"/>
+      <c r="G15" s="7" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>Reset Email</t>
+          <t>Other DC Portal1 IP</t>
         </is>
       </c>
       <c r="B16" s="7" t="n"/>
@@ -6976,7 +6964,7 @@
     <row r="17">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>New account Email</t>
+          <t>Other DC Portal2 IP</t>
         </is>
       </c>
       <c r="B17" s="7" t="n"/>
@@ -6989,7 +6977,7 @@
     <row r="18">
       <c r="A18" s="6" t="inlineStr">
         <is>
-          <t>Forgot password sender Email</t>
+          <t>Other DC Portal3 IP</t>
         </is>
       </c>
       <c r="B18" s="7" t="n"/>
@@ -7000,93 +6988,24 @@
       <c r="G18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>SMTP</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>SMTP FQDN</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
-      <c r="C20" s="7" t="n"/>
-      <c r="D20" s="7" t="n"/>
-      <c r="E20" s="7" t="n"/>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>SMTP port</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n"/>
-      <c r="C21" s="7" t="n"/>
-      <c r="D21" s="7" t="n"/>
-      <c r="E21" s="7" t="n"/>
-      <c r="F21" s="7" t="n"/>
-      <c r="G21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>SMTP Secure</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n"/>
-      <c r="C22" s="7" t="n"/>
-      <c r="D22" s="7" t="n"/>
-      <c r="E22" s="7" t="n"/>
-      <c r="F22" s="7" t="n"/>
-      <c r="G22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="inlineStr">
-        <is>
-          <t>Portal GRCN</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Portal SSL</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
-      <c r="C24" s="7" t="n"/>
-      <c r="D24" s="7" t="n"/>
-      <c r="E24" s="7" t="n"/>
-      <c r="F24" s="7" t="n"/>
-      <c r="G24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>SD-WAN Portal GRCN version</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
-      <c r="C25" s="7" t="n"/>
-      <c r="D25" s="7" t="n"/>
-      <c r="E25" s="7" t="n"/>
-      <c r="F25" s="7" t="n"/>
-      <c r="G25" s="7" t="n"/>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Other DC GRCN IP</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
+      <c r="C19" s="7" t="n"/>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="7" t="n"/>
+      <c r="G19" s="7" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A4:G4"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A23:G23"/>
   </mergeCells>
-  <dataValidations count="30">
+  <dataValidations count="12">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
@@ -7110,48 +7029,6 @@
     </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not in the list, Change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select from the list" promptTitle="List Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="list">
       <formula1>"kvm"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G21" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G22" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="D24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="E24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="F24" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="G24" type="list">
-      <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Portals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1126,6 +1126,7 @@
     <author>vsd_license_required_days_left</author>
     <author>vsd_continue_on_license_failure</author>
     <author>vsd_ejabberd_license_file</author>
+    <author>vstat_license_file</author>
     <author>portal_license_file</author>
     <author>nuh_license_file</author>
     <author>yum_update</author>
@@ -1450,250 +1451,255 @@
     </comment>
     <comment authorId="54" ref="A70" shapeId="0">
       <text>
+        <t>Optional License File for Elasticsearch [default: ]</t>
+      </text>
+    </comment>
+    <comment authorId="55" ref="A71" shapeId="0">
+      <text>
         <t>Path to the license file for the SD-WAN Portal including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="55" ref="A71" shapeId="0">
+    <comment authorId="56" ref="A72" shapeId="0">
       <text>
         <t>Path to the license file for the NUH including the file name [default: ]</t>
       </text>
     </comment>
-    <comment authorId="56" ref="A73" shapeId="0">
+    <comment authorId="57" ref="A74" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSD during the installation [default: True]</t>
       </text>
     </comment>
-    <comment authorId="57" ref="A74" shapeId="0">
+    <comment authorId="58" ref="A75" shapeId="0">
       <text>
         <t>Flag to indicate whether to perform a Yum update on VSTAT during the installation [default: False]</t>
       </text>
     </comment>
-    <comment authorId="58" ref="A75" shapeId="0">
+    <comment authorId="59" ref="A76" shapeId="0">
       <text>
         <t>Proxy URL to be used if Yum repositories cannot be directly reached [default: NONE]</t>
       </text>
     </comment>
-    <comment authorId="59" ref="A76" shapeId="0">
+    <comment authorId="60" ref="A77" shapeId="0">
       <text>
         <t>Username of the SSH proxy host if one is used [default: root]</t>
       </text>
     </comment>
-    <comment authorId="60" ref="A77" shapeId="0">
+    <comment authorId="61" ref="A78" shapeId="0">
       <text>
         <t>IP Address or Hostname of the SSH host if one is used [default: sshhost]</t>
       </text>
     </comment>
-    <comment authorId="61" ref="A79" shapeId="0">
+    <comment authorId="62" ref="A80" shapeId="0">
       <text>
         <t>Amount of VSD disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="62" ref="A80" shapeId="0">
+    <comment authorId="63" ref="A81" shapeId="0">
       <text>
         <t>Amount of VSC disk space to pre-allocate, in GB. The only valid values are 0 and 1. When undefined or 0, file size allocation will be skipped. Production deployments should set this value to 1. [default: 0]</t>
       </text>
     </comment>
-    <comment authorId="63" ref="A81" shapeId="0">
+    <comment authorId="64" ref="A82" shapeId="0">
       <text>
         <t>Amount of VSTAT disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="64" ref="A82" shapeId="0">
+    <comment authorId="65" ref="A83" shapeId="0">
       <text>
         <t>Amount of Portal disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="65" ref="A83" shapeId="0">
+    <comment authorId="66" ref="A84" shapeId="0">
       <text>
         <t>Amount of VCIN disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 285]</t>
       </text>
     </comment>
-    <comment authorId="66" ref="A84" shapeId="0">
+    <comment authorId="67" ref="A85" shapeId="0">
       <text>
         <t>Amount of NSGV disk space to pre-allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments should not modify this value. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="67" ref="A86" shapeId="0">
+    <comment authorId="68" ref="A87" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSD RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="68" ref="A87" shapeId="0">
+    <comment authorId="69" ref="A88" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSC RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 4]</t>
       </text>
     </comment>
-    <comment authorId="69" ref="A88" shapeId="0">
+    <comment authorId="70" ref="A89" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Amount of VSTAT RAM to allocate, in GB. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 16]</t>
       </text>
     </comment>
-    <comment authorId="70" ref="A90" shapeId="0">
+    <comment authorId="71" ref="A91" shapeId="0">
       <text>
         <t>Amount of VCIN RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="71" ref="A91" shapeId="0">
+    <comment authorId="72" ref="A92" shapeId="0">
       <text>
         <t>Amount of NUH RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="72" ref="A92" shapeId="0">
+    <comment authorId="73" ref="A93" shapeId="0">
       <text>
         <t>Amount of Webfilter RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 8]</t>
       </text>
     </comment>
-    <comment authorId="73" ref="A93" shapeId="0">
+    <comment authorId="74" ref="A94" shapeId="0">
       <text>
         <t>Amount of Portal RAM to allocate, in GB. Valid only for KVM deployments. Note: Values smaller than the default are for lab and PoC only. Production deployments must use a value greater than or equal to the default. [default: 24]</t>
       </text>
     </comment>
-    <comment authorId="74" ref="A95" shapeId="0">
+    <comment authorId="75" ref="A96" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSD. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="75" ref="A96" shapeId="0">
+    <comment authorId="76" ref="A97" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSC. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="76" ref="A97" shapeId="0">
+    <comment authorId="77" ref="A98" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VSTAT. [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="77" ref="A98" shapeId="0">
+    <comment authorId="78" ref="A99" shapeId="0">
       <text>
         <t>Valid for only KVM and VCenter deployments. Number of CPU's for VNSUTIL. [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="78" ref="A100" shapeId="0">
+    <comment authorId="79" ref="A101" shapeId="0">
       <text>
         <t>Number of CPU's for NUH. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="79" ref="A101" shapeId="0">
+    <comment authorId="80" ref="A102" shapeId="0">
       <text>
         <t>Number of CPU's for VCIN. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="80" ref="A102" shapeId="0">
+    <comment authorId="81" ref="A103" shapeId="0">
       <text>
         <t>Number of CPU's for Portal vm. Valid only for KVM deployments [default: 6]</t>
       </text>
     </comment>
-    <comment authorId="81" ref="A103" shapeId="0">
+    <comment authorId="82" ref="A104" shapeId="0">
       <text>
         <t>Number of CPU's for Webfilter vm. Valid only for KVM deployments [default: 2]</t>
       </text>
     </comment>
-    <comment authorId="82" ref="A105" shapeId="0">
+    <comment authorId="83" ref="A106" shapeId="0">
       <text>
         <t>VSD Architect URL. Required for tasks during Upgrade, Health Checks etc [default: https://(vsd_fqdn):8443]</t>
       </text>
     </comment>
-    <comment authorId="83" ref="A106" shapeId="0">
+    <comment authorId="84" ref="A107" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VSD Architect. Required for tasks during Upgrade, Health Checks etc [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="84" ref="A107" shapeId="0">
+    <comment authorId="85" ref="A108" shapeId="0">
       <text>
         <t>VCIN URL used for API interaction. Required for tasks like VRS-E upgrade (through VCIN) [default: https://(vcin_ip_address):8443]</t>
       </text>
     </comment>
-    <comment authorId="85" ref="A108" shapeId="0">
+    <comment authorId="86" ref="A109" shapeId="0">
       <text>
         <t>Enterprise name used for authentication with VCIN. Required for tasks like VRS-E upgrade (through VCIN) [default: csp]</t>
       </text>
     </comment>
-    <comment authorId="86" ref="A110" shapeId="0">
+    <comment authorId="87" ref="A111" shapeId="0">
       <text>
         <t>List of hooks files (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="87" ref="A111" shapeId="0">
+    <comment authorId="88" ref="A112" shapeId="0">
       <text>
         <t>Skip tasks and playbooks (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="88" ref="A113" shapeId="0">
+    <comment authorId="89" ref="A114" shapeId="0">
       <text>
         <t>Address of SMTP server to be used if emailing health results</t>
       </text>
     </comment>
-    <comment authorId="89" ref="A114" shapeId="0">
+    <comment authorId="90" ref="A115" shapeId="0">
       <text>
         <t>Port to be used on the SMTP Server [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="90" ref="A115" shapeId="0">
+    <comment authorId="91" ref="A116" shapeId="0">
       <text>
         <t>Email address from which health report will be sent</t>
       </text>
     </comment>
-    <comment authorId="91" ref="A116" shapeId="0">
+    <comment authorId="92" ref="A117" shapeId="0">
       <text>
         <t>List of destination email addresses (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="92" ref="A118" shapeId="0">
+    <comment authorId="93" ref="A119" shapeId="0">
       <text>
         <t>Address of the mail server to be used to receive monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="93" ref="A119" shapeId="0">
+    <comment authorId="94" ref="A120" shapeId="0">
       <text>
         <t>Port on mail server to be used for monit alerts [default: 25]</t>
       </text>
     </comment>
-    <comment authorId="94" ref="A120" shapeId="0">
+    <comment authorId="95" ref="A121" shapeId="0">
       <text>
         <t>Encryption to be used when sending monit alerts via email</t>
       </text>
     </comment>
-    <comment authorId="95" ref="A121" shapeId="0">
+    <comment authorId="96" ref="A122" shapeId="0">
       <text>
         <t>Enables use of monit eventqueue to store alerts if email alerts fail to send [default: True]</t>
       </text>
     </comment>
-    <comment authorId="96" ref="A122" shapeId="0">
+    <comment authorId="97" ref="A123" shapeId="0">
       <text>
         <t>Email address from which monit alerts will be sent</t>
       </text>
     </comment>
-    <comment authorId="97" ref="A123" shapeId="0">
+    <comment authorId="98" ref="A124" shapeId="0">
       <text>
         <t>Email address to reply to monit alert emails</t>
       </text>
     </comment>
-    <comment authorId="98" ref="A124" shapeId="0">
+    <comment authorId="99" ref="A125" shapeId="0">
       <text>
         <t>Email subject for alert emails. Overrides monit default alert subject</t>
       </text>
     </comment>
-    <comment authorId="99" ref="A125" shapeId="0">
+    <comment authorId="100" ref="A126" shapeId="0">
       <text>
         <t>Email message for alert emails. Overrides monit default alert message</t>
       </text>
     </comment>
-    <comment authorId="100" ref="A126" shapeId="0">
+    <comment authorId="101" ref="A127" shapeId="0">
       <text>
         <t>Destination email address for monit alerts</t>
       </text>
     </comment>
-    <comment authorId="101" ref="A127" shapeId="0">
+    <comment authorId="102" ref="A128" shapeId="0">
       <text>
         <t>Specific events for which alerts should be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="102" ref="A128" shapeId="0">
+    <comment authorId="103" ref="A129" shapeId="0">
       <text>
         <t>Events for which alerts should not be sent. One string can be used to hold multiple events, separated by commas</t>
       </text>
     </comment>
-    <comment authorId="103" ref="A129" shapeId="0">
+    <comment authorId="104" ref="A130" shapeId="0">
       <text>
         <t>Allowing VSD in-place upgrade during Installation [default: False]</t>
       </text>
@@ -3599,52 +3605,52 @@
     </comment>
     <comment authorId="4" ref="A10" shapeId="0">
       <text>
-        <t>Username to be used while logging into VSD command line. [default: root]</t>
+        <t>VSD Username will be used for logging into VSD command line. Used for both Install and Upgrade procedures. [default: root]</t>
       </text>
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
       <text>
-        <t>Password for the VSD user used to login to the command line [default: Alcateldc]</t>
+        <t>VSD password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: Alcateldc]</t>
       </text>
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>VSC username to login into command line. Should have admin privileges. [default: ]</t>
+        <t>VSC Username will be used for logging into command line (should have admin privileges). Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="7" ref="A13" shapeId="0">
       <text>
-        <t>VSC password to login into command line [default: ]</t>
+        <t>VSC password will be used for logging into the command line. Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="8" ref="A15" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) username to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) Username will be used for logging into command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) password to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) root password required for Stats Upgrade [default: ]</t>
+        <t>ElasticSearch (Stats) root password required for VSTAT Upgrade only [default: ]</t>
       </text>
     </comment>
     <comment authorId="11" ref="A19" shapeId="0">
       <text>
-        <t>Username for API authentication. Must have csproot privileges. Also known as csproot user [default: csproot]</t>
+        <t>This VSD Username(also known as csproot user). Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
-        <t>Password for API authentication. Must have csproot privileges. Also known as csproot password [default: csproot]</t>
+        <t>This VSD password(also known as csproot password) will be used for API authentication. Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
-        <t>Mysql password for vsd [default: ]</t>
+        <t>This VSD Mysql password. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
@@ -3709,7 +3715,7 @@
     </comment>
     <comment authorId="26" ref="A37" shapeId="0">
       <text>
-        <t>Username for OpenStack [default: ]</t>
+        <t>Username for OpenStack. [default: ]</t>
       </text>
     </comment>
     <comment authorId="27" ref="A38" shapeId="0">
@@ -3719,7 +3725,7 @@
     </comment>
     <comment authorId="28" ref="A40" shapeId="0">
       <text>
-        <t>vCenter Username [default: ]</t>
+        <t>vCenter Username. [default: ]</t>
       </text>
     </comment>
     <comment authorId="29" ref="A41" shapeId="0">
@@ -3729,12 +3735,12 @@
     </comment>
     <comment authorId="30" ref="A43" shapeId="0">
       <text>
-        <t>Username for Compute node to install VRS [default: root]</t>
+        <t>Username for Compute node to install VRS. [default: root]</t>
       </text>
     </comment>
     <comment authorId="31" ref="A44" shapeId="0">
       <text>
-        <t>Password for Compute node [default: ]</t>
+        <t>Password for Compute node, and will be used for installation of VRS [default: ]</t>
       </text>
     </comment>
     <comment authorId="32" ref="A45" shapeId="0">
@@ -3774,12 +3780,12 @@
     </comment>
     <comment authorId="39" ref="A54" shapeId="0">
       <text>
-        <t>NFS username to login into command line. Default user is root [default: root]</t>
+        <t>NFS username to login into command line, and will be used for NFS configuration. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="40" ref="A56" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager VM. Default user is root [default: root]</t>
+        <t>Username for NETCONF Manager VM, and will be used for the installation of NETCONF Manager. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="41" ref="A57" shapeId="0">
@@ -3789,27 +3795,27 @@
     </comment>
     <comment authorId="42" ref="A58" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager user [default: netconfmgr]</t>
+        <t>Username for NETCONF Manager user, and will be used for the installation of NETCONF Manager. [default: netconfmgr]</t>
       </text>
     </comment>
     <comment authorId="43" ref="A59" shapeId="0">
       <text>
-        <t>Password for NETCONF manager user [default: password]</t>
+        <t>Password for NETCONF manager user, and will be used for the installation of NETCONF Manager. [default: password]</t>
       </text>
     </comment>
     <comment authorId="44" ref="A61" shapeId="0">
       <text>
-        <t>Username for SMTP Server</t>
+        <t>Username for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="45" ref="A62" shapeId="0">
       <text>
-        <t>Password for SMTP Server</t>
+        <t>Password for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="46" ref="A64" shapeId="0">
       <text>
-        <t>Username for the monit mail server</t>
+        <t>Username for the monit mail server.</t>
       </text>
     </comment>
     <comment authorId="47" ref="A65" shapeId="0">
@@ -3819,22 +3825,22 @@
     </comment>
     <comment authorId="48" ref="A67" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="49" ref="A68" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="50" ref="A69" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="51" ref="A70" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
   </commentList>
@@ -4281,7 +4287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4348,12 +4354,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4440,12 +4446,12 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4566,12 +4572,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4748,12 +4754,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4905,12 +4911,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5855,12 +5861,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G66" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5927,12 +5933,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6098,12 +6104,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6229,12 +6235,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6663,12 +6669,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7037,17 +7043,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B129"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7626,7 +7632,7 @@
     <row r="70">
       <c r="A70" s="8" t="inlineStr">
         <is>
-          <t>SD-WAN Portal License File</t>
+          <t>VSTAT License File</t>
         </is>
       </c>
       <c r="B70" s="9" t="n"/>
@@ -7634,30 +7640,30 @@
     <row r="71">
       <c r="A71" s="8" t="inlineStr">
         <is>
+          <t>SD-WAN Portal License File</t>
+        </is>
+      </c>
+      <c r="B71" s="9" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="8" t="inlineStr">
+        <is>
           <t>NUH License File</t>
         </is>
       </c>
-      <c r="B71" s="9" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="B72" s="9" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>Yum and SSH Proxy</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="8" t="inlineStr">
-        <is>
-          <t>VSD yum update</t>
-        </is>
-      </c>
-      <c r="B73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="8" t="inlineStr">
         <is>
-          <t>VSTAT yum update</t>
+          <t>VSD yum update</t>
         </is>
       </c>
       <c r="B74" s="9" t="n"/>
@@ -7665,7 +7671,7 @@
     <row r="75">
       <c r="A75" s="8" t="inlineStr">
         <is>
-          <t>Proxy for Yum Updates</t>
+          <t>VSTAT yum update</t>
         </is>
       </c>
       <c r="B75" s="9" t="n"/>
@@ -7673,7 +7679,7 @@
     <row r="76">
       <c r="A76" s="8" t="inlineStr">
         <is>
-          <t>SSH proxy configuration username</t>
+          <t>Proxy for Yum Updates</t>
         </is>
       </c>
       <c r="B76" s="9" t="n"/>
@@ -7681,30 +7687,30 @@
     <row r="77">
       <c r="A77" s="8" t="inlineStr">
         <is>
+          <t>SSH proxy configuration username</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="8" t="inlineStr">
+        <is>
           <t>SSH proxy configuration host</t>
         </is>
       </c>
-      <c r="B77" s="9" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="B78" s="9" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>Disk Space</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="8" t="inlineStr">
-        <is>
-          <t>VSD Disk Size</t>
-        </is>
-      </c>
-      <c r="B79" s="9" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="8" t="inlineStr">
         <is>
-          <t>VSC Disk Size</t>
+          <t>VSD Disk Size</t>
         </is>
       </c>
       <c r="B80" s="9" t="n"/>
@@ -7712,7 +7718,7 @@
     <row r="81">
       <c r="A81" s="8" t="inlineStr">
         <is>
-          <t>VSTAT Disk Size</t>
+          <t>VSC Disk Size</t>
         </is>
       </c>
       <c r="B81" s="9" t="n"/>
@@ -7720,7 +7726,7 @@
     <row r="82">
       <c r="A82" s="8" t="inlineStr">
         <is>
-          <t>Portal Disk Size</t>
+          <t>VSTAT Disk Size</t>
         </is>
       </c>
       <c r="B82" s="9" t="n"/>
@@ -7728,7 +7734,7 @@
     <row r="83">
       <c r="A83" s="8" t="inlineStr">
         <is>
-          <t>VCIN Disk Size</t>
+          <t>Portal Disk Size</t>
         </is>
       </c>
       <c r="B83" s="9" t="n"/>
@@ -7736,30 +7742,30 @@
     <row r="84">
       <c r="A84" s="8" t="inlineStr">
         <is>
+          <t>VCIN Disk Size</t>
+        </is>
+      </c>
+      <c r="B84" s="9" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8" t="inlineStr">
+        <is>
           <t>NSGV Disk Size</t>
         </is>
       </c>
-      <c r="B84" s="9" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="B85" s="9" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>KVM and VCenter RAM</t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD RAM</t>
-        </is>
-      </c>
-      <c r="B86" s="9" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC RAM</t>
+          <t>KVM VSD RAM</t>
         </is>
       </c>
       <c r="B87" s="9" t="n"/>
@@ -7767,30 +7773,30 @@
     <row r="88">
       <c r="A88" s="8" t="inlineStr">
         <is>
+          <t>KVM VSC RAM</t>
+        </is>
+      </c>
+      <c r="B88" s="9" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8" t="inlineStr">
+        <is>
           <t>KVM VSTAT RAM</t>
         </is>
       </c>
-      <c r="B88" s="9" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="3" t="inlineStr">
+      <c r="B89" s="9" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>KVM RAM</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="8" t="inlineStr">
-        <is>
-          <t>KVM VCIN RAM</t>
-        </is>
-      </c>
-      <c r="B90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="8" t="inlineStr">
         <is>
-          <t>KVM NUH RAM</t>
+          <t>KVM VCIN RAM</t>
         </is>
       </c>
       <c r="B91" s="9" t="n"/>
@@ -7798,7 +7804,7 @@
     <row r="92">
       <c r="A92" s="8" t="inlineStr">
         <is>
-          <t>KVM Webfilter RAM</t>
+          <t>KVM NUH RAM</t>
         </is>
       </c>
       <c r="B92" s="9" t="n"/>
@@ -7806,30 +7812,30 @@
     <row r="93">
       <c r="A93" s="8" t="inlineStr">
         <is>
+          <t>KVM Webfilter RAM</t>
+        </is>
+      </c>
+      <c r="B93" s="9" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8" t="inlineStr">
+        <is>
           <t>KVM Portal RAM</t>
         </is>
       </c>
-      <c r="B93" s="9" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="3" t="inlineStr">
+      <c r="B94" s="9" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>KVM and VCenter CPU</t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="8" t="inlineStr">
-        <is>
-          <t>KVM VSD CPU cores</t>
-        </is>
-      </c>
-      <c r="B95" s="9" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="8" t="inlineStr">
         <is>
-          <t>KVM VSC CPU cores</t>
+          <t>KVM VSD CPU cores</t>
         </is>
       </c>
       <c r="B96" s="9" t="n"/>
@@ -7837,7 +7843,7 @@
     <row r="97">
       <c r="A97" s="8" t="inlineStr">
         <is>
-          <t>KVM VSTAT CPU cores</t>
+          <t>KVM VSC CPU cores</t>
         </is>
       </c>
       <c r="B97" s="9" t="n"/>
@@ -7845,30 +7851,30 @@
     <row r="98">
       <c r="A98" s="8" t="inlineStr">
         <is>
+          <t>KVM VSTAT CPU cores</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="inlineStr">
+        <is>
           <t>KVM VNSUTIL CPU cores</t>
         </is>
       </c>
-      <c r="B98" s="9" t="n"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="3" t="inlineStr">
+      <c r="B99" s="9" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>KVM CPU</t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="8" t="inlineStr">
-        <is>
-          <t>KVM NUH CPU cores</t>
-        </is>
-      </c>
-      <c r="B100" s="9" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="8" t="inlineStr">
         <is>
-          <t>KVM VCIN CPU cores</t>
+          <t>KVM NUH CPU cores</t>
         </is>
       </c>
       <c r="B101" s="9" t="n"/>
@@ -7876,7 +7882,7 @@
     <row r="102">
       <c r="A102" s="8" t="inlineStr">
         <is>
-          <t>KVM Portal VM CPU cores</t>
+          <t>KVM VCIN CPU cores</t>
         </is>
       </c>
       <c r="B102" s="9" t="n"/>
@@ -7884,30 +7890,30 @@
     <row r="103">
       <c r="A103" s="8" t="inlineStr">
         <is>
+          <t>KVM Portal VM CPU cores</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="inlineStr">
+        <is>
           <t>KVM Webfilter VM CPU cores</t>
         </is>
       </c>
-      <c r="B103" s="9" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="3" t="inlineStr">
+      <c r="B104" s="9" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="inlineStr">
         <is>
           <t>Authentication</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="8" t="inlineStr">
-        <is>
-          <t>VSD Architect URL</t>
-        </is>
-      </c>
-      <c r="B105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="8" t="inlineStr">
         <is>
-          <t>VSD Enterprise</t>
+          <t>VSD Architect URL</t>
         </is>
       </c>
       <c r="B106" s="9" t="n"/>
@@ -7915,7 +7921,7 @@
     <row r="107">
       <c r="A107" s="8" t="inlineStr">
         <is>
-          <t>VCIN URL</t>
+          <t>VSD Enterprise</t>
         </is>
       </c>
       <c r="B107" s="9" t="n"/>
@@ -7923,53 +7929,53 @@
     <row r="108">
       <c r="A108" s="8" t="inlineStr">
         <is>
+          <t>VCIN URL</t>
+        </is>
+      </c>
+      <c r="B108" s="9" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="8" t="inlineStr">
+        <is>
           <t>VCIN Enterprise</t>
         </is>
       </c>
-      <c r="B108" s="9" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="3" t="inlineStr">
+      <c r="B109" s="9" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
         <is>
           <t>Hooks</t>
         </is>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="8" t="inlineStr">
-        <is>
-          <t>hooks</t>
-        </is>
-      </c>
-      <c r="B110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="8" t="inlineStr">
         <is>
+          <t>hooks</t>
+        </is>
+      </c>
+      <c r="B111" s="9" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8" t="inlineStr">
+        <is>
           <t>skip actions</t>
         </is>
       </c>
-      <c r="B111" s="9" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="3" t="inlineStr">
+      <c r="B112" s="9" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="inlineStr">
         <is>
           <t>Component Health Report Email Options</t>
         </is>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="8" t="inlineStr">
-        <is>
-          <t>Health Report SMTP Server</t>
-        </is>
-      </c>
-      <c r="B113" s="9" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="8" t="inlineStr">
         <is>
-          <t>Health Report SMTP Server Port</t>
+          <t>Health Report SMTP Server</t>
         </is>
       </c>
       <c r="B114" s="9" t="n"/>
@@ -7977,7 +7983,7 @@
     <row r="115">
       <c r="A115" s="8" t="inlineStr">
         <is>
-          <t>Health Report Email From Address</t>
+          <t>Health Report SMTP Server Port</t>
         </is>
       </c>
       <c r="B115" s="9" t="n"/>
@@ -7985,30 +7991,30 @@
     <row r="116">
       <c r="A116" s="8" t="inlineStr">
         <is>
+          <t>Health Report Email From Address</t>
+        </is>
+      </c>
+      <c r="B116" s="9" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="8" t="inlineStr">
+        <is>
           <t>Health Report Destination Email Address(es)</t>
         </is>
       </c>
-      <c r="B116" s="9" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="3" t="inlineStr">
+      <c r="B117" s="9" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="inlineStr">
         <is>
           <t>VSD Monit Email Alerts Configuration</t>
         </is>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="8" t="inlineStr">
-        <is>
-          <t>VSD Monit Mail Server</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Port</t>
+          <t>VSD Monit Mail Server</t>
         </is>
       </c>
       <c r="B119" s="9" t="n"/>
@@ -8016,7 +8022,7 @@
     <row r="120">
       <c r="A120" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Mail Server Encryption Type</t>
+          <t>VSD Monit Mail Server Port</t>
         </is>
       </c>
       <c r="B120" s="9" t="n"/>
@@ -8024,7 +8030,7 @@
     <row r="121">
       <c r="A121" s="8" t="inlineStr">
         <is>
-          <t>Use VSD Monit Eventqueue</t>
+          <t>VSD Monit Mail Server Encryption Type</t>
         </is>
       </c>
       <c r="B121" s="9" t="n"/>
@@ -8032,7 +8038,7 @@
     <row r="122">
       <c r="A122" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit From Email Address</t>
+          <t>Use VSD Monit Eventqueue</t>
         </is>
       </c>
       <c r="B122" s="9" t="n"/>
@@ -8040,7 +8046,7 @@
     <row r="123">
       <c r="A123" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Reply-To Email Address</t>
+          <t>VSD Monit From Email Address</t>
         </is>
       </c>
       <c r="B123" s="9" t="n"/>
@@ -8048,7 +8054,7 @@
     <row r="124">
       <c r="A124" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Subject</t>
+          <t>VSD Monit Reply-To Email Address</t>
         </is>
       </c>
       <c r="B124" s="9" t="n"/>
@@ -8056,7 +8062,7 @@
     <row r="125">
       <c r="A125" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Email Alert Message</t>
+          <t>VSD Monit Email Alert Subject</t>
         </is>
       </c>
       <c r="B125" s="9" t="n"/>
@@ -8064,7 +8070,7 @@
     <row r="126">
       <c r="A126" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Destination Email Address</t>
+          <t>VSD Monit Email Alert Message</t>
         </is>
       </c>
       <c r="B126" s="9" t="n"/>
@@ -8072,7 +8078,7 @@
     <row r="127">
       <c r="A127" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Only Alert On</t>
+          <t>VSD Monit Destination Email Address</t>
         </is>
       </c>
       <c r="B127" s="9" t="n"/>
@@ -8080,7 +8086,7 @@
     <row r="128">
       <c r="A128" s="8" t="inlineStr">
         <is>
-          <t>VSD Monit Do Not Alert On</t>
+          <t>VSD Monit Only Alert On</t>
         </is>
       </c>
       <c r="B128" s="9" t="n"/>
@@ -8088,10 +8094,18 @@
     <row r="129">
       <c r="A129" s="8" t="inlineStr">
         <is>
+          <t>VSD Monit Do Not Alert On</t>
+        </is>
+      </c>
+      <c r="B129" s="9" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="8" t="inlineStr">
+        <is>
           <t xml:space="preserve">VSD In-place upgrade during Install </t>
         </is>
       </c>
-      <c r="B129" s="9" t="n"/>
+      <c r="B130" s="9" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -8107,16 +8121,16 @@
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A118:B118"/>
   </mergeCells>
   <dataValidations count="42">
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B24" type="list">
@@ -8156,49 +8170,49 @@
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B68" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B73" type="list">
-      <formula1>"true,false"</formula1>
-    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B74" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B79" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B75" type="list">
+      <formula1>"true,false"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B80" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B81" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B82" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B83" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B84" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B86" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B85" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B87" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B88" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B90" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B89" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B91" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B92" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B93" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B95" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B94" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B96" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B97" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B98" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B100" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B99" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B101" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B102" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B103" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B114" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B119" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B121" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B104" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B115" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B120" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B122" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B129" type="list">
+    <dataValidation allowBlank="1" error="Your entry is not true or false, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please select true or false" promptTitle="True or False Selection" showErrorMessage="1" showInputMessage="1" sqref="B130" type="list">
       <formula1>"true,false"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8484,12 +8498,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8556,12 +8570,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8840,12 +8854,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9138,12 +9152,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9832,12 +9846,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10056,12 +10070,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10380,12 +10394,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10675,12 +10689,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10801,12 +10815,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11742,12 +11756,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12524,12 +12538,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13505,12 +13519,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14166,7 +14180,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager VM password for running sudo commands</t>
+          <t>NETCONF Manager VM password for running sudo commands, and will be used for the installation of NETCONF Manager.</t>
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
@@ -14346,12 +14360,12 @@
     <mergeCell ref="A66:G66"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14704,12 +14718,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14809,6 +14823,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -6825,17 +6825,17 @@
       <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Management IP Address</t>
         </is>
       </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -6851,17 +6851,17 @@
       <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
@@ -6897,30 +6897,30 @@
       <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Target Server Type</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">
@@ -6936,69 +6936,69 @@
       <c r="G14" s="9" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Current DC</t>
         </is>
       </c>
-      <c r="B15" s="7" t="n"/>
-      <c r="C15" s="7" t="n"/>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="7" t="n"/>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
+      <c r="B15" s="5" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="5" t="n"/>
+      <c r="G15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
+      <c r="A16" s="4" t="inlineStr">
         <is>
           <t>Other DC Portal1 IP</t>
         </is>
       </c>
-      <c r="B16" s="7" t="n"/>
-      <c r="C16" s="7" t="n"/>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="7" t="n"/>
-      <c r="G16" s="7" t="n"/>
+      <c r="B16" s="5" t="n"/>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
+      <c r="G16" s="5" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
+      <c r="A17" s="4" t="inlineStr">
         <is>
           <t>Other DC Portal2 IP</t>
         </is>
       </c>
-      <c r="B17" s="7" t="n"/>
-      <c r="C17" s="7" t="n"/>
-      <c r="D17" s="7" t="n"/>
-      <c r="E17" s="7" t="n"/>
-      <c r="F17" s="7" t="n"/>
-      <c r="G17" s="7" t="n"/>
+      <c r="B17" s="5" t="n"/>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="5" t="n"/>
+      <c r="E17" s="5" t="n"/>
+      <c r="F17" s="5" t="n"/>
+      <c r="G17" s="5" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
         <is>
           <t>Other DC Portal3 IP</t>
         </is>
       </c>
-      <c r="B18" s="7" t="n"/>
-      <c r="C18" s="7" t="n"/>
-      <c r="D18" s="7" t="n"/>
-      <c r="E18" s="7" t="n"/>
-      <c r="F18" s="7" t="n"/>
-      <c r="G18" s="7" t="n"/>
+      <c r="B18" s="5" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="5" t="n"/>
+      <c r="E18" s="5" t="n"/>
+      <c r="F18" s="5" t="n"/>
+      <c r="G18" s="5" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
+      <c r="A19" s="4" t="inlineStr">
         <is>
           <t>Other DC GRCN IP</t>
         </is>
       </c>
-      <c r="B19" s="7" t="n"/>
-      <c r="C19" s="7" t="n"/>
-      <c r="D19" s="7" t="n"/>
-      <c r="E19" s="7" t="n"/>
-      <c r="F19" s="7" t="n"/>
-      <c r="G19" s="7" t="n"/>
+      <c r="B19" s="5" t="n"/>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="5" t="n"/>
+      <c r="E19" s="5" t="n"/>
+      <c r="F19" s="5" t="n"/>
+      <c r="G19" s="5" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8258,17 +8258,17 @@
       <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>Management IP Address</t>
         </is>
       </c>
-      <c r="B6" s="7" t="n"/>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
-      <c r="F6" s="7" t="n"/>
-      <c r="G6" s="7" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="5" t="n"/>
+      <c r="G6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="inlineStr">
@@ -8284,17 +8284,17 @@
       <c r="G7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Management Network Gateway</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="8" t="inlineStr">
@@ -8330,30 +8330,30 @@
       <c r="G11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>Target Server Type</t>
         </is>
       </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
+      <c r="A13" s="4" t="inlineStr">
         <is>
           <t>Target Server IP or FQDN</t>
         </is>
       </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="7" t="n"/>
-      <c r="G13" s="7" t="n"/>
+      <c r="B13" s="5" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="5" t="n"/>
+      <c r="E13" s="5" t="n"/>
+      <c r="F13" s="5" t="n"/>
+      <c r="G13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="inlineStr">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -990,7 +990,7 @@
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
-        <t>Management network prefix length for SD-WAN Portal GRCN</t>
+        <t>Management network prefix length for SD-WAN Portal GRCN [default: 24]</t>
       </text>
     </comment>
     <comment authorId="3" ref="A8" shapeId="0">
@@ -1725,7 +1725,7 @@
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
-        <t>Management network prefix length for SD-WAN Portal</t>
+        <t>Management network prefix length for SD-WAN Portal [default: 24]</t>
       </text>
     </comment>
     <comment authorId="3" ref="A8" shapeId="0">

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -1,39 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Common" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Portals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Deployment" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Upgrade" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsds" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vscs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vstats" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Credentials" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dnss" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Netconf managers" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nfss" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv access ports" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv bootstrap" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgv network port vlans" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nsgvs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh common" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -737,6 +737,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>name</author>
+    <author>dev</author>
     <author>external_ip</author>
     <author>external_ip_prefix</author>
     <author>external_gateway</author>
@@ -753,35 +754,40 @@
     </comment>
     <comment authorId="1" ref="A6" shapeId="0">
       <text>
+        <t>Dev for the external network</t>
+      </text>
+    </comment>
+    <comment authorId="2" ref="A7" shapeId="0">
+      <text>
         <t>IP address of the external network interface. This network is the one where NSGs reside</t>
       </text>
     </comment>
-    <comment authorId="2" ref="A7" shapeId="0">
+    <comment authorId="3" ref="A8" shapeId="0">
       <text>
         <t>IP Prefix length for the external network</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
+    <comment authorId="4" ref="A9" shapeId="0">
       <text>
         <t>IP address of the gateway on the external network</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A9" shapeId="0">
-      <text>
-        <t>Optional VLAN ID for external network. Must be unique per external interface. If unspecified, VLAN is unassigned and only one external interface can be used [default: 0]</t>
-      </text>
-    </comment>
     <comment authorId="5" ref="A10" shapeId="0">
       <text>
+        <t>Optional VLAN ID for external network. Must be unique per external interface. If unspecified, VLAN is unassigned and only one external interface can be used [default: 100]</t>
+      </text>
+    </comment>
+    <comment authorId="6" ref="A11" shapeId="0">
+      <text>
         <t>Optional External FQDN name. A valid cert of this FQDN will be generated from the VSD and transferred to NUH [default: ]</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A11" shapeId="0">
+    <comment authorId="7" ref="A12" shapeId="0">
       <text>
         <t>Network Bridge used for the external network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using access bridge [default: (access bridge)]</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A12" shapeId="0">
+    <comment authorId="8" ref="A13" shapeId="0">
       <text>
         <t>Name of the distrubuted vSwitch. Required to identify correct distributed portgroup, if there are multiple of the same name.</t>
       </text>
@@ -3605,52 +3611,52 @@
     </comment>
     <comment authorId="4" ref="A10" shapeId="0">
       <text>
-        <t>Username to be used while logging into VSD command line. [default: root]</t>
+        <t>VSD Username will be used for logging into VSD command line. Used for both Install and Upgrade procedures. [default: root]</t>
       </text>
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
       <text>
-        <t>Password for the VSD user used to login to the command line [default: Alcateldc]</t>
+        <t>VSD password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: Alcateldc]</t>
       </text>
     </comment>
     <comment authorId="6" ref="A12" shapeId="0">
       <text>
-        <t>VSC username to login into command line. Should have admin privileges. [default: ]</t>
+        <t>VSC Username will be used for logging into command line (should have admin privileges). Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="7" ref="A13" shapeId="0">
       <text>
-        <t>VSC password to login into command line [default: ]</t>
+        <t>VSC password will be used for logging into the command line. Used for upgrade procedure only [default: ]</t>
       </text>
     </comment>
     <comment authorId="8" ref="A15" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) username to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) Username will be used for logging into command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="9" ref="A16" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) password to login into command line [default: ]</t>
+        <t>ElasticSearch (Stats) password will be used for logging into the command line. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="10" ref="A17" shapeId="0">
       <text>
-        <t>ElasticSearch (Stats) root password required for Stats Upgrade [default: ]</t>
+        <t>ElasticSearch (Stats) root password required for VSTAT Upgrade only [default: ]</t>
       </text>
     </comment>
     <comment authorId="11" ref="A19" shapeId="0">
       <text>
-        <t>Username for API authentication. Must have csproot privileges. Also known as csproot user [default: csproot]</t>
+        <t>This VSD Username(also known as csproot user). Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="12" ref="A20" shapeId="0">
       <text>
-        <t>Password for API authentication. Must have csproot privileges. Also known as csproot password [default: csproot]</t>
+        <t>This VSD password(also known as csproot password) will be used for API authentication. Used for both Install and Upgrade procedures. Must have csproot privileges. [default: csproot]</t>
       </text>
     </comment>
     <comment authorId="13" ref="A21" shapeId="0">
       <text>
-        <t>Mysql password for vsd [default: ]</t>
+        <t>This VSD Mysql password. Used for both Install and Upgrade procedures. [default: ]</t>
       </text>
     </comment>
     <comment authorId="14" ref="A22" shapeId="0">
@@ -3715,7 +3721,7 @@
     </comment>
     <comment authorId="26" ref="A37" shapeId="0">
       <text>
-        <t>Username for OpenStack [default: ]</t>
+        <t>Username for OpenStack. [default: ]</t>
       </text>
     </comment>
     <comment authorId="27" ref="A38" shapeId="0">
@@ -3725,7 +3731,7 @@
     </comment>
     <comment authorId="28" ref="A40" shapeId="0">
       <text>
-        <t>vCenter Username [default: ]</t>
+        <t>vCenter Username. [default: ]</t>
       </text>
     </comment>
     <comment authorId="29" ref="A41" shapeId="0">
@@ -3735,12 +3741,12 @@
     </comment>
     <comment authorId="30" ref="A43" shapeId="0">
       <text>
-        <t>Username for Compute node to install VRS [default: root]</t>
+        <t>Username for Compute node to install VRS. [default: root]</t>
       </text>
     </comment>
     <comment authorId="31" ref="A44" shapeId="0">
       <text>
-        <t>Password for Compute node [default: ]</t>
+        <t>Password for Compute node, and will be used for installation of VRS [default: ]</t>
       </text>
     </comment>
     <comment authorId="32" ref="A45" shapeId="0">
@@ -3780,12 +3786,12 @@
     </comment>
     <comment authorId="39" ref="A54" shapeId="0">
       <text>
-        <t>NFS username to login into command line. Default user is root [default: root]</t>
+        <t>NFS username to login into command line, and will be used for NFS configuration. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="40" ref="A56" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager VM. Default user is root [default: root]</t>
+        <t>Username for NETCONF Manager VM, and will be used for the installation of NETCONF Manager. Default user is root. [default: root]</t>
       </text>
     </comment>
     <comment authorId="41" ref="A57" shapeId="0">
@@ -3795,27 +3801,27 @@
     </comment>
     <comment authorId="42" ref="A58" shapeId="0">
       <text>
-        <t>Username for NETCONF Manager user [default: netconfmgr]</t>
+        <t>Username for NETCONF Manager user, and will be used for the installation of NETCONF Manager. [default: netconfmgr]</t>
       </text>
     </comment>
     <comment authorId="43" ref="A59" shapeId="0">
       <text>
-        <t>Password for NETCONF manager user [default: password]</t>
+        <t>Password for NETCONF manager user, and will be used for the installation of NETCONF Manager. [default: password]</t>
       </text>
     </comment>
     <comment authorId="44" ref="A61" shapeId="0">
       <text>
-        <t>Username for SMTP Server</t>
+        <t>Username for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="45" ref="A62" shapeId="0">
       <text>
-        <t>Password for SMTP Server</t>
+        <t>Password for SMTP Server, and will be used for Email health report.</t>
       </text>
     </comment>
     <comment authorId="46" ref="A64" shapeId="0">
       <text>
-        <t>Username for the monit mail server</t>
+        <t>Username for the monit mail server.</t>
       </text>
     </comment>
     <comment authorId="47" ref="A65" shapeId="0">
@@ -3825,22 +3831,22 @@
     </comment>
     <comment authorId="48" ref="A67" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="49" ref="A68" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="50" ref="A69" shapeId="0">
       <text>
-        <t>Username for NUH notification application</t>
+        <t>Username for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
     <comment authorId="51" ref="A70" shapeId="0">
       <text>
-        <t>Password for NUH notification application</t>
+        <t>Password for NUH notification application, and will be used for installation of NUH.</t>
       </text>
     </comment>
   </commentList>
@@ -4287,7 +4293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4354,12 +4360,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4446,12 +4452,12 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4572,12 +4578,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4754,12 +4760,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4911,12 +4917,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5861,12 +5867,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G66" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -5933,17 +5939,17 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5995,87 +6001,87 @@
       <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>External Network dev</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
+      <c r="C6" s="7" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="7" t="n"/>
+      <c r="G6" s="7" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>External Network IP address</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="inlineStr">
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>External Network IP Prefix Length</t>
         </is>
       </c>
-      <c r="B7" s="7" t="n"/>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
-      <c r="F7" s="7" t="n"/>
-      <c r="G7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="7" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
+      <c r="G8" s="7" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>External Network Gateway IP</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="inlineStr">
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="5" t="n"/>
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="5" t="n"/>
+      <c r="G9" s="5" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="inlineStr">
         <is>
           <t>External Network VLAN ID</t>
         </is>
       </c>
-      <c r="B9" s="9" t="n"/>
-      <c r="C9" s="9" t="n"/>
-      <c r="D9" s="9" t="n"/>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="9" t="n"/>
-      <c r="G9" s="9" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="B10" s="9" t="n"/>
+      <c r="C10" s="9" t="n"/>
+      <c r="D10" s="9" t="n"/>
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="9" t="n"/>
+      <c r="G10" s="9" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
         <is>
           <t>External FQDN Name</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="5" t="n"/>
-      <c r="G10" s="5" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>External Network Bridge</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
-      <c r="G11" s="7" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="5" t="n"/>
+      <c r="E11" s="5" t="n"/>
+      <c r="F11" s="5" t="n"/>
+      <c r="G11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>Distributed vSwitch Name</t>
+          <t>External Network Bridge</t>
         </is>
       </c>
       <c r="B12" s="7" t="n"/>
@@ -6085,31 +6091,50 @@
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
     </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>Distributed vSwitch Name</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
+      <c r="C13" s="7" t="n"/>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
-  <dataValidations count="12">
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
+  <dataValidations count="18">
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6235,12 +6260,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -6669,12 +6694,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7043,12 +7068,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8207,12 +8232,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8498,12 +8523,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G17" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8570,12 +8595,12 @@
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -8854,12 +8879,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G20" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9152,12 +9177,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9846,12 +9871,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10070,12 +10095,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10394,12 +10419,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10689,12 +10714,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -10815,12 +10840,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11756,12 +11781,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G55" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12538,12 +12563,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -13519,12 +13544,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G58" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14180,7 +14205,7 @@
     <row r="57">
       <c r="A57" s="6" t="inlineStr">
         <is>
-          <t>NETCONF Manager VM password for running sudo commands</t>
+          <t>NETCONF Manager VM password for running sudo commands, and will be used for the installation of NETCONF Manager.</t>
         </is>
       </c>
       <c r="B57" s="7" t="n"/>
@@ -14360,12 +14385,12 @@
     <mergeCell ref="A66:G66"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14718,12 +14743,12 @@
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G12" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14823,6 +14848,6 @@
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -738,6 +738,7 @@
   <authors>
     <author>name</author>
     <author>dev</author>
+    <author>ext</author>
     <author>external_ip</author>
     <author>external_ip_prefix</author>
     <author>external_gateway</author>
@@ -759,35 +760,40 @@
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
+        <t>Number for the external network interface</t>
+      </text>
+    </comment>
+    <comment authorId="3" ref="A8" shapeId="0">
+      <text>
         <t>IP address of the external network interface. This network is the one where NSGs reside</t>
       </text>
     </comment>
-    <comment authorId="3" ref="A8" shapeId="0">
+    <comment authorId="4" ref="A9" shapeId="0">
       <text>
         <t>IP Prefix length for the external network</t>
       </text>
     </comment>
-    <comment authorId="4" ref="A9" shapeId="0">
+    <comment authorId="5" ref="A10" shapeId="0">
       <text>
         <t>IP address of the gateway on the external network</t>
       </text>
     </comment>
-    <comment authorId="5" ref="A10" shapeId="0">
+    <comment authorId="6" ref="A11" shapeId="0">
       <text>
         <t>Optional VLAN ID for external network. Must be unique per external interface. If unspecified, VLAN is unassigned and only one external interface can be used [default: 100]</t>
       </text>
     </comment>
-    <comment authorId="6" ref="A11" shapeId="0">
+    <comment authorId="7" ref="A12" shapeId="0">
       <text>
         <t>Optional External FQDN name. A valid cert of this FQDN will be generated from the VSD and transferred to NUH [default: ]</t>
       </text>
     </comment>
-    <comment authorId="7" ref="A12" shapeId="0">
+    <comment authorId="8" ref="A13" shapeId="0">
       <text>
         <t>Network Bridge used for the external network on the NUH. This will be a Linux network bridge when deploying on KVM. Defaults to using access bridge [default: (access bridge)]</t>
       </text>
     </comment>
-    <comment authorId="8" ref="A13" shapeId="0">
+    <comment authorId="9" ref="A14" shapeId="0">
       <text>
         <t>Name of the distrubuted vSwitch. Required to identify correct distributed portgroup, if there are multiple of the same name.</t>
       </text>
@@ -5949,7 +5955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6014,87 +6020,87 @@
       <c r="G6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>External Network interface number</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
+      <c r="C7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="7" t="n"/>
+      <c r="G7" s="7" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>External Network IP address</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="inlineStr">
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>External Network IP Prefix Length</t>
         </is>
       </c>
-      <c r="B8" s="7" t="n"/>
-      <c r="C8" s="7" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
-      <c r="G8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="B9" s="7" t="n"/>
+      <c r="C9" s="7" t="n"/>
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="n"/>
+      <c r="F9" s="7" t="n"/>
+      <c r="G9" s="7" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>External Network Gateway IP</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="5" t="n"/>
-      <c r="E9" s="5" t="n"/>
-      <c r="F9" s="5" t="n"/>
-      <c r="G9" s="5" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="inlineStr">
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="inlineStr">
         <is>
           <t>External Network VLAN ID</t>
         </is>
       </c>
-      <c r="B10" s="9" t="n"/>
-      <c r="C10" s="9" t="n"/>
-      <c r="D10" s="9" t="n"/>
-      <c r="E10" s="9" t="n"/>
-      <c r="F10" s="9" t="n"/>
-      <c r="G10" s="9" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="B11" s="9" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="D11" s="9" t="n"/>
+      <c r="E11" s="9" t="n"/>
+      <c r="F11" s="9" t="n"/>
+      <c r="G11" s="9" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
         <is>
           <t>External FQDN Name</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="5" t="n"/>
-      <c r="G11" s="5" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>External Network Bridge</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
-      <c r="C12" s="7" t="n"/>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
-      <c r="G12" s="7" t="n"/>
+      <c r="B12" s="5" t="n"/>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="5" t="n"/>
+      <c r="E12" s="5" t="n"/>
+      <c r="F12" s="5" t="n"/>
+      <c r="G12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>Distributed vSwitch Name</t>
+          <t>External Network Bridge</t>
         </is>
       </c>
       <c r="B13" s="7" t="n"/>
@@ -6104,29 +6110,48 @@
       <c r="F13" s="7" t="n"/>
       <c r="G13" s="7" t="n"/>
     </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Distributed vSwitch Name</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
+      <c r="C14" s="7" t="n"/>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="7" t="n"/>
+      <c r="G14" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
-  <dataValidations count="18">
+  <dataValidations count="24">
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B6" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C6" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D6" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E6" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F6" type="whole"/>
     <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G6" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G8" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B10" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C10" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D10" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E10" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F10" type="whole"/>
-    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G10" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G7" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G9" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="B11" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="C11" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="D11" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="E11" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="F11" type="whole"/>
+    <dataValidation allowBlank="1" error="Your entry is not an integer, change anyway?" errorStyle="warning" errorTitle="Invalid Entry" prompt="Please provide integer" promptTitle="Integer Selection" showErrorMessage="1" showInputMessage="1" sqref="G11" type="whole"/>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>

--- a/examples/excel/stats_out.xlsx
+++ b/examples/excel/stats_out.xlsx
@@ -25,15 +25,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh external interfaces" sheetId="16" state="visible" r:id="rId16"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuh vrrp" sheetId="17" state="visible" r:id="rId17"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nuhs" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portal grcn" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portals" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Proxys" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcv global" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stcvs" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vcins" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vnsutils" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vrss" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsrs" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Webfilters" sheetId="28" state="visible" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -970,39 +971,36 @@
     <author>target_server_type</author>
     <author>target_server</author>
     <author>cpuset</author>
-    <author>password_reset_email</author>
-    <author>new_account_email</author>
-    <author>forgot_password_email</author>
-    <author>smtp_fqdn</author>
-    <author>smtp_port</author>
-    <author>smtp_secure</author>
-    <author>sdwan_portal_secure</author>
-    <author>portal_version</author>
+    <author>current_dc</author>
+    <author>other_dc_portal1_ip</author>
+    <author>other_dc_portal2_ip</author>
+    <author>other_dc_portal3_ip</author>
+    <author>other_dc_grcn_ip</author>
   </authors>
   <commentList>
     <comment authorId="0" ref="A5" shapeId="0">
       <text>
-        <t>SD-WAN Portal VM hostname or IP address</t>
+        <t>SD-WAN Portal GRCN VM hostname or IP address</t>
       </text>
     </comment>
     <comment authorId="1" ref="A6" shapeId="0">
       <text>
-        <t>Management IP of SD-WAN Portal</t>
+        <t>Management IP of SD-WAN Portal GRCN</t>
       </text>
     </comment>
     <comment authorId="2" ref="A7" shapeId="0">
       <text>
-        <t>Management network prefix length for SD-WAN Portal</t>
+        <t>Management network prefix length for SD-WAN Portal GRCN [default: 24]</t>
       </text>
     </comment>
     <comment authorId="3" ref="A8" shapeId="0">
       <text>
-        <t>Management network gateway for SD-WAN Portal</t>
+        <t>Management network gateway for SD-WAN Portal GRCN</t>
       </text>
     </comment>
     <comment authorId="4" ref="A9" shapeId="0">
       <text>
-        <t>Network Bridge used for the management interface of Portal. It is a Linux network bridge. This field can be overridden by defining the management network bridge separately in the component configuration. Defaults to the global setting [default: (global Bridge interface)]</t>
+        <t>Network Bridge used for the management interface of Portal GRCN. It is a Linux network bridge. This field can be overridden by defining the management network bridge separately in the component configuration. Defaults to the global setting [default: (global Bridge interface)]</t>
       </text>
     </comment>
     <comment authorId="5" ref="A11" shapeId="0">
@@ -1025,44 +1023,29 @@
         <t>Cpuset information for cpu pinning on KVM. For example, Portal requires 6 cores and sample values will be of the form [ 0, 1, 2, 3, 4, 5 ] (List items separated by comma.)</t>
       </text>
     </comment>
-    <comment authorId="9" ref="A16" shapeId="0">
-      <text>
-        <t>Sender Email address used for password resets [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="10" ref="A17" shapeId="0">
-      <text>
-        <t>Sender Email address used for new accounts [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="11" ref="A18" shapeId="0">
-      <text>
-        <t>Sender Email address used for forgotten password [default: ]</t>
-      </text>
-    </comment>
-    <comment authorId="12" ref="A20" shapeId="0">
-      <text>
-        <t>SMTP server hostname user for account management</t>
-      </text>
-    </comment>
-    <comment authorId="13" ref="A21" shapeId="0">
-      <text>
-        <t>SMTP port for mail delivery [default: 25]</t>
-      </text>
-    </comment>
-    <comment authorId="14" ref="A22" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to use authentication for SMTP server [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="15" ref="A24" shapeId="0">
-      <text>
-        <t>Flag to indicate whether to use SSL [default: False]</t>
-      </text>
-    </comment>
-    <comment authorId="16" ref="A25" shapeId="0">
-      <text>
-        <t>Portal version to be pulled from Docker hub [default: ]</t>
+    <comment authorId="9" ref="A15" shapeId="0">
+      <text>
+        <t>Name of the current datacenter</t>
+      </text>
+    </comment>
+    <comment authorId="10" ref="A16" shapeId="0">
+      <text>
+        <t>Management IP of other datacenter's portal 1</t>
+      </text>
+    </comment>
+    <comment authorId="11" ref="A17" shapeId="0">
+      <text>
+        <t>Management IP of other datacenter's portal 2</t>
+      </text>
+    </comment>
+    <comment authorId="12" ref="A18" shapeId="0">
+      <text>
+        <t>Management IP of other datacenter's portal 3</t>
+      </text>
+    </comment>
+    <comment authorId="13" ref="A19" shapeId="0">
+      <text>
+        <t>Management IP of other datacenter's GRCN</t>
       </text>
     </comment>
   </commentList>
@@ -1712,6 +1695,117 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>hostname</author>
+    <author>mgmt_ip</author>
+    <author>mgmt_ip_prefix</author>
+    <author>mgmt_gateway</author>
+    <author>mgmt_bridge</author>
+    <author>vmname</author>
+    <author>target_server_type</author>
+    <author>target_server</author>
+    <author>cpuset</author>
+    <author>password_reset_email</author>
+    <author>new_account_email</author>
+    <author>forgot_password_email</author>
+    <author>smtp_fqdn</author>
+    <author>smtp_port</author>
+    <author>smtp_secure</author>
+    <author>sdwan_portal_secure</author>
+    <author>portal_version</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A5" shapeId="0">
+      <text>
+        <t>SD-WAN Portal VM hostname or IP address</t>
+      </text>
+    </comment>
+    <comment authorId